--- a/pali-class/vocab/vocab-class12.xlsx
+++ b/pali-class/vocab/vocab-class12.xlsx
@@ -247,48 +247,48 @@
     <t>abhikkanta 3</t>
   </si>
   <si>
+    <t>panta 2</t>
+  </si>
+  <si>
+    <t>yāvataka</t>
+  </si>
+  <si>
+    <t>nava 1</t>
+  </si>
+  <si>
+    <t>svākkhāta</t>
+  </si>
+  <si>
+    <t>sāra 1</t>
+  </si>
+  <si>
+    <t>sārambha 2</t>
+  </si>
+  <si>
+    <t>kaṇha 1</t>
+  </si>
+  <si>
+    <t>ariya 1</t>
+  </si>
+  <si>
+    <t>paṇīta 1</t>
+  </si>
+  <si>
+    <t>sukhuma</t>
+  </si>
+  <si>
+    <t>iṭṭha 1</t>
+  </si>
+  <si>
+    <t>kanta 1</t>
+  </si>
+  <si>
+    <t>suñña 2</t>
+  </si>
+  <si>
     <t>sugata 2</t>
   </si>
   <si>
-    <t>panta 2</t>
-  </si>
-  <si>
-    <t>yāvataka</t>
-  </si>
-  <si>
-    <t>nava 1</t>
-  </si>
-  <si>
-    <t>svākkhāta</t>
-  </si>
-  <si>
-    <t>sāra 1</t>
-  </si>
-  <si>
-    <t>sārambha 2</t>
-  </si>
-  <si>
-    <t>kaṇha 1</t>
-  </si>
-  <si>
-    <t>ariya 1</t>
-  </si>
-  <si>
-    <t>paṇīta 1</t>
-  </si>
-  <si>
-    <t>sukhuma</t>
-  </si>
-  <si>
-    <t>iṭṭha 1</t>
-  </si>
-  <si>
-    <t>kanta 1</t>
-  </si>
-  <si>
-    <t>suñña 2</t>
-  </si>
-  <si>
     <t>vutta 2</t>
   </si>
   <si>
@@ -352,7 +352,7 @@
     <t>abhūta 1</t>
   </si>
   <si>
-    <t>akata 1</t>
+    <t>akata 2</t>
   </si>
   <si>
     <t>vusita</t>
@@ -526,7 +526,7 @@
     <t>visesa 1</t>
   </si>
   <si>
-    <t>danta 2</t>
+    <t>danta 1</t>
   </si>
   <si>
     <t>loma</t>
@@ -1018,7 +1018,7 @@
     <t>bandhati 1</t>
   </si>
   <si>
-    <t>passa 2</t>
+    <t>passa 5</t>
   </si>
   <si>
     <t>tiṭṭhati 3</t>
@@ -1096,7 +1096,7 @@
     <t>pavaḍḍhati 1</t>
   </si>
   <si>
-    <t>nikkhipati 2</t>
+    <t>nikkhipati 3</t>
   </si>
   <si>
     <t>bhajati 1</t>
@@ -1270,7 +1270,7 @@
     <t>bhuñjati 1</t>
   </si>
   <si>
-    <t>jhāyati 1</t>
+    <t>jhāyati 2</t>
   </si>
   <si>
     <t>chindati</t>
@@ -1933,7 +1933,7 @@
     <t>dhītar</t>
   </si>
   <si>
-    <t>samādāya 1</t>
+    <t>samādāya 2</t>
   </si>
   <si>
     <t>āgamma 1</t>
@@ -1945,7 +1945,7 @@
     <t>paṇidhāya 1</t>
   </si>
   <si>
-    <t>ādāya 3</t>
+    <t>ādāya 4</t>
   </si>
   <si>
     <t>upasampajja</t>
@@ -2068,7 +2068,7 @@
     <t>sāvatthī</t>
   </si>
   <si>
-    <t>abhabba</t>
+    <t>abhabba 1</t>
   </si>
   <si>
     <t>atthāya 2</t>
@@ -2083,7 +2083,7 @@
     <t>sikkhāpada</t>
   </si>
   <si>
-    <t>bhaya 2</t>
+    <t>bhaya 3</t>
   </si>
   <si>
     <t>rūpa 3</t>
@@ -2218,7 +2218,7 @@
     <t>dāna</t>
   </si>
   <si>
-    <t>āsana</t>
+    <t>āsana 1</t>
   </si>
   <si>
     <t>mūla 1</t>
@@ -2353,7 +2353,7 @@
     <t>upasaṅkamituṃ</t>
   </si>
   <si>
-    <t>carituṃ 1</t>
+    <t>carituṃ 2</t>
   </si>
   <si>
     <t>āyu 2</t>
@@ -2374,6 +2374,9 @@
     <t>adj</t>
   </si>
   <si>
+    <t>masc</t>
+  </si>
+  <si>
     <t>pp</t>
   </si>
   <si>
@@ -2386,9 +2389,6 @@
     <t>card</t>
   </si>
   <si>
-    <t>masc</t>
-  </si>
-  <si>
     <t>pr</t>
   </si>
   <si>
@@ -2635,48 +2635,48 @@
     <t>progressing; moving on</t>
   </si>
   <si>
+    <t>secluded; isolated; solitary</t>
+  </si>
+  <si>
+    <t>as much as; as long as; as big as</t>
+  </si>
+  <si>
+    <t>new; fresh</t>
+  </si>
+  <si>
+    <t>well taught; well explained; well told</t>
+  </si>
+  <si>
+    <t>essential; substantial; valuable; sound</t>
+  </si>
+  <si>
+    <t>harmful; injurious (to living creatures); lit. with violence</t>
+  </si>
+  <si>
+    <t>dark; black; evil</t>
+  </si>
+  <si>
+    <t>noble; distinguished; of the Buddha</t>
+  </si>
+  <si>
+    <t>superior; sublime; refined; lit. brought forward</t>
+  </si>
+  <si>
+    <t>subtle; minute; refine; exquisite</t>
+  </si>
+  <si>
+    <t>pleasing; likeable; cherished; wished for</t>
+  </si>
+  <si>
+    <t>charming; pleasant; desirable</t>
+  </si>
+  <si>
+    <t>empty; uninhabited</t>
+  </si>
+  <si>
     <t>Fortunate One; epithet of the Buddha; lit. well gone</t>
   </si>
   <si>
-    <t>secluded; isolated; solitary</t>
-  </si>
-  <si>
-    <t>as much as; as long as; as big as</t>
-  </si>
-  <si>
-    <t>new; fresh</t>
-  </si>
-  <si>
-    <t>well taught; well explained; well told</t>
-  </si>
-  <si>
-    <t>essential; substantial; valuable; sound</t>
-  </si>
-  <si>
-    <t>harmful; injurious (to living creatures); lit. with violence</t>
-  </si>
-  <si>
-    <t>dark; black; evil</t>
-  </si>
-  <si>
-    <t>noble; distinguished; of the Buddha</t>
-  </si>
-  <si>
-    <t>superior; sublime; refined; lit. brought forward</t>
-  </si>
-  <si>
-    <t>subtle; minute; refine; exquisite</t>
-  </si>
-  <si>
-    <t>pleasing; likeable; cherished; wished for</t>
-  </si>
-  <si>
-    <t>charming; pleasant; desirable</t>
-  </si>
-  <si>
-    <t>empty; uninhabited</t>
-  </si>
-  <si>
     <t>said; told; spoken; mentioned</t>
   </si>
   <si>
@@ -2740,7 +2740,7 @@
     <t>not become; not happened</t>
   </si>
   <si>
-    <t>not done; not made; not created</t>
+    <t>not made; not created</t>
   </si>
   <si>
     <t>fulfilled; completed; finished; lit. lived</t>
@@ -2914,7 +2914,7 @@
     <t>distinction; attainment</t>
   </si>
   <si>
-    <t>tooth; tusk; fang</t>
+    <t>tooth</t>
   </si>
   <si>
     <t>the hair on the body; pelt</t>
@@ -2923,7 +2923,7 @@
     <t>hair of the head</t>
   </si>
   <si>
-    <t>discipline; training; lit. leading out (from unwholesome)</t>
+    <t>discipline; training; lit. leading out</t>
   </si>
   <si>
     <t>teaching; doctrine</t>
@@ -3046,7 +3046,7 @@
     <t>requisite; accessory</t>
   </si>
   <si>
-    <t>mode; way; course; means</t>
+    <t>range; mode; way</t>
   </si>
   <si>
     <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
@@ -3625,7 +3625,7 @@
     <t>farmer; ploughman</t>
   </si>
   <si>
-    <t>takes place; arises; appears</t>
+    <t>appears; arises; takes place</t>
   </si>
   <si>
     <t>is reborn in; re-arises; lit. goes towards</t>
@@ -4594,7 +4594,7 @@
     <t>alms; gift; giving; offering; charity</t>
   </si>
   <si>
-    <t>a seat</t>
+    <t>seat; chair; lit. sitting</t>
   </si>
   <si>
     <t>(of a tree) root; base; foot</t>
@@ -4762,6 +4762,9 @@
     <t>a-adj</t>
   </si>
   <si>
+    <t>a-masc</t>
+  </si>
+  <si>
     <t>a-pp</t>
   </si>
   <si>
@@ -4805,9 +4808,6 @@
   </si>
   <si>
     <t>ti-card</t>
-  </si>
-  <si>
-    <t>a-masc</t>
   </si>
   <si>
     <t>a-masc-pl</t>
@@ -6788,13 +6788,13 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C87" t="s">
         <v>886</v>
       </c>
       <c r="D87" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="E87" t="s">
         <v>1638</v>
@@ -6805,13 +6805,13 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C88" t="s">
         <v>887</v>
       </c>
       <c r="D88" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="E88" t="s">
         <v>1638</v>
@@ -6822,13 +6822,13 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C89" t="s">
         <v>888</v>
       </c>
       <c r="D89" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="E89" t="s">
         <v>1638</v>
@@ -6839,13 +6839,13 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C90" t="s">
         <v>889</v>
       </c>
       <c r="D90" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="E90" t="s">
         <v>1638</v>
@@ -6856,13 +6856,13 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C91" t="s">
         <v>890</v>
       </c>
       <c r="D91" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="E91" t="s">
         <v>1638</v>
@@ -6873,13 +6873,13 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C92" t="s">
         <v>891</v>
       </c>
       <c r="D92" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="E92" t="s">
         <v>1638</v>
@@ -6890,13 +6890,13 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C93" t="s">
         <v>892</v>
       </c>
       <c r="D93" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="E93" t="s">
         <v>1638</v>
@@ -6907,13 +6907,13 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C94" t="s">
         <v>893</v>
       </c>
       <c r="D94" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="E94" t="s">
         <v>1638</v>
@@ -6924,13 +6924,13 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C95" t="s">
         <v>894</v>
       </c>
       <c r="D95" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="E95" t="s">
         <v>1638</v>
@@ -6941,13 +6941,13 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C96" t="s">
         <v>895</v>
       </c>
       <c r="D96" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="E96" t="s">
         <v>1638</v>
@@ -6958,13 +6958,13 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C97" t="s">
         <v>896</v>
       </c>
       <c r="D97" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="E97" t="s">
         <v>1638</v>
@@ -6975,13 +6975,13 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C98" t="s">
         <v>897</v>
       </c>
       <c r="D98" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="E98" t="s">
         <v>1638</v>
@@ -6992,13 +6992,13 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C99" t="s">
         <v>898</v>
       </c>
       <c r="D99" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="E99" t="s">
         <v>1638</v>
@@ -7009,13 +7009,13 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C100" t="s">
         <v>899</v>
       </c>
       <c r="D100" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="E100" t="s">
         <v>1638</v>
@@ -7032,7 +7032,7 @@
         <v>900</v>
       </c>
       <c r="D101" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="E101" t="s">
         <v>1638</v>
@@ -7043,13 +7043,13 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C102" t="s">
         <v>901</v>
       </c>
       <c r="D102" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="E102" t="s">
         <v>1638</v>
@@ -7060,13 +7060,13 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C103" t="s">
         <v>902</v>
       </c>
       <c r="D103" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="E103" t="s">
         <v>1638</v>
@@ -7077,13 +7077,13 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C104" t="s">
         <v>903</v>
       </c>
       <c r="D104" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="E104" t="s">
         <v>1638</v>
@@ -7094,13 +7094,13 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C105" t="s">
         <v>904</v>
       </c>
       <c r="D105" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="E105" t="s">
         <v>1638</v>
@@ -7111,13 +7111,13 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C106" t="s">
         <v>905</v>
       </c>
       <c r="D106" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="E106" t="s">
         <v>1638</v>
@@ -7128,13 +7128,13 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C107" t="s">
         <v>906</v>
       </c>
       <c r="D107" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="E107" t="s">
         <v>1638</v>
@@ -7145,13 +7145,13 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C108" t="s">
         <v>907</v>
       </c>
       <c r="D108" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="E108" t="s">
         <v>1638</v>
@@ -7162,13 +7162,13 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C109" t="s">
         <v>908</v>
       </c>
       <c r="D109" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="E109" t="s">
         <v>1638</v>
@@ -7179,13 +7179,13 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C110" t="s">
         <v>909</v>
       </c>
       <c r="D110" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="E110" t="s">
         <v>1638</v>
@@ -7196,13 +7196,13 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C111" t="s">
         <v>910</v>
       </c>
       <c r="D111" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="E111" t="s">
         <v>1638</v>
@@ -7213,13 +7213,13 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C112" t="s">
         <v>911</v>
       </c>
       <c r="D112" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="E112" t="s">
         <v>1638</v>
@@ -7230,13 +7230,13 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C113" t="s">
         <v>912</v>
       </c>
       <c r="D113" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="E113" t="s">
         <v>1638</v>
@@ -7247,13 +7247,13 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C114" t="s">
         <v>913</v>
       </c>
       <c r="D114" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="E114" t="s">
         <v>1638</v>
@@ -7264,13 +7264,13 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C115" t="s">
         <v>914</v>
       </c>
       <c r="D115" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="E115" t="s">
         <v>1638</v>
@@ -7281,13 +7281,13 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C116" t="s">
         <v>915</v>
       </c>
       <c r="D116" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="E116" t="s">
         <v>1638</v>
@@ -7298,13 +7298,13 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C117" t="s">
         <v>916</v>
       </c>
       <c r="D117" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="E117" t="s">
         <v>1638</v>
@@ -7315,13 +7315,13 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C118" t="s">
         <v>917</v>
       </c>
       <c r="D118" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="E118" t="s">
         <v>1638</v>
@@ -7332,13 +7332,13 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C119" t="s">
         <v>918</v>
       </c>
       <c r="D119" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="E119" t="s">
         <v>1638</v>
@@ -7349,13 +7349,13 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C120" t="s">
         <v>919</v>
       </c>
       <c r="D120" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="E120" t="s">
         <v>1638</v>
@@ -7372,7 +7372,7 @@
         <v>920</v>
       </c>
       <c r="D121" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="E121" t="s">
         <v>1638</v>
@@ -7389,7 +7389,7 @@
         <v>921</v>
       </c>
       <c r="D122" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="E122" t="s">
         <v>1638</v>
@@ -7406,7 +7406,7 @@
         <v>922</v>
       </c>
       <c r="D123" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="E123" t="s">
         <v>1638</v>
@@ -7423,7 +7423,7 @@
         <v>923</v>
       </c>
       <c r="D124" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="E124" t="s">
         <v>1638</v>
@@ -7434,13 +7434,13 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C125" t="s">
         <v>924</v>
       </c>
       <c r="D125" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E125" t="s">
         <v>1638</v>
@@ -7451,13 +7451,13 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C126" t="s">
         <v>925</v>
       </c>
       <c r="D126" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E126" t="s">
         <v>1638</v>
@@ -7468,13 +7468,13 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C127" t="s">
         <v>926</v>
       </c>
       <c r="D127" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E127" t="s">
         <v>1638</v>
@@ -7491,7 +7491,7 @@
         <v>927</v>
       </c>
       <c r="D128" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E128" t="s">
         <v>1638</v>
@@ -7508,7 +7508,7 @@
         <v>928</v>
       </c>
       <c r="D129" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E129" t="s">
         <v>1638</v>
@@ -7525,7 +7525,7 @@
         <v>929</v>
       </c>
       <c r="D130" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E130" t="s">
         <v>1638</v>
@@ -7542,7 +7542,7 @@
         <v>930</v>
       </c>
       <c r="D131" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="E131" t="s">
         <v>1638</v>
@@ -7559,7 +7559,7 @@
         <v>931</v>
       </c>
       <c r="D132" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="E132" t="s">
         <v>1638</v>
@@ -7576,7 +7576,7 @@
         <v>932</v>
       </c>
       <c r="D133" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="E133" t="s">
         <v>1638</v>
@@ -7587,13 +7587,13 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C134" t="s">
         <v>933</v>
       </c>
       <c r="D134" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="E134" t="s">
         <v>1639</v>
@@ -7604,13 +7604,13 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C135" t="s">
         <v>934</v>
       </c>
       <c r="D135" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="E135" t="s">
         <v>1639</v>
@@ -7621,13 +7621,13 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C136" t="s">
         <v>935</v>
       </c>
       <c r="D136" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="E136" t="s">
         <v>1639</v>
@@ -7638,13 +7638,13 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C137" t="s">
         <v>936</v>
       </c>
       <c r="D137" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="E137" t="s">
         <v>1639</v>
@@ -7655,13 +7655,13 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C138" t="s">
         <v>937</v>
       </c>
       <c r="D138" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="E138" t="s">
         <v>1639</v>
@@ -7672,13 +7672,13 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C139" t="s">
         <v>938</v>
       </c>
       <c r="D139" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="E139" t="s">
         <v>1639</v>
@@ -7689,13 +7689,13 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C140" t="s">
         <v>939</v>
       </c>
       <c r="D140" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="E140" t="s">
         <v>1639</v>
@@ -7706,13 +7706,13 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C141" t="s">
         <v>940</v>
       </c>
       <c r="D141" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="E141" t="s">
         <v>1639</v>
@@ -7723,13 +7723,13 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C142" t="s">
         <v>941</v>
       </c>
       <c r="D142" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="E142" t="s">
         <v>1639</v>
@@ -7740,13 +7740,13 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C143" t="s">
         <v>942</v>
       </c>
       <c r="D143" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="E143" t="s">
         <v>1639</v>
@@ -7757,13 +7757,13 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C144" t="s">
         <v>943</v>
       </c>
       <c r="D144" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="E144" t="s">
         <v>1639</v>
@@ -7774,13 +7774,13 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C145" t="s">
         <v>944</v>
       </c>
       <c r="D145" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="E145" t="s">
         <v>1639</v>
@@ -7791,13 +7791,13 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C146" t="s">
         <v>945</v>
       </c>
       <c r="D146" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="E146" t="s">
         <v>1639</v>
@@ -7808,13 +7808,13 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C147" t="s">
         <v>946</v>
       </c>
       <c r="D147" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="E147" t="s">
         <v>1639</v>
@@ -7825,13 +7825,13 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C148" t="s">
         <v>947</v>
       </c>
       <c r="D148" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="E148" t="s">
         <v>1639</v>
@@ -7842,13 +7842,13 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C149" t="s">
         <v>948</v>
       </c>
       <c r="D149" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="E149" t="s">
         <v>1639</v>
@@ -7859,13 +7859,13 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C150" t="s">
         <v>949</v>
       </c>
       <c r="D150" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="E150" t="s">
         <v>1639</v>
@@ -7876,13 +7876,13 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C151" t="s">
         <v>950</v>
       </c>
       <c r="D151" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="E151" t="s">
         <v>1639</v>
@@ -7893,13 +7893,13 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C152" t="s">
         <v>951</v>
       </c>
       <c r="D152" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="E152" t="s">
         <v>1639</v>
@@ -7910,13 +7910,13 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C153" t="s">
         <v>952</v>
       </c>
       <c r="D153" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="E153" t="s">
         <v>1639</v>
@@ -7927,13 +7927,13 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C154" t="s">
         <v>953</v>
       </c>
       <c r="D154" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="E154" t="s">
         <v>1639</v>
@@ -7944,13 +7944,13 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C155" t="s">
         <v>954</v>
       </c>
       <c r="D155" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E155" t="s">
         <v>1640</v>
@@ -7961,13 +7961,13 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C156" t="s">
         <v>955</v>
       </c>
       <c r="D156" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E156" t="s">
         <v>1640</v>
@@ -7978,13 +7978,13 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C157" t="s">
         <v>956</v>
       </c>
       <c r="D157" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E157" t="s">
         <v>1640</v>
@@ -7995,13 +7995,13 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C158" t="s">
         <v>957</v>
       </c>
       <c r="D158" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E158" t="s">
         <v>1640</v>
@@ -8012,13 +8012,13 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C159" t="s">
         <v>958</v>
       </c>
       <c r="D159" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E159" t="s">
         <v>1640</v>
@@ -8029,13 +8029,13 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C160" t="s">
         <v>959</v>
       </c>
       <c r="D160" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E160" t="s">
         <v>1640</v>
@@ -8046,13 +8046,13 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C161" t="s">
         <v>960</v>
       </c>
       <c r="D161" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E161" t="s">
         <v>1640</v>
@@ -8063,13 +8063,13 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C162" t="s">
         <v>961</v>
       </c>
       <c r="D162" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E162" t="s">
         <v>1640</v>
@@ -8080,13 +8080,13 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C163" t="s">
         <v>962</v>
       </c>
       <c r="D163" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E163" t="s">
         <v>1640</v>
@@ -8097,13 +8097,13 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C164" t="s">
         <v>963</v>
       </c>
       <c r="D164" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E164" t="s">
         <v>1640</v>
@@ -8114,13 +8114,13 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C165" t="s">
         <v>964</v>
       </c>
       <c r="D165" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E165" t="s">
         <v>1640</v>
@@ -8131,13 +8131,13 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C166" t="s">
         <v>965</v>
       </c>
       <c r="D166" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E166" t="s">
         <v>1640</v>
@@ -8148,13 +8148,13 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C167" t="s">
         <v>966</v>
       </c>
       <c r="D167" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E167" t="s">
         <v>1640</v>
@@ -8165,13 +8165,13 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C168" t="s">
         <v>967</v>
       </c>
       <c r="D168" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E168" t="s">
         <v>1640</v>
@@ -8182,13 +8182,13 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C169" t="s">
         <v>968</v>
       </c>
       <c r="D169" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E169" t="s">
         <v>1640</v>
@@ -8199,13 +8199,13 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C170" t="s">
         <v>969</v>
       </c>
       <c r="D170" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E170" t="s">
         <v>1640</v>
@@ -8216,13 +8216,13 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C171" t="s">
         <v>970</v>
       </c>
       <c r="D171" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E171" t="s">
         <v>1640</v>
@@ -8233,13 +8233,13 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C172" t="s">
         <v>971</v>
       </c>
       <c r="D172" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E172" t="s">
         <v>1640</v>
@@ -8250,13 +8250,13 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C173" t="s">
         <v>972</v>
       </c>
       <c r="D173" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E173" t="s">
         <v>1640</v>
@@ -8267,13 +8267,13 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C174" t="s">
         <v>973</v>
       </c>
       <c r="D174" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E174" t="s">
         <v>1640</v>
@@ -8284,13 +8284,13 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C175" t="s">
         <v>974</v>
       </c>
       <c r="D175" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E175" t="s">
         <v>1640</v>
@@ -8301,13 +8301,13 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C176" t="s">
         <v>975</v>
       </c>
       <c r="D176" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E176" t="s">
         <v>1640</v>
@@ -8318,13 +8318,13 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C177" t="s">
         <v>976</v>
       </c>
       <c r="D177" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E177" t="s">
         <v>1640</v>
@@ -8335,13 +8335,13 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C178" t="s">
         <v>977</v>
       </c>
       <c r="D178" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E178" t="s">
         <v>1640</v>
@@ -8352,13 +8352,13 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C179" t="s">
         <v>978</v>
       </c>
       <c r="D179" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E179" t="s">
         <v>1640</v>
@@ -8369,13 +8369,13 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C180" t="s">
         <v>979</v>
       </c>
       <c r="D180" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E180" t="s">
         <v>1640</v>
@@ -8386,13 +8386,13 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C181" t="s">
         <v>980</v>
       </c>
       <c r="D181" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E181" t="s">
         <v>1640</v>
@@ -8403,13 +8403,13 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C182" t="s">
         <v>981</v>
       </c>
       <c r="D182" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E182" t="s">
         <v>1640</v>
@@ -8420,13 +8420,13 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C183" t="s">
         <v>982</v>
       </c>
       <c r="D183" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E183" t="s">
         <v>1640</v>
@@ -8437,13 +8437,13 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C184" t="s">
         <v>983</v>
       </c>
       <c r="D184" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E184" t="s">
         <v>1640</v>
@@ -8454,13 +8454,13 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C185" t="s">
         <v>984</v>
       </c>
       <c r="D185" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E185" t="s">
         <v>1640</v>
@@ -8471,13 +8471,13 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C186" t="s">
         <v>985</v>
       </c>
       <c r="D186" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E186" t="s">
         <v>1640</v>
@@ -8488,13 +8488,13 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C187" t="s">
         <v>986</v>
       </c>
       <c r="D187" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E187" t="s">
         <v>1640</v>
@@ -8505,13 +8505,13 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C188" t="s">
         <v>987</v>
       </c>
       <c r="D188" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E188" t="s">
         <v>1640</v>
@@ -8522,13 +8522,13 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C189" t="s">
         <v>988</v>
       </c>
       <c r="D189" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E189" t="s">
         <v>1640</v>
@@ -8539,13 +8539,13 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C190" t="s">
         <v>989</v>
       </c>
       <c r="D190" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E190" t="s">
         <v>1640</v>
@@ -8556,13 +8556,13 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C191" t="s">
         <v>990</v>
       </c>
       <c r="D191" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E191" t="s">
         <v>1640</v>
@@ -8573,13 +8573,13 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C192" t="s">
         <v>991</v>
       </c>
       <c r="D192" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E192" t="s">
         <v>1640</v>
@@ -8590,13 +8590,13 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C193" t="s">
         <v>992</v>
       </c>
       <c r="D193" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E193" t="s">
         <v>1640</v>
@@ -8607,13 +8607,13 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C194" t="s">
         <v>993</v>
       </c>
       <c r="D194" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E194" t="s">
         <v>1640</v>
@@ -8624,13 +8624,13 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C195" t="s">
         <v>994</v>
       </c>
       <c r="D195" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E195" t="s">
         <v>1640</v>
@@ -8641,13 +8641,13 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C196" t="s">
         <v>995</v>
       </c>
       <c r="D196" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E196" t="s">
         <v>1640</v>
@@ -8658,13 +8658,13 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C197" t="s">
         <v>996</v>
       </c>
       <c r="D197" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E197" t="s">
         <v>1640</v>
@@ -8675,13 +8675,13 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C198" t="s">
         <v>997</v>
       </c>
       <c r="D198" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E198" t="s">
         <v>1640</v>
@@ -8692,13 +8692,13 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C199" t="s">
         <v>998</v>
       </c>
       <c r="D199" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E199" t="s">
         <v>1640</v>
@@ -8709,13 +8709,13 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C200" t="s">
         <v>999</v>
       </c>
       <c r="D200" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E200" t="s">
         <v>1640</v>
@@ -8726,13 +8726,13 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C201" t="s">
         <v>1000</v>
       </c>
       <c r="D201" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E201" t="s">
         <v>1640</v>
@@ -8743,13 +8743,13 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C202" t="s">
         <v>1001</v>
       </c>
       <c r="D202" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E202" t="s">
         <v>1640</v>
@@ -8760,13 +8760,13 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C203" t="s">
         <v>1002</v>
       </c>
       <c r="D203" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E203" t="s">
         <v>1640</v>
@@ -8777,13 +8777,13 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C204" t="s">
         <v>1003</v>
       </c>
       <c r="D204" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E204" t="s">
         <v>1640</v>
@@ -8794,13 +8794,13 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C205" t="s">
         <v>1004</v>
       </c>
       <c r="D205" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E205" t="s">
         <v>1640</v>
@@ -8811,13 +8811,13 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C206" t="s">
         <v>1005</v>
       </c>
       <c r="D206" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E206" t="s">
         <v>1640</v>
@@ -8828,13 +8828,13 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C207" t="s">
         <v>1006</v>
       </c>
       <c r="D207" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E207" t="s">
         <v>1640</v>
@@ -8845,13 +8845,13 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C208" t="s">
         <v>1007</v>
       </c>
       <c r="D208" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E208" t="s">
         <v>1640</v>
@@ -8862,13 +8862,13 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C209" t="s">
         <v>1008</v>
       </c>
       <c r="D209" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E209" t="s">
         <v>1640</v>
@@ -8879,13 +8879,13 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C210" t="s">
         <v>1009</v>
       </c>
       <c r="D210" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E210" t="s">
         <v>1640</v>
@@ -8896,13 +8896,13 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C211" t="s">
         <v>1010</v>
       </c>
       <c r="D211" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E211" t="s">
         <v>1640</v>
@@ -8913,13 +8913,13 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C212" t="s">
         <v>1011</v>
       </c>
       <c r="D212" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E212" t="s">
         <v>1640</v>
@@ -8930,13 +8930,13 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C213" t="s">
         <v>1012</v>
       </c>
       <c r="D213" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E213" t="s">
         <v>1640</v>
@@ -8947,13 +8947,13 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C214" t="s">
         <v>1013</v>
       </c>
       <c r="D214" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E214" t="s">
         <v>1640</v>
@@ -8964,13 +8964,13 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C215" t="s">
         <v>1014</v>
       </c>
       <c r="D215" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E215" t="s">
         <v>1640</v>
@@ -8981,13 +8981,13 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C216" t="s">
         <v>1015</v>
       </c>
       <c r="D216" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E216" t="s">
         <v>1640</v>
@@ -8998,13 +8998,13 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C217" t="s">
         <v>1016</v>
       </c>
       <c r="D217" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E217" t="s">
         <v>1640</v>
@@ -9015,13 +9015,13 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C218" t="s">
         <v>1017</v>
       </c>
       <c r="D218" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E218" t="s">
         <v>1640</v>
@@ -9032,13 +9032,13 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C219" t="s">
         <v>1018</v>
       </c>
       <c r="D219" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E219" t="s">
         <v>1640</v>
@@ -9049,13 +9049,13 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C220" t="s">
         <v>1019</v>
       </c>
       <c r="D220" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E220" t="s">
         <v>1640</v>
@@ -9066,13 +9066,13 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C221" t="s">
         <v>1020</v>
       </c>
       <c r="D221" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E221" t="s">
         <v>1640</v>
@@ -9083,13 +9083,13 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C222" t="s">
         <v>1021</v>
       </c>
       <c r="D222" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E222" t="s">
         <v>1640</v>
@@ -9100,13 +9100,13 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C223" t="s">
         <v>1022</v>
       </c>
       <c r="D223" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E223" t="s">
         <v>1640</v>
@@ -9117,13 +9117,13 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C224" t="s">
         <v>1023</v>
       </c>
       <c r="D224" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E224" t="s">
         <v>1640</v>
@@ -9134,13 +9134,13 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C225" t="s">
         <v>1024</v>
       </c>
       <c r="D225" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E225" t="s">
         <v>1640</v>
@@ -9151,13 +9151,13 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C226" t="s">
         <v>1025</v>
       </c>
       <c r="D226" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E226" t="s">
         <v>1640</v>
@@ -9168,13 +9168,13 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C227" t="s">
         <v>1026</v>
       </c>
       <c r="D227" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E227" t="s">
         <v>1640</v>
@@ -9185,13 +9185,13 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C228" t="s">
         <v>1027</v>
       </c>
       <c r="D228" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E228" t="s">
         <v>1640</v>
@@ -9202,13 +9202,13 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C229" t="s">
         <v>1028</v>
       </c>
       <c r="D229" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E229" t="s">
         <v>1640</v>
@@ -9219,13 +9219,13 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C230" t="s">
         <v>1029</v>
       </c>
       <c r="D230" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E230" t="s">
         <v>1640</v>
@@ -9236,13 +9236,13 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C231" t="s">
         <v>1030</v>
       </c>
       <c r="D231" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E231" t="s">
         <v>1640</v>
@@ -9253,13 +9253,13 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C232" t="s">
         <v>1031</v>
       </c>
       <c r="D232" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E232" t="s">
         <v>1640</v>
@@ -9270,13 +9270,13 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C233" t="s">
         <v>1032</v>
       </c>
       <c r="D233" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E233" t="s">
         <v>1640</v>
@@ -9287,13 +9287,13 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C234" t="s">
         <v>1033</v>
       </c>
       <c r="D234" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E234" t="s">
         <v>1640</v>
@@ -9304,13 +9304,13 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C235" t="s">
         <v>1034</v>
       </c>
       <c r="D235" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E235" t="s">
         <v>1640</v>
@@ -9321,13 +9321,13 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C236" t="s">
         <v>1035</v>
       </c>
       <c r="D236" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E236" t="s">
         <v>1640</v>
@@ -9338,13 +9338,13 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C237" t="s">
         <v>1036</v>
       </c>
       <c r="D237" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E237" t="s">
         <v>1640</v>
@@ -9355,13 +9355,13 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C238" t="s">
         <v>1037</v>
       </c>
       <c r="D238" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E238" t="s">
         <v>1640</v>
@@ -9372,13 +9372,13 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C239" t="s">
         <v>1038</v>
       </c>
       <c r="D239" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E239" t="s">
         <v>1640</v>
@@ -9389,13 +9389,13 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C240" t="s">
         <v>1039</v>
       </c>
       <c r="D240" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E240" t="s">
         <v>1640</v>
@@ -9406,13 +9406,13 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C241" t="s">
         <v>1040</v>
       </c>
       <c r="D241" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E241" t="s">
         <v>1640</v>
@@ -9423,13 +9423,13 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C242" t="s">
         <v>1041</v>
       </c>
       <c r="D242" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E242" t="s">
         <v>1640</v>
@@ -9440,13 +9440,13 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C243" t="s">
         <v>1042</v>
       </c>
       <c r="D243" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E243" t="s">
         <v>1640</v>
@@ -9457,13 +9457,13 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C244" t="s">
         <v>1043</v>
       </c>
       <c r="D244" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E244" t="s">
         <v>1640</v>
@@ -9474,13 +9474,13 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C245" t="s">
         <v>1044</v>
       </c>
       <c r="D245" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E245" t="s">
         <v>1640</v>
@@ -9491,13 +9491,13 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C246" t="s">
         <v>1045</v>
       </c>
       <c r="D246" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E246" t="s">
         <v>1640</v>
@@ -9508,13 +9508,13 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C247" t="s">
         <v>1046</v>
       </c>
       <c r="D247" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E247" t="s">
         <v>1640</v>
@@ -9525,13 +9525,13 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C248" t="s">
         <v>1047</v>
       </c>
       <c r="D248" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E248" t="s">
         <v>1640</v>
@@ -9542,13 +9542,13 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C249" t="s">
         <v>1048</v>
       </c>
       <c r="D249" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E249" t="s">
         <v>1640</v>
@@ -9559,13 +9559,13 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C250" t="s">
         <v>1049</v>
       </c>
       <c r="D250" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E250" t="s">
         <v>1640</v>
@@ -9576,13 +9576,13 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C251" t="s">
         <v>1050</v>
       </c>
       <c r="D251" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E251" t="s">
         <v>1640</v>
@@ -9593,13 +9593,13 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C252" t="s">
         <v>1051</v>
       </c>
       <c r="D252" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E252" t="s">
         <v>1640</v>
@@ -9610,13 +9610,13 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C253" t="s">
         <v>1052</v>
       </c>
       <c r="D253" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E253" t="s">
         <v>1640</v>
@@ -9627,13 +9627,13 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C254" t="s">
         <v>1053</v>
       </c>
       <c r="D254" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E254" t="s">
         <v>1640</v>
@@ -9644,13 +9644,13 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C255" t="s">
         <v>1054</v>
       </c>
       <c r="D255" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E255" t="s">
         <v>1640</v>
@@ -9661,13 +9661,13 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C256" t="s">
         <v>1055</v>
       </c>
       <c r="D256" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E256" t="s">
         <v>1640</v>
@@ -9678,13 +9678,13 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C257" t="s">
         <v>1056</v>
       </c>
       <c r="D257" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E257" t="s">
         <v>1640</v>
@@ -9695,13 +9695,13 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C258" t="s">
         <v>1057</v>
       </c>
       <c r="D258" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E258" t="s">
         <v>1640</v>
@@ -9712,13 +9712,13 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C259" t="s">
         <v>1058</v>
       </c>
       <c r="D259" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E259" t="s">
         <v>1640</v>
@@ -9729,13 +9729,13 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C260" t="s">
         <v>1059</v>
       </c>
       <c r="D260" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E260" t="s">
         <v>1640</v>
@@ -9746,13 +9746,13 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C261" t="s">
         <v>1060</v>
       </c>
       <c r="D261" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E261" t="s">
         <v>1640</v>
@@ -9763,13 +9763,13 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C262" t="s">
         <v>1061</v>
       </c>
       <c r="D262" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E262" t="s">
         <v>1640</v>
@@ -9780,13 +9780,13 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C263" t="s">
         <v>1062</v>
       </c>
       <c r="D263" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E263" t="s">
         <v>1640</v>
@@ -9797,13 +9797,13 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C264" t="s">
         <v>1063</v>
       </c>
       <c r="D264" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E264" t="s">
         <v>1640</v>
@@ -9814,13 +9814,13 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C265" t="s">
         <v>1064</v>
       </c>
       <c r="D265" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E265" t="s">
         <v>1640</v>
@@ -9831,13 +9831,13 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C266" t="s">
         <v>1065</v>
       </c>
       <c r="D266" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E266" t="s">
         <v>1640</v>
@@ -9848,13 +9848,13 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C267" t="s">
         <v>1066</v>
       </c>
       <c r="D267" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E267" t="s">
         <v>1640</v>
@@ -9865,13 +9865,13 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C268" t="s">
         <v>1067</v>
       </c>
       <c r="D268" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E268" t="s">
         <v>1640</v>
@@ -9882,13 +9882,13 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C269" t="s">
         <v>1068</v>
       </c>
       <c r="D269" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E269" t="s">
         <v>1640</v>
@@ -9899,13 +9899,13 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C270" t="s">
         <v>1069</v>
       </c>
       <c r="D270" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E270" t="s">
         <v>1640</v>
@@ -9916,13 +9916,13 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C271" t="s">
         <v>1070</v>
       </c>
       <c r="D271" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E271" t="s">
         <v>1640</v>
@@ -9933,13 +9933,13 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C272" t="s">
         <v>1071</v>
       </c>
       <c r="D272" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E272" t="s">
         <v>1640</v>
@@ -9950,13 +9950,13 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C273" t="s">
         <v>1072</v>
       </c>
       <c r="D273" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E273" t="s">
         <v>1640</v>
@@ -9967,13 +9967,13 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C274" t="s">
         <v>1073</v>
       </c>
       <c r="D274" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E274" t="s">
         <v>1640</v>
@@ -9984,13 +9984,13 @@
         <v>278</v>
       </c>
       <c r="B275" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C275" t="s">
         <v>1074</v>
       </c>
       <c r="D275" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E275" t="s">
         <v>1640</v>
@@ -10001,13 +10001,13 @@
         <v>279</v>
       </c>
       <c r="B276" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C276" t="s">
         <v>1075</v>
       </c>
       <c r="D276" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E276" t="s">
         <v>1640</v>
@@ -10018,13 +10018,13 @@
         <v>280</v>
       </c>
       <c r="B277" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C277" t="s">
         <v>1076</v>
       </c>
       <c r="D277" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E277" t="s">
         <v>1640</v>
@@ -10035,13 +10035,13 @@
         <v>281</v>
       </c>
       <c r="B278" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C278" t="s">
         <v>1077</v>
       </c>
       <c r="D278" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E278" t="s">
         <v>1640</v>
@@ -10052,13 +10052,13 @@
         <v>282</v>
       </c>
       <c r="B279" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C279" t="s">
         <v>1078</v>
       </c>
       <c r="D279" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E279" t="s">
         <v>1640</v>
@@ -10069,13 +10069,13 @@
         <v>283</v>
       </c>
       <c r="B280" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C280" t="s">
         <v>1079</v>
       </c>
       <c r="D280" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E280" t="s">
         <v>1640</v>
@@ -10086,13 +10086,13 @@
         <v>284</v>
       </c>
       <c r="B281" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C281" t="s">
         <v>1080</v>
       </c>
       <c r="D281" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E281" t="s">
         <v>1640</v>
@@ -10103,13 +10103,13 @@
         <v>285</v>
       </c>
       <c r="B282" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C282" t="s">
         <v>1081</v>
       </c>
       <c r="D282" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E282" t="s">
         <v>1640</v>
@@ -10120,13 +10120,13 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C283" t="s">
         <v>1082</v>
       </c>
       <c r="D283" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E283" t="s">
         <v>1640</v>
@@ -10137,13 +10137,13 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C284" t="s">
         <v>1083</v>
       </c>
       <c r="D284" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E284" t="s">
         <v>1640</v>
@@ -10154,13 +10154,13 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C285" t="s">
         <v>1084</v>
       </c>
       <c r="D285" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E285" t="s">
         <v>1640</v>
@@ -10171,13 +10171,13 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C286" t="s">
         <v>1085</v>
       </c>
       <c r="D286" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E286" t="s">
         <v>1640</v>
@@ -10188,13 +10188,13 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C287" t="s">
         <v>1086</v>
       </c>
       <c r="D287" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E287" t="s">
         <v>1640</v>
@@ -10205,13 +10205,13 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C288" t="s">
         <v>1087</v>
       </c>
       <c r="D288" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E288" t="s">
         <v>1640</v>
@@ -10222,13 +10222,13 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C289" t="s">
         <v>1088</v>
       </c>
       <c r="D289" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E289" t="s">
         <v>1640</v>
@@ -10239,13 +10239,13 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C290" t="s">
         <v>1089</v>
       </c>
       <c r="D290" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E290" t="s">
         <v>1640</v>
@@ -10256,13 +10256,13 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C291" t="s">
         <v>1090</v>
       </c>
       <c r="D291" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E291" t="s">
         <v>1640</v>
@@ -10273,13 +10273,13 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C292" t="s">
         <v>1091</v>
       </c>
       <c r="D292" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E292" t="s">
         <v>1640</v>
@@ -10290,13 +10290,13 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C293" t="s">
         <v>1092</v>
       </c>
       <c r="D293" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E293" t="s">
         <v>1640</v>
@@ -10307,13 +10307,13 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C294" t="s">
         <v>1093</v>
       </c>
       <c r="D294" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E294" t="s">
         <v>1640</v>
@@ -10324,13 +10324,13 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C295" t="s">
         <v>1094</v>
       </c>
       <c r="D295" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E295" t="s">
         <v>1640</v>
@@ -10341,13 +10341,13 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C296" t="s">
         <v>1095</v>
       </c>
       <c r="D296" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E296" t="s">
         <v>1640</v>
@@ -10358,13 +10358,13 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C297" t="s">
         <v>1096</v>
       </c>
       <c r="D297" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E297" t="s">
         <v>1640</v>
@@ -10375,13 +10375,13 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C298" t="s">
         <v>1097</v>
       </c>
       <c r="D298" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E298" t="s">
         <v>1640</v>
@@ -10392,13 +10392,13 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C299" t="s">
         <v>1098</v>
       </c>
       <c r="D299" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E299" t="s">
         <v>1640</v>
@@ -10409,13 +10409,13 @@
         <v>303</v>
       </c>
       <c r="B300" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C300" t="s">
         <v>1099</v>
       </c>
       <c r="D300" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E300" t="s">
         <v>1640</v>
@@ -10426,13 +10426,13 @@
         <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C301" t="s">
         <v>1100</v>
       </c>
       <c r="D301" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E301" t="s">
         <v>1640</v>
@@ -10443,13 +10443,13 @@
         <v>305</v>
       </c>
       <c r="B302" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C302" t="s">
         <v>1101</v>
       </c>
       <c r="D302" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E302" t="s">
         <v>1640</v>
@@ -10460,13 +10460,13 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C303" t="s">
         <v>1102</v>
       </c>
       <c r="D303" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E303" t="s">
         <v>1640</v>
@@ -10477,13 +10477,13 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C304" t="s">
         <v>1103</v>
       </c>
       <c r="D304" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E304" t="s">
         <v>1640</v>
@@ -10494,13 +10494,13 @@
         <v>308</v>
       </c>
       <c r="B305" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C305" t="s">
         <v>1104</v>
       </c>
       <c r="D305" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E305" t="s">
         <v>1640</v>
@@ -10511,13 +10511,13 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C306" t="s">
         <v>1105</v>
       </c>
       <c r="D306" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E306" t="s">
         <v>1640</v>
@@ -10528,13 +10528,13 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C307" t="s">
         <v>1106</v>
       </c>
       <c r="D307" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E307" t="s">
         <v>1640</v>
@@ -10545,13 +10545,13 @@
         <v>311</v>
       </c>
       <c r="B308" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C308" t="s">
         <v>1107</v>
       </c>
       <c r="D308" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E308" t="s">
         <v>1640</v>
@@ -10562,13 +10562,13 @@
         <v>312</v>
       </c>
       <c r="B309" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C309" t="s">
         <v>1108</v>
       </c>
       <c r="D309" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E309" t="s">
         <v>1640</v>
@@ -10579,13 +10579,13 @@
         <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C310" t="s">
         <v>1109</v>
       </c>
       <c r="D310" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E310" t="s">
         <v>1640</v>
@@ -10596,13 +10596,13 @@
         <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C311" t="s">
         <v>1110</v>
       </c>
       <c r="D311" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E311" t="s">
         <v>1640</v>
@@ -10613,13 +10613,13 @@
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C312" t="s">
         <v>1111</v>
       </c>
       <c r="D312" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E312" t="s">
         <v>1640</v>
@@ -10630,13 +10630,13 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C313" t="s">
         <v>1112</v>
       </c>
       <c r="D313" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E313" t="s">
         <v>1640</v>
@@ -10647,13 +10647,13 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C314" t="s">
         <v>1113</v>
       </c>
       <c r="D314" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E314" t="s">
         <v>1640</v>
@@ -10664,13 +10664,13 @@
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C315" t="s">
         <v>1114</v>
       </c>
       <c r="D315" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E315" t="s">
         <v>1640</v>
@@ -10681,13 +10681,13 @@
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C316" t="s">
         <v>1115</v>
       </c>
       <c r="D316" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E316" t="s">
         <v>1640</v>
@@ -10698,7 +10698,7 @@
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C317" t="s">
         <v>1116</v>
@@ -10715,7 +10715,7 @@
         <v>321</v>
       </c>
       <c r="B318" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C318" t="s">
         <v>1117</v>
@@ -10732,13 +10732,13 @@
         <v>322</v>
       </c>
       <c r="B319" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C319" t="s">
         <v>1118</v>
       </c>
       <c r="D319" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E319" t="s">
         <v>1641</v>
@@ -10749,13 +10749,13 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C320" t="s">
         <v>1119</v>
       </c>
       <c r="D320" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E320" t="s">
         <v>1641</v>
@@ -10766,13 +10766,13 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C321" t="s">
         <v>1120</v>
       </c>
       <c r="D321" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E321" t="s">
         <v>1641</v>
@@ -12143,13 +12143,13 @@
         <v>405</v>
       </c>
       <c r="B402" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C402" t="s">
         <v>1201</v>
       </c>
       <c r="D402" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E402" t="s">
         <v>1642</v>
@@ -12160,13 +12160,13 @@
         <v>406</v>
       </c>
       <c r="B403" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C403" t="s">
         <v>1202</v>
       </c>
       <c r="D403" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E403" t="s">
         <v>1642</v>
@@ -12806,7 +12806,7 @@
         <v>444</v>
       </c>
       <c r="B441" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C441" t="s">
         <v>1240</v>
@@ -12823,7 +12823,7 @@
         <v>445</v>
       </c>
       <c r="B442" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C442" t="s">
         <v>1241</v>
@@ -12840,7 +12840,7 @@
         <v>446</v>
       </c>
       <c r="B443" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C443" t="s">
         <v>1242</v>
@@ -12857,7 +12857,7 @@
         <v>447</v>
       </c>
       <c r="B444" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C444" t="s">
         <v>1243</v>
@@ -12874,7 +12874,7 @@
         <v>448</v>
       </c>
       <c r="B445" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C445" t="s">
         <v>1244</v>
@@ -12891,7 +12891,7 @@
         <v>449</v>
       </c>
       <c r="B446" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C446" t="s">
         <v>1245</v>
@@ -12908,7 +12908,7 @@
         <v>450</v>
       </c>
       <c r="B447" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C447" t="s">
         <v>1246</v>
@@ -12925,7 +12925,7 @@
         <v>451</v>
       </c>
       <c r="B448" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C448" t="s">
         <v>1247</v>
@@ -12942,7 +12942,7 @@
         <v>452</v>
       </c>
       <c r="B449" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C449" t="s">
         <v>1248</v>
@@ -12959,7 +12959,7 @@
         <v>453</v>
       </c>
       <c r="B450" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C450" t="s">
         <v>1249</v>
@@ -12976,7 +12976,7 @@
         <v>454</v>
       </c>
       <c r="B451" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C451" t="s">
         <v>1250</v>
@@ -13163,13 +13163,13 @@
         <v>465</v>
       </c>
       <c r="B462" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C462" t="s">
         <v>1261</v>
       </c>
       <c r="D462" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E462" t="s">
         <v>1643</v>
@@ -13180,13 +13180,13 @@
         <v>466</v>
       </c>
       <c r="B463" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C463" t="s">
         <v>1262</v>
       </c>
       <c r="D463" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E463" t="s">
         <v>1643</v>
@@ -13197,13 +13197,13 @@
         <v>467</v>
       </c>
       <c r="B464" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C464" t="s">
         <v>1263</v>
       </c>
       <c r="D464" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E464" t="s">
         <v>1643</v>
@@ -13214,13 +13214,13 @@
         <v>468</v>
       </c>
       <c r="B465" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C465" t="s">
         <v>1264</v>
       </c>
       <c r="D465" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E465" t="s">
         <v>1643</v>
@@ -13231,13 +13231,13 @@
         <v>469</v>
       </c>
       <c r="B466" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C466" t="s">
         <v>1265</v>
       </c>
       <c r="D466" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E466" t="s">
         <v>1643</v>
@@ -13248,13 +13248,13 @@
         <v>470</v>
       </c>
       <c r="B467" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C467" t="s">
         <v>1266</v>
       </c>
       <c r="D467" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E467" t="s">
         <v>1643</v>
@@ -13265,13 +13265,13 @@
         <v>471</v>
       </c>
       <c r="B468" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C468" t="s">
         <v>1267</v>
       </c>
       <c r="D468" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E468" t="s">
         <v>1643</v>
@@ -13520,13 +13520,13 @@
         <v>486</v>
       </c>
       <c r="B483" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C483" t="s">
         <v>1281</v>
       </c>
       <c r="D483" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E483" t="s">
         <v>1643</v>
@@ -13537,13 +13537,13 @@
         <v>487</v>
       </c>
       <c r="B484" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C484" t="s">
         <v>1282</v>
       </c>
       <c r="D484" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E484" t="s">
         <v>1643</v>
@@ -13554,13 +13554,13 @@
         <v>488</v>
       </c>
       <c r="B485" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C485" t="s">
         <v>1283</v>
       </c>
       <c r="D485" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E485" t="s">
         <v>1643</v>
@@ -13571,13 +13571,13 @@
         <v>489</v>
       </c>
       <c r="B486" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C486" t="s">
         <v>1284</v>
       </c>
       <c r="D486" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E486" t="s">
         <v>1643</v>
@@ -13588,13 +13588,13 @@
         <v>490</v>
       </c>
       <c r="B487" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C487" t="s">
         <v>1285</v>
       </c>
       <c r="D487" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E487" t="s">
         <v>1643</v>
@@ -13605,13 +13605,13 @@
         <v>491</v>
       </c>
       <c r="B488" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C488" t="s">
         <v>1286</v>
       </c>
       <c r="D488" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E488" t="s">
         <v>1643</v>
@@ -14019,7 +14019,7 @@
         <v>1309</v>
       </c>
       <c r="D512" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="E512" t="s">
         <v>1643</v>
@@ -14036,7 +14036,7 @@
         <v>1310</v>
       </c>
       <c r="D513" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="E513" t="s">
         <v>1643</v>
@@ -14053,7 +14053,7 @@
         <v>1311</v>
       </c>
       <c r="D514" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="E514" t="s">
         <v>1643</v>
@@ -14070,7 +14070,7 @@
         <v>1312</v>
       </c>
       <c r="D515" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="E515" t="s">
         <v>1643</v>
@@ -14087,7 +14087,7 @@
         <v>1313</v>
       </c>
       <c r="D516" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="E516" t="s">
         <v>1643</v>
@@ -14104,7 +14104,7 @@
         <v>1314</v>
       </c>
       <c r="D517" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="E517" t="s">
         <v>1643</v>
@@ -14121,7 +14121,7 @@
         <v>1315</v>
       </c>
       <c r="D518" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="E518" t="s">
         <v>1643</v>
@@ -14138,7 +14138,7 @@
         <v>1316</v>
       </c>
       <c r="D519" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="E519" t="s">
         <v>1643</v>
@@ -14155,7 +14155,7 @@
         <v>1317</v>
       </c>
       <c r="D520" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="E520" t="s">
         <v>1643</v>
@@ -14172,7 +14172,7 @@
         <v>1318</v>
       </c>
       <c r="D521" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="E521" t="s">
         <v>1643</v>
@@ -14183,7 +14183,7 @@
         <v>525</v>
       </c>
       <c r="B522" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C522" t="s">
         <v>1319</v>
@@ -14200,7 +14200,7 @@
         <v>526</v>
       </c>
       <c r="B523" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C523" t="s">
         <v>1320</v>
@@ -14217,7 +14217,7 @@
         <v>527</v>
       </c>
       <c r="B524" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C524" t="s">
         <v>1321</v>
@@ -14234,7 +14234,7 @@
         <v>528</v>
       </c>
       <c r="B525" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C525" t="s">
         <v>1322</v>
@@ -14251,7 +14251,7 @@
         <v>529</v>
       </c>
       <c r="B526" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C526" t="s">
         <v>1323</v>
@@ -14268,7 +14268,7 @@
         <v>530</v>
       </c>
       <c r="B527" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C527" t="s">
         <v>1324</v>
@@ -14285,13 +14285,13 @@
         <v>531</v>
       </c>
       <c r="B528" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C528" t="s">
         <v>1325</v>
       </c>
       <c r="D528" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E528" t="s">
         <v>1644</v>
@@ -14387,7 +14387,7 @@
         <v>537</v>
       </c>
       <c r="B534" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C534" t="s">
         <v>1331</v>
@@ -14404,7 +14404,7 @@
         <v>538</v>
       </c>
       <c r="B535" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C535" t="s">
         <v>1332</v>
@@ -14421,7 +14421,7 @@
         <v>539</v>
       </c>
       <c r="B536" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C536" t="s">
         <v>1333</v>
@@ -14438,7 +14438,7 @@
         <v>540</v>
       </c>
       <c r="B537" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C537" t="s">
         <v>1334</v>
@@ -14455,7 +14455,7 @@
         <v>541</v>
       </c>
       <c r="B538" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C538" t="s">
         <v>1335</v>
@@ -14472,7 +14472,7 @@
         <v>542</v>
       </c>
       <c r="B539" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C539" t="s">
         <v>1336</v>
@@ -14489,7 +14489,7 @@
         <v>543</v>
       </c>
       <c r="B540" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C540" t="s">
         <v>1337</v>
@@ -14506,7 +14506,7 @@
         <v>544</v>
       </c>
       <c r="B541" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C541" t="s">
         <v>1338</v>
@@ -14523,7 +14523,7 @@
         <v>545</v>
       </c>
       <c r="B542" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C542" t="s">
         <v>1339</v>
@@ -14540,7 +14540,7 @@
         <v>546</v>
       </c>
       <c r="B543" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C543" t="s">
         <v>1340</v>
@@ -14557,7 +14557,7 @@
         <v>547</v>
       </c>
       <c r="B544" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C544" t="s">
         <v>1341</v>
@@ -14591,13 +14591,13 @@
         <v>549</v>
       </c>
       <c r="B546" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C546" t="s">
         <v>1343</v>
       </c>
       <c r="D546" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E546" t="s">
         <v>1644</v>
@@ -14608,13 +14608,13 @@
         <v>550</v>
       </c>
       <c r="B547" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C547" t="s">
         <v>1344</v>
       </c>
       <c r="D547" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E547" t="s">
         <v>1644</v>
@@ -14625,13 +14625,13 @@
         <v>551</v>
       </c>
       <c r="B548" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C548" t="s">
         <v>1345</v>
       </c>
       <c r="D548" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E548" t="s">
         <v>1644</v>
@@ -14642,13 +14642,13 @@
         <v>552</v>
       </c>
       <c r="B549" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C549" t="s">
         <v>1346</v>
       </c>
       <c r="D549" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E549" t="s">
         <v>1644</v>
@@ -14659,13 +14659,13 @@
         <v>553</v>
       </c>
       <c r="B550" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C550" t="s">
         <v>1347</v>
       </c>
       <c r="D550" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E550" t="s">
         <v>1644</v>
@@ -14676,13 +14676,13 @@
         <v>554</v>
       </c>
       <c r="B551" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C551" t="s">
         <v>1348</v>
       </c>
       <c r="D551" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E551" t="s">
         <v>1644</v>
@@ -14693,13 +14693,13 @@
         <v>555</v>
       </c>
       <c r="B552" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C552" t="s">
         <v>1349</v>
       </c>
       <c r="D552" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E552" t="s">
         <v>1644</v>
@@ -14710,13 +14710,13 @@
         <v>556</v>
       </c>
       <c r="B553" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C553" t="s">
         <v>1350</v>
       </c>
       <c r="D553" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E553" t="s">
         <v>1644</v>
@@ -14727,13 +14727,13 @@
         <v>557</v>
       </c>
       <c r="B554" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C554" t="s">
         <v>1351</v>
       </c>
       <c r="D554" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E554" t="s">
         <v>1644</v>
@@ -14744,13 +14744,13 @@
         <v>558</v>
       </c>
       <c r="B555" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C555" t="s">
         <v>1352</v>
       </c>
       <c r="D555" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E555" t="s">
         <v>1644</v>
@@ -14761,13 +14761,13 @@
         <v>559</v>
       </c>
       <c r="B556" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C556" t="s">
         <v>1353</v>
       </c>
       <c r="D556" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E556" t="s">
         <v>1644</v>
@@ -14778,7 +14778,7 @@
         <v>560</v>
       </c>
       <c r="B557" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C557" t="s">
         <v>1354</v>
@@ -14795,7 +14795,7 @@
         <v>561</v>
       </c>
       <c r="B558" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C558" t="s">
         <v>1355</v>
@@ -14812,7 +14812,7 @@
         <v>562</v>
       </c>
       <c r="B559" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C559" t="s">
         <v>1356</v>
@@ -14829,7 +14829,7 @@
         <v>563</v>
       </c>
       <c r="B560" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C560" t="s">
         <v>1357</v>
@@ -14852,7 +14852,7 @@
         <v>1358</v>
       </c>
       <c r="D561" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="E561" t="s">
         <v>1644</v>
@@ -14869,7 +14869,7 @@
         <v>1359</v>
       </c>
       <c r="D562" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="E562" t="s">
         <v>1644</v>
@@ -14886,7 +14886,7 @@
         <v>1360</v>
       </c>
       <c r="D563" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="E563" t="s">
         <v>1644</v>
@@ -14903,7 +14903,7 @@
         <v>1361</v>
       </c>
       <c r="D564" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="E564" t="s">
         <v>1644</v>
@@ -14914,7 +14914,7 @@
         <v>568</v>
       </c>
       <c r="B565" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C565" t="s">
         <v>1362</v>
@@ -14931,7 +14931,7 @@
         <v>569</v>
       </c>
       <c r="B566" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C566" t="s">
         <v>1363</v>
@@ -14948,13 +14948,13 @@
         <v>570</v>
       </c>
       <c r="B567" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C567" t="s">
         <v>1364</v>
       </c>
       <c r="D567" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E567" t="s">
         <v>1645</v>
@@ -14965,13 +14965,13 @@
         <v>571</v>
       </c>
       <c r="B568" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C568" t="s">
         <v>1365</v>
       </c>
       <c r="D568" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E568" t="s">
         <v>1645</v>
@@ -15781,13 +15781,13 @@
         <v>619</v>
       </c>
       <c r="B616" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C616" t="s">
         <v>1412</v>
       </c>
       <c r="D616" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E616" t="s">
         <v>1646</v>
@@ -15798,13 +15798,13 @@
         <v>620</v>
       </c>
       <c r="B617" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C617" t="s">
         <v>1413</v>
       </c>
       <c r="D617" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E617" t="s">
         <v>1646</v>
@@ -16512,13 +16512,13 @@
         <v>662</v>
       </c>
       <c r="B659" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C659" t="s">
         <v>1455</v>
       </c>
       <c r="D659" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E659" t="s">
         <v>1646</v>
@@ -16529,13 +16529,13 @@
         <v>663</v>
       </c>
       <c r="B660" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C660" t="s">
         <v>1456</v>
       </c>
       <c r="D660" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E660" t="s">
         <v>1646</v>
@@ -16546,13 +16546,13 @@
         <v>664</v>
       </c>
       <c r="B661" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C661" t="s">
         <v>1457</v>
       </c>
       <c r="D661" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E661" t="s">
         <v>1646</v>
@@ -16563,13 +16563,13 @@
         <v>665</v>
       </c>
       <c r="B662" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C662" t="s">
         <v>1458</v>
       </c>
       <c r="D662" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E662" t="s">
         <v>1646</v>
@@ -16580,13 +16580,13 @@
         <v>666</v>
       </c>
       <c r="B663" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C663" t="s">
         <v>1459</v>
       </c>
       <c r="D663" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E663" t="s">
         <v>1646</v>
@@ -16597,13 +16597,13 @@
         <v>667</v>
       </c>
       <c r="B664" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C664" t="s">
         <v>1460</v>
       </c>
       <c r="D664" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E664" t="s">
         <v>1646</v>
@@ -16614,13 +16614,13 @@
         <v>668</v>
       </c>
       <c r="B665" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C665" t="s">
         <v>1461</v>
       </c>
       <c r="D665" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E665" t="s">
         <v>1646</v>
@@ -16631,13 +16631,13 @@
         <v>669</v>
       </c>
       <c r="B666" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C666" t="s">
         <v>1462</v>
       </c>
       <c r="D666" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E666" t="s">
         <v>1646</v>
@@ -16648,13 +16648,13 @@
         <v>670</v>
       </c>
       <c r="B667" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C667" t="s">
         <v>1463</v>
       </c>
       <c r="D667" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E667" t="s">
         <v>1646</v>
@@ -16665,13 +16665,13 @@
         <v>671</v>
       </c>
       <c r="B668" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C668" t="s">
         <v>1464</v>
       </c>
       <c r="D668" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E668" t="s">
         <v>1646</v>
@@ -16682,13 +16682,13 @@
         <v>672</v>
       </c>
       <c r="B669" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C669" t="s">
         <v>1462</v>
       </c>
       <c r="D669" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E669" t="s">
         <v>1646</v>
@@ -16699,13 +16699,13 @@
         <v>673</v>
       </c>
       <c r="B670" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C670" t="s">
         <v>1465</v>
       </c>
       <c r="D670" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E670" t="s">
         <v>1646</v>
@@ -16903,13 +16903,13 @@
         <v>685</v>
       </c>
       <c r="B682" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C682" t="s">
         <v>1477</v>
       </c>
       <c r="D682" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E682" t="s">
         <v>1647</v>
@@ -16920,13 +16920,13 @@
         <v>686</v>
       </c>
       <c r="B683" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C683" t="s">
         <v>1478</v>
       </c>
       <c r="D683" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="E683" t="s">
         <v>1647</v>
@@ -18229,13 +18229,13 @@
         <v>763</v>
       </c>
       <c r="B760" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C760" t="s">
         <v>1555</v>
       </c>
       <c r="D760" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E760" t="s">
         <v>1647</v>
@@ -18246,13 +18246,13 @@
         <v>764</v>
       </c>
       <c r="B761" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C761" t="s">
         <v>1556</v>
       </c>
       <c r="D761" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E761" t="s">
         <v>1647</v>
@@ -18263,13 +18263,13 @@
         <v>765</v>
       </c>
       <c r="B762" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C762" t="s">
         <v>1557</v>
       </c>
       <c r="D762" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E762" t="s">
         <v>1647</v>
@@ -18280,13 +18280,13 @@
         <v>766</v>
       </c>
       <c r="B763" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C763" t="s">
         <v>1558</v>
       </c>
       <c r="D763" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E763" t="s">
         <v>1647</v>
@@ -18297,13 +18297,13 @@
         <v>767</v>
       </c>
       <c r="B764" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C764" t="s">
         <v>1559</v>
       </c>
       <c r="D764" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E764" t="s">
         <v>1647</v>
@@ -18314,13 +18314,13 @@
         <v>768</v>
       </c>
       <c r="B765" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C765" t="s">
         <v>1560</v>
       </c>
       <c r="D765" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E765" t="s">
         <v>1647</v>
@@ -18331,13 +18331,13 @@
         <v>769</v>
       </c>
       <c r="B766" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C766" t="s">
         <v>1561</v>
       </c>
       <c r="D766" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E766" t="s">
         <v>1647</v>
@@ -18348,13 +18348,13 @@
         <v>770</v>
       </c>
       <c r="B767" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C767" t="s">
         <v>1562</v>
       </c>
       <c r="D767" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E767" t="s">
         <v>1647</v>
@@ -18365,13 +18365,13 @@
         <v>771</v>
       </c>
       <c r="B768" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C768" t="s">
         <v>1563</v>
       </c>
       <c r="D768" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E768" t="s">
         <v>1647</v>
@@ -18382,13 +18382,13 @@
         <v>772</v>
       </c>
       <c r="B769" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C769" t="s">
         <v>1564</v>
       </c>
       <c r="D769" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E769" t="s">
         <v>1647</v>
@@ -18399,13 +18399,13 @@
         <v>773</v>
       </c>
       <c r="B770" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C770" t="s">
         <v>1565</v>
       </c>
       <c r="D770" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E770" t="s">
         <v>1647</v>
@@ -18416,13 +18416,13 @@
         <v>774</v>
       </c>
       <c r="B771" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C771" t="s">
         <v>1566</v>
       </c>
       <c r="D771" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E771" t="s">
         <v>1647</v>

--- a/pali-class/vocab/vocab-class12.xlsx
+++ b/pali-class/vocab/vocab-class12.xlsx
@@ -46,24 +46,24 @@
     <t>amu</t>
   </si>
   <si>
+    <t>anāpucchanta</t>
+  </si>
+  <si>
+    <t>passanta</t>
+  </si>
+  <si>
+    <t>jānanta</t>
+  </si>
+  <si>
+    <t>samanupassanta</t>
+  </si>
+  <si>
+    <t>tiṭṭhanta 1</t>
+  </si>
+  <si>
     <t>anussaranta</t>
   </si>
   <si>
-    <t>anāpucchanta</t>
-  </si>
-  <si>
-    <t>passanta</t>
-  </si>
-  <si>
-    <t>jānanta</t>
-  </si>
-  <si>
-    <t>samanupassanta</t>
-  </si>
-  <si>
-    <t>tiṭṭhanta 1</t>
-  </si>
-  <si>
     <t>gacchanta</t>
   </si>
   <si>
@@ -97,123 +97,129 @@
     <t>ākaṅkhamāna</t>
   </si>
   <si>
+    <t>methuna 1</t>
+  </si>
+  <si>
+    <t>pamatta 1</t>
+  </si>
+  <si>
+    <t>kāsāya 1</t>
+  </si>
+  <si>
+    <t>oḷārika 1</t>
+  </si>
+  <si>
+    <t>kusala 1</t>
+  </si>
+  <si>
+    <t>aroga</t>
+  </si>
+  <si>
+    <t>samannāgata</t>
+  </si>
+  <si>
+    <t>dakkha</t>
+  </si>
+  <si>
+    <t>hīna 1</t>
+  </si>
+  <si>
+    <t>paṇīta 2</t>
+  </si>
+  <si>
+    <t>sukhuma 1</t>
+  </si>
+  <si>
     <t>anicca 1</t>
   </si>
   <si>
     <t>nicca</t>
   </si>
   <si>
+    <t>sandiṭṭhika</t>
+  </si>
+  <si>
+    <t>parama 1</t>
+  </si>
+  <si>
+    <t>dibba</t>
+  </si>
+  <si>
+    <t>kammaniya</t>
+  </si>
+  <si>
+    <t>anaṅgaṇa</t>
+  </si>
+  <si>
+    <t>pariyodāta</t>
+  </si>
+  <si>
+    <t>kevala 1</t>
+  </si>
+  <si>
+    <t>apara</t>
+  </si>
+  <si>
+    <t>dukkhita 1</t>
+  </si>
+  <si>
+    <t>odāta 1</t>
+  </si>
+  <si>
+    <t>aparikkamana</t>
+  </si>
+  <si>
     <t>anatta 1</t>
   </si>
   <si>
     <t>dhammika 2</t>
   </si>
   <si>
+    <t>sata 1</t>
+  </si>
+  <si>
+    <t>dakkhiṇa 1</t>
+  </si>
+  <si>
+    <t>majjhima 1</t>
+  </si>
+  <si>
+    <t>purima 1</t>
+  </si>
+  <si>
+    <t>upekkhaka</t>
+  </si>
+  <si>
+    <t>manāpa 1</t>
+  </si>
+  <si>
+    <t>piya 1</t>
+  </si>
+  <si>
+    <t>sukara</t>
+  </si>
+  <si>
     <t>byatta</t>
   </si>
   <si>
+    <t>agilāna 1</t>
+  </si>
+  <si>
+    <t>dukkha 2</t>
+  </si>
+  <si>
+    <t>pāṭikaṅkha</t>
+  </si>
+  <si>
+    <t>sukka 1</t>
+  </si>
+  <si>
+    <t>anuttara</t>
+  </si>
+  <si>
     <t>sāraṇīya 1</t>
   </si>
   <si>
-    <t>pāṭikaṅkha</t>
-  </si>
-  <si>
-    <t>methuna 1</t>
-  </si>
-  <si>
-    <t>pamatta 1</t>
-  </si>
-  <si>
-    <t>kāsāya 1</t>
-  </si>
-  <si>
-    <t>oḷārika 1</t>
-  </si>
-  <si>
-    <t>kusala 1</t>
-  </si>
-  <si>
-    <t>aroga</t>
-  </si>
-  <si>
-    <t>samannāgata</t>
-  </si>
-  <si>
-    <t>dakkha</t>
-  </si>
-  <si>
-    <t>hīna 1</t>
-  </si>
-  <si>
-    <t>sandiṭṭhika</t>
-  </si>
-  <si>
-    <t>parama 1</t>
-  </si>
-  <si>
-    <t>dibba</t>
-  </si>
-  <si>
-    <t>kammaniya</t>
-  </si>
-  <si>
-    <t>anaṅgaṇa</t>
-  </si>
-  <si>
-    <t>pariyodāta</t>
-  </si>
-  <si>
-    <t>kevala 1</t>
-  </si>
-  <si>
-    <t>apara</t>
-  </si>
-  <si>
-    <t>dukkhita 1</t>
-  </si>
-  <si>
-    <t>odāta 1</t>
-  </si>
-  <si>
-    <t>aparikkamana</t>
-  </si>
-  <si>
-    <t>sata 1</t>
-  </si>
-  <si>
-    <t>dakkhiṇa 1</t>
-  </si>
-  <si>
-    <t>majjhima 1</t>
-  </si>
-  <si>
-    <t>purima 1</t>
-  </si>
-  <si>
-    <t>upekkhaka</t>
-  </si>
-  <si>
-    <t>manāpa 1</t>
-  </si>
-  <si>
-    <t>piya 1</t>
-  </si>
-  <si>
-    <t>sukara</t>
-  </si>
-  <si>
-    <t>agilāna 1</t>
-  </si>
-  <si>
-    <t>dukkha 2</t>
-  </si>
-  <si>
-    <t>sukka 1</t>
-  </si>
-  <si>
-    <t>anuttara</t>
-  </si>
-  <si>
     <t>sampajāna 1</t>
   </si>
   <si>
@@ -274,12 +280,6 @@
     <t>ariya 1</t>
   </si>
   <si>
-    <t>paṇīta 2</t>
-  </si>
-  <si>
-    <t>sukhuma 1</t>
-  </si>
-  <si>
     <t>iṭṭha 1</t>
   </si>
   <si>
@@ -292,99 +292,99 @@
     <t>sugata 2</t>
   </si>
   <si>
+    <t>desita 1</t>
+  </si>
+  <si>
+    <t>akkhāta</t>
+  </si>
+  <si>
+    <t>pabbajita 2</t>
+  </si>
+  <si>
+    <t>āgata 3</t>
+  </si>
+  <si>
+    <t>pahīna</t>
+  </si>
+  <si>
+    <t>kata 1</t>
+  </si>
+  <si>
+    <t>kupita</t>
+  </si>
+  <si>
     <t>vutta 2</t>
   </si>
   <si>
+    <t>visuddha 1</t>
+  </si>
+  <si>
+    <t>ṭhita 2</t>
+  </si>
+  <si>
+    <t>samiñjita 2</t>
+  </si>
+  <si>
+    <t>nisinna 1</t>
+  </si>
+  <si>
+    <t>patta 5</t>
+  </si>
+  <si>
+    <t>laddha 1</t>
+  </si>
+  <si>
+    <t>adhigata 1</t>
+  </si>
+  <si>
+    <t>santuṭṭha 1</t>
+  </si>
+  <si>
+    <t>abhūta 1</t>
+  </si>
+  <si>
+    <t>akata 2</t>
+  </si>
+  <si>
+    <t>vusita 1</t>
+  </si>
+  <si>
+    <t>khīṇa 1</t>
+  </si>
+  <si>
+    <t>vimutta</t>
+  </si>
+  <si>
     <t>anuppanna</t>
   </si>
   <si>
+    <t>paricita</t>
+  </si>
+  <si>
+    <t>cuta 1</t>
+  </si>
+  <si>
+    <t>diṭṭha 1</t>
+  </si>
+  <si>
+    <t>vippamutta</t>
+  </si>
+  <si>
+    <t>puṭṭha 1</t>
+  </si>
+  <si>
     <t>uppanna 1</t>
   </si>
   <si>
-    <t>paricita</t>
+    <t>samāhita 1</t>
+  </si>
+  <si>
+    <t>upaṭṭhita 1</t>
   </si>
   <si>
     <t>āraddha 1</t>
   </si>
   <si>
-    <t>desita 1</t>
-  </si>
-  <si>
-    <t>akkhāta</t>
-  </si>
-  <si>
-    <t>pabbajita 2</t>
-  </si>
-  <si>
-    <t>āgata 3</t>
-  </si>
-  <si>
-    <t>pahīna</t>
-  </si>
-  <si>
-    <t>kata 1</t>
-  </si>
-  <si>
-    <t>kupita</t>
-  </si>
-  <si>
-    <t>visuddha 1</t>
-  </si>
-  <si>
-    <t>ṭhita 2</t>
-  </si>
-  <si>
-    <t>nisinna 1</t>
-  </si>
-  <si>
-    <t>samiñjita 2</t>
-  </si>
-  <si>
-    <t>patta 5</t>
-  </si>
-  <si>
-    <t>laddha 1</t>
-  </si>
-  <si>
-    <t>adhigata 1</t>
-  </si>
-  <si>
-    <t>santuṭṭha 1</t>
-  </si>
-  <si>
-    <t>abhūta 1</t>
-  </si>
-  <si>
-    <t>akata 2</t>
-  </si>
-  <si>
-    <t>vusita 1</t>
-  </si>
-  <si>
-    <t>khīṇa 1</t>
-  </si>
-  <si>
-    <t>vimutta</t>
-  </si>
-  <si>
-    <t>cuta 1</t>
-  </si>
-  <si>
-    <t>diṭṭha 1</t>
-  </si>
-  <si>
-    <t>vippamutta</t>
-  </si>
-  <si>
-    <t>puṭṭha 1</t>
-  </si>
-  <si>
-    <t>samāhita 1</t>
-  </si>
-  <si>
-    <t>upaṭṭhita 1</t>
-  </si>
-  <si>
     <t>paripūra 1</t>
   </si>
   <si>
@@ -460,15 +460,15 @@
     <t>dasa 1</t>
   </si>
   <si>
+    <t>aṭṭha 1</t>
+  </si>
+  <si>
+    <t>nava 2</t>
+  </si>
+  <si>
     <t>satta 1</t>
   </si>
   <si>
-    <t>nava 2</t>
-  </si>
-  <si>
-    <t>aṭṭha 1</t>
-  </si>
-  <si>
     <t>pañca</t>
   </si>
   <si>
@@ -493,30 +493,312 @@
     <t>ti 1</t>
   </si>
   <si>
+    <t>vinaya 1</t>
+  </si>
+  <si>
+    <t>dhamma 03</t>
+  </si>
+  <si>
+    <t>pariyāya 4</t>
+  </si>
+  <si>
+    <t>bhava 3</t>
+  </si>
+  <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>vasa 2</t>
+  </si>
+  <si>
+    <t>vaccha 1</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>āsaya 2</t>
+  </si>
+  <si>
+    <t>dhamma 01</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>moggallāna 1</t>
+  </si>
+  <si>
     <t>dhamma 15</t>
   </si>
   <si>
+    <t>accaya 3</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>magga 1</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>māsa 2</t>
+  </si>
+  <si>
+    <t>bhoga 1</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>samaya 1</t>
+  </si>
+  <si>
+    <t>sāra 2</t>
+  </si>
+  <si>
+    <t>attha 01</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
     <t>khattiya 2</t>
   </si>
   <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
     <t>magga 2</t>
   </si>
   <si>
     <t>dhamma 06</t>
   </si>
   <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
     <t>loka 1</t>
   </si>
   <si>
     <t>kāma 3</t>
   </si>
   <si>
+    <t>yāma 1</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>bheda 2</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>attha 02</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>vāta 1</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>paṇḍita 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>satta 2</t>
+  </si>
+  <si>
     <t>byāpāda</t>
   </si>
   <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1</t>
+  </si>
+  <si>
+    <t>kāya 2</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>udapāna</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
     <t>sāvaka</t>
   </si>
   <si>
+    <t>paccaya 1</t>
+  </si>
+  <si>
+    <t>uccāra</t>
+  </si>
+  <si>
+    <t>passāva</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 02</t>
+  </si>
+  <si>
+    <t>samatha 1</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gandha 1</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1</t>
+  </si>
+  <si>
+    <t>pāṇa 3</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>ogha 1</t>
+  </si>
+  <si>
+    <t>sakka 3</t>
+  </si>
+  <si>
     <t>adhigama 1</t>
   </si>
   <si>
@@ -526,6 +808,51 @@
     <t>samatikkama</t>
   </si>
   <si>
+    <t>saṃvara 1</t>
+  </si>
+  <si>
+    <t>amanasikāra 1</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>apāya 1</t>
+  </si>
+  <si>
+    <t>loka 2</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2</t>
+  </si>
+  <si>
+    <t>āhāra 1</t>
+  </si>
+  <si>
     <t>visesa 1</t>
   </si>
   <si>
@@ -538,333 +865,6 @@
     <t>kesa</t>
   </si>
   <si>
-    <t>vinaya 1</t>
-  </si>
-  <si>
-    <t>dhamma 03</t>
-  </si>
-  <si>
-    <t>pariyāya 4</t>
-  </si>
-  <si>
-    <t>bhava 3</t>
-  </si>
-  <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>vasa 2</t>
-  </si>
-  <si>
-    <t>vaccha 1</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>āsaya 2</t>
-  </si>
-  <si>
-    <t>dhamma 01</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>antarāya</t>
-  </si>
-  <si>
-    <t>moggallāna 1</t>
-  </si>
-  <si>
-    <t>accaya 3</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>māsa 2</t>
-  </si>
-  <si>
-    <t>magga 1</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>bhoga 1</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>samaya 1</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>sāra 2</t>
-  </si>
-  <si>
-    <t>attha 01</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>yāma 1</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>bheda 2</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>attha 02</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>vāta 1</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>paṇḍita 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>satta 2</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1</t>
-  </si>
-  <si>
-    <t>kāya 2</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>udapāna</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>paccaya 1</t>
-  </si>
-  <si>
-    <t>uccāra</t>
-  </si>
-  <si>
-    <t>passāva</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 02</t>
-  </si>
-  <si>
-    <t>samatha 1</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gandha 1</t>
-  </si>
-  <si>
-    <t>pāṇa 3</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>ogha 1</t>
-  </si>
-  <si>
-    <t>sakka 3</t>
-  </si>
-  <si>
-    <t>saṃvara 1</t>
-  </si>
-  <si>
-    <t>amanasikāra 1</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>apāya 1</t>
-  </si>
-  <si>
-    <t>loka 2</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2</t>
-  </si>
-  <si>
-    <t>āhāra 1</t>
-  </si>
-  <si>
     <t>sahāya</t>
   </si>
   <si>
@@ -988,174 +988,174 @@
     <t>kosalā</t>
   </si>
   <si>
+    <t>punabbhava</t>
+  </si>
+  <si>
     <t>pātimokkha 2</t>
   </si>
   <si>
-    <t>punabbhava</t>
-  </si>
-  <si>
     <t>vibhaṅga 1</t>
   </si>
   <si>
+    <t>pajahati</t>
+  </si>
+  <si>
+    <t>paṭisevati 1</t>
+  </si>
+  <si>
+    <t>uddharati 2</t>
+  </si>
+  <si>
+    <t>bandhati 1</t>
+  </si>
+  <si>
+    <t>passa 5</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
+    <t>abhivaḍḍhati</t>
+  </si>
+  <si>
+    <t>vadati 1</t>
+  </si>
+  <si>
+    <t>pabbajati</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
     <t>pakkamati 1</t>
   </si>
   <si>
+    <t>ārabhati 1</t>
+  </si>
+  <si>
+    <t>icchati 1</t>
+  </si>
+  <si>
+    <t>rakkhati 2</t>
+  </si>
+  <si>
+    <t>upasaṅkamati</t>
+  </si>
+  <si>
+    <t>bhāsati 1</t>
+  </si>
+  <si>
+    <t>yācati 1</t>
+  </si>
+  <si>
+    <t>samanupassati 2</t>
+  </si>
+  <si>
+    <t>harati 2</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>passasati</t>
+  </si>
+  <si>
+    <t>assasati</t>
+  </si>
+  <si>
+    <t>ākaṅkhati</t>
+  </si>
+  <si>
+    <t>gaṇhati 1</t>
+  </si>
+  <si>
+    <t>pakkhandati 1</t>
+  </si>
+  <si>
     <t>bhaṇati 1</t>
   </si>
   <si>
+    <t>ovadati</t>
+  </si>
+  <si>
+    <t>passati 2</t>
+  </si>
+  <si>
+    <t>jahati 1</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>pavaḍḍhati 1</t>
+  </si>
+  <si>
+    <t>nikkhipati 3</t>
+  </si>
+  <si>
+    <t>bhajati 1</t>
+  </si>
+  <si>
+    <t>arahati 3</t>
+  </si>
+  <si>
     <t>vattati 1</t>
   </si>
   <si>
+    <t>labhati</t>
+  </si>
+  <si>
+    <t>anussarati 1</t>
+  </si>
+  <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
+    <t>bhavati 1</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
     <t>pucchati</t>
   </si>
   <si>
+    <t>saṃvattati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>pariharati 3</t>
+  </si>
+  <si>
+    <t>padahati 1</t>
+  </si>
+  <si>
+    <t>vāyamati</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
+    <t>abhiramati</t>
+  </si>
+  <si>
+    <t>pavisati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>vaḍḍhati</t>
+  </si>
+  <si>
     <t>kappati</t>
   </si>
   <si>
-    <t>pajahati</t>
-  </si>
-  <si>
-    <t>paṭisevati 1</t>
-  </si>
-  <si>
-    <t>uddharati 2</t>
-  </si>
-  <si>
-    <t>bandhati 1</t>
-  </si>
-  <si>
-    <t>passa 5</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>pabbajati</t>
-  </si>
-  <si>
-    <t>abhivaḍḍhati</t>
-  </si>
-  <si>
-    <t>vadati 1</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>ārabhati 1</t>
-  </si>
-  <si>
-    <t>icchati 1</t>
-  </si>
-  <si>
-    <t>rakkhati 2</t>
-  </si>
-  <si>
-    <t>upasaṅkamati</t>
-  </si>
-  <si>
-    <t>bhāsati 1</t>
-  </si>
-  <si>
-    <t>yācati 1</t>
-  </si>
-  <si>
-    <t>samanupassati 2</t>
-  </si>
-  <si>
-    <t>harati 2</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>passasati</t>
-  </si>
-  <si>
-    <t>assasati</t>
-  </si>
-  <si>
-    <t>ākaṅkhati</t>
-  </si>
-  <si>
-    <t>gaṇhati 1</t>
-  </si>
-  <si>
-    <t>pakkhandati 1</t>
-  </si>
-  <si>
-    <t>ovadati</t>
-  </si>
-  <si>
-    <t>passati 2</t>
-  </si>
-  <si>
-    <t>jahati 1</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
-    <t>pavaḍḍhati 1</t>
-  </si>
-  <si>
-    <t>nikkhipati 3</t>
-  </si>
-  <si>
-    <t>bhajati 1</t>
-  </si>
-  <si>
-    <t>arahati 3</t>
-  </si>
-  <si>
-    <t>labhati</t>
-  </si>
-  <si>
-    <t>anussarati 1</t>
-  </si>
-  <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
-    <t>bhavati 1</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>saṃvattati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>pariharati 3</t>
-  </si>
-  <si>
-    <t>padahati 1</t>
-  </si>
-  <si>
-    <t>vāyamati</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
-    <t>abhiramati</t>
-  </si>
-  <si>
-    <t>pavisati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>vaḍḍhati</t>
-  </si>
-  <si>
     <t>passati 1</t>
   </si>
   <si>
@@ -1243,39 +1243,39 @@
     <t>kassaka</t>
   </si>
   <si>
+    <t>samāpajjati 2</t>
+  </si>
+  <si>
+    <t>ādiyati 1</t>
+  </si>
+  <si>
+    <t>āpajjati 2</t>
+  </si>
+  <si>
+    <t>paṭipajjati 2</t>
+  </si>
+  <si>
+    <t>maññati 1</t>
+  </si>
+  <si>
+    <t>upādiyati</t>
+  </si>
+  <si>
+    <t>upapajjati 1</t>
+  </si>
+  <si>
+    <t>nibbindati 1</t>
+  </si>
+  <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
     <t>uppajjati 1</t>
   </si>
   <si>
-    <t>upapajjati 1</t>
-  </si>
-  <si>
-    <t>samāpajjati 2</t>
-  </si>
-  <si>
-    <t>ādiyati 1</t>
-  </si>
-  <si>
-    <t>āpajjati 2</t>
-  </si>
-  <si>
-    <t>paṭipajjati 2</t>
-  </si>
-  <si>
-    <t>maññati 1</t>
-  </si>
-  <si>
-    <t>upādiyati</t>
-  </si>
-  <si>
-    <t>nibbindati 1</t>
-  </si>
-  <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
     <t>jhāyati 2</t>
   </si>
   <si>
@@ -1285,27 +1285,27 @@
     <t>āpajjati 5</t>
   </si>
   <si>
+    <t>atthi 2</t>
+  </si>
+  <si>
+    <t>amha 1</t>
+  </si>
+  <si>
+    <t>asi 3</t>
+  </si>
+  <si>
+    <t>attha 12</t>
+  </si>
+  <si>
+    <t>amhi</t>
+  </si>
+  <si>
     <t>santi 3</t>
   </si>
   <si>
     <t>atthi 1</t>
   </si>
   <si>
-    <t>atthi 2</t>
-  </si>
-  <si>
-    <t>amha 1</t>
-  </si>
-  <si>
-    <t>asi 3</t>
-  </si>
-  <si>
-    <t>attha 12</t>
-  </si>
-  <si>
-    <t>amhi</t>
-  </si>
-  <si>
     <t>āmantesi</t>
   </si>
   <si>
@@ -1357,18 +1357,18 @@
     <t>muni 1</t>
   </si>
   <si>
+    <t>sāli</t>
+  </si>
+  <si>
+    <t>kucchi 1</t>
+  </si>
+  <si>
+    <t>aggi</t>
+  </si>
+  <si>
     <t>gahapati</t>
   </si>
   <si>
-    <t>sāli</t>
-  </si>
-  <si>
-    <t>kucchi 1</t>
-  </si>
-  <si>
-    <t>aggi</t>
-  </si>
-  <si>
     <t>isi</t>
   </si>
   <si>
@@ -1417,54 +1417,54 @@
     <t>āsi 1</t>
   </si>
   <si>
+    <t>mada 1</t>
+  </si>
+  <si>
+    <t>ājīva</t>
+  </si>
+  <si>
+    <t>appamāda</t>
+  </si>
+  <si>
+    <t>sambuddha 1</t>
+  </si>
+  <si>
+    <t>adhamma 2</t>
+  </si>
+  <si>
     <t>taca 1</t>
   </si>
   <si>
-    <t>mada 1</t>
-  </si>
-  <si>
-    <t>appamāda</t>
-  </si>
-  <si>
-    <t>ājīva</t>
-  </si>
-  <si>
-    <t>sambuddha 1</t>
-  </si>
-  <si>
-    <t>adhamma 2</t>
-  </si>
-  <si>
     <t>abhisamaya</t>
   </si>
   <si>
+    <t>mama 2</t>
+  </si>
+  <si>
+    <t>mayā 1</t>
+  </si>
+  <si>
+    <t>no 4</t>
+  </si>
+  <si>
+    <t>no 6</t>
+  </si>
+  <si>
+    <t>mayaṃ</t>
+  </si>
+  <si>
+    <t>me 5</t>
+  </si>
+  <si>
+    <t>no 7</t>
+  </si>
+  <si>
+    <t>amhākaṃ 3</t>
+  </si>
+  <si>
     <t>me 2</t>
   </si>
   <si>
-    <t>mama 2</t>
-  </si>
-  <si>
-    <t>mayā 1</t>
-  </si>
-  <si>
-    <t>no 4</t>
-  </si>
-  <si>
-    <t>no 6</t>
-  </si>
-  <si>
-    <t>mayaṃ</t>
-  </si>
-  <si>
-    <t>me 5</t>
-  </si>
-  <si>
-    <t>no 7</t>
-  </si>
-  <si>
-    <t>amhākaṃ 3</t>
-  </si>
-  <si>
     <t>ahaṃ</t>
   </si>
   <si>
@@ -1480,18 +1480,18 @@
     <t>neti 1</t>
   </si>
   <si>
+    <t>na 1</t>
+  </si>
+  <si>
+    <t>saddhiṃ</t>
+  </si>
+  <si>
+    <t>saha 2</t>
+  </si>
+  <si>
     <t>no 3</t>
   </si>
   <si>
-    <t>na 1</t>
-  </si>
-  <si>
-    <t>saddhiṃ</t>
-  </si>
-  <si>
-    <t>saha 2</t>
-  </si>
-  <si>
     <t>no 1</t>
   </si>
   <si>
@@ -1525,27 +1525,27 @@
     <t>dassati 1</t>
   </si>
   <si>
+    <t>vo 3</t>
+  </si>
+  <si>
+    <t>vo 2</t>
+  </si>
+  <si>
+    <t>tumhākaṃ 3</t>
+  </si>
+  <si>
+    <t>taṃ 3</t>
+  </si>
+  <si>
     <t>tumhākaṃ 2</t>
   </si>
   <si>
+    <t>tumhe 2</t>
+  </si>
+  <si>
     <t>tumhe 1</t>
   </si>
   <si>
-    <t>taṃ 3</t>
-  </si>
-  <si>
-    <t>vo 3</t>
-  </si>
-  <si>
-    <t>vo 2</t>
-  </si>
-  <si>
-    <t>tumhākaṃ 3</t>
-  </si>
-  <si>
-    <t>tumhe 2</t>
-  </si>
-  <si>
     <t>tvaṃ 1</t>
   </si>
   <si>
@@ -1600,12 +1600,12 @@
     <t>sakadāgāmī</t>
   </si>
   <si>
+    <t>sukhī 2</t>
+  </si>
+  <si>
     <t>brahmacārī 2</t>
   </si>
   <si>
-    <t>sukhī 2</t>
-  </si>
-  <si>
     <t>sabrahmacārī</t>
   </si>
   <si>
@@ -1618,30 +1618,30 @@
     <t>saṅgaha 1</t>
   </si>
   <si>
+    <t>paññavant</t>
+  </si>
+  <si>
+    <t>balavant</t>
+  </si>
+  <si>
+    <t>satimant 1</t>
+  </si>
+  <si>
     <t>sīlavant</t>
   </si>
   <si>
-    <t>paññavant</t>
-  </si>
-  <si>
-    <t>balavant</t>
-  </si>
-  <si>
-    <t>satimant 1</t>
-  </si>
-  <si>
     <t>assutavant</t>
   </si>
   <si>
+    <t>bhagavant 1</t>
+  </si>
+  <si>
+    <t>āyasmant 1</t>
+  </si>
+  <si>
     <t>cakkhumant 2</t>
   </si>
   <si>
-    <t>bhagavant 1</t>
-  </si>
-  <si>
-    <t>āyasmant 1</t>
-  </si>
-  <si>
     <t>satthar 1</t>
   </si>
   <si>
@@ -1669,15 +1669,15 @@
     <t>paricarati 3</t>
   </si>
   <si>
+    <t>kālena</t>
+  </si>
+  <si>
+    <t>āyatiṃ</t>
+  </si>
+  <si>
     <t>vā 1</t>
   </si>
   <si>
-    <t>kālena</t>
-  </si>
-  <si>
-    <t>āyatiṃ</t>
-  </si>
-  <si>
     <t>yadā</t>
   </si>
   <si>
@@ -1741,24 +1741,24 @@
     <t>nahāyati</t>
   </si>
   <si>
+    <t>gaccheyya</t>
+  </si>
+  <si>
+    <t>jāneyya</t>
+  </si>
+  <si>
+    <t>āgaccheyya</t>
+  </si>
+  <si>
+    <t>vadeyya</t>
+  </si>
+  <si>
+    <t>adhigaccheyya</t>
+  </si>
+  <si>
     <t>passeyya 1</t>
   </si>
   <si>
-    <t>gaccheyya</t>
-  </si>
-  <si>
-    <t>jāneyya</t>
-  </si>
-  <si>
-    <t>āgaccheyya</t>
-  </si>
-  <si>
-    <t>vadeyya</t>
-  </si>
-  <si>
-    <t>adhigaccheyya</t>
-  </si>
-  <si>
     <t>uppajjeyya</t>
   </si>
   <si>
@@ -1780,63 +1780,63 @@
     <t>assa 3</t>
   </si>
   <si>
+    <t>sikkhā 2</t>
+  </si>
+  <si>
+    <t>gāthā 1</t>
+  </si>
+  <si>
+    <t>jarā</t>
+  </si>
+  <si>
+    <t>vīmaṃsā 1</t>
+  </si>
+  <si>
+    <t>disā 1</t>
+  </si>
+  <si>
+    <t>paññā 1</t>
+  </si>
+  <si>
+    <t>abhijjhā</t>
+  </si>
+  <si>
+    <t>senā</t>
+  </si>
+  <si>
+    <t>sākhā 1</t>
+  </si>
+  <si>
+    <t>bāhā 1</t>
+  </si>
+  <si>
+    <t>desanā 3</t>
+  </si>
+  <si>
+    <t>vācā 1</t>
+  </si>
+  <si>
+    <t>taṇhā 1</t>
+  </si>
+  <si>
+    <t>vedanā 1</t>
+  </si>
+  <si>
+    <t>jivhā</t>
+  </si>
+  <si>
+    <t>upāsikā</t>
+  </si>
+  <si>
+    <t>pabbajjā</t>
+  </si>
+  <si>
+    <t>devatā</t>
+  </si>
+  <si>
     <t>sacchikiriyā</t>
   </si>
   <si>
-    <t>pabbajjā</t>
-  </si>
-  <si>
-    <t>sikkhā 2</t>
-  </si>
-  <si>
-    <t>gāthā 1</t>
-  </si>
-  <si>
-    <t>jarā</t>
-  </si>
-  <si>
-    <t>vīmaṃsā 1</t>
-  </si>
-  <si>
-    <t>disā 1</t>
-  </si>
-  <si>
-    <t>paññā 1</t>
-  </si>
-  <si>
-    <t>abhijjhā</t>
-  </si>
-  <si>
-    <t>senā</t>
-  </si>
-  <si>
-    <t>sākhā 1</t>
-  </si>
-  <si>
-    <t>bāhā 1</t>
-  </si>
-  <si>
-    <t>desanā 3</t>
-  </si>
-  <si>
-    <t>vācā 1</t>
-  </si>
-  <si>
-    <t>taṇhā 1</t>
-  </si>
-  <si>
-    <t>vedanā 1</t>
-  </si>
-  <si>
-    <t>jivhā</t>
-  </si>
-  <si>
-    <t>upāsikā</t>
-  </si>
-  <si>
-    <t>devatā</t>
-  </si>
-  <si>
     <t>pajā 2</t>
   </si>
   <si>
@@ -1936,12 +1936,12 @@
     <t>dhītar</t>
   </si>
   <si>
+    <t>āgamma 1</t>
+  </si>
+  <si>
     <t>samādāya 2</t>
   </si>
   <si>
-    <t>āgamma 1</t>
-  </si>
-  <si>
     <t>vineyya 1</t>
   </si>
   <si>
@@ -1963,33 +1963,33 @@
     <t>nisajja</t>
   </si>
   <si>
+    <t>ṭhiti 1</t>
+  </si>
+  <si>
+    <t>kuṭi 1</t>
+  </si>
+  <si>
+    <t>visuddhi 1</t>
+  </si>
+  <si>
+    <t>āpatti 2</t>
+  </si>
+  <si>
     <t>diṭṭhi 1</t>
   </si>
   <si>
+    <t>samāpatti 1</t>
+  </si>
+  <si>
+    <t>ruci</t>
+  </si>
+  <si>
+    <t>sugati</t>
+  </si>
+  <si>
     <t>sati 2</t>
   </si>
   <si>
-    <t>ṭhiti 1</t>
-  </si>
-  <si>
-    <t>kuṭi 1</t>
-  </si>
-  <si>
-    <t>visuddhi 1</t>
-  </si>
-  <si>
-    <t>āpatti 2</t>
-  </si>
-  <si>
-    <t>samāpatti 1</t>
-  </si>
-  <si>
-    <t>ruci</t>
-  </si>
-  <si>
-    <t>sugati</t>
-  </si>
-  <si>
     <t>pīti 1</t>
   </si>
   <si>
@@ -2020,12 +2020,12 @@
     <t>ekato 1</t>
   </si>
   <si>
+    <t>sabbattha 1</t>
+  </si>
+  <si>
     <t>kuto 1</t>
   </si>
   <si>
-    <t>sabbattha 1</t>
-  </si>
-  <si>
     <t>tattha 1</t>
   </si>
   <si>
@@ -2080,141 +2080,141 @@
     <t>piṇḍāya</t>
   </si>
   <si>
+    <t>bhūta 3</t>
+  </si>
+  <si>
+    <t>indriya 1</t>
+  </si>
+  <si>
+    <t>sukhāya</t>
+  </si>
+  <si>
+    <t>hitāya</t>
+  </si>
+  <si>
+    <t>rūpa 1</t>
+  </si>
+  <si>
+    <t>anagāriya</t>
+  </si>
+  <si>
+    <t>agāra 2</t>
+  </si>
+  <si>
+    <t>sukha 2</t>
+  </si>
+  <si>
+    <t>hita 3</t>
+  </si>
+  <si>
+    <t>nāma 5</t>
+  </si>
+  <si>
+    <t>vīriya 1</t>
+  </si>
+  <si>
+    <t>vepulla 1</t>
+  </si>
+  <si>
+    <t>maraṇa</t>
+  </si>
+  <si>
+    <t>nidāna 1</t>
+  </si>
+  <si>
+    <t>ratana 1</t>
+  </si>
+  <si>
+    <t>kula 1</t>
+  </si>
+  <si>
+    <t>pāmojja</t>
+  </si>
+  <si>
+    <t>arañña</t>
+  </si>
+  <si>
+    <t>sīsa 1</t>
+  </si>
+  <si>
+    <t>bala 2</t>
+  </si>
+  <si>
+    <t>pamāṇa 3</t>
+  </si>
+  <si>
+    <t>upādāna 2</t>
+  </si>
+  <si>
+    <t>sarīra 1</t>
+  </si>
+  <si>
+    <t>passa 1</t>
+  </si>
+  <si>
+    <t>vattha 1</t>
+  </si>
+  <si>
+    <t>puñña 1</t>
+  </si>
+  <si>
+    <t>ñāṇa</t>
+  </si>
+  <si>
+    <t>agāra 1</t>
+  </si>
+  <si>
+    <t>dassanāya 2</t>
+  </si>
+  <si>
+    <t>itthatta 1</t>
+  </si>
+  <si>
+    <t>mūla 2</t>
+  </si>
+  <si>
+    <t>domanassa</t>
+  </si>
+  <si>
+    <t>dukkha 3</t>
+  </si>
+  <si>
+    <t>bhesajja</t>
+  </si>
+  <si>
+    <t>aparihāna</t>
+  </si>
+  <si>
+    <t>bhāsita 1</t>
+  </si>
+  <si>
+    <t>nibbāna 2</t>
+  </si>
+  <si>
+    <t>saraṇa 2</t>
+  </si>
+  <si>
+    <t>vajja 3</t>
+  </si>
+  <si>
+    <t>sikkhāpada</t>
+  </si>
+  <si>
+    <t>bhaya 3</t>
+  </si>
+  <si>
+    <t>bhojana 2</t>
+  </si>
+  <si>
+    <t>vassa 3</t>
+  </si>
+  <si>
     <t>adinna 1</t>
   </si>
   <si>
-    <t>sikkhāpada</t>
-  </si>
-  <si>
-    <t>bhaya 3</t>
-  </si>
-  <si>
     <t>rūpa 3</t>
   </si>
   <si>
-    <t>bhūta 3</t>
-  </si>
-  <si>
-    <t>indriya 1</t>
-  </si>
-  <si>
-    <t>sukhāya</t>
-  </si>
-  <si>
-    <t>hitāya</t>
-  </si>
-  <si>
-    <t>rūpa 1</t>
-  </si>
-  <si>
-    <t>anagāriya</t>
-  </si>
-  <si>
-    <t>agāra 2</t>
-  </si>
-  <si>
-    <t>sukha 2</t>
-  </si>
-  <si>
-    <t>hita 3</t>
-  </si>
-  <si>
-    <t>nāma 5</t>
-  </si>
-  <si>
-    <t>vīriya 1</t>
-  </si>
-  <si>
-    <t>vepulla 1</t>
-  </si>
-  <si>
-    <t>maraṇa</t>
-  </si>
-  <si>
-    <t>nidāna 1</t>
-  </si>
-  <si>
-    <t>ratana 1</t>
-  </si>
-  <si>
-    <t>kula 1</t>
-  </si>
-  <si>
-    <t>pāmojja</t>
-  </si>
-  <si>
-    <t>bala 2</t>
-  </si>
-  <si>
-    <t>arañña</t>
-  </si>
-  <si>
-    <t>sīsa 1</t>
-  </si>
-  <si>
-    <t>pamāṇa 3</t>
-  </si>
-  <si>
-    <t>upādāna 2</t>
-  </si>
-  <si>
-    <t>sarīra 1</t>
-  </si>
-  <si>
-    <t>passa 1</t>
-  </si>
-  <si>
-    <t>vattha 1</t>
-  </si>
-  <si>
-    <t>puñña 1</t>
-  </si>
-  <si>
-    <t>ñāṇa</t>
-  </si>
-  <si>
-    <t>agāra 1</t>
-  </si>
-  <si>
-    <t>dassanāya 2</t>
-  </si>
-  <si>
-    <t>itthatta 1</t>
-  </si>
-  <si>
-    <t>mūla 2</t>
-  </si>
-  <si>
-    <t>domanassa</t>
-  </si>
-  <si>
-    <t>dukkha 3</t>
-  </si>
-  <si>
-    <t>bhesajja</t>
-  </si>
-  <si>
-    <t>aparihāna</t>
-  </si>
-  <si>
-    <t>bhāsita 1</t>
-  </si>
-  <si>
-    <t>nibbāna 2</t>
-  </si>
-  <si>
-    <t>saraṇa 2</t>
-  </si>
-  <si>
-    <t>vajja 3</t>
-  </si>
-  <si>
-    <t>bhojana 2</t>
-  </si>
-  <si>
-    <t>vassa 3</t>
-  </si>
-  <si>
     <t>viññāṇa 1</t>
   </si>
   <si>
@@ -2305,39 +2305,39 @@
     <t>aṭṭhi 1</t>
   </si>
   <si>
+    <t>tāva 1</t>
+  </si>
+  <si>
+    <t>api 7</t>
+  </si>
+  <si>
     <t>nu</t>
   </si>
   <si>
     <t>kallaṃ</t>
   </si>
   <si>
+    <t>api 1</t>
+  </si>
+  <si>
+    <t>alaṃ 2</t>
+  </si>
+  <si>
+    <t>kathaṃ 1</t>
+  </si>
+  <si>
+    <t>alaṃ 3</t>
+  </si>
+  <si>
+    <t>yāva 1</t>
+  </si>
+  <si>
+    <t>sakkā 1</t>
+  </si>
+  <si>
     <t>alaṃ 1</t>
   </si>
   <si>
-    <t>tāva 1</t>
-  </si>
-  <si>
-    <t>api 7</t>
-  </si>
-  <si>
-    <t>api 1</t>
-  </si>
-  <si>
-    <t>alaṃ 2</t>
-  </si>
-  <si>
-    <t>kathaṃ 1</t>
-  </si>
-  <si>
-    <t>alaṃ 3</t>
-  </si>
-  <si>
-    <t>yāva 1</t>
-  </si>
-  <si>
-    <t>sakkā 1</t>
-  </si>
-  <si>
     <t>alaṃ 5</t>
   </si>
   <si>
@@ -2437,24 +2437,24 @@
     <t>that; such (person or place or thing); so and so</t>
   </si>
   <si>
+    <t>not asking permission; not informing</t>
+  </si>
+  <si>
+    <t>seeing</t>
+  </si>
+  <si>
+    <t>knowing</t>
+  </si>
+  <si>
+    <t>seeing; regarding; considering</t>
+  </si>
+  <si>
+    <t>standing; standing still</t>
+  </si>
+  <si>
     <t>remembering; recollecting</t>
   </si>
   <si>
-    <t>not asking permission; not informing</t>
-  </si>
-  <si>
-    <t>seeing</t>
-  </si>
-  <si>
-    <t>knowing</t>
-  </si>
-  <si>
-    <t>seeing; regarding; considering</t>
-  </si>
-  <si>
-    <t>standing; standing still</t>
-  </si>
-  <si>
     <t>going; walking; travelling</t>
   </si>
   <si>
@@ -2488,123 +2488,129 @@
     <t>wishing (for); desiring (for); seeking (for)</t>
   </si>
   <si>
+    <t>sexual</t>
+  </si>
+  <si>
+    <t>careless; heedless; negligent; inattentive; forgetful</t>
+  </si>
+  <si>
+    <t>brownish; colour of Buddhist monks' robes</t>
+  </si>
+  <si>
+    <t>course; gross; substantial; physical; material</t>
+  </si>
+  <si>
+    <t>healthy; beneficial; useful; good; wholesome</t>
+  </si>
+  <si>
+    <t>healthy; free from disease</t>
+  </si>
+  <si>
+    <t>possessing; having; lit. going together with</t>
+  </si>
+  <si>
+    <t>expert; skilled; able</t>
+  </si>
+  <si>
+    <t>low; inferior; deficient; worse</t>
+  </si>
+  <si>
+    <t>superior; sublime; refined; lit. brought forward</t>
+  </si>
+  <si>
+    <t>fine; subtle; refined</t>
+  </si>
+  <si>
     <t>impermanent; inconstant; not lasting; discontinuous; disordered; unstable; unreliable; irregular</t>
   </si>
   <si>
     <t>constant; continuous; permanent; reliable</t>
   </si>
   <si>
+    <t>visible; evident; presently perceivable; true to experience; (comm) able to be seen by oneself</t>
+  </si>
+  <si>
+    <t>highest; most extreme; very best; ultimate; superior; sublime; lit. furthest</t>
+  </si>
+  <si>
+    <t>divine; heavenly; celestial</t>
+  </si>
+  <si>
+    <t>ready; workable; suitable for use</t>
+  </si>
+  <si>
+    <t>spotless; blemish free</t>
+  </si>
+  <si>
+    <t>pure; clean; shiny; bright</t>
+  </si>
+  <si>
+    <t>all; whole lot; altogether; total; entire; complete</t>
+  </si>
+  <si>
+    <t>another; after; further; next</t>
+  </si>
+  <si>
+    <t>afflicted; miserable; suffering</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>not having a surrounding walk; without an open space round it; not accessible</t>
+  </si>
+  <si>
     <t>impersonal; not oneself; non-subjective; essence-less; non subject to identify with</t>
   </si>
   <si>
     <t>righteous; just</t>
   </si>
   <si>
+    <t>mindful; present; attentive; recollecting</t>
+  </si>
+  <si>
+    <t>right (hand side)</t>
+  </si>
+  <si>
+    <t>middle; medium; middling; lit. belonging to the middle</t>
+  </si>
+  <si>
+    <t>earlier; past; former; previous</t>
+  </si>
+  <si>
+    <t>mentally poised; mentally balanced; equanimous; looking on; lit. onlooker</t>
+  </si>
+  <si>
+    <t>pleasing; pleasant; charming; lit. obtained by mind</t>
+  </si>
+  <si>
+    <t>dear (to); beloved (by); loved (by)</t>
+  </si>
+  <si>
+    <t>easily done; easy to do</t>
+  </si>
+  <si>
     <t>experienced; learned; competent; trained; lit. distinguished</t>
   </si>
   <si>
+    <t>not sick; healthy</t>
+  </si>
+  <si>
+    <t>painful</t>
+  </si>
+  <si>
+    <t>to be expected (for); certain (for); can be anticipated; lit. to be wished (for)</t>
+  </si>
+  <si>
+    <t>pure; bright</t>
+  </si>
+  <si>
+    <t>highest; unsurpassed; unexcelled; superior; lit. nothing higher</t>
+  </si>
+  <si>
     <t>polite; pleasant; charming; cordial; lit. to be desired</t>
   </si>
   <si>
-    <t>to be expected (for); certain (for); can be anticipated; lit. to be wished (for)</t>
-  </si>
-  <si>
-    <t>sexual</t>
-  </si>
-  <si>
-    <t>careless; heedless; negligent; inattentive; forgetful</t>
-  </si>
-  <si>
-    <t>brownish; colour of Buddhist monks' robes</t>
-  </si>
-  <si>
-    <t>course; gross; substantial; physical; material</t>
-  </si>
-  <si>
-    <t>healthy; beneficial; useful; good; wholesome</t>
-  </si>
-  <si>
-    <t>healthy; free from disease</t>
-  </si>
-  <si>
-    <t>possessing; having; lit. going together with</t>
-  </si>
-  <si>
-    <t>expert; skilled; able</t>
-  </si>
-  <si>
-    <t>low; inferior; deficient; worse</t>
-  </si>
-  <si>
-    <t>visible; evident; presently perceivable; true to experience; (comm) able to be seen by oneself</t>
-  </si>
-  <si>
-    <t>highest; most extreme; very best; ultimate; superior; sublime; lit. furthest</t>
-  </si>
-  <si>
-    <t>divine; heavenly; celestial</t>
-  </si>
-  <si>
-    <t>ready; workable; suitable for use</t>
-  </si>
-  <si>
-    <t>spotless; blemish free</t>
-  </si>
-  <si>
-    <t>pure; clean; shiny; bright</t>
-  </si>
-  <si>
-    <t>all; whole lot; altogether; total; entire; complete</t>
-  </si>
-  <si>
-    <t>another; after; further; next</t>
-  </si>
-  <si>
-    <t>afflicted; miserable; suffering</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>not having a surrounding walk; without an open space round it; not accessible</t>
-  </si>
-  <si>
-    <t>mindful; present; attentive; recollecting</t>
-  </si>
-  <si>
-    <t>right (hand side)</t>
-  </si>
-  <si>
-    <t>middle; medium; middling; lit. belonging to the middle</t>
-  </si>
-  <si>
-    <t>earlier; past; former; previous</t>
-  </si>
-  <si>
-    <t>mentally poised; mentally balanced; equanimous; looking on; lit. onlooker</t>
-  </si>
-  <si>
-    <t>pleasing; pleasant; charming; lit. obtained by mind</t>
-  </si>
-  <si>
-    <t>dear (to); beloved (by); loved (by)</t>
-  </si>
-  <si>
-    <t>easily done; easy to do</t>
-  </si>
-  <si>
-    <t>not sick; healthy</t>
-  </si>
-  <si>
-    <t>painful</t>
-  </si>
-  <si>
-    <t>pure; bright</t>
-  </si>
-  <si>
-    <t>highest; unsurpassed; unexcelled; superior; lit. nothing higher</t>
-  </si>
-  <si>
     <t>clearly aware; fully knowing; mindful; completely comprehending</t>
   </si>
   <si>
@@ -2665,12 +2671,6 @@
     <t>noble; distinguished; of the Buddha</t>
   </si>
   <si>
-    <t>superior; sublime; refined; lit. brought forward</t>
-  </si>
-  <si>
-    <t>fine; subtle; refined</t>
-  </si>
-  <si>
     <t>pleasing; likeable; cherished; wished for</t>
   </si>
   <si>
@@ -2683,99 +2683,99 @@
     <t>Fortunate One; epithet of the Buddha; lit. well gone</t>
   </si>
   <si>
+    <t>preached; taught; explained; instructed; lit. pointed out</t>
+  </si>
+  <si>
+    <t>announced; told; declared</t>
+  </si>
+  <si>
+    <t>ordained; renounced; gone forth</t>
+  </si>
+  <si>
+    <t>come (from); arrived (from)</t>
+  </si>
+  <si>
+    <t>abandoned; dispelled; eliminated; removed; given up</t>
+  </si>
+  <si>
+    <t>done; made</t>
+  </si>
+  <si>
+    <t>indignant; angry; annoyed; outraged; offended</t>
+  </si>
+  <si>
     <t>said; told; spoken; mentioned</t>
   </si>
   <si>
+    <t>cleansed; purified; refined</t>
+  </si>
+  <si>
+    <t>stationary; stable; stabilised; motionless</t>
+  </si>
+  <si>
+    <t>bent back; folded back; flexed back</t>
+  </si>
+  <si>
+    <t>seated</t>
+  </si>
+  <si>
+    <t>attained; reached; gained</t>
+  </si>
+  <si>
+    <t>obtained; gained; won; received</t>
+  </si>
+  <si>
+    <t>attained; obtained; understood</t>
+  </si>
+  <si>
+    <t>satisfied; pleased; content</t>
+  </si>
+  <si>
+    <t>not become; not happened</t>
+  </si>
+  <si>
+    <t>not made; not created</t>
+  </si>
+  <si>
+    <t>fulfilled; completed; finished; lit. lived</t>
+  </si>
+  <si>
+    <t>consumed; spent; finished; exhausted; destroyed</t>
+  </si>
+  <si>
+    <t>freed; liberated; emancipated</t>
+  </si>
+  <si>
     <t>unborn; unarisen; not yet existent</t>
   </si>
   <si>
+    <t>practised; rehearsed; accustomed; familiarized; lit. completely accumulated</t>
+  </si>
+  <si>
+    <t>passed away; died; disappeared</t>
+  </si>
+  <si>
+    <t>seen; found; understood</t>
+  </si>
+  <si>
+    <t>freed; released; saved</t>
+  </si>
+  <si>
+    <t>asked; questioned</t>
+  </si>
+  <si>
     <t>born; arisen; produced; appeared; come into existence</t>
   </si>
   <si>
-    <t>practised; rehearsed; accustomed; familiarized; lit. completely accumulated</t>
+    <t>composed; centred; settled; collected; concentrated</t>
+  </si>
+  <si>
+    <t>present; in attendance; set up; established; lit. stood near</t>
   </si>
   <si>
     <t>aroused; applied; undertaken</t>
   </si>
   <si>
-    <t>preached; taught; explained; instructed; lit. pointed out</t>
-  </si>
-  <si>
-    <t>announced; told; declared</t>
-  </si>
-  <si>
-    <t>ordained; renounced; gone forth</t>
-  </si>
-  <si>
-    <t>come (from); arrived (from)</t>
-  </si>
-  <si>
-    <t>abandoned; dispelled; eliminated; removed; given up</t>
-  </si>
-  <si>
-    <t>done; made</t>
-  </si>
-  <si>
-    <t>indignant; angry; annoyed; outraged; offended</t>
-  </si>
-  <si>
-    <t>cleansed; purified; refined</t>
-  </si>
-  <si>
-    <t>stationary; stable; stabilised; motionless</t>
-  </si>
-  <si>
-    <t>seated</t>
-  </si>
-  <si>
-    <t>bent back; folded back; flexed back</t>
-  </si>
-  <si>
-    <t>attained; reached; gained</t>
-  </si>
-  <si>
-    <t>obtained; gained; won; received</t>
-  </si>
-  <si>
-    <t>attained; obtained; understood</t>
-  </si>
-  <si>
-    <t>satisfied; pleased; content</t>
-  </si>
-  <si>
-    <t>not become; not happened</t>
-  </si>
-  <si>
-    <t>not made; not created</t>
-  </si>
-  <si>
-    <t>fulfilled; completed; finished; lit. lived</t>
-  </si>
-  <si>
-    <t>consumed; spent; finished; exhausted; destroyed</t>
-  </si>
-  <si>
-    <t>freed; liberated; emancipated</t>
-  </si>
-  <si>
-    <t>passed away; died; disappeared</t>
-  </si>
-  <si>
-    <t>seen; found; understood</t>
-  </si>
-  <si>
-    <t>freed; released; saved</t>
-  </si>
-  <si>
-    <t>asked; questioned</t>
-  </si>
-  <si>
-    <t>composed; centred; settled; collected; concentrated</t>
-  </si>
-  <si>
-    <t>present; in attendance; set up; established; lit. stood near</t>
-  </si>
-  <si>
     <t>full; filled up; complete</t>
   </si>
   <si>
@@ -2851,15 +2851,15 @@
     <t>ten (10)</t>
   </si>
   <si>
+    <t>eight (8)</t>
+  </si>
+  <si>
+    <t>nine (9)</t>
+  </si>
+  <si>
     <t>seven (7)</t>
   </si>
   <si>
-    <t>nine (9)</t>
-  </si>
-  <si>
-    <t>eight (8)</t>
-  </si>
-  <si>
     <t>five (5)</t>
   </si>
   <si>
@@ -2884,30 +2884,312 @@
     <t>three (3)</t>
   </si>
   <si>
+    <t>discipline; training; lit. leading out</t>
+  </si>
+  <si>
+    <t>teaching; doctrine</t>
+  </si>
+  <si>
+    <t>way; nature; habit; property; quality; lit. going around</t>
+  </si>
+  <si>
+    <t>state of existence; form of becoming</t>
+  </si>
+  <si>
+    <t>human; human being; man</t>
+  </si>
+  <si>
+    <t>deity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>control; authority; power; mastery</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>an individual; a person</t>
+  </si>
+  <si>
+    <t>home (of); dwelling (of); abode (of)</t>
+  </si>
+  <si>
+    <t>nature; character</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>being; existence; becoming</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>house; dwelling place; residence</t>
+  </si>
+  <si>
+    <t>obstacle; danger; lit. coming in-between</t>
+  </si>
+  <si>
+    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
+  </si>
+  <si>
     <t>act; practice; behaviour</t>
   </si>
   <si>
+    <t>fault; offence; transgression; lit. going beyond (the norm)</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>road; path; track</t>
+  </si>
+  <si>
+    <t>child; son</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>wealth; possession; property</t>
+  </si>
+  <si>
+    <t>cause; reason; supporting condition; precondition; requirement</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. coming together; meeting</t>
+  </si>
+  <si>
+    <t>core; essence; substance; value</t>
+  </si>
+  <si>
+    <t>meaning; significance</t>
+  </si>
+  <si>
+    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
     <t>man of the ruling caste; high caste man; nobleman</t>
   </si>
   <si>
+    <t>touch; contact; sense impingement</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
     <t>way; means; method; lit. path</t>
   </si>
   <si>
     <t>matter; thing; phenomena</t>
   </si>
   <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman; man</t>
+  </si>
+  <si>
     <t>world; universe; cosmos</t>
   </si>
   <si>
     <t>sense desire (of); sensual pleasure (of)</t>
   </si>
   <si>
+    <t>watch (of the night); 1/3 of a night; lit. restraint</t>
+  </si>
+  <si>
+    <t>leg; foot</t>
+  </si>
+  <si>
+    <t>schism; break; split</t>
+  </si>
+  <si>
+    <t>requisite; accessory</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
+  </si>
+  <si>
+    <t>benefit; profit; good; welfare; goal</t>
+  </si>
+  <si>
+    <t>profit; benefit; advantage</t>
+  </si>
+  <si>
+    <t>the wind; air</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>sage; intelligent person; wise man</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>a living being; creature; sentient beings</t>
+  </si>
+  <si>
     <t>dislike; ill will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
   </si>
   <si>
+    <t>hell; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; comparison</t>
+  </si>
+  <si>
+    <t>group; host; multitude; lit. collection</t>
+  </si>
+  <si>
+    <t>community; assembly of monks</t>
+  </si>
+  <si>
+    <t>well; lit. water drinking</t>
+  </si>
+  <si>
+    <t>affliction; agitation; trouble; despair</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow</t>
+  </si>
+  <si>
+    <t>anger; hatred; ill-will</t>
+  </si>
+  <si>
+    <t>desire; lust; passion; attachment</t>
+  </si>
+  <si>
+    <t>breaking-up (of); breaking apart (of); death</t>
+  </si>
+  <si>
     <t>disciple; pupil; lit. hearer</t>
   </si>
   <si>
+    <t>support; requisite; necessity</t>
+  </si>
+  <si>
+    <t>excrement; dung; faeces</t>
+  </si>
+  <si>
+    <t>urine; lit. flowing out</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent; (comm) impurity</t>
+  </si>
+  <si>
+    <t>obstacle; hindrance; obstruction; barrier</t>
+  </si>
+  <si>
+    <t>trainee; belonging to training; one who is in the course of perfection</t>
+  </si>
+  <si>
+    <t>quality; characteristic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification </t>
+  </si>
+  <si>
+    <t>cross-legged sitting position</t>
+  </si>
+  <si>
+    <t>independence; freedom from clinging; non-attachment</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; dropping; abandoning</t>
+  </si>
+  <si>
+    <t>abandoning; giving up; renunciation</t>
+  </si>
+  <si>
+    <t>clarity; light; brightness</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>smell; scent; odour</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending; termination; cessation; finishing</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>being; living being; life; lit. breath</t>
+  </si>
+  <si>
+    <t>arising; origin; appearance; lit. come up together</t>
+  </si>
+  <si>
+    <t>mass; heap; pile</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>calmness; peace; tranquillity</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>death; Death personified; the Evil One; Māra</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>(of water) flood; deluge; torrent</t>
+  </si>
+  <si>
+    <t>Sakyan; of the Sakyan people</t>
+  </si>
+  <si>
     <t>arrival (at); attainment (of); reaching (of)</t>
   </si>
   <si>
@@ -2917,6 +3199,51 @@
     <t>surpassing; overcoming; going beyond</t>
   </si>
   <si>
+    <t>control (according to); restraint (according to); holding back (according to)</t>
+  </si>
+  <si>
+    <t>non-attention; ignoring; lit. not making in mind</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>arahant; saint; holy man; sage</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>calming (of); subsiding (of); settling (of); peace (of)</t>
+  </si>
+  <si>
+    <t>state of loss; state of misery; hell; lit. going down</t>
+  </si>
+  <si>
+    <t>world; plane of existence</t>
+  </si>
+  <si>
+    <t>the sea; ocean</t>
+  </si>
+  <si>
+    <t>demon; malevolent being; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>waning; fading away; lit. discolouring</t>
+  </si>
+  <si>
+    <t>food; fuel; sustenance</t>
+  </si>
+  <si>
     <t>distinction; attainment</t>
   </si>
   <si>
@@ -2929,333 +3256,6 @@
     <t>hair of the head</t>
   </si>
   <si>
-    <t>discipline; training; lit. leading out</t>
-  </si>
-  <si>
-    <t>teaching; doctrine</t>
-  </si>
-  <si>
-    <t>way; nature; habit; property; quality; lit. going around</t>
-  </si>
-  <si>
-    <t>state of existence; form of becoming</t>
-  </si>
-  <si>
-    <t>human; human being; man</t>
-  </si>
-  <si>
-    <t>deity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">various opinions; proliferation; endless conceptualization; lit. expanding; spreading </t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>control; authority; power; mastery</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>an individual; a person</t>
-  </si>
-  <si>
-    <t>home (of); dwelling (of); abode (of)</t>
-  </si>
-  <si>
-    <t>nature; character</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; existence; becoming</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>house; dwelling place; residence</t>
-  </si>
-  <si>
-    <t>obstacle; danger; lit. coming in-between</t>
-  </si>
-  <si>
-    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
-  </si>
-  <si>
-    <t>fault; offence; transgression; lit. going beyond (the norm)</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>road; path; track</t>
-  </si>
-  <si>
-    <t>child; son</t>
-  </si>
-  <si>
-    <t>wealth; possession; property</t>
-  </si>
-  <si>
-    <t>cause; reason; supporting condition; precondition; requirement</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. coming together; meeting</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>core; essence; substance; value</t>
-  </si>
-  <si>
-    <t>meaning; significance</t>
-  </si>
-  <si>
-    <t>name of one of the Buddha's chief disciples; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>touch; contact; sense impingement</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman; man</t>
-  </si>
-  <si>
-    <t>watch (of the night); 1/3 of a night; lit. restraint</t>
-  </si>
-  <si>
-    <t>leg; foot</t>
-  </si>
-  <si>
-    <t>schism; break; split</t>
-  </si>
-  <si>
-    <t>requisite; accessory</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>personal name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happy</t>
-  </si>
-  <si>
-    <t>benefit; profit; good; welfare; goal</t>
-  </si>
-  <si>
-    <t>profit; benefit; advantage</t>
-  </si>
-  <si>
-    <t>the wind; air</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>sage; intelligent person; wise man</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>a living being; creature; sentient beings</t>
-  </si>
-  <si>
-    <t>hell; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; comparison</t>
-  </si>
-  <si>
-    <t>group; host; multitude; lit. collection</t>
-  </si>
-  <si>
-    <t>community; assembly of monks</t>
-  </si>
-  <si>
-    <t>well; lit. water drinking</t>
-  </si>
-  <si>
-    <t>affliction; agitation; trouble; despair</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow</t>
-  </si>
-  <si>
-    <t>anger; hatred; ill-will</t>
-  </si>
-  <si>
-    <t>desire; lust; passion; attachment</t>
-  </si>
-  <si>
-    <t>breaking-up (of); breaking apart (of); death</t>
-  </si>
-  <si>
-    <t>support; requisite; necessity</t>
-  </si>
-  <si>
-    <t>excrement; dung; faeces</t>
-  </si>
-  <si>
-    <t>urine; lit. flowing out</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent; (comm) impurity</t>
-  </si>
-  <si>
-    <t>obstacle; hindrance; obstruction; barrier</t>
-  </si>
-  <si>
-    <t>trainee; belonging to training; one who is in the course of perfection</t>
-  </si>
-  <si>
-    <t>quality; characteristic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification </t>
-  </si>
-  <si>
-    <t>cross-legged sitting position</t>
-  </si>
-  <si>
-    <t>independence; freedom from clinging; non-attachment</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; dropping; abandoning</t>
-  </si>
-  <si>
-    <t>abandoning; giving up; renunciation</t>
-  </si>
-  <si>
-    <t>clarity; light; brightness</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>smell; scent; odour</t>
-  </si>
-  <si>
-    <t>being; living being; life; lit. breath</t>
-  </si>
-  <si>
-    <t>arising; origin; appearance; lit. come up together</t>
-  </si>
-  <si>
-    <t>mass; heap; pile</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending; termination; cessation; finishing</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness; peace; tranquillity</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>death; Death personified; the Evil One; Māra</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>(of water) flood; deluge; torrent</t>
-  </si>
-  <si>
-    <t>Sakyan; of the Sakyan people</t>
-  </si>
-  <si>
-    <t>control (according to); restraint (according to); holding back (according to)</t>
-  </si>
-  <si>
-    <t>non-attention; ignoring; lit. not making in mind</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction</t>
-  </si>
-  <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>arahant; saint; holy man; sage</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>calming (of); subsiding (of); settling (of); peace (of)</t>
-  </si>
-  <si>
-    <t>state of loss; state of misery; hell; lit. going down</t>
-  </si>
-  <si>
-    <t>world; plane of existence</t>
-  </si>
-  <si>
-    <t>the sea; ocean</t>
-  </si>
-  <si>
-    <t>demon; malevolent being; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>waning; fading away; lit. discolouring</t>
-  </si>
-  <si>
-    <t>food; fuel; sustenance</t>
-  </si>
-  <si>
     <t>friend; companion; fellow traveller</t>
   </si>
   <si>
@@ -3379,174 +3379,174 @@
     <t>name of the people of Kosala; Kosalans</t>
   </si>
   <si>
+    <t>appearing again; renewed existence; rebirth; further becoming</t>
+  </si>
+  <si>
     <t>(vinaya) 227 precepts for Buddhist monks</t>
   </si>
   <si>
-    <t>appearing again; renewed existence; rebirth; further becoming</t>
-  </si>
-  <si>
     <t>analysis; classification; breakdown</t>
   </si>
   <si>
+    <t>gives up; renounces; forsakes; abandons; let go</t>
+  </si>
+  <si>
+    <t>practices; indulges (in); engages (in); lit. associates</t>
+  </si>
+  <si>
+    <t>removes; takes away; packs up</t>
+  </si>
+  <si>
+    <t>binds; ties up; imprisons</t>
+  </si>
+  <si>
+    <t>see! look! watch!</t>
+  </si>
+  <si>
+    <t>lasts; remains; persists; lit. stands</t>
+  </si>
+  <si>
+    <t>increases more and more; surpasses; outgrows</t>
+  </si>
+  <si>
+    <t>says (to); speaks (to); tells (to)</t>
+  </si>
+  <si>
+    <t>goes forth; ordains as monk; renounces the household life</t>
+  </si>
+  <si>
+    <t>recites</t>
+  </si>
+  <si>
     <t>goes; goes away (from); leaves</t>
   </si>
   <si>
+    <t>begins; starts; arouses</t>
+  </si>
+  <si>
+    <t>wishes; desires</t>
+  </si>
+  <si>
+    <t>wards off; prevents; guards against</t>
+  </si>
+  <si>
+    <t>approaches; goes (to); visits</t>
+  </si>
+  <si>
+    <t>says; speaks</t>
+  </si>
+  <si>
+    <t>asks (for); begs (for) requests</t>
+  </si>
+  <si>
+    <t>regards; considers; recognises (as); sees (as)</t>
+  </si>
+  <si>
+    <t>takes; steals; robs</t>
+  </si>
+  <si>
+    <t>obtains; receives; gets</t>
+  </si>
+  <si>
+    <t>exhales; breathes out</t>
+  </si>
+  <si>
+    <t>breathes; inhales</t>
+  </si>
+  <si>
+    <t>wishes (for); desires; intends; plans</t>
+  </si>
+  <si>
+    <t>grabs hold (of); seizes; takes</t>
+  </si>
+  <si>
+    <t>takes to it; finds pleasure in; enjoys it; lit. jumps forward</t>
+  </si>
+  <si>
     <t>speaks; says; proclaims</t>
   </si>
   <si>
+    <t>advises; instructs; admonishes</t>
+  </si>
+  <si>
+    <t>understands; gets; lit. sees</t>
+  </si>
+  <si>
+    <t>leaves; abandons; gives up; forsakes</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>grows; increases</t>
+  </si>
+  <si>
+    <t>sets aside; lays aside; keeps; stores; saves; lit. throws down</t>
+  </si>
+  <si>
+    <t>associates (with); keeps company (with)</t>
+  </si>
+  <si>
+    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
+  </si>
+  <si>
     <t>proceeds; continues; goes forward; practices</t>
   </si>
   <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>remembers; recollects</t>
+  </si>
+  <si>
+    <t>sits; sits down</t>
+  </si>
+  <si>
+    <t>is; is being; becomes; exists</t>
+  </si>
+  <si>
+    <t>eats; chews; bites</t>
+  </si>
+  <si>
     <t>asks; enquires; questions</t>
   </si>
   <si>
+    <t>leads (to); is useful (for); is conducive to</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>take care of; look after; maintain; lit. carry around</t>
+  </si>
+  <si>
+    <t>exerts oneself; strives; applies oneself; lit. puts forward</t>
+  </si>
+  <si>
+    <t>tries; makes an effort; strives for; exerts oneself</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. goes up to</t>
+  </si>
+  <si>
+    <t>enjoys; finds high pleasure in</t>
+  </si>
+  <si>
+    <t>enters; goes into</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>grows; increases; multiplies</t>
+  </si>
+  <si>
     <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
   </si>
   <si>
-    <t>gives up; renounces; forsakes; abandons; let go</t>
-  </si>
-  <si>
-    <t>practices; indulges (in); engages (in); lit. associates</t>
-  </si>
-  <si>
-    <t>removes; takes away; packs up</t>
-  </si>
-  <si>
-    <t>binds; ties up; imprisons</t>
-  </si>
-  <si>
-    <t>see! look! watch!</t>
-  </si>
-  <si>
-    <t>lasts; remains; persists; lit. stands</t>
-  </si>
-  <si>
-    <t>goes forth; ordains as monk; renounces the household life</t>
-  </si>
-  <si>
-    <t>increases more and more; surpasses; outgrows</t>
-  </si>
-  <si>
-    <t>says (to); speaks (to); tells (to)</t>
-  </si>
-  <si>
-    <t>recites</t>
-  </si>
-  <si>
-    <t>begins; starts; arouses</t>
-  </si>
-  <si>
-    <t>wishes; desires</t>
-  </si>
-  <si>
-    <t>wards off; prevents; guards against</t>
-  </si>
-  <si>
-    <t>approaches; goes (to); visits</t>
-  </si>
-  <si>
-    <t>says; speaks</t>
-  </si>
-  <si>
-    <t>asks (for); begs (for) requests</t>
-  </si>
-  <si>
-    <t>regards; considers; recognises (as); sees (as)</t>
-  </si>
-  <si>
-    <t>takes; steals; robs</t>
-  </si>
-  <si>
-    <t>obtains; receives; gets</t>
-  </si>
-  <si>
-    <t>exhales; breathes out</t>
-  </si>
-  <si>
-    <t>breathes; inhales</t>
-  </si>
-  <si>
-    <t>wishes (for); desires; intends; plans</t>
-  </si>
-  <si>
-    <t>grabs hold (of); seizes; takes</t>
-  </si>
-  <si>
-    <t>takes to it; finds pleasure in; enjoys it; lit. jumps forward</t>
-  </si>
-  <si>
-    <t>advises; instructs; admonishes</t>
-  </si>
-  <si>
-    <t>understands; gets; lit. sees</t>
-  </si>
-  <si>
-    <t>leaves; abandons; gives up; forsakes</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
-    <t>grows; increases</t>
-  </si>
-  <si>
-    <t>sets aside; lays aside; keeps; stores; saves; lit. throws down</t>
-  </si>
-  <si>
-    <t>associates (with); keeps company (with)</t>
-  </si>
-  <si>
-    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>remembers; recollects</t>
-  </si>
-  <si>
-    <t>sits; sits down</t>
-  </si>
-  <si>
-    <t>is; is being; becomes; exists</t>
-  </si>
-  <si>
-    <t>eats; chews; bites</t>
-  </si>
-  <si>
-    <t>leads (to); is useful (for); is conducive to</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>take care of; look after; maintain; lit. carry around</t>
-  </si>
-  <si>
-    <t>exerts oneself; strives; applies oneself; lit. puts forward</t>
-  </si>
-  <si>
-    <t>tries; makes an effort; strives for; exerts oneself</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. goes up to</t>
-  </si>
-  <si>
-    <t>enjoys; finds high pleasure in</t>
-  </si>
-  <si>
-    <t>enters; goes into</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>grows; increases; multiplies</t>
-  </si>
-  <si>
     <t>sees</t>
   </si>
   <si>
@@ -3631,39 +3631,39 @@
     <t>farmer; ploughman</t>
   </si>
   <si>
+    <t>engages (in); practices; performs</t>
+  </si>
+  <si>
+    <t>takes; grasps; embraces</t>
+  </si>
+  <si>
+    <t>arouses; exhibits; produces; brings into being</t>
+  </si>
+  <si>
+    <t>practices; follows a course of action; follows a method; is intent on</t>
+  </si>
+  <si>
+    <t>thinks; imagines; presumes</t>
+  </si>
+  <si>
+    <t>grasps; holds onto; clings to; takes as one's own; lit. takes near</t>
+  </si>
+  <si>
+    <t>is reborn in; re-arises; lit. goes towards</t>
+  </si>
+  <si>
+    <t>is disenchanted; is disinterested; is disillusioned</t>
+  </si>
+  <si>
+    <t>indulges (in); is addicted (to); lit. yokes oneself (to)</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
     <t>appears; arises; takes place</t>
   </si>
   <si>
-    <t>is reborn in; re-arises; lit. goes towards</t>
-  </si>
-  <si>
-    <t>engages (in); practices; performs</t>
-  </si>
-  <si>
-    <t>takes; grasps; embraces</t>
-  </si>
-  <si>
-    <t>arouses; exhibits; produces; brings into being</t>
-  </si>
-  <si>
-    <t>practices; follows a course of action; follows a method; is intent on</t>
-  </si>
-  <si>
-    <t>thinks; imagines; presumes</t>
-  </si>
-  <si>
-    <t>grasps; holds onto; clings to; takes as one's own; lit. takes near</t>
-  </si>
-  <si>
-    <t>is disenchanted; is disinterested; is disillusioned</t>
-  </si>
-  <si>
-    <t>indulges (in); is addicted (to); lit. yokes oneself (to)</t>
-  </si>
-  <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
     <t>meditates; contemplates; lit. thinks</t>
   </si>
   <si>
@@ -3673,27 +3673,27 @@
     <t>causes; effects</t>
   </si>
   <si>
+    <t>there are; they are</t>
+  </si>
+  <si>
+    <t>we are</t>
+  </si>
+  <si>
+    <t>you are</t>
+  </si>
+  <si>
+    <t>you (all) must be; may you (all) be</t>
+  </si>
+  <si>
+    <t>I am</t>
+  </si>
+  <si>
     <t>they are; there are</t>
   </si>
   <si>
     <t>there is</t>
   </si>
   <si>
-    <t>there are; they are</t>
-  </si>
-  <si>
-    <t>we are</t>
-  </si>
-  <si>
-    <t>you are</t>
-  </si>
-  <si>
-    <t>you (all) must be; may you (all) be</t>
-  </si>
-  <si>
-    <t>I am</t>
-  </si>
-  <si>
     <t>addressed; said (to)</t>
   </si>
   <si>
@@ -3745,18 +3745,18 @@
     <t>monk; sage; hermit; holy man</t>
   </si>
   <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>stomach; cavity of the abdomen</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>stomach; cavity of the abdomen</t>
-  </si>
-  <si>
-    <t>fire</t>
-  </si>
-  <si>
     <t>seer; sage</t>
   </si>
   <si>
@@ -3805,51 +3805,51 @@
     <t>one was; it was</t>
   </si>
   <si>
+    <t>excess; pleasure; intoxication</t>
+  </si>
+  <si>
+    <t>livelihood; way of earning a living</t>
+  </si>
+  <si>
+    <t>vigilance; earnestness; carefulness; conscientiousness; heedfulness</t>
+  </si>
+  <si>
+    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
+  </si>
+  <si>
+    <t>false teaching; against the teaching</t>
+  </si>
+  <si>
     <t>skin</t>
   </si>
   <si>
-    <t>excess; pleasure; intoxication</t>
-  </si>
-  <si>
-    <t>vigilance; earnestness; carefulness; conscientiousness; heedfulness</t>
-  </si>
-  <si>
-    <t>livelihood; way of earning a living</t>
-  </si>
-  <si>
-    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
-  </si>
-  <si>
-    <t>false teaching; against the teaching</t>
-  </si>
-  <si>
     <t>complete comprehension (of); total understanding (of); lit. arriving</t>
   </si>
   <si>
+    <t>my; mine</t>
+  </si>
+  <si>
+    <t>by me; with me</t>
+  </si>
+  <si>
+    <t>us (object)</t>
+  </si>
+  <si>
+    <t>for us; to us</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>our; of us</t>
+  </si>
+  <si>
     <t>by me</t>
   </si>
   <si>
-    <t>my; mine</t>
-  </si>
-  <si>
-    <t>by me; with me</t>
-  </si>
-  <si>
-    <t>us (object)</t>
-  </si>
-  <si>
-    <t>for us; to us</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>our; of us</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
@@ -3865,18 +3865,18 @@
     <t>leads; carries away; takes away</t>
   </si>
   <si>
+    <t>(negative particle); no; not</t>
+  </si>
+  <si>
+    <t>together (with); with</t>
+  </si>
+  <si>
+    <t>with; together (with); accompanied (by)</t>
+  </si>
+  <si>
     <t>then; now; indeed</t>
   </si>
   <si>
-    <t>(negative particle); no; not</t>
-  </si>
-  <si>
-    <t>together (with); with</t>
-  </si>
-  <si>
-    <t>with; together (with); accompanied (by)</t>
-  </si>
-  <si>
     <t>no; not</t>
   </si>
   <si>
@@ -3910,27 +3910,27 @@
     <t>will give (to)</t>
   </si>
   <si>
+    <t>to you all; for you all</t>
+  </si>
+  <si>
+    <t>by you all; with you all</t>
+  </si>
+  <si>
+    <t>of you all; yours</t>
+  </si>
+  <si>
+    <t>you (object)</t>
+  </si>
+  <si>
     <t>to you; for you all</t>
   </si>
   <si>
+    <t>you all; you (respectful plural) (object)</t>
+  </si>
+  <si>
     <t>you all; you (respectful plural)</t>
   </si>
   <si>
-    <t>you (object)</t>
-  </si>
-  <si>
-    <t>to you all; for you all</t>
-  </si>
-  <si>
-    <t>by you all; with you all</t>
-  </si>
-  <si>
-    <t>of you all; yours</t>
-  </si>
-  <si>
-    <t>you all; you (respectful plural) (object)</t>
-  </si>
-  <si>
     <t>you</t>
   </si>
   <si>
@@ -3982,12 +3982,12 @@
     <t>who returns once; once-returner</t>
   </si>
   <si>
+    <t>happy one; who is at ease; who is happy; who is comfortable</t>
+  </si>
+  <si>
     <t>celibate person; one living the holy life</t>
   </si>
   <si>
-    <t>happy one; who is at ease; who is happy; who is comfortable</t>
-  </si>
-  <si>
     <t>fellow monk; spiritual companion</t>
   </si>
   <si>
@@ -4000,30 +4000,30 @@
     <t>support (of); maintenance (of); looking after; lit. holding together</t>
   </si>
   <si>
+    <t>wise; insightful; percipient</t>
+  </si>
+  <si>
+    <t>powerful; strong</t>
+  </si>
+  <si>
+    <t>mindful; fully present; attentive; lit. having memory quality</t>
+  </si>
+  <si>
     <t>virtuous; observing the moral practices</t>
   </si>
   <si>
-    <t>wise; insightful; percipient</t>
-  </si>
-  <si>
-    <t>powerful; strong</t>
-  </si>
-  <si>
-    <t>mindful; fully present; attentive; lit. having memory quality</t>
-  </si>
-  <si>
     <t>unlearned; untaught; uninitiated; untrained; lit. one who has not heard</t>
   </si>
   <si>
+    <t>the Sublime One; the Blessed One; the Fortunate One; the Buddha</t>
+  </si>
+  <si>
+    <t>venerable; reverend; lit. elder; respected</t>
+  </si>
+  <si>
     <t>person with sight; who can see; lit. having eyes quality</t>
   </si>
   <si>
-    <t>the Sublime One; the Blessed One; the Fortunate One; the Buddha</t>
-  </si>
-  <si>
-    <t>venerable; reverend; lit. elder; respected</t>
-  </si>
-  <si>
     <t>teacher; master; the Buddha</t>
   </si>
   <si>
@@ -4051,15 +4051,15 @@
     <t>enjoys; indulges; has sex with; lit. walks around</t>
   </si>
   <si>
+    <t>at the right moment; at a suitable time; at the proper time</t>
+  </si>
+  <si>
+    <t>in the future; for the future</t>
+  </si>
+  <si>
     <t>or; either or</t>
   </si>
   <si>
-    <t>at the right moment; at a suitable time; at the proper time</t>
-  </si>
-  <si>
-    <t>in the future; for the future</t>
-  </si>
-  <si>
     <t>when; whenever; lit. at whichever time</t>
   </si>
   <si>
@@ -4123,24 +4123,24 @@
     <t>takes a bath; bathes; washes</t>
   </si>
   <si>
+    <t>could go; would move; could walk</t>
+  </si>
+  <si>
+    <t>could know; would understand; could be aware; would find out</t>
+  </si>
+  <si>
+    <t>could come; would come along; could approach; would arrive</t>
+  </si>
+  <si>
+    <t>should say; could speak</t>
+  </si>
+  <si>
+    <t>could get; would experience; would come across; lit. could arrive at</t>
+  </si>
+  <si>
     <t>could see; would see</t>
   </si>
   <si>
-    <t>could go; would move; could walk</t>
-  </si>
-  <si>
-    <t>could know; would understand; could be aware; would find out</t>
-  </si>
-  <si>
-    <t>could come; would come along; could approach; would arrive</t>
-  </si>
-  <si>
-    <t>should say; could speak</t>
-  </si>
-  <si>
-    <t>could get; would experience; would come across; lit. could arrive at</t>
-  </si>
-  <si>
     <t>could become available (for); would accrues (to); could crop up (for); lit. would arise (for)</t>
   </si>
   <si>
@@ -4162,60 +4162,60 @@
     <t>may be; would be; could be</t>
   </si>
   <si>
+    <t>training; practice</t>
+  </si>
+  <si>
+    <t>verse; poem; stanza; lit. in singing way</t>
+  </si>
+  <si>
+    <t>decay; aging</t>
+  </si>
+  <si>
+    <t>inquiry; judgement; investigation; discrimination</t>
+  </si>
+  <si>
+    <t>direction; point of the compass; cardinal point</t>
+  </si>
+  <si>
+    <t>wisdom; knowledge; insight</t>
+  </si>
+  <si>
+    <t>wishing; wanting; covetousness</t>
+  </si>
+  <si>
+    <t>army; multitude</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>arm; forearm</t>
+  </si>
+  <si>
+    <t>(vinaya) appointing; indicating; designating; lit. pointing out</t>
+  </si>
+  <si>
+    <t>word; speech; statement; talk</t>
+  </si>
+  <si>
+    <t>craving; wanting; desire; lit. thirst</t>
+  </si>
+  <si>
+    <t>sensation; feeling; felt experience</t>
+  </si>
+  <si>
+    <t>tongue</t>
+  </si>
+  <si>
+    <t>female disciple; laywomen; female devotee</t>
+  </si>
+  <si>
+    <t>ordination; renunciation; becoming a monastic; lit. going forth</t>
+  </si>
+  <si>
     <t>personal experience; realization</t>
   </si>
   <si>
-    <t>ordination; renunciation; becoming a monastic; lit. going forth</t>
-  </si>
-  <si>
-    <t>training; practice</t>
-  </si>
-  <si>
-    <t>verse; poem; stanza; lit. in singing way</t>
-  </si>
-  <si>
-    <t>decay; aging</t>
-  </si>
-  <si>
-    <t>inquiry; judgement; investigation; discrimination</t>
-  </si>
-  <si>
-    <t>direction; point of the compass; cardinal point</t>
-  </si>
-  <si>
-    <t>wisdom; knowledge; insight</t>
-  </si>
-  <si>
-    <t>wishing; wanting; covetousness</t>
-  </si>
-  <si>
-    <t>army; multitude</t>
-  </si>
-  <si>
-    <t>branch</t>
-  </si>
-  <si>
-    <t>arm; forearm</t>
-  </si>
-  <si>
-    <t>(vinaya) appointing; indicating; designating; lit. pointing out</t>
-  </si>
-  <si>
-    <t>word; speech; statement; talk</t>
-  </si>
-  <si>
-    <t>craving; wanting; desire; lit. thirst</t>
-  </si>
-  <si>
-    <t>sensation; feeling; felt experience</t>
-  </si>
-  <si>
-    <t>tongue</t>
-  </si>
-  <si>
-    <t>female disciple; laywomen; female devotee</t>
-  </si>
-  <si>
     <t>people; population; generation; mankind</t>
   </si>
   <si>
@@ -4312,12 +4312,12 @@
     <t>daughter</t>
   </si>
   <si>
+    <t>coming; approaching</t>
+  </si>
+  <si>
     <t>undertaking; taking up; accepting</t>
   </si>
   <si>
-    <t>coming; approaching</t>
-  </si>
-  <si>
     <t>removing; getting rid of; giving up; driving out</t>
   </si>
   <si>
@@ -4339,33 +4339,33 @@
     <t>sitting down</t>
   </si>
   <si>
+    <t>stability; constancy; long lasting; persisting; lit. standing</t>
+  </si>
+  <si>
+    <t>hut</t>
+  </si>
+  <si>
+    <t>cleanness; purity (of); purification (of); holiness</t>
+  </si>
+  <si>
+    <t>(vinaya) offence; transgression</t>
+  </si>
+  <si>
     <t>view; belief; opinion; concept; theory; attitude</t>
   </si>
   <si>
+    <t>attainment; meditation achievement</t>
+  </si>
+  <si>
+    <t>liking; preference; inclination; approval; lit. pleasure</t>
+  </si>
+  <si>
+    <t>good destination; happy fate; heaven; lit. going well</t>
+  </si>
+  <si>
     <t>mindfulness; presence; recollection; awareness</t>
   </si>
   <si>
-    <t>stability; constancy; long lasting; persisting; lit. standing</t>
-  </si>
-  <si>
-    <t>hut</t>
-  </si>
-  <si>
-    <t>cleanness; purity (of); purification (of); holiness</t>
-  </si>
-  <si>
-    <t>(vinaya) offence; transgression</t>
-  </si>
-  <si>
-    <t>attainment; meditation achievement</t>
-  </si>
-  <si>
-    <t>liking; preference; inclination; approval; lit. pleasure</t>
-  </si>
-  <si>
-    <t>good destination; happy fate; heaven; lit. going well</t>
-  </si>
-  <si>
     <t>delight; heart-felt joy; rapture; joyful interest; bliss; lit. lovely feeling</t>
   </si>
   <si>
@@ -4396,12 +4396,12 @@
     <t>on one side</t>
   </si>
   <si>
+    <t>everywhere; in every place</t>
+  </si>
+  <si>
     <t>from where?; where?</t>
   </si>
   <si>
-    <t>everywhere; in every place</t>
-  </si>
-  <si>
     <t>there; in that place</t>
   </si>
   <si>
@@ -4453,141 +4453,141 @@
     <t>for alms; to collect alms food</t>
   </si>
   <si>
+    <t>being; living being</t>
+  </si>
+  <si>
+    <t>sense; mental faculty; power; lit. belonging to Inda</t>
+  </si>
+  <si>
+    <t>comfortable (for); lit. for the comfort (of); to the ease (of).</t>
+  </si>
+  <si>
+    <t>beneficial (for); advantageous (for); lit. for the benefit (of); to the blessing (of)</t>
+  </si>
+  <si>
+    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates</t>
+  </si>
+  <si>
+    <t>homelessness</t>
+  </si>
+  <si>
+    <t>household life; domestic life</t>
+  </si>
+  <si>
+    <t>ease; comfort; happiness; pleasure</t>
+  </si>
+  <si>
+    <t>welfare; good; benefit; blessing</t>
+  </si>
+  <si>
+    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
+  </si>
+  <si>
+    <t>vigour; energy; effort; valour; lit. state of a strong man</t>
+  </si>
+  <si>
+    <t>full development; maturity; completion; plenty; fullness</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>source; origin; foundation; reason; lit. tied down to</t>
+  </si>
+  <si>
+    <t>jewel; gem; gemstone; treasure</t>
+  </si>
+  <si>
+    <t>family; house; household; respectable family</t>
+  </si>
+  <si>
+    <t>joy; happiness; gladness</t>
+  </si>
+  <si>
+    <t>forest; wood</t>
+  </si>
+  <si>
+    <t>head; crown</t>
+  </si>
+  <si>
+    <t>(Dhamma) power; strength</t>
+  </si>
+  <si>
+    <t>measure; measurement; length; size</t>
+  </si>
+  <si>
+    <t>acquisition; appropriation; taking possession; grasping; clinging; lit. taking near</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>side (of the body); flank</t>
+  </si>
+  <si>
+    <t>cloth; clothes; robe</t>
+  </si>
+  <si>
+    <t>merit; virtue; good deed; spiritual wealth</t>
+  </si>
+  <si>
+    <t>knowledge; understanding; insight</t>
+  </si>
+  <si>
+    <t>house; a dwelling place</t>
+  </si>
+  <si>
+    <t>in order to visit; for the purpose of seeing</t>
+  </si>
+  <si>
+    <t>present state of existence; earthly existence; such a state; lit. state of being here</t>
+  </si>
+  <si>
+    <t>source; origin; root</t>
+  </si>
+  <si>
+    <t>(mental) suffering; melancholy; dejection; depression; dissatisfaction</t>
+  </si>
+  <si>
+    <t>discomfort; suffering; pain; unease; unsatisfaction; problem; trouble</t>
+  </si>
+  <si>
+    <t>medicine; remedy; tonic; drug</t>
+  </si>
+  <si>
+    <t>not deteriorating; not decreasing; non-decline; non-regress</t>
+  </si>
+  <si>
+    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
+  </si>
+  <si>
+    <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
+  </si>
+  <si>
+    <t>shelter; refuge; help; lit. going to</t>
+  </si>
+  <si>
+    <t>fault; error; mistake; lit. to be avoided</t>
+  </si>
+  <si>
+    <t>precept; instruction; training rule; lit. part of training</t>
+  </si>
+  <si>
+    <t>danger; peril</t>
+  </si>
+  <si>
+    <t>eating; taking food</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
     <t xml:space="preserve">which is not given; something not offered </t>
   </si>
   <si>
-    <t>precept; instruction; training rule; lit. part of training</t>
-  </si>
-  <si>
-    <t>danger; peril</t>
-  </si>
-  <si>
     <t>object of the eye; shape; sight</t>
   </si>
   <si>
-    <t>being; living being</t>
-  </si>
-  <si>
-    <t>sense; mental faculty; power; lit. belonging to Inda</t>
-  </si>
-  <si>
-    <t>comfortable (for); lit. for the comfort (of); to the ease (of).</t>
-  </si>
-  <si>
-    <t>beneficial (for); advantageous (for); lit. for the benefit (of); to the blessing (of)</t>
-  </si>
-  <si>
-    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates</t>
-  </si>
-  <si>
-    <t>homelessness</t>
-  </si>
-  <si>
-    <t>household life; domestic life</t>
-  </si>
-  <si>
-    <t>ease; comfort; happiness; pleasure</t>
-  </si>
-  <si>
-    <t>welfare; good; benefit; blessing</t>
-  </si>
-  <si>
-    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
-  </si>
-  <si>
-    <t>vigour; energy; effort; valour; lit. state of a strong man</t>
-  </si>
-  <si>
-    <t>full development; maturity; completion; plenty; fullness</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>source; origin; foundation; reason; lit. tied down to</t>
-  </si>
-  <si>
-    <t>jewel; gem; gemstone; treasure</t>
-  </si>
-  <si>
-    <t>family; house; household; respectable family</t>
-  </si>
-  <si>
-    <t>joy; happiness; gladness</t>
-  </si>
-  <si>
-    <t>(Dhamma) power; strength</t>
-  </si>
-  <si>
-    <t>forest; wood</t>
-  </si>
-  <si>
-    <t>head; crown</t>
-  </si>
-  <si>
-    <t>measure; measurement; length; size</t>
-  </si>
-  <si>
-    <t>acquisition; appropriation; taking possession; grasping; clinging; lit. taking near</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>side (of the body); flank</t>
-  </si>
-  <si>
-    <t>cloth; clothes; robe</t>
-  </si>
-  <si>
-    <t>merit; virtue; good deed; spiritual wealth</t>
-  </si>
-  <si>
-    <t>knowledge; understanding; insight</t>
-  </si>
-  <si>
-    <t>house; a dwelling place</t>
-  </si>
-  <si>
-    <t>in order to visit; for the purpose of seeing</t>
-  </si>
-  <si>
-    <t>present state of existence; earthly existence; such a state; lit. state of being here</t>
-  </si>
-  <si>
-    <t>source; origin; root</t>
-  </si>
-  <si>
-    <t>(mental) suffering; melancholy; dejection; depression; dissatisfaction</t>
-  </si>
-  <si>
-    <t>discomfort; suffering; pain; unease; unsatisfaction; problem; trouble</t>
-  </si>
-  <si>
-    <t>medicine; remedy; tonic; drug</t>
-  </si>
-  <si>
-    <t>not deteriorating; not decreasing; non-decline; non-regress</t>
-  </si>
-  <si>
-    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
-  </si>
-  <si>
-    <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
-  </si>
-  <si>
-    <t>shelter; refuge; help; lit. going to</t>
-  </si>
-  <si>
-    <t>fault; error; mistake; lit. to be avoided</t>
-  </si>
-  <si>
-    <t>eating; taking food</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
     <t>awareness; consciousness; fifth of the five aggregates; lit. knowing</t>
   </si>
   <si>
@@ -4678,37 +4678,37 @@
     <t>a bone</t>
   </si>
   <si>
+    <t>that much; that far; as long as; to that extent; until; at least</t>
+  </si>
+  <si>
+    <t>too; also; as well</t>
+  </si>
+  <si>
     <t>surely?; didn't?; wouldn't?</t>
   </si>
   <si>
     <t>it is suitable (to); it is proper (to); it is fit (for); lit. healthy</t>
   </si>
   <si>
+    <t>just; only</t>
+  </si>
+  <si>
+    <t>is able (to); is possible (to); is capable (of); lit. enough</t>
+  </si>
+  <si>
+    <t>how?; in what way?</t>
+  </si>
+  <si>
+    <t>enough; it is enough (for)</t>
+  </si>
+  <si>
+    <t>as long as; as far as; up to; until; from … to …</t>
+  </si>
+  <si>
+    <t>it is possible (to); one is able (to)</t>
+  </si>
+  <si>
     <t>(it is) suitable (to); proper (to); worthy (for); lit. enough (to)</t>
-  </si>
-  <si>
-    <t>that much; that far; as long as; to that extent; until; at least</t>
-  </si>
-  <si>
-    <t>too; also; as well</t>
-  </si>
-  <si>
-    <t>just; only</t>
-  </si>
-  <si>
-    <t>is able (to); is possible (to); is capable (of); lit. enough</t>
-  </si>
-  <si>
-    <t>how?; in what way?</t>
-  </si>
-  <si>
-    <t>enough; it is enough (for)</t>
-  </si>
-  <si>
-    <t>as long as; as far as; up to; until; from … to …</t>
-  </si>
-  <si>
-    <t>it is possible (to); one is able (to)</t>
   </si>
   <si>
     <t>that's enough (of)! stop (with)!</t>
@@ -6975,7 +6975,7 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C98" t="s">
         <v>898</v>
@@ -7043,7 +7043,7 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="C102" t="s">
         <v>902</v>
@@ -10885,7 +10885,7 @@
         <v>331</v>
       </c>
       <c r="B328" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C328" t="s">
         <v>1128</v>
@@ -10970,7 +10970,7 @@
         <v>336</v>
       </c>
       <c r="B333" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C333" t="s">
         <v>1133</v>
@@ -12500,7 +12500,7 @@
         <v>426</v>
       </c>
       <c r="B423" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C423" t="s">
         <v>1222</v>
@@ -12534,7 +12534,7 @@
         <v>428</v>
       </c>
       <c r="B425" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C425" t="s">
         <v>1224</v>
@@ -13404,7 +13404,7 @@
         <v>784</v>
       </c>
       <c r="C476" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D476" t="s">
         <v>1613</v>
@@ -13421,7 +13421,7 @@
         <v>784</v>
       </c>
       <c r="C477" t="s">
-        <v>1271</v>
+        <v>1275</v>
       </c>
       <c r="D477" t="s">
         <v>1613</v>
@@ -15546,7 +15546,7 @@
         <v>797</v>
       </c>
       <c r="C602" t="s">
-        <v>1399</v>
+        <v>961</v>
       </c>
       <c r="D602" t="s">
         <v>1629</v>
@@ -15563,7 +15563,7 @@
         <v>797</v>
       </c>
       <c r="C603" t="s">
-        <v>976</v>
+        <v>1399</v>
       </c>
       <c r="D603" t="s">
         <v>1629</v>

--- a/pali-class/vocab/vocab-class12.xlsx
+++ b/pali-class/vocab/vocab-class12.xlsx
@@ -46,57 +46,57 @@
     <t>amu</t>
   </si>
   <si>
+    <t>passanta 1</t>
+  </si>
+  <si>
+    <t>jānanta</t>
+  </si>
+  <si>
+    <t>samanupassanta</t>
+  </si>
+  <si>
+    <t>tiṭṭhanta 1</t>
+  </si>
+  <si>
+    <t>anussaranta</t>
+  </si>
+  <si>
+    <t>gacchanta</t>
+  </si>
+  <si>
+    <t>viharanta</t>
+  </si>
+  <si>
+    <t>ajānanta</t>
+  </si>
+  <si>
     <t>anāpucchanta</t>
   </si>
   <si>
-    <t>passanta 1</t>
-  </si>
-  <si>
-    <t>jānanta</t>
-  </si>
-  <si>
-    <t>samanupassanta</t>
-  </si>
-  <si>
-    <t>tiṭṭhanta 1</t>
-  </si>
-  <si>
-    <t>anussaranta</t>
-  </si>
-  <si>
-    <t>gacchanta</t>
-  </si>
-  <si>
-    <t>viharanta</t>
-  </si>
-  <si>
     <t>apassanta</t>
   </si>
   <si>
-    <t>ajānanta</t>
-  </si>
-  <si>
     <t>ekacca 1</t>
   </si>
   <si>
     <t>ima 1.1</t>
   </si>
   <si>
+    <t>cavamāna</t>
+  </si>
+  <si>
+    <t>caramāna</t>
+  </si>
+  <si>
+    <t>sampassamāna</t>
+  </si>
+  <si>
+    <t>ākaṅkhamāna</t>
+  </si>
+  <si>
     <t>upapajjamāna</t>
   </si>
   <si>
-    <t>cavamāna</t>
-  </si>
-  <si>
-    <t>caramāna</t>
-  </si>
-  <si>
-    <t>sampassamāna</t>
-  </si>
-  <si>
-    <t>ākaṅkhamāna</t>
-  </si>
-  <si>
     <t>methuna 1</t>
   </si>
   <si>
@@ -121,12 +121,12 @@
     <t>dakkha</t>
   </si>
   <si>
+    <t>paṇīta 2</t>
+  </si>
+  <si>
     <t>hīna 1</t>
   </si>
   <si>
-    <t>paṇīta 2</t>
-  </si>
-  <si>
     <t>anicca 1</t>
   </si>
   <si>
@@ -226,6 +226,12 @@
     <t>oḷārika 2</t>
   </si>
   <si>
+    <t>iṭṭha 1</t>
+  </si>
+  <si>
+    <t>kanta 1.1</t>
+  </si>
+  <si>
     <t>akhaṇḍa</t>
   </si>
   <si>
@@ -253,36 +259,30 @@
     <t>abhikkanta 3</t>
   </si>
   <si>
+    <t>yāvataka</t>
+  </si>
+  <si>
+    <t>nava 1</t>
+  </si>
+  <si>
+    <t>svākkhāta</t>
+  </si>
+  <si>
+    <t>sārambha 2.1</t>
+  </si>
+  <si>
+    <t>kaṇha 1</t>
+  </si>
+  <si>
+    <t>ariya 1</t>
+  </si>
+  <si>
     <t>panta 2</t>
   </si>
   <si>
-    <t>yāvataka</t>
-  </si>
-  <si>
-    <t>nava 1</t>
-  </si>
-  <si>
-    <t>svākkhāta</t>
-  </si>
-  <si>
     <t>sāra 1</t>
   </si>
   <si>
-    <t>sārambha 2.1</t>
-  </si>
-  <si>
-    <t>kaṇha 1</t>
-  </si>
-  <si>
-    <t>ariya 1</t>
-  </si>
-  <si>
-    <t>iṭṭha 1</t>
-  </si>
-  <si>
-    <t>kanta 1.1</t>
-  </si>
-  <si>
     <t>sukhuma 1</t>
   </si>
   <si>
@@ -499,474 +499,474 @@
     <t>dhamma 1.03</t>
   </si>
   <si>
+    <t>bhava 3</t>
+  </si>
+  <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>vasa 1.2</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>āsaya 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.01</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>moggallāna 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.14</t>
+  </si>
+  <si>
+    <t>accaya 3</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>magga 1</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>māsa 2.1</t>
+  </si>
+  <si>
+    <t>bhoga 1.1</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>vaccha 1.1</t>
+  </si>
+  <si>
+    <t>sāra 2</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>yāma 1</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>bheda 2</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>attha 1.2</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>vāta 1</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>paṇḍita 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>byāpāda</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
     <t>pariyāya 4</t>
   </si>
   <si>
-    <t>bhava 3</t>
-  </si>
-  <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>vasa 1.2</t>
-  </si>
-  <si>
-    <t>vaccha 1.1</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>āsaya 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.01</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>antarāya</t>
-  </si>
-  <si>
-    <t>moggallāna 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.14</t>
-  </si>
-  <si>
-    <t>accaya 3</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>magga 1</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>māsa 2.1</t>
-  </si>
-  <si>
-    <t>bhoga 1.1</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>sāra 2</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>paccaya 1</t>
+  </si>
+  <si>
+    <t>uccāra</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gandha 1</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>pāṇa 3</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>ogha 1</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>saṃvara 1</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>apāya 1</t>
+  </si>
+  <si>
+    <t>paṭilābha</t>
+  </si>
+  <si>
+    <t>loka 2</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>āhāra 1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>ārāma 3</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>gabbha 3</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>bāla 2</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>kassapa 1</t>
+  </si>
+  <si>
+    <t>cora</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>amanasikāra 1</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>udapāna</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>upāsaka</t>
+  </si>
+  <si>
+    <t>kalyāṇamitta 2</t>
+  </si>
+  <si>
+    <t>gāma 1</t>
+  </si>
+  <si>
+    <t>cāga 2</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>thullaccaya</t>
+  </si>
+  <si>
+    <t>thera 1.2</t>
   </si>
   <si>
     <t>daṇḍa 1</t>
   </si>
   <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.06</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>yāma 1</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>bheda 2</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>attha 1.2</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>vāta 1</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>paṇḍita 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>satta 2.1</t>
-  </si>
-  <si>
-    <t>byāpāda</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1.1</t>
-  </si>
-  <si>
-    <t>kāya 1.2</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>udapāna</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>paccaya 1</t>
-  </si>
-  <si>
-    <t>uccāra</t>
+    <t>dhamma 1.09</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
   </si>
   <si>
     <t>passāva</t>
   </si>
   <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gandha 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>pāṇa 3</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>ogha 1</t>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>manasikāra</t>
   </si>
   <si>
     <t>sakka 3</t>
   </si>
   <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>saṃvara 1</t>
-  </si>
-  <si>
-    <t>amanasikāra 1</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1.1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>apāya 1</t>
-  </si>
-  <si>
-    <t>loka 2</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>āhāra 1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>ārāma 3</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
-    <t>gabbha 3</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>bāla 2</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>kassapa 1</t>
-  </si>
-  <si>
-    <t>cora</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>paṭilābha</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>upāsaka</t>
-  </si>
-  <si>
-    <t>kalyāṇamitta 2</t>
-  </si>
-  <si>
-    <t>gāma 1</t>
-  </si>
-  <si>
-    <t>cāga 2</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>thullaccaya</t>
-  </si>
-  <si>
-    <t>thera 1.2</t>
-  </si>
-  <si>
-    <t>dhamma 1.09</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
     <t>satipaṭṭhāna 1</t>
   </si>
   <si>
@@ -1009,162 +1009,162 @@
     <t>bandhati 1</t>
   </si>
   <si>
+    <t>abhivaḍḍhati</t>
+  </si>
+  <si>
+    <t>vadati 1</t>
+  </si>
+  <si>
+    <t>pabbajati</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
+    <t>pakkamati 1</t>
+  </si>
+  <si>
+    <t>ārabhati 1.1</t>
+  </si>
+  <si>
+    <t>icchati 1.1</t>
+  </si>
+  <si>
+    <t>rakkhati 1</t>
+  </si>
+  <si>
+    <t>gaccha 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamati</t>
+  </si>
+  <si>
+    <t>bhāsati 1.1</t>
+  </si>
+  <si>
+    <t>yācati 1</t>
+  </si>
+  <si>
+    <t>samanupassati 2</t>
+  </si>
+  <si>
+    <t>harati 2</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>passasati</t>
+  </si>
+  <si>
+    <t>assasati</t>
+  </si>
+  <si>
+    <t>ākaṅkhati</t>
+  </si>
+  <si>
+    <t>gaṇhati 1</t>
+  </si>
+  <si>
+    <t>pakkhandati 1</t>
+  </si>
+  <si>
+    <t>bhaṇati 1</t>
+  </si>
+  <si>
+    <t>ovadati</t>
+  </si>
+  <si>
+    <t>passati 2</t>
+  </si>
+  <si>
+    <t>jahati 1</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>nikkhipati 3</t>
+  </si>
+  <si>
+    <t>bhajati 1.1</t>
+  </si>
+  <si>
+    <t>vattati 1</t>
+  </si>
+  <si>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
+  </si>
+  <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
+    <t>bhavati 1</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
+    <t>pucchati</t>
+  </si>
+  <si>
+    <t>saṃvattati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>pariharati 3</t>
+  </si>
+  <si>
+    <t>padahati 1</t>
+  </si>
+  <si>
+    <t>vāyamati</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
+    <t>abhiramati</t>
+  </si>
+  <si>
+    <t>pavisati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>vaḍḍhati</t>
+  </si>
+  <si>
+    <t>kappati</t>
+  </si>
+  <si>
+    <t>passati 1</t>
+  </si>
+  <si>
+    <t>arahati 3</t>
+  </si>
+  <si>
+    <t>carati 1.1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
     <t>passa 2.1</t>
   </si>
   <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>abhivaḍḍhati</t>
-  </si>
-  <si>
-    <t>vadati 1</t>
-  </si>
-  <si>
-    <t>pabbajati</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>pakkamati 1</t>
-  </si>
-  <si>
-    <t>ārabhati 1.1</t>
-  </si>
-  <si>
-    <t>icchati 1.1</t>
-  </si>
-  <si>
-    <t>rakkhati 2</t>
-  </si>
-  <si>
-    <t>upasaṅkamati</t>
-  </si>
-  <si>
-    <t>bhāsati 1.1</t>
-  </si>
-  <si>
-    <t>yācati 1</t>
-  </si>
-  <si>
-    <t>samanupassati 2</t>
-  </si>
-  <si>
-    <t>harati 2</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>passasati</t>
-  </si>
-  <si>
-    <t>assasati</t>
-  </si>
-  <si>
-    <t>ākaṅkhati</t>
-  </si>
-  <si>
-    <t>gaṇhati 1</t>
-  </si>
-  <si>
-    <t>pakkhandati 1</t>
-  </si>
-  <si>
-    <t>bhaṇati 1</t>
-  </si>
-  <si>
-    <t>ovadati</t>
-  </si>
-  <si>
-    <t>passati 2</t>
-  </si>
-  <si>
-    <t>jahati 1</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
     <t>pavaḍḍhati 1</t>
   </si>
   <si>
-    <t>nikkhipati 3</t>
-  </si>
-  <si>
-    <t>bhajati 1.1</t>
-  </si>
-  <si>
-    <t>arahati 3</t>
-  </si>
-  <si>
-    <t>vattati 1</t>
-  </si>
-  <si>
-    <t>labhati 1</t>
-  </si>
-  <si>
-    <t>anussarati 1.1</t>
-  </si>
-  <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
-    <t>bhavati 1</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>pucchati</t>
-  </si>
-  <si>
-    <t>saṃvattati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>pariharati 3</t>
-  </si>
-  <si>
-    <t>padahati 1</t>
-  </si>
-  <si>
-    <t>vāyamati</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
-    <t>abhiramati</t>
-  </si>
-  <si>
-    <t>pavisati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>vaḍḍhati</t>
-  </si>
-  <si>
-    <t>kappati</t>
-  </si>
-  <si>
-    <t>passati 1</t>
-  </si>
-  <si>
-    <t>gaccha 1</t>
-  </si>
-  <si>
-    <t>carati 1.1</t>
-  </si>
-  <si>
     <t>pūjeti 1</t>
   </si>
   <si>
@@ -1177,12 +1177,12 @@
     <t>vedeti 1</t>
   </si>
   <si>
+    <t>seti 2</t>
+  </si>
+  <si>
     <t>dhāreti 3</t>
   </si>
   <si>
-    <t>seti 2</t>
-  </si>
-  <si>
     <t>deti 1</t>
   </si>
   <si>
@@ -1207,36 +1207,36 @@
     <t>suṇātu</t>
   </si>
   <si>
+    <t>pāpuṇāti 1</t>
+  </si>
+  <si>
     <t>pajānāti</t>
   </si>
   <si>
+    <t>paṭibhāti</t>
+  </si>
+  <si>
+    <t>paṭijānāti 3</t>
+  </si>
+  <si>
+    <t>dadāti</t>
+  </si>
+  <si>
+    <t>vijānāti 1</t>
+  </si>
+  <si>
+    <t>ājānāti 1</t>
+  </si>
+  <si>
+    <t>paggaṇhāti 2</t>
+  </si>
+  <si>
+    <t>jānāti 1</t>
+  </si>
+  <si>
     <t>paṭiggaṇhāti 1</t>
   </si>
   <si>
-    <t>paṭibhāti</t>
-  </si>
-  <si>
-    <t>paṭijānāti 3</t>
-  </si>
-  <si>
-    <t>dadāti</t>
-  </si>
-  <si>
-    <t>vijānāti 1</t>
-  </si>
-  <si>
-    <t>ājānāti 1</t>
-  </si>
-  <si>
-    <t>paggaṇhāti 2</t>
-  </si>
-  <si>
-    <t>jānāti 1</t>
-  </si>
-  <si>
-    <t>pāpuṇāti 1</t>
-  </si>
-  <si>
     <t>vāṇija</t>
   </si>
   <si>
@@ -1249,6 +1249,9 @@
     <t>ādiyati 1</t>
   </si>
   <si>
+    <t>āpajjati 5</t>
+  </si>
+  <si>
     <t>āpajjati 2</t>
   </si>
   <si>
@@ -1258,33 +1261,30 @@
     <t>maññati 1</t>
   </si>
   <si>
+    <t>upapajjati 1</t>
+  </si>
+  <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
+    <t>uppajjati 1</t>
+  </si>
+  <si>
+    <t>nibbindati 1</t>
+  </si>
+  <si>
+    <t>jhāyati 2</t>
+  </si>
+  <si>
+    <t>chindati 1</t>
+  </si>
+  <si>
     <t>upādiyati</t>
   </si>
   <si>
-    <t>upapajjati 1</t>
-  </si>
-  <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
-    <t>uppajjati 1</t>
-  </si>
-  <si>
-    <t>nibbindati 1</t>
-  </si>
-  <si>
-    <t>jhāyati 2</t>
-  </si>
-  <si>
-    <t>chindati 1</t>
-  </si>
-  <si>
-    <t>āpajjati 5</t>
-  </si>
-  <si>
     <t>atthi 2</t>
   </si>
   <si>
@@ -1342,18 +1342,18 @@
     <t>pakkāmi 1</t>
   </si>
   <si>
+    <t>upasaṅkami</t>
+  </si>
+  <si>
+    <t>nisīdi</t>
+  </si>
+  <si>
+    <t>pucchi</t>
+  </si>
+  <si>
     <t>sammodi</t>
   </si>
   <si>
-    <t>pucchi</t>
-  </si>
-  <si>
-    <t>upasaṅkami</t>
-  </si>
-  <si>
-    <t>nisīdi</t>
-  </si>
-  <si>
     <t>muni 1</t>
   </si>
   <si>
@@ -1366,6 +1366,9 @@
     <t>aggi</t>
   </si>
   <si>
+    <t>ñāti</t>
+  </si>
+  <si>
     <t>gahapati</t>
   </si>
   <si>
@@ -1384,9 +1387,6 @@
     <t>byādhi</t>
   </si>
   <si>
-    <t>ñāti</t>
-  </si>
-  <si>
     <t>karoti 1</t>
   </si>
   <si>
@@ -1405,12 +1405,12 @@
     <t>abhāsi 1</t>
   </si>
   <si>
+    <t>byākāsi 1</t>
+  </si>
+  <si>
     <t>aṭṭhāsi 1</t>
   </si>
   <si>
-    <t>byākāsi 1</t>
-  </si>
-  <si>
     <t>āsiṃ</t>
   </si>
   <si>
@@ -1450,6 +1450,9 @@
     <t>no 2.3</t>
   </si>
   <si>
+    <t>me 3</t>
+  </si>
+  <si>
     <t>mayaṃ</t>
   </si>
   <si>
@@ -1471,9 +1474,6 @@
     <t>maṃ 1</t>
   </si>
   <si>
-    <t>me 3</t>
-  </si>
-  <si>
     <t>sobhati 2</t>
   </si>
   <si>
@@ -1537,6 +1537,9 @@
     <t>taṃ 2.1</t>
   </si>
   <si>
+    <t>tayā 1</t>
+  </si>
+  <si>
     <t>tumhākaṃ 2</t>
   </si>
   <si>
@@ -1546,24 +1549,21 @@
     <t>tumhe 1</t>
   </si>
   <si>
+    <t>vo 1.4</t>
+  </si>
+  <si>
     <t>tvaṃ 1</t>
   </si>
   <si>
+    <t>te 2.3</t>
+  </si>
+  <si>
+    <t>tuvaṃ 1</t>
+  </si>
+  <si>
     <t>te 2.4</t>
   </si>
   <si>
-    <t>te 2.3</t>
-  </si>
-  <si>
-    <t>tuvaṃ 1</t>
-  </si>
-  <si>
-    <t>tayā 1</t>
-  </si>
-  <si>
-    <t>vo 1.4</t>
-  </si>
-  <si>
     <t>nābhijānāti 1</t>
   </si>
   <si>
@@ -1651,27 +1651,30 @@
     <t>akkhātar</t>
   </si>
   <si>
+    <t>bhāsitar</t>
+  </si>
+  <si>
     <t>dātar 1</t>
   </si>
   <si>
-    <t>bhāsitar</t>
-  </si>
-  <si>
     <t>pitar</t>
   </si>
   <si>
+    <t>mātāpitar</t>
+  </si>
+  <si>
     <t>bhātar</t>
   </si>
   <si>
-    <t>mātāpitar</t>
-  </si>
-  <si>
     <t>paricarati 3</t>
   </si>
   <si>
     <t>kālena</t>
   </si>
   <si>
+    <t>pubbe 1</t>
+  </si>
+  <si>
     <t>āyatiṃ</t>
   </si>
   <si>
@@ -1687,33 +1690,30 @@
     <t>ca 1</t>
   </si>
   <si>
+    <t>pacchā 1</t>
+  </si>
+  <si>
+    <t>pure 2</t>
+  </si>
+  <si>
+    <t>ajja</t>
+  </si>
+  <si>
     <t>sabbadā</t>
   </si>
   <si>
-    <t>pacchā 1</t>
-  </si>
-  <si>
-    <t>pure 2</t>
-  </si>
-  <si>
-    <t>ajja</t>
-  </si>
-  <si>
-    <t>pubbe 1</t>
-  </si>
-  <si>
     <t>garu 5</t>
   </si>
   <si>
+    <t>phāsu 2</t>
+  </si>
+  <si>
     <t>bhikkhu</t>
   </si>
   <si>
     <t>maccu</t>
   </si>
   <si>
-    <t>phāsu 2</t>
-  </si>
-  <si>
     <t>khemī</t>
   </si>
   <si>
@@ -1732,12 +1732,12 @@
     <t>lokavidū</t>
   </si>
   <si>
+    <t>paṭighāta 1</t>
+  </si>
+  <si>
     <t>gāha 2.2</t>
   </si>
   <si>
-    <t>paṭighāta 1</t>
-  </si>
-  <si>
     <t>nahāyati</t>
   </si>
   <si>
@@ -1759,15 +1759,15 @@
     <t>passeyya 1</t>
   </si>
   <si>
+    <t>vihareyya</t>
+  </si>
+  <si>
     <t>uppajjeyya</t>
   </si>
   <si>
     <t>upapajjeyya</t>
   </si>
   <si>
-    <t>vihareyya</t>
-  </si>
-  <si>
     <t>hanati 2</t>
   </si>
   <si>
@@ -1795,6 +1795,12 @@
     <t>disā 1</t>
   </si>
   <si>
+    <t>nisajjā 1</t>
+  </si>
+  <si>
+    <t>kathā 1</t>
+  </si>
+  <si>
     <t>paññā 1</t>
   </si>
   <si>
@@ -1843,12 +1849,6 @@
     <t>avijjā</t>
   </si>
   <si>
-    <t>nisajjā 1</t>
-  </si>
-  <si>
-    <t>kathā 1</t>
-  </si>
-  <si>
     <t>upasampadā 2</t>
   </si>
   <si>
@@ -1891,45 +1891,45 @@
     <t>hitvā</t>
   </si>
   <si>
+    <t>disvā</t>
+  </si>
+  <si>
+    <t>ñatvā</t>
+  </si>
+  <si>
+    <t>sāyitvā</t>
+  </si>
+  <si>
+    <t>sutvā</t>
+  </si>
+  <si>
+    <t>chetvā 1</t>
+  </si>
+  <si>
+    <t>ābhujitvā</t>
+  </si>
+  <si>
+    <t>paṭissutvā</t>
+  </si>
+  <si>
+    <t>katvāna 1</t>
+  </si>
+  <si>
+    <t>caritvā 1.1</t>
+  </si>
+  <si>
+    <t>gahetvā 1</t>
+  </si>
+  <si>
+    <t>karitvā 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamitvā</t>
+  </si>
+  <si>
     <t>paggahetvā 2</t>
   </si>
   <si>
-    <t>disvā</t>
-  </si>
-  <si>
-    <t>ñatvā</t>
-  </si>
-  <si>
-    <t>sāyitvā</t>
-  </si>
-  <si>
-    <t>sutvā</t>
-  </si>
-  <si>
-    <t>chetvā 1</t>
-  </si>
-  <si>
-    <t>ābhujitvā</t>
-  </si>
-  <si>
-    <t>paṭissutvā</t>
-  </si>
-  <si>
-    <t>katvāna 1</t>
-  </si>
-  <si>
-    <t>caritvā 1.1</t>
-  </si>
-  <si>
-    <t>gahetvā 1</t>
-  </si>
-  <si>
-    <t>karitvā 1</t>
-  </si>
-  <si>
-    <t>upasaṅkamitvā</t>
-  </si>
-  <si>
     <t>mātar</t>
   </si>
   <si>
@@ -1984,21 +1984,21 @@
     <t>ruci</t>
   </si>
   <si>
+    <t>sati 1.2</t>
+  </si>
+  <si>
+    <t>pīti 1.1</t>
+  </si>
+  <si>
+    <t>passaddhi</t>
+  </si>
+  <si>
+    <t>saṅghāṭi 1</t>
+  </si>
+  <si>
     <t>sugati</t>
   </si>
   <si>
-    <t>sati 1.2</t>
-  </si>
-  <si>
-    <t>pīti 1.1</t>
-  </si>
-  <si>
-    <t>passaddhi</t>
-  </si>
-  <si>
-    <t>saṅghāṭi 1</t>
-  </si>
-  <si>
     <t>vimutti</t>
   </si>
   <si>
@@ -2008,39 +2008,39 @@
     <t>yattha</t>
   </si>
   <si>
+    <t>tattha 2</t>
+  </si>
+  <si>
+    <t>purato</t>
+  </si>
+  <si>
+    <t>idha 2</t>
+  </si>
+  <si>
+    <t>ekato 1</t>
+  </si>
+  <si>
+    <t>sabbattha 1</t>
+  </si>
+  <si>
+    <t>tattha 1</t>
+  </si>
+  <si>
+    <t>upari 1</t>
+  </si>
+  <si>
+    <t>yato 2</t>
+  </si>
+  <si>
+    <t>tatra 1</t>
+  </si>
+  <si>
     <t>ettha 1</t>
   </si>
   <si>
-    <t>purato</t>
-  </si>
-  <si>
-    <t>idha 2</t>
-  </si>
-  <si>
-    <t>ekato 1</t>
-  </si>
-  <si>
     <t>kuto 1</t>
   </si>
   <si>
-    <t>sabbattha 1</t>
-  </si>
-  <si>
-    <t>tattha 1</t>
-  </si>
-  <si>
-    <t>upari 1</t>
-  </si>
-  <si>
-    <t>yato 2</t>
-  </si>
-  <si>
-    <t>tatra 1</t>
-  </si>
-  <si>
-    <t>tattha 2</t>
-  </si>
-  <si>
     <t>dhātu 1</t>
   </si>
   <si>
@@ -2152,6 +2152,9 @@
     <t>passa 1.1</t>
   </si>
   <si>
+    <t>adinna 1</t>
+  </si>
+  <si>
     <t>vattha 1.1</t>
   </si>
   <si>
@@ -2194,24 +2197,21 @@
     <t>saraṇa 2.1</t>
   </si>
   <si>
+    <t>sikkhāpada</t>
+  </si>
+  <si>
+    <t>bhaya 3</t>
+  </si>
+  <si>
     <t>vajja 3</t>
   </si>
   <si>
-    <t>sikkhāpada</t>
-  </si>
-  <si>
-    <t>bhaya 3</t>
-  </si>
-  <si>
     <t>bhojana 2</t>
   </si>
   <si>
     <t>vassa 3</t>
   </si>
   <si>
-    <t>adinna 1</t>
-  </si>
-  <si>
     <t>rūpa 3</t>
   </si>
   <si>
@@ -2437,57 +2437,57 @@
     <t>(of person or place or thing) that; such; so and so</t>
   </si>
   <si>
+    <t>seeing</t>
+  </si>
+  <si>
+    <t>knowing; being aware (of)</t>
+  </si>
+  <si>
+    <t>seeing; perceiving</t>
+  </si>
+  <si>
+    <t>standing; standing still</t>
+  </si>
+  <si>
+    <t>remembering; recollecting; keeping in mind</t>
+  </si>
+  <si>
+    <t>going; walking; travelling</t>
+  </si>
+  <si>
+    <t>living (in); staying (at); remaining (in); continuing (in)</t>
+  </si>
+  <si>
+    <t>not knowing; being ignorant (of)</t>
+  </si>
+  <si>
     <t>not asking permission; not informing</t>
   </si>
   <si>
-    <t>seeing</t>
-  </si>
-  <si>
-    <t>knowing; being aware (of)</t>
-  </si>
-  <si>
-    <t>seeing; perceiving</t>
-  </si>
-  <si>
-    <t>standing; standing still</t>
-  </si>
-  <si>
-    <t>remembering; recollecting; keeping in mind</t>
-  </si>
-  <si>
-    <t>going; walking; travelling</t>
-  </si>
-  <si>
-    <t>living (in); staying (at); remaining (in); continuing (in)</t>
-  </si>
-  <si>
     <t>not seeing; not noticing; not aware</t>
   </si>
   <si>
-    <t>not knowing; being ignorant (of)</t>
-  </si>
-  <si>
     <t>certain; one of</t>
   </si>
   <si>
     <t>this</t>
   </si>
   <si>
+    <t>falling away; dying</t>
+  </si>
+  <si>
+    <t>walking; walking about; wandering around (in); going around</t>
+  </si>
+  <si>
+    <t>seeing; observing; considering</t>
+  </si>
+  <si>
+    <t>wishing (for); desiring (for); seeking (for)</t>
+  </si>
+  <si>
     <t>being reborn; re-arising; lit. going towards</t>
   </si>
   <si>
-    <t>falling away; dying</t>
-  </si>
-  <si>
-    <t>walking; walking about; wandering around (in); going around</t>
-  </si>
-  <si>
-    <t>seeing; observing; considering</t>
-  </si>
-  <si>
-    <t>wishing (for); desiring (for); seeking (for)</t>
-  </si>
-  <si>
     <t>sexual</t>
   </si>
   <si>
@@ -2512,12 +2512,12 @@
     <t>expert; skilled; able; adroit</t>
   </si>
   <si>
+    <t>fine; refined; excellent; superior; sublime; lit. brought forward</t>
+  </si>
+  <si>
     <t>low; inferior; deficient</t>
   </si>
   <si>
-    <t>fine; refined; excellent; superior; sublime; lit. brought forward</t>
-  </si>
-  <si>
     <t>impermanent; inconstant; not lasting; discontinuous; disordered; unstable; unreliable; irregular</t>
   </si>
   <si>
@@ -2617,6 +2617,12 @@
     <t>(of food) solid; heavy; substantial</t>
   </si>
   <si>
+    <t>pleasing; likeable; cherished; wished for; lit. wished</t>
+  </si>
+  <si>
+    <t>charming (to); pleasant (to); desirable; agreeable (to); lit. desired</t>
+  </si>
+  <si>
     <t>unbroken; unfragmented; whole</t>
   </si>
   <si>
@@ -2644,36 +2650,30 @@
     <t>progressing; moving on; (comm) ending; depletion</t>
   </si>
   <si>
+    <t>as much as; as long as; as big as; as far as</t>
+  </si>
+  <si>
+    <t>new; fresh</t>
+  </si>
+  <si>
+    <t>well taught; well preached; well explained</t>
+  </si>
+  <si>
+    <t>harmful; hurtful; injurious (to living creatures)</t>
+  </si>
+  <si>
+    <t>dark; black</t>
+  </si>
+  <si>
+    <t>noble; distinguished; of the Buddha</t>
+  </si>
+  <si>
     <t>secluded; isolated; solitary</t>
   </si>
   <si>
-    <t>as much as; as long as; as big as; as far as</t>
-  </si>
-  <si>
-    <t>new; fresh</t>
-  </si>
-  <si>
-    <t>well taught; well preached; well explained</t>
-  </si>
-  <si>
     <t>essential; substantial; valuable; sound</t>
   </si>
   <si>
-    <t>harmful; hurtful; injurious (to living creatures)</t>
-  </si>
-  <si>
-    <t>dark; black</t>
-  </si>
-  <si>
-    <t>noble; distinguished; of the Buddha</t>
-  </si>
-  <si>
-    <t>pleasing; likeable; cherished; wished for; lit. wished</t>
-  </si>
-  <si>
-    <t>charming (to); pleasant (to); desirable; agreeable (to); lit. desired</t>
-  </si>
-  <si>
     <t>fine; subtle; refined</t>
   </si>
   <si>
@@ -2890,471 +2890,471 @@
     <t>teaching; discourse; doctrine</t>
   </si>
   <si>
+    <t>state of existence; form of becoming</t>
+  </si>
+  <si>
+    <t>human being; man; person</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>person; individual</t>
+  </si>
+  <si>
+    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
+  </si>
+  <si>
+    <t>nature; character</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>obstacle (for); danger (for); lit. coming in-between</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
+  </si>
+  <si>
+    <t>act; practice</t>
+  </si>
+  <si>
+    <t>fault; offence; transgression; lit. going beyond</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>road; path; track; way</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>wealth; possessions; property; riches</t>
+  </si>
+  <si>
+    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>core; essence; substance; value</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>watch (of the night); one eighth of the day; about three hours</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>(vinaya) schism; split; breakup</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>benefit; profit; good; welfare; goal</t>
+  </si>
+  <si>
+    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>sage; intelligent person; wise man; smart person</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
     <t>way; nature; habit; property; quality; lit. going around</t>
   </si>
   <si>
-    <t>state of existence; form of becoming</t>
-  </si>
-  <si>
-    <t>human being; man; person</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>control (over); authority (over); power (over); mastery (over)</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>person; individual</t>
-  </si>
-  <si>
-    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
-  </si>
-  <si>
-    <t>nature; character</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>obstacle (for); danger (for); lit. coming in-between</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
-  </si>
-  <si>
-    <t>act; practice</t>
-  </si>
-  <si>
-    <t>fault; offence; transgression; lit. going beyond</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>road; path; track; way</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>wealth; possessions; property; riches</t>
-  </si>
-  <si>
-    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>core; essence; substance; value</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
+  </si>
+  <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>support; requisite; necessity</t>
+  </si>
+  <si>
+    <t>excrement; faeces</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>cross-legged sitting position; meditation posture</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>smell; scent; odour</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>being; living being; lit. breath</t>
+  </si>
+  <si>
+    <t>source; arising; origin; appearance</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>(of water) flood; deluge; torrent</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>control (according to); restraint (according to); holding back (according to)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>state of loss; state of misery; lit. going away</t>
+  </si>
+  <si>
+    <t>obtaining (of); acquiring (of); gaining (of); personal acquisition (of)</t>
+  </si>
+  <si>
+    <t>world; plane of existence</t>
+  </si>
+  <si>
+    <t>sea; ocean</t>
+  </si>
+  <si>
+    <t>titan; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>park; parkland; nature reserve</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>room; inside room; inner chamber; lit. womb</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>fool; idiot; immature person</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
+  </si>
+  <si>
+    <t>thief; robber</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>non-attention; ignoring; lit. not making in mind</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>well; (comm) pond; pool; lit. water drinking</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>lay disciple; lay devotee; lit. who sits near</t>
+  </si>
+  <si>
+    <t>excellent friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection</t>
+  </si>
+  <si>
+    <t>generosity; sharing; liberality</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
+  </si>
+  <si>
+    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
   </si>
   <si>
     <t>stick; truncheon; nightstick; club</t>
   </si>
   <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>watch (of the night); one eighth of the day; about three hours</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>(vinaya) schism; split; breakup</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>benefit; profit; good; welfare; goal</t>
-  </si>
-  <si>
-    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>sage; intelligent person; wise man; smart person</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>being; living being; creature</t>
-  </si>
-  <si>
-    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; egotism; superiority; comparing oneself</t>
-  </si>
-  <si>
-    <t>group; host; company; collection; multitude; mass</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>well; (comm) pond; pool; lit. water drinking</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
-  </si>
-  <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>support; requisite; necessity</t>
-  </si>
-  <si>
-    <t>excrement; faeces</t>
+    <t>law; case; rule</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
   </si>
   <si>
     <t>urine</t>
   </si>
   <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>cross-legged sitting position; meditation posture</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>light; brightness; clarity</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>smell; scent; odour</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>being; living being; lit. breath</t>
-  </si>
-  <si>
-    <t>source; arising; origin; appearance</t>
-  </si>
-  <si>
-    <t>mass; heap; pile; volume</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>(of water) flood; deluge; torrent</t>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
   </si>
   <si>
     <t>Sakyan; of the Sakyan people</t>
   </si>
   <si>
-    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
-    <t>control (according to); restraint (according to); holding back (according to)</t>
-  </si>
-  <si>
-    <t>non-attention; ignoring; lit. not making in mind</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>state of loss; state of misery; lit. going away</t>
-  </si>
-  <si>
-    <t>world; plane of existence</t>
-  </si>
-  <si>
-    <t>sea; ocean</t>
-  </si>
-  <si>
-    <t>titan; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>park; parkland; nature reserve</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>Buddha; Awakened One</t>
-  </si>
-  <si>
-    <t>room; inside room; inner chamber; lit. womb</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>fool; idiot; immature person</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
-  </si>
-  <si>
-    <t>thief; robber</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>obtaining (of); acquiring (of); gaining (of); personal acquisition (of)</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>lay disciple; lay devotee; lit. who sits near</t>
-  </si>
-  <si>
-    <t>excellent friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection</t>
-  </si>
-  <si>
-    <t>generosity; sharing; liberality</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
-  </si>
-  <si>
-    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
-  </si>
-  <si>
-    <t>law; case; rule</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
     <t>attending mindfully; being present with mindfulness</t>
   </si>
   <si>
@@ -3397,162 +3397,162 @@
     <t>binds; ties up; imprisons; confines</t>
   </si>
   <si>
+    <t>increases more and more; surpasses; outgrows</t>
+  </si>
+  <si>
+    <t>says (to); speaks (to); tells (to)</t>
+  </si>
+  <si>
+    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
+  </si>
+  <si>
+    <t>recites; chants; lit. points up</t>
+  </si>
+  <si>
+    <t>goes (from); goes away (from); leaves (from)</t>
+  </si>
+  <si>
+    <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
+  </si>
+  <si>
+    <t>wishes; wants; desires</t>
+  </si>
+  <si>
+    <t>wards off; prevents; guards against</t>
+  </si>
+  <si>
+    <t>go!; begone!</t>
+  </si>
+  <si>
+    <t>approaches; goes (to); visits; lit. goes near</t>
+  </si>
+  <si>
+    <t>speaks (about); talks (about)</t>
+  </si>
+  <si>
+    <t>asks (for); begs (for); requests</t>
+  </si>
+  <si>
+    <t>regards; considers; recognises (as); sees (as)</t>
+  </si>
+  <si>
+    <t>takes; steals; robs</t>
+  </si>
+  <si>
+    <t>obtains; gets; receives; personally experiences</t>
+  </si>
+  <si>
+    <t>exhales; breathes out</t>
+  </si>
+  <si>
+    <t>inhales; breathes in</t>
+  </si>
+  <si>
+    <t>wishes (for); wants; desires; aspires (for)</t>
+  </si>
+  <si>
+    <t>grabs hold (of); seizes; takes</t>
+  </si>
+  <si>
+    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
+  </si>
+  <si>
+    <t>advises; instructs; admonishes</t>
+  </si>
+  <si>
+    <t>understands; gets; lit. sees</t>
+  </si>
+  <si>
+    <t>gives up; leaves; abandons; deserts</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
+  </si>
+  <si>
+    <t>associates (with); keeps company (with)</t>
+  </si>
+  <si>
+    <t>proceeds; continues; goes forward; practices</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>sits (on); sits down (in)</t>
+  </si>
+  <si>
+    <t>is; is being; becomes</t>
+  </si>
+  <si>
+    <t>chews; devours; eats</t>
+  </si>
+  <si>
+    <t>asks; enquires; questions</t>
+  </si>
+  <si>
+    <t>leads (to); results (in); causes</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>takes care (of); looks after; maintains; lit. carries around</t>
+  </si>
+  <si>
+    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
+  </si>
+  <si>
+    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
+  </si>
+  <si>
+    <t>enjoys; delights (in); takes pleasure (in)</t>
+  </si>
+  <si>
+    <t>enters; goes (into)</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>increases (in); grows (in); develops (in); lit. increases</t>
+  </si>
+  <si>
+    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
+  </si>
+  <si>
+    <t>sees</t>
+  </si>
+  <si>
+    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
+  </si>
+  <si>
+    <t>walks; wanders; goes around; travels; fares on</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
+  </si>
+  <si>
     <t>see!; look (at)!</t>
   </si>
   <si>
-    <t>remains; persists; lasts; lit. stands</t>
-  </si>
-  <si>
-    <t>increases more and more; surpasses; outgrows</t>
-  </si>
-  <si>
-    <t>says (to); speaks (to); tells (to)</t>
-  </si>
-  <si>
-    <t>ordains as monk; renounces the household life; lit. goes into exile</t>
-  </si>
-  <si>
-    <t>recites; chants; lit. points up</t>
-  </si>
-  <si>
-    <t>goes (from); goes away (from); leaves (from)</t>
-  </si>
-  <si>
-    <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
-  </si>
-  <si>
-    <t>wishes; wants; desires</t>
-  </si>
-  <si>
-    <t>wards off; prevents; guards against</t>
-  </si>
-  <si>
-    <t>approaches; goes (to); visits; lit. goes near</t>
-  </si>
-  <si>
-    <t>speaks (about); talks (about)</t>
-  </si>
-  <si>
-    <t>asks (for); begs (for); requests</t>
-  </si>
-  <si>
-    <t>regards; considers; recognises (as); sees (as)</t>
-  </si>
-  <si>
-    <t>takes; steals; robs</t>
-  </si>
-  <si>
-    <t>obtains; gets; receives; personally experiences</t>
-  </si>
-  <si>
-    <t>exhales; breathes out</t>
-  </si>
-  <si>
-    <t>inhales; breathes in</t>
-  </si>
-  <si>
-    <t>wishes (for); wants; desires; aspires (for)</t>
-  </si>
-  <si>
-    <t>grabs hold (of); seizes; takes</t>
-  </si>
-  <si>
-    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
-  </si>
-  <si>
-    <t>speaks; says; tells</t>
-  </si>
-  <si>
-    <t>advises; instructs; admonishes</t>
-  </si>
-  <si>
-    <t>understands; gets; lit. sees</t>
-  </si>
-  <si>
-    <t>gives up; leaves; abandons; deserts</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
     <t>increases; develops; grows</t>
   </si>
   <si>
-    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
-  </si>
-  <si>
-    <t>associates (with); keeps company (with)</t>
-  </si>
-  <si>
-    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
-  </si>
-  <si>
-    <t>proceeds; continues; goes forward; practices</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>remembers; recollects; bears in mind</t>
-  </si>
-  <si>
-    <t>sits (on); sits down (in)</t>
-  </si>
-  <si>
-    <t>is; is being; becomes</t>
-  </si>
-  <si>
-    <t>chews; devours; eats</t>
-  </si>
-  <si>
-    <t>asks; enquires; questions</t>
-  </si>
-  <si>
-    <t>leads (to); results (in); causes</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>takes care (of); looks after; maintains; lit. carries around</t>
-  </si>
-  <si>
-    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
-  </si>
-  <si>
-    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
-  </si>
-  <si>
-    <t>enjoys; delights (in); takes pleasure (in)</t>
-  </si>
-  <si>
-    <t>enters; goes (into)</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>increases (in); grows (in); develops (in); lit. increases</t>
-  </si>
-  <si>
-    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
-  </si>
-  <si>
-    <t>sees</t>
-  </si>
-  <si>
-    <t>go!; begone!</t>
-  </si>
-  <si>
-    <t>walks; wanders; goes around; travels; fares on</t>
-  </si>
-  <si>
     <t>worships; honours; respects</t>
   </si>
   <si>
@@ -3565,12 +3565,12 @@
     <t>feels; experiences; senses; notices</t>
   </si>
   <si>
+    <t>sleeps</t>
+  </si>
+  <si>
     <t>bears in mind; keeps in mind; remembers; lit. carries</t>
   </si>
   <si>
-    <t>sleeps</t>
-  </si>
-  <si>
     <t>gives (to); donates (to); offers (to); hands (to)</t>
   </si>
   <si>
@@ -3595,33 +3595,33 @@
     <t>one must listen!; it must hear!</t>
   </si>
   <si>
+    <t>reaches; arrives (at); comes (to)</t>
+  </si>
+  <si>
     <t>knows; knows clearly; understands; distinguishes</t>
   </si>
   <si>
+    <t>comes to mind; occurs (to)</t>
+  </si>
+  <si>
+    <t>makes the claim (of); claims (to be)</t>
+  </si>
+  <si>
+    <t>gives (to); offers (to); donates (to)</t>
+  </si>
+  <si>
+    <t>comprehends; understands; recognises; distinguishes; is aware (of)</t>
+  </si>
+  <si>
+    <t>knows; understands</t>
+  </si>
+  <si>
+    <t>holds up; raises up</t>
+  </si>
+  <si>
     <t>takes; accepts; receives</t>
   </si>
   <si>
-    <t>comes to mind; occurs (to)</t>
-  </si>
-  <si>
-    <t>makes the claim (of); claims (to be)</t>
-  </si>
-  <si>
-    <t>gives (to); offers (to); donates (to)</t>
-  </si>
-  <si>
-    <t>comprehends; understands; recognises; distinguishes; is aware (of)</t>
-  </si>
-  <si>
-    <t>knows; understands</t>
-  </si>
-  <si>
-    <t>holds up; raises up</t>
-  </si>
-  <si>
-    <t>reaches; arrives (at); comes (to)</t>
-  </si>
-  <si>
     <t>trader; dealer</t>
   </si>
   <si>
@@ -3634,6 +3634,9 @@
     <t>takes; grasps; embraces</t>
   </si>
   <si>
+    <t>causes; effects</t>
+  </si>
+  <si>
     <t>arouses; exhibits; produces; brings into being</t>
   </si>
   <si>
@@ -3643,33 +3646,30 @@
     <t>thinks; imagines; conceives: presumes; supposes</t>
   </si>
   <si>
+    <t>is reborn (in); re-arises (in); lit. goes towards</t>
+  </si>
+  <si>
+    <t>indulges (in); is addicted (to); lit. yokes near</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
+    <t>appears; arises; takes place</t>
+  </si>
+  <si>
+    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
+  </si>
+  <si>
+    <t>meditates; contemplates; lit. thinks</t>
+  </si>
+  <si>
+    <t>cuts off; severs</t>
+  </si>
+  <si>
     <t>grasps; holds (onto); clings (to); takes possession (of); lit. takes near</t>
   </si>
   <si>
-    <t>is reborn (in); re-arises (in); lit. goes towards</t>
-  </si>
-  <si>
-    <t>indulges (in); is addicted (to); lit. yokes near</t>
-  </si>
-  <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
-    <t>appears; arises; takes place</t>
-  </si>
-  <si>
-    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
-  </si>
-  <si>
-    <t>meditates; contemplates; lit. thinks</t>
-  </si>
-  <si>
-    <t>cuts off; severs</t>
-  </si>
-  <si>
-    <t>causes; effects</t>
-  </si>
-  <si>
     <t>there are; they are</t>
   </si>
   <si>
@@ -3727,18 +3727,18 @@
     <t>left; set off (from); went away (from)</t>
   </si>
   <si>
+    <t>approached; drew near; went (to); lit. went near</t>
+  </si>
+  <si>
+    <t>sat (on); sat down (in)</t>
+  </si>
+  <si>
+    <t>asked; enquired; questioned</t>
+  </si>
+  <si>
     <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
   </si>
   <si>
-    <t>asked; enquired; questioned</t>
-  </si>
-  <si>
-    <t>approached; drew near; went (to); lit. went near</t>
-  </si>
-  <si>
-    <t>sat (on); sat down (in)</t>
-  </si>
-  <si>
     <t>monk; sage; seer; hermit; silent sage</t>
   </si>
   <si>
@@ -3751,6 +3751,9 @@
     <t>fire</t>
   </si>
   <si>
+    <t>family; relative; kinsman; lit. known</t>
+  </si>
+  <si>
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
@@ -3769,9 +3772,6 @@
     <t>sickness; disease; illness; lit. upset</t>
   </si>
   <si>
-    <t>family; relative; kinsman; lit. known</t>
-  </si>
-  <si>
     <t>does; acts; performs</t>
   </si>
   <si>
@@ -3790,12 +3790,12 @@
     <t>spoke; said</t>
   </si>
   <si>
+    <t>answered; replied; lit. made distinct</t>
+  </si>
+  <si>
     <t>stood; stayed; remained</t>
   </si>
   <si>
-    <t>answered; replied; lit. made distinct</t>
-  </si>
-  <si>
     <t>I was</t>
   </si>
   <si>
@@ -3835,6 +3835,9 @@
     <t>for us; to us</t>
   </si>
   <si>
+    <t>to me; for me</t>
+  </si>
+  <si>
     <t>we; I (royal plural)</t>
   </si>
   <si>
@@ -3856,9 +3859,6 @@
     <t>me (object)</t>
   </si>
   <si>
-    <t>to me; for me</t>
-  </si>
-  <si>
     <t>looks beautiful (in); lit. shines</t>
   </si>
   <si>
@@ -3922,6 +3922,9 @@
     <t>you (object)</t>
   </si>
   <si>
+    <t>by you</t>
+  </si>
+  <si>
     <t>for you all; to you all</t>
   </si>
   <si>
@@ -3931,24 +3934,21 @@
     <t>you all; you (royal plural)</t>
   </si>
   <si>
+    <t>of you all; your</t>
+  </si>
+  <si>
     <t>you (subject)</t>
   </si>
   <si>
+    <t>for you; to you</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
     <t>your; of you</t>
   </si>
   <si>
-    <t>for you; to you</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>by you</t>
-  </si>
-  <si>
-    <t>of you all; your</t>
-  </si>
-  <si>
     <t>does not know; does not understand; lit. does not completely know</t>
   </si>
   <si>
@@ -4036,27 +4036,30 @@
     <t>speaker (of); who tells (about); who speaks (about); who expresses (about)</t>
   </si>
   <si>
+    <t>speaker; who talks (about)</t>
+  </si>
+  <si>
     <t>giver; donor; bestower</t>
   </si>
   <si>
-    <t>speaker; who talks (about)</t>
-  </si>
-  <si>
     <t>father</t>
   </si>
   <si>
+    <t>mother and father; parents</t>
+  </si>
+  <si>
     <t>brother</t>
   </si>
   <si>
-    <t>mother and father; parents</t>
-  </si>
-  <si>
     <t>enjoys; indulges; has sex with; lit. walks around</t>
   </si>
   <si>
     <t>timely; at the right moment; at a suitable time; at the proper time</t>
   </si>
   <si>
+    <t>before; previously; formerly; in the past</t>
+  </si>
+  <si>
     <t>in future</t>
   </si>
   <si>
@@ -4072,33 +4075,30 @@
     <t>and; both</t>
   </si>
   <si>
+    <t>afterwards; later; in the future</t>
+  </si>
+  <si>
+    <t>formerly; previously; in the past</t>
+  </si>
+  <si>
+    <t>today; now</t>
+  </si>
+  <si>
     <t>always; at all times</t>
   </si>
   <si>
-    <t>afterwards; later; in the future</t>
-  </si>
-  <si>
-    <t>formerly; previously; in the past</t>
-  </si>
-  <si>
-    <t>today; now</t>
-  </si>
-  <si>
-    <t>before; previously; formerly; in the past</t>
-  </si>
-  <si>
     <t>respect; honour</t>
   </si>
   <si>
+    <t>ease (for); comfort (for)</t>
+  </si>
+  <si>
     <t>monk; fully ordained monk; mendicant; lit. beggar</t>
   </si>
   <si>
     <t>death; Death</t>
   </si>
   <si>
-    <t>ease (for); comfort (for)</t>
-  </si>
-  <si>
     <t>at peace; safe; at rest</t>
   </si>
   <si>
@@ -4117,12 +4117,12 @@
     <t>who understands the world; who knows the world; epithet of the Buddha</t>
   </si>
   <si>
+    <t>warding off; repelling; driving off</t>
+  </si>
+  <si>
     <t>hiding place; lit. dive</t>
   </si>
   <si>
-    <t>warding off; repelling; driving off</t>
-  </si>
-  <si>
     <t>takes a bath; bathes; washes</t>
   </si>
   <si>
@@ -4144,15 +4144,15 @@
     <t>could see; would see</t>
   </si>
   <si>
+    <t>could live; could stay (in)</t>
+  </si>
+  <si>
     <t>would become available (for); would accrue (to); could crop up (for); lit. would arise (for)</t>
   </si>
   <si>
     <t>would be reborn (in); would re-arise (in); lit. could go towards</t>
   </si>
   <si>
-    <t>could live; could stay (in)</t>
-  </si>
-  <si>
     <t>kills; executes</t>
   </si>
   <si>
@@ -4180,6 +4180,12 @@
     <t>direction; cardinal point</t>
   </si>
   <si>
+    <t>sitting; sitting down</t>
+  </si>
+  <si>
+    <t>talk; speech; conversation; discussion</t>
+  </si>
+  <si>
     <t>wisdom; knowledge; understanding; insight; distinctive knowledge</t>
   </si>
   <si>
@@ -4225,12 +4231,6 @@
     <t>ignorance; illusion; not knowing; not understanding</t>
   </si>
   <si>
-    <t>sitting; sitting down</t>
-  </si>
-  <si>
-    <t>talk; speech; conversation; discussion</t>
-  </si>
-  <si>
     <t>(vinaya) higher ordination as monastic</t>
   </si>
   <si>
@@ -4273,42 +4273,42 @@
     <t>having left; having left behind; having abandoned</t>
   </si>
   <si>
+    <t>having seen; having understood; having found out</t>
+  </si>
+  <si>
+    <t>having known; having found out; having understood</t>
+  </si>
+  <si>
+    <t>having tasted</t>
+  </si>
+  <si>
+    <t>having heard; having listened (to)</t>
+  </si>
+  <si>
+    <t>having cut off; having severed; (comm) having killed; lit. having cut</t>
+  </si>
+  <si>
+    <t>having bent; having folded</t>
+  </si>
+  <si>
+    <t>having agreed (with); having responded in agreement (to); lit. having listened back</t>
+  </si>
+  <si>
+    <t>having done</t>
+  </si>
+  <si>
+    <t>having walked; having wandered</t>
+  </si>
+  <si>
+    <t>having taken; having grabbed hold (of); having seized</t>
+  </si>
+  <si>
+    <t>having approached; having gone (to); having drawn near (to)</t>
+  </si>
+  <si>
     <t>having raised up; having lifted up</t>
   </si>
   <si>
-    <t>having seen; having understood; having found out</t>
-  </si>
-  <si>
-    <t>having known; having found out; having understood</t>
-  </si>
-  <si>
-    <t>having tasted</t>
-  </si>
-  <si>
-    <t>having heard; having listened (to)</t>
-  </si>
-  <si>
-    <t>having cut off; having severed; (comm) having killed; lit. having cut</t>
-  </si>
-  <si>
-    <t>having bent; having folded</t>
-  </si>
-  <si>
-    <t>having agreed (with); having responded in agreement (to); lit. having listened back</t>
-  </si>
-  <si>
-    <t>having done</t>
-  </si>
-  <si>
-    <t>having walked; having wandered</t>
-  </si>
-  <si>
-    <t>having taken; having grabbed hold (of); having seized</t>
-  </si>
-  <si>
-    <t>having approached; having gone (to); having drawn near (to)</t>
-  </si>
-  <si>
     <t>mother</t>
   </si>
   <si>
@@ -4363,21 +4363,21 @@
     <t>liking; preference; choice; inclination; approval; lit. pleasure</t>
   </si>
   <si>
+    <t>mindfulness; presence; recollection; awareness</t>
+  </si>
+  <si>
+    <t>delight; heart-felt joy; pleasure; feeling of love; lit. lovely feeling</t>
+  </si>
+  <si>
+    <t>calmness; tranquillity; tranquillization; peace; stillness; serenity</t>
+  </si>
+  <si>
+    <t>outer robe; double robe; patchwork robe; lit. joined together</t>
+  </si>
+  <si>
     <t>good destination; happy fate</t>
   </si>
   <si>
-    <t>mindfulness; presence; recollection; awareness</t>
-  </si>
-  <si>
-    <t>delight; heart-felt joy; pleasure; feeling of love; lit. lovely feeling</t>
-  </si>
-  <si>
-    <t>calmness; tranquillity; tranquillization; peace; stillness; serenity</t>
-  </si>
-  <si>
-    <t>outer robe; double robe; patchwork robe; lit. joined together</t>
-  </si>
-  <si>
     <t>freedom; liberation; release; deliverance</t>
   </si>
   <si>
@@ -4387,36 +4387,36 @@
     <t>wherever; where; when; in which</t>
   </si>
   <si>
+    <t>in that regard; in that case; regarding that matter</t>
+  </si>
+  <si>
+    <t>in front (of)</t>
+  </si>
+  <si>
+    <t>here; in this regard; in this case</t>
+  </si>
+  <si>
+    <t>on one side</t>
+  </si>
+  <si>
+    <t>everywhere; every place</t>
+  </si>
+  <si>
+    <t>there; in that place</t>
+  </si>
+  <si>
+    <t>above; overhead</t>
+  </si>
+  <si>
+    <t>since; because; due to the fact that; lit. from which</t>
+  </si>
+  <si>
     <t>here; in this place; in this case; in this regard</t>
   </si>
   <si>
-    <t>in front (of)</t>
-  </si>
-  <si>
-    <t>here; in this regard; in this case</t>
-  </si>
-  <si>
-    <t>on one side</t>
-  </si>
-  <si>
     <t>from where?; where?</t>
   </si>
   <si>
-    <t>everywhere; every place</t>
-  </si>
-  <si>
-    <t>there; in that place</t>
-  </si>
-  <si>
-    <t>above; overhead</t>
-  </si>
-  <si>
-    <t>since; because; due to the fact that; lit. from which</t>
-  </si>
-  <si>
-    <t>in that regard; in that case; regarding that matter</t>
-  </si>
-  <si>
     <t>state; property; condition; element</t>
   </si>
   <si>
@@ -4528,6 +4528,9 @@
     <t>(of the body) side; rib</t>
   </si>
   <si>
+    <t>which is not given; something not offered</t>
+  </si>
+  <si>
     <t>cloth; clothes; robe</t>
   </si>
   <si>
@@ -4570,22 +4573,19 @@
     <t>shelter; refuge; help; lit. going to</t>
   </si>
   <si>
+    <t>precept; instruction; training rule</t>
+  </si>
+  <si>
+    <t>danger (of; from); peril (of; from)</t>
+  </si>
+  <si>
     <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
   </si>
   <si>
-    <t>precept; instruction; training rule</t>
-  </si>
-  <si>
-    <t>danger (of; from); peril (of; from)</t>
-  </si>
-  <si>
     <t>eating; taking food</t>
   </si>
   <si>
     <t>year</t>
-  </si>
-  <si>
-    <t>which is not given; something not offered</t>
   </si>
   <si>
     <t>(object of the eye) form; material form; shape; sight; lit. form</t>
@@ -10551,7 +10551,7 @@
         <v>787</v>
       </c>
       <c r="C308" t="s">
-        <v>1108</v>
+        <v>981</v>
       </c>
       <c r="D308" t="s">
         <v>1583</v>
@@ -10568,7 +10568,7 @@
         <v>787</v>
       </c>
       <c r="C309" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="D309" t="s">
         <v>1583</v>
@@ -10585,7 +10585,7 @@
         <v>787</v>
       </c>
       <c r="C310" t="s">
-        <v>983</v>
+        <v>1109</v>
       </c>
       <c r="D310" t="s">
         <v>1583</v>
@@ -10888,7 +10888,7 @@
         <v>331</v>
       </c>
       <c r="B328" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C328" t="s">
         <v>1127</v>
@@ -11024,7 +11024,7 @@
         <v>339</v>
       </c>
       <c r="B336" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C336" t="s">
         <v>1135</v>
@@ -15549,7 +15549,7 @@
         <v>797</v>
       </c>
       <c r="C602" t="s">
-        <v>961</v>
+        <v>1400</v>
       </c>
       <c r="D602" t="s">
         <v>1630</v>
@@ -15566,7 +15566,7 @@
         <v>797</v>
       </c>
       <c r="C603" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="D603" t="s">
         <v>1630</v>
@@ -15583,7 +15583,7 @@
         <v>797</v>
       </c>
       <c r="C604" t="s">
-        <v>1401</v>
+        <v>960</v>
       </c>
       <c r="D604" t="s">
         <v>1630</v>
@@ -16059,7 +16059,7 @@
         <v>798</v>
       </c>
       <c r="C632" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="D632" t="s">
         <v>798</v>
@@ -16076,7 +16076,7 @@
         <v>798</v>
       </c>
       <c r="C633" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="D633" t="s">
         <v>798</v>
@@ -16688,7 +16688,7 @@
         <v>789</v>
       </c>
       <c r="C669" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="D669" t="s">
         <v>789</v>
@@ -16705,7 +16705,7 @@
         <v>789</v>
       </c>
       <c r="C670" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="D670" t="s">
         <v>789</v>

--- a/pali-class/vocab/vocab-class12.xlsx
+++ b/pali-class/vocab/vocab-class12.xlsx
@@ -433,12 +433,12 @@
     <t>aṭṭhama 1</t>
   </si>
   <si>
+    <t>dasama 1</t>
+  </si>
+  <si>
     <t>navama</t>
   </si>
   <si>
-    <t>dasama 1</t>
-  </si>
-  <si>
     <t>pañcama</t>
   </si>
   <si>
@@ -2824,10 +2824,10 @@
     <t>eighth (8th)</t>
   </si>
   <si>
+    <t>tenth (10th)</t>
+  </si>
+  <si>
     <t>ninth (9th)</t>
-  </si>
-  <si>
-    <t>tenth (10th)</t>
   </si>
   <si>
     <t>fifth (5th)</t>

--- a/pali-class/vocab/vocab-class12.xlsx
+++ b/pali-class/vocab/vocab-class12.xlsx
@@ -46,25 +46,28 @@
     <t>amu</t>
   </si>
   <si>
+    <t>jānanta</t>
+  </si>
+  <si>
     <t>passanta 1</t>
   </si>
   <si>
-    <t>jānanta</t>
-  </si>
-  <si>
     <t>samanupassanta</t>
   </si>
   <si>
     <t>tiṭṭhanta 1</t>
   </si>
   <si>
+    <t>gacchanta</t>
+  </si>
+  <si>
+    <t>viharanta</t>
+  </si>
+  <si>
     <t>anussaranta</t>
   </si>
   <si>
-    <t>gacchanta</t>
-  </si>
-  <si>
-    <t>viharanta</t>
+    <t>apassanta</t>
   </si>
   <si>
     <t>ajānanta</t>
@@ -73,9 +76,6 @@
     <t>anāpucchanta</t>
   </si>
   <si>
-    <t>apassanta</t>
-  </si>
-  <si>
     <t>ekacca 1</t>
   </si>
   <si>
@@ -85,15 +85,15 @@
     <t>cavamāna</t>
   </si>
   <si>
+    <t>ākaṅkhamāna</t>
+  </si>
+  <si>
     <t>caramāna</t>
   </si>
   <si>
     <t>sampassamāna</t>
   </si>
   <si>
-    <t>ākaṅkhamāna</t>
-  </si>
-  <si>
     <t>upapajjamāna</t>
   </si>
   <si>
@@ -166,6 +166,9 @@
     <t>aparikkamana</t>
   </si>
   <si>
+    <t>anuttara</t>
+  </si>
+  <si>
     <t>anatta 1</t>
   </si>
   <si>
@@ -175,108 +178,105 @@
     <t>sata 1.1</t>
   </si>
   <si>
+    <t>majjhima 1</t>
+  </si>
+  <si>
+    <t>purima 1</t>
+  </si>
+  <si>
+    <t>upekkhaka</t>
+  </si>
+  <si>
+    <t>manāpa 1</t>
+  </si>
+  <si>
+    <t>piya 1</t>
+  </si>
+  <si>
+    <t>sukara</t>
+  </si>
+  <si>
+    <t>byatta</t>
+  </si>
+  <si>
+    <t>agilāna 1</t>
+  </si>
+  <si>
+    <t>dukkha 2</t>
+  </si>
+  <si>
+    <t>pāṭikaṅkha</t>
+  </si>
+  <si>
+    <t>sukka 1</t>
+  </si>
+  <si>
+    <t>sāraṇīya 1.1</t>
+  </si>
+  <si>
+    <t>sampajāna 1</t>
+  </si>
+  <si>
+    <t>animitta 1</t>
+  </si>
+  <si>
+    <t>oḷārika 2</t>
+  </si>
+  <si>
+    <t>iṭṭha 1</t>
+  </si>
+  <si>
+    <t>kanta 1.1</t>
+  </si>
+  <si>
+    <t>akhaṇḍa</t>
+  </si>
+  <si>
+    <t>akusala 1</t>
+  </si>
+  <si>
+    <t>sagga 1.1</t>
+  </si>
+  <si>
+    <t>uttama 1</t>
+  </si>
+  <si>
+    <t>abbhuta 1</t>
+  </si>
+  <si>
+    <t>acchariya 1</t>
+  </si>
+  <si>
+    <t>ariya 1</t>
+  </si>
+  <si>
+    <t>sassata</t>
+  </si>
+  <si>
+    <t>dhuva 1</t>
+  </si>
+  <si>
+    <t>abhikkanta 3</t>
+  </si>
+  <si>
+    <t>yāvataka</t>
+  </si>
+  <si>
+    <t>nava 1</t>
+  </si>
+  <si>
+    <t>svākkhāta</t>
+  </si>
+  <si>
+    <t>sārambha 2.1</t>
+  </si>
+  <si>
+    <t>kaṇha 1</t>
+  </si>
+  <si>
     <t>dakkhiṇa 1</t>
   </si>
   <si>
-    <t>majjhima 1</t>
-  </si>
-  <si>
-    <t>purima 1</t>
-  </si>
-  <si>
-    <t>upekkhaka</t>
-  </si>
-  <si>
-    <t>manāpa 1</t>
-  </si>
-  <si>
-    <t>piya 1</t>
-  </si>
-  <si>
-    <t>sukara</t>
-  </si>
-  <si>
-    <t>byatta</t>
-  </si>
-  <si>
-    <t>agilāna 1</t>
-  </si>
-  <si>
-    <t>dukkha 2</t>
-  </si>
-  <si>
-    <t>pāṭikaṅkha</t>
-  </si>
-  <si>
-    <t>sukka 1</t>
-  </si>
-  <si>
-    <t>anuttara</t>
-  </si>
-  <si>
-    <t>sāraṇīya 1.1</t>
-  </si>
-  <si>
-    <t>sampajāna 1</t>
-  </si>
-  <si>
-    <t>animitta 1</t>
-  </si>
-  <si>
-    <t>oḷārika 2</t>
-  </si>
-  <si>
-    <t>iṭṭha 1</t>
-  </si>
-  <si>
-    <t>kanta 1.1</t>
-  </si>
-  <si>
-    <t>akhaṇḍa</t>
-  </si>
-  <si>
-    <t>akusala 1</t>
-  </si>
-  <si>
-    <t>sagga 1.1</t>
-  </si>
-  <si>
-    <t>uttama 1</t>
-  </si>
-  <si>
-    <t>abbhuta 1</t>
-  </si>
-  <si>
-    <t>acchariya 1</t>
-  </si>
-  <si>
-    <t>sassata</t>
-  </si>
-  <si>
-    <t>dhuva 1</t>
-  </si>
-  <si>
-    <t>abhikkanta 3</t>
-  </si>
-  <si>
-    <t>yāvataka</t>
-  </si>
-  <si>
-    <t>nava 1</t>
-  </si>
-  <si>
-    <t>svākkhāta</t>
-  </si>
-  <si>
-    <t>sārambha 2.1</t>
-  </si>
-  <si>
-    <t>kaṇha 1</t>
-  </si>
-  <si>
-    <t>ariya 1</t>
-  </si>
-  <si>
     <t>panta 2</t>
   </si>
   <si>
@@ -361,30 +361,30 @@
     <t>paricita</t>
   </si>
   <si>
+    <t>diṭṭha 1.1</t>
+  </si>
+  <si>
+    <t>vippamutta</t>
+  </si>
+  <si>
+    <t>puṭṭha 1.1</t>
+  </si>
+  <si>
+    <t>uppanna 1</t>
+  </si>
+  <si>
+    <t>samāhita 1</t>
+  </si>
+  <si>
+    <t>upaṭṭhita 1</t>
+  </si>
+  <si>
+    <t>paripūra 1</t>
+  </si>
+  <si>
     <t>cuta 1.1</t>
   </si>
   <si>
-    <t>diṭṭha 1.1</t>
-  </si>
-  <si>
-    <t>vippamutta</t>
-  </si>
-  <si>
-    <t>puṭṭha 1.1</t>
-  </si>
-  <si>
-    <t>uppanna 1</t>
-  </si>
-  <si>
-    <t>samāhita 1</t>
-  </si>
-  <si>
-    <t>upaṭṭhita 1</t>
-  </si>
-  <si>
-    <t>paripūra 1</t>
-  </si>
-  <si>
     <t>phuṭṭha 1</t>
   </si>
   <si>
@@ -406,12 +406,12 @@
     <t>bhayato</t>
   </si>
   <si>
+    <t>aniccato</t>
+  </si>
+  <si>
     <t>anattato</t>
   </si>
   <si>
-    <t>aniccato</t>
-  </si>
-  <si>
     <t>bahu</t>
   </si>
   <si>
@@ -430,6 +430,9 @@
     <t>viññū 1</t>
   </si>
   <si>
+    <t>chaṭṭha</t>
+  </si>
+  <si>
     <t>aṭṭhama 1</t>
   </si>
   <si>
@@ -454,27 +457,24 @@
     <t>paṭhama 1</t>
   </si>
   <si>
-    <t>chaṭṭha</t>
+    <t>nava 2</t>
+  </si>
+  <si>
+    <t>satta 1.1</t>
+  </si>
+  <si>
+    <t>pañca</t>
+  </si>
+  <si>
+    <t>cha 1.1</t>
+  </si>
+  <si>
+    <t>aṭṭha 1.1</t>
   </si>
   <si>
     <t>dasa 1.1</t>
   </si>
   <si>
-    <t>aṭṭha 1.1</t>
-  </si>
-  <si>
-    <t>nava 2</t>
-  </si>
-  <si>
-    <t>satta 1.1</t>
-  </si>
-  <si>
-    <t>pañca</t>
-  </si>
-  <si>
-    <t>cha 1.1</t>
-  </si>
-  <si>
     <t>sata 2.1</t>
   </si>
   <si>
@@ -496,276 +496,324 @@
     <t>vinaya 1</t>
   </si>
   <si>
+    <t>cora</t>
+  </si>
+  <si>
+    <t>bhava 3</t>
+  </si>
+  <si>
+    <t>manussa</t>
+  </si>
+  <si>
+    <t>papañca</t>
+  </si>
+  <si>
+    <t>saṅghādisesa 2</t>
+  </si>
+  <si>
+    <t>vasa 1.2</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>āsaya 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.01</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>moggallāna 1</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
+    <t>accaya 3</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>magga 1</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>māsa 2.1</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>bhoga 1.1</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>vaccha 1.1</t>
+  </si>
+  <si>
+    <t>sāra 2</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>byāpāda</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>yāma 1</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>bheda 2</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>attha 1.2</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>vāta 1</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>paṇḍita 2</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>apāya 1</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
+    <t>pariyāya 4</t>
+  </si>
+  <si>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
+    <t>bheda 3</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>bāla 2</t>
+  </si>
+  <si>
+    <t>paccaya 1</t>
+  </si>
+  <si>
+    <t>uccāra</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>gandha 1</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>ārāma 3</t>
+  </si>
+  <si>
+    <t>dhamma 1.14</t>
+  </si>
+  <si>
+    <t>pāṇa 3</t>
+  </si>
+  <si>
     <t>dhamma 1.03</t>
   </si>
   <si>
-    <t>bhava 3</t>
-  </si>
-  <si>
-    <t>manussa</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>papañca</t>
-  </si>
-  <si>
-    <t>saṅghādisesa 2</t>
-  </si>
-  <si>
-    <t>vasa 1.2</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>āsaya 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.01</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>antarāya</t>
-  </si>
-  <si>
-    <t>moggallāna 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.14</t>
-  </si>
-  <si>
-    <t>accaya 3</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>magga 1</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>māsa 2.1</t>
-  </si>
-  <si>
-    <t>bhoga 1.1</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>vaccha 1.1</t>
-  </si>
-  <si>
-    <t>sāra 2</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.06</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>yāma 1</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>bheda 2</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>attha 1.2</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>vāta 1</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>paṇḍita 2</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>satta 2.1</t>
-  </si>
-  <si>
-    <t>byāpāda</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1.1</t>
-  </si>
-  <si>
-    <t>pariyāya 4</t>
-  </si>
-  <si>
-    <t>kāya 1.2</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>paccaya 1</t>
-  </si>
-  <si>
-    <t>uccāra</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gandha 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>pāṇa 3</t>
-  </si>
-  <si>
     <t>samudaya 1</t>
   </si>
   <si>
@@ -784,15 +832,9 @@
     <t>māra</t>
   </si>
   <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
     <t>ogha 1</t>
   </si>
   <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
     <t>ñāya</t>
   </si>
   <si>
@@ -805,24 +847,15 @@
     <t>uddesa 1</t>
   </si>
   <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
     <t>khandha 3</t>
   </si>
   <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
     <t>sota 1.1</t>
   </si>
   <si>
     <t>vūpasama 1</t>
   </si>
   <si>
-    <t>apāya 1</t>
-  </si>
-  <si>
     <t>paṭilābha</t>
   </si>
   <si>
@@ -859,24 +892,15 @@
     <t>sahāya</t>
   </si>
   <si>
-    <t>ārāma 3</t>
-  </si>
-  <si>
     <t>paribbājaka</t>
   </si>
   <si>
     <t>rukkha</t>
   </si>
   <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
     <t>gabbha 3</t>
   </si>
   <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
     <t>uppāda 1.1</t>
   </si>
   <si>
@@ -886,36 +910,18 @@
     <t>moha 1</t>
   </si>
   <si>
-    <t>bāla 2</t>
-  </si>
-  <si>
     <t>kāya 1.1</t>
   </si>
   <si>
     <t>kassapa 1</t>
   </si>
   <si>
-    <t>cora</t>
-  </si>
-  <si>
     <t>attha 2.1</t>
   </si>
   <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
     <t>amanasikāra 1</t>
   </si>
   <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
     <t>udapāna</t>
   </si>
   <si>
@@ -943,9 +949,6 @@
     <t>thera 1.2</t>
   </si>
   <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
     <t>dhamma 1.09</t>
   </si>
   <si>
@@ -958,9 +961,6 @@
     <t>passāva</t>
   </si>
   <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
     <t>manasikāra</t>
   </si>
   <si>
@@ -1009,6 +1009,9 @@
     <t>bandhati 1</t>
   </si>
   <si>
+    <t>bhavati 1</t>
+  </si>
+  <si>
     <t>abhivaḍḍhati</t>
   </si>
   <si>
@@ -1024,90 +1027,87 @@
     <t>pakkamati 1</t>
   </si>
   <si>
+    <t>icchati 1.1</t>
+  </si>
+  <si>
+    <t>rakkhati 1</t>
+  </si>
+  <si>
+    <t>gaccha 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamati</t>
+  </si>
+  <si>
     <t>ārabhati 1.1</t>
   </si>
   <si>
-    <t>icchati 1.1</t>
-  </si>
-  <si>
-    <t>rakkhati 1</t>
-  </si>
-  <si>
-    <t>gaccha 1</t>
-  </si>
-  <si>
-    <t>upasaṅkamati</t>
+    <t>yācati 1</t>
+  </si>
+  <si>
+    <t>samanupassati 2</t>
+  </si>
+  <si>
+    <t>harati 2</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>passasati</t>
+  </si>
+  <si>
+    <t>assasati</t>
+  </si>
+  <si>
+    <t>ākaṅkhati</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
+  </si>
+  <si>
+    <t>gaṇhati 1</t>
+  </si>
+  <si>
+    <t>pakkhandati 1</t>
+  </si>
+  <si>
+    <t>bhaṇati 1</t>
+  </si>
+  <si>
+    <t>ovadati</t>
+  </si>
+  <si>
+    <t>passati 2</t>
+  </si>
+  <si>
+    <t>jahati 1</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
+  </si>
+  <si>
+    <t>nikkhipati 3</t>
+  </si>
+  <si>
+    <t>bhajati 1.1</t>
   </si>
   <si>
     <t>bhāsati 1.1</t>
   </si>
   <si>
-    <t>yācati 1</t>
-  </si>
-  <si>
-    <t>samanupassati 2</t>
-  </si>
-  <si>
-    <t>harati 2</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
-    <t>passasati</t>
-  </si>
-  <si>
-    <t>assasati</t>
-  </si>
-  <si>
-    <t>ākaṅkhati</t>
-  </si>
-  <si>
-    <t>gaṇhati 1</t>
-  </si>
-  <si>
-    <t>pakkhandati 1</t>
-  </si>
-  <si>
-    <t>bhaṇati 1</t>
-  </si>
-  <si>
-    <t>ovadati</t>
-  </si>
-  <si>
-    <t>passati 2</t>
-  </si>
-  <si>
-    <t>jahati 1</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
-    <t>nikkhipati 3</t>
-  </si>
-  <si>
-    <t>bhajati 1.1</t>
-  </si>
-  <si>
     <t>vattati 1</t>
   </si>
   <si>
     <t>labhati 1</t>
   </si>
   <si>
-    <t>anussarati 1.1</t>
-  </si>
-  <si>
     <t>nisīdati</t>
   </si>
   <si>
-    <t>bhavati 1</t>
-  </si>
-  <si>
     <t>khādati</t>
   </si>
   <si>
@@ -1180,12 +1180,12 @@
     <t>seti 2</t>
   </si>
   <si>
+    <t>deti 1</t>
+  </si>
+  <si>
     <t>dhāreti 3</t>
   </si>
   <si>
-    <t>deti 1</t>
-  </si>
-  <si>
     <t>eti 1</t>
   </si>
   <si>
@@ -1252,42 +1252,48 @@
     <t>āpajjati 5</t>
   </si>
   <si>
+    <t>paṭipajjati 2</t>
+  </si>
+  <si>
+    <t>maññati 1</t>
+  </si>
+  <si>
+    <t>upapajjati 1</t>
+  </si>
+  <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
+    <t>uppajjati 1</t>
+  </si>
+  <si>
+    <t>nibbindati 1</t>
+  </si>
+  <si>
+    <t>jhāyati 2</t>
+  </si>
+  <si>
+    <t>chindati 1</t>
+  </si>
+  <si>
     <t>āpajjati 2</t>
   </si>
   <si>
-    <t>paṭipajjati 2</t>
-  </si>
-  <si>
-    <t>maññati 1</t>
-  </si>
-  <si>
-    <t>upapajjati 1</t>
-  </si>
-  <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
-    <t>uppajjati 1</t>
-  </si>
-  <si>
-    <t>nibbindati 1</t>
-  </si>
-  <si>
-    <t>jhāyati 2</t>
-  </si>
-  <si>
-    <t>chindati 1</t>
-  </si>
-  <si>
     <t>upādiyati</t>
   </si>
   <si>
     <t>atthi 2</t>
   </si>
   <si>
+    <t>atthi 1</t>
+  </si>
+  <si>
+    <t>amhi</t>
+  </si>
+  <si>
     <t>amha 1.1</t>
   </si>
   <si>
@@ -1297,15 +1303,9 @@
     <t>attha 4.2</t>
   </si>
   <si>
-    <t>amhi</t>
-  </si>
-  <si>
     <t>santi 3</t>
   </si>
   <si>
-    <t>atthi 1</t>
-  </si>
-  <si>
     <t>āmantesi</t>
   </si>
   <si>
@@ -1402,15 +1402,15 @@
     <t>ajjhabhāsi</t>
   </si>
   <si>
+    <t>aṭṭhāsi 1</t>
+  </si>
+  <si>
+    <t>byākāsi 1</t>
+  </si>
+  <si>
     <t>abhāsi 1</t>
   </si>
   <si>
-    <t>byākāsi 1</t>
-  </si>
-  <si>
-    <t>aṭṭhāsi 1</t>
-  </si>
-  <si>
     <t>āsiṃ</t>
   </si>
   <si>
@@ -1420,18 +1420,18 @@
     <t>mada 1</t>
   </si>
   <si>
+    <t>sambuddha 1</t>
+  </si>
+  <si>
+    <t>adhamma 2</t>
+  </si>
+  <si>
     <t>ājīva</t>
   </si>
   <si>
     <t>appamāda</t>
   </si>
   <si>
-    <t>sambuddha 1</t>
-  </si>
-  <si>
-    <t>adhamma 2</t>
-  </si>
-  <si>
     <t>taca 1</t>
   </si>
   <si>
@@ -1633,12 +1633,12 @@
     <t>assutavant</t>
   </si>
   <si>
+    <t>āyasmant 1</t>
+  </si>
+  <si>
     <t>bhagavant 1</t>
   </si>
   <si>
-    <t>āyasmant 1</t>
-  </si>
-  <si>
     <t>cakkhumant 2</t>
   </si>
   <si>
@@ -1687,15 +1687,15 @@
     <t>sadā</t>
   </si>
   <si>
+    <t>pacchā 1</t>
+  </si>
+  <si>
+    <t>pure 2</t>
+  </si>
+  <si>
     <t>ca 1</t>
   </si>
   <si>
-    <t>pacchā 1</t>
-  </si>
-  <si>
-    <t>pure 2</t>
-  </si>
-  <si>
     <t>ajja</t>
   </si>
   <si>
@@ -1804,6 +1804,9 @@
     <t>paññā 1</t>
   </si>
   <si>
+    <t>devatā</t>
+  </si>
+  <si>
     <t>abhijjhā</t>
   </si>
   <si>
@@ -1837,9 +1840,6 @@
     <t>pabbajjā</t>
   </si>
   <si>
-    <t>devatā</t>
-  </si>
-  <si>
     <t>sacchikiriyā</t>
   </si>
   <si>
@@ -1876,12 +1876,12 @@
     <t>vipassanā</t>
   </si>
   <si>
+    <t>ovāda</t>
+  </si>
+  <si>
     <t>asammosa</t>
   </si>
   <si>
-    <t>ovāda</t>
-  </si>
-  <si>
     <t>gahetvā 5</t>
   </si>
   <si>
@@ -2056,6 +2056,9 @@
     <t>pāripūrī</t>
   </si>
   <si>
+    <t>bhikkhunī</t>
+  </si>
+  <si>
     <t>anusāsanī</t>
   </si>
   <si>
@@ -2065,9 +2068,6 @@
     <t>bārāṇasī 1</t>
   </si>
   <si>
-    <t>bhikkhunī</t>
-  </si>
-  <si>
     <t>sāvatthī</t>
   </si>
   <si>
@@ -2080,204 +2080,207 @@
     <t>piṇḍāya</t>
   </si>
   <si>
+    <t>indriya 1</t>
+  </si>
+  <si>
+    <t>sukhāya</t>
+  </si>
+  <si>
+    <t>hitāya</t>
+  </si>
+  <si>
+    <t>rūpa 1</t>
+  </si>
+  <si>
+    <t>anagāriya</t>
+  </si>
+  <si>
+    <t>agāra 2</t>
+  </si>
+  <si>
+    <t>sukha 2</t>
+  </si>
+  <si>
+    <t>hita 3</t>
+  </si>
+  <si>
+    <t>nāma 5</t>
+  </si>
+  <si>
+    <t>brahmacariya 1</t>
+  </si>
+  <si>
+    <t>vīriya 1</t>
+  </si>
+  <si>
+    <t>vepulla 1</t>
+  </si>
+  <si>
+    <t>maraṇa</t>
+  </si>
+  <si>
+    <t>nidāna 1</t>
+  </si>
+  <si>
+    <t>bhāsita 1</t>
+  </si>
+  <si>
+    <t>ratana 1</t>
+  </si>
+  <si>
+    <t>kula 1</t>
+  </si>
+  <si>
+    <t>āsana 1</t>
+  </si>
+  <si>
+    <t>pāmojja</t>
+  </si>
+  <si>
+    <t>bhojana 2</t>
+  </si>
+  <si>
+    <t>sīsa 1</t>
+  </si>
+  <si>
+    <t>bala 2</t>
+  </si>
+  <si>
+    <t>pamāṇa 3</t>
+  </si>
+  <si>
+    <t>upādāna 2</t>
+  </si>
+  <si>
     <t>bhūta 3</t>
   </si>
   <si>
-    <t>indriya 1</t>
-  </si>
-  <si>
-    <t>sukhāya</t>
-  </si>
-  <si>
-    <t>hitāya</t>
-  </si>
-  <si>
-    <t>rūpa 1</t>
-  </si>
-  <si>
-    <t>anagāriya</t>
-  </si>
-  <si>
-    <t>agāra 2</t>
-  </si>
-  <si>
-    <t>sukha 2</t>
-  </si>
-  <si>
-    <t>hita 3</t>
-  </si>
-  <si>
-    <t>nāma 5</t>
-  </si>
-  <si>
-    <t>vīriya 1</t>
-  </si>
-  <si>
-    <t>vepulla 1</t>
-  </si>
-  <si>
-    <t>maraṇa</t>
-  </si>
-  <si>
-    <t>nidāna 1</t>
-  </si>
-  <si>
-    <t>ratana 1</t>
-  </si>
-  <si>
-    <t>kula 1</t>
-  </si>
-  <si>
-    <t>pāmojja</t>
+    <t>sarīra 1</t>
+  </si>
+  <si>
+    <t>passa 1.1</t>
+  </si>
+  <si>
+    <t>adinna 1</t>
+  </si>
+  <si>
+    <t>cīvara</t>
+  </si>
+  <si>
+    <t>vattha 1.1</t>
+  </si>
+  <si>
+    <t>puñña 1</t>
+  </si>
+  <si>
+    <t>ñāṇa</t>
+  </si>
+  <si>
+    <t>agāra 1</t>
+  </si>
+  <si>
+    <t>itthatta 1</t>
+  </si>
+  <si>
+    <t>mūla 2</t>
+  </si>
+  <si>
+    <t>domanassa</t>
+  </si>
+  <si>
+    <t>dukkha 3</t>
+  </si>
+  <si>
+    <t>aparihāna</t>
   </si>
   <si>
     <t>arañña</t>
   </si>
   <si>
-    <t>sīsa 1</t>
-  </si>
-  <si>
-    <t>bala 2</t>
-  </si>
-  <si>
-    <t>pamāṇa 3</t>
-  </si>
-  <si>
-    <t>upādāna 2</t>
-  </si>
-  <si>
-    <t>sarīra 1</t>
-  </si>
-  <si>
-    <t>passa 1.1</t>
-  </si>
-  <si>
-    <t>adinna 1</t>
-  </si>
-  <si>
-    <t>vattha 1.1</t>
-  </si>
-  <si>
-    <t>puñña 1</t>
-  </si>
-  <si>
-    <t>ñāṇa</t>
-  </si>
-  <si>
-    <t>agāra 1</t>
+    <t>nibbāna 2</t>
+  </si>
+  <si>
+    <t>saraṇa 2.1</t>
+  </si>
+  <si>
+    <t>sikkhāpada</t>
+  </si>
+  <si>
+    <t>bhaya 3</t>
+  </si>
+  <si>
+    <t>vajja 3</t>
+  </si>
+  <si>
+    <t>citta 1.1</t>
+  </si>
+  <si>
+    <t>vassa 3</t>
+  </si>
+  <si>
+    <t>rūpa 3</t>
+  </si>
+  <si>
+    <t>viññāṇa 1</t>
+  </si>
+  <si>
+    <t>dāna 1.2</t>
+  </si>
+  <si>
+    <t>mūla 1</t>
+  </si>
+  <si>
+    <t>maṃsa 1</t>
+  </si>
+  <si>
+    <t>tīra</t>
+  </si>
+  <si>
+    <t>somanassa</t>
+  </si>
+  <si>
+    <t>sāsana 1</t>
+  </si>
+  <si>
+    <t>bhatta 1.1</t>
+  </si>
+  <si>
+    <t>pāra 1.1</t>
+  </si>
+  <si>
+    <t>ātappa</t>
+  </si>
+  <si>
+    <t>dhana 1</t>
+  </si>
+  <si>
+    <t>bala 1</t>
+  </si>
+  <si>
+    <t>sacca 2</t>
+  </si>
+  <si>
+    <t>jīvita 1</t>
+  </si>
+  <si>
+    <t>ghāna</t>
+  </si>
+  <si>
+    <t>bhesajja</t>
+  </si>
+  <si>
+    <t>appaka 2</t>
+  </si>
+  <si>
+    <t>ottappa</t>
+  </si>
+  <si>
+    <t>jhāna 2</t>
   </si>
   <si>
     <t>dassanāya 2</t>
   </si>
   <si>
-    <t>itthatta 1</t>
-  </si>
-  <si>
-    <t>mūla 2</t>
-  </si>
-  <si>
-    <t>domanassa</t>
-  </si>
-  <si>
-    <t>dukkha 3</t>
-  </si>
-  <si>
-    <t>bhesajja</t>
-  </si>
-  <si>
-    <t>aparihāna</t>
-  </si>
-  <si>
-    <t>bhāsita 1</t>
-  </si>
-  <si>
-    <t>nibbāna 2</t>
-  </si>
-  <si>
-    <t>saraṇa 2.1</t>
-  </si>
-  <si>
-    <t>sikkhāpada</t>
-  </si>
-  <si>
-    <t>bhaya 3</t>
-  </si>
-  <si>
-    <t>vajja 3</t>
-  </si>
-  <si>
-    <t>bhojana 2</t>
-  </si>
-  <si>
-    <t>vassa 3</t>
-  </si>
-  <si>
-    <t>rūpa 3</t>
-  </si>
-  <si>
-    <t>viññāṇa 1</t>
-  </si>
-  <si>
-    <t>dāna 1.2</t>
-  </si>
-  <si>
-    <t>āsana 1</t>
-  </si>
-  <si>
-    <t>mūla 1</t>
-  </si>
-  <si>
-    <t>maṃsa 1</t>
-  </si>
-  <si>
-    <t>tīra</t>
-  </si>
-  <si>
-    <t>somanassa</t>
-  </si>
-  <si>
-    <t>cīvara</t>
-  </si>
-  <si>
-    <t>sāsana 1</t>
-  </si>
-  <si>
-    <t>bhatta 1.1</t>
-  </si>
-  <si>
-    <t>pāra 1.1</t>
-  </si>
-  <si>
-    <t>ātappa</t>
-  </si>
-  <si>
-    <t>dhana 1</t>
-  </si>
-  <si>
-    <t>bala 1</t>
-  </si>
-  <si>
-    <t>sacca 2</t>
-  </si>
-  <si>
-    <t>jīvita 1</t>
-  </si>
-  <si>
-    <t>ghāna</t>
-  </si>
-  <si>
-    <t>appaka 2</t>
-  </si>
-  <si>
-    <t>ottappa</t>
-  </si>
-  <si>
-    <t>citta 1.1</t>
-  </si>
-  <si>
-    <t>jhāna 2</t>
-  </si>
-  <si>
     <t>dukkaṭa 3</t>
   </si>
   <si>
@@ -2290,9 +2293,6 @@
     <t>pārājika 3</t>
   </si>
   <si>
-    <t>brahmacariya 1</t>
-  </si>
-  <si>
     <t>saṃyojana 1</t>
   </si>
   <si>
@@ -2320,30 +2320,30 @@
     <t>api 1.1</t>
   </si>
   <si>
+    <t>kathaṃ 1</t>
+  </si>
+  <si>
+    <t>alaṃ 3</t>
+  </si>
+  <si>
+    <t>yāva 1</t>
+  </si>
+  <si>
+    <t>sakkā 1</t>
+  </si>
+  <si>
+    <t>alaṃ 1</t>
+  </si>
+  <si>
+    <t>alaṃ 5</t>
+  </si>
+  <si>
+    <t>api 1.2</t>
+  </si>
+  <si>
     <t>alaṃ 2</t>
   </si>
   <si>
-    <t>kathaṃ 1</t>
-  </si>
-  <si>
-    <t>alaṃ 3</t>
-  </si>
-  <si>
-    <t>yāva 1</t>
-  </si>
-  <si>
-    <t>sakkā 1</t>
-  </si>
-  <si>
-    <t>alaṃ 1</t>
-  </si>
-  <si>
-    <t>alaṃ 5</t>
-  </si>
-  <si>
-    <t>api 1.2</t>
-  </si>
-  <si>
     <t>samanupassituṃ</t>
   </si>
   <si>
@@ -2362,12 +2362,12 @@
     <t>āyu 2</t>
   </si>
   <si>
+    <t>vatthu 2</t>
+  </si>
+  <si>
     <t>cakkhu 1</t>
   </si>
   <si>
-    <t>vatthu 2</t>
-  </si>
-  <si>
     <t>pron</t>
   </si>
   <si>
@@ -2437,25 +2437,28 @@
     <t>(of person or place or thing) that; such; so and so</t>
   </si>
   <si>
+    <t>knowing; being aware (of)</t>
+  </si>
+  <si>
     <t>seeing</t>
   </si>
   <si>
-    <t>knowing; being aware (of)</t>
-  </si>
-  <si>
     <t>seeing; perceiving</t>
   </si>
   <si>
     <t>standing; standing still</t>
   </si>
   <si>
+    <t>going; walking; travelling</t>
+  </si>
+  <si>
+    <t>living (in); staying (at); remaining (in); continuing (in)</t>
+  </si>
+  <si>
     <t>remembering; recollecting; keeping in mind</t>
   </si>
   <si>
-    <t>going; walking; travelling</t>
-  </si>
-  <si>
-    <t>living (in); staying (at); remaining (in); continuing (in)</t>
+    <t>not seeing; not noticing; not aware</t>
   </si>
   <si>
     <t>not knowing; being ignorant (of)</t>
@@ -2464,9 +2467,6 @@
     <t>not asking permission; not informing</t>
   </si>
   <si>
-    <t>not seeing; not noticing; not aware</t>
-  </si>
-  <si>
     <t>certain; one of</t>
   </si>
   <si>
@@ -2476,15 +2476,15 @@
     <t>falling away; dying</t>
   </si>
   <si>
+    <t>wishing (for); desiring (for); seeking (for)</t>
+  </si>
+  <si>
     <t>walking; walking about; wandering around (in); going around</t>
   </si>
   <si>
     <t>seeing; observing; considering</t>
   </si>
   <si>
-    <t>wishing (for); desiring (for); seeking (for)</t>
-  </si>
-  <si>
     <t>being reborn; re-arising; lit. going towards</t>
   </si>
   <si>
@@ -2557,6 +2557,9 @@
     <t>not accessible; not approachable; lit. with no space around</t>
   </si>
   <si>
+    <t>highest (of); unsurpassed (by); incomparable (to); superior (to); lit. nothing higher</t>
+  </si>
+  <si>
     <t>impersonal; not oneself; non-subjective; not suitable to identify with; coreless; essenceless</t>
   </si>
   <si>
@@ -2566,108 +2569,105 @@
     <t>mindful; present; attentive</t>
   </si>
   <si>
+    <t>middle; middling; medium; medium-sized; moderate</t>
+  </si>
+  <si>
+    <t>earlier; past; former; previous</t>
+  </si>
+  <si>
+    <t>mental poised; mentally balanced; equanimous; non-reactive; looking on; disregarding; lit. onlooker</t>
+  </si>
+  <si>
+    <t>pleasant; likeable; attractive; agreeable; lit. obtained by mind</t>
+  </si>
+  <si>
+    <t>dear (to); beloved (by); loved (by)</t>
+  </si>
+  <si>
+    <t>easily done; easy to do; easy to make</t>
+  </si>
+  <si>
+    <t>experienced; learned; competent; trained; lit. distinguished</t>
+  </si>
+  <si>
+    <t>not sick; healthy</t>
+  </si>
+  <si>
+    <t>painful</t>
+  </si>
+  <si>
+    <t>to be expected (for); certain (for); can be anticipated; lit. to be wished</t>
+  </si>
+  <si>
+    <t>pure; bright</t>
+  </si>
+  <si>
+    <t>polite; pleasant; charming; (comm) fit to be remembered; lit. to be desired</t>
+  </si>
+  <si>
+    <t>clearly aware; fully knowing; completely comprehending</t>
+  </si>
+  <si>
+    <t>signless; featureless; free of mental images; lit. no sign</t>
+  </si>
+  <si>
+    <t>(of food) solid; heavy; substantial</t>
+  </si>
+  <si>
+    <t>pleasing; likeable; cherished; wished for; lit. wished</t>
+  </si>
+  <si>
+    <t>charming (to); pleasant (to); desirable; agreeable (to); lit. desired</t>
+  </si>
+  <si>
+    <t>unbroken; unfragmented; whole</t>
+  </si>
+  <si>
+    <t>unskilful; incompetent; inexperienced</t>
+  </si>
+  <si>
+    <t>heavenly</t>
+  </si>
+  <si>
+    <t>best; highest; ultimate; supreme; top</t>
+  </si>
+  <si>
+    <t>marvellous; extraordinary; unbelievable; astonishing</t>
+  </si>
+  <si>
+    <t>wonderful; marvellous</t>
+  </si>
+  <si>
+    <t>noble; distinguished; of the Buddha</t>
+  </si>
+  <si>
+    <t>eternal; everlasting; endless; perpetual; (comm) existing forever</t>
+  </si>
+  <si>
+    <t>stable; enduring; eternal; everlasting</t>
+  </si>
+  <si>
+    <t>progressing; moving on; (comm) ending; depletion</t>
+  </si>
+  <si>
+    <t>as much as; as long as; as big as; as far as</t>
+  </si>
+  <si>
+    <t>new; fresh</t>
+  </si>
+  <si>
+    <t>well taught; well preached; well explained</t>
+  </si>
+  <si>
+    <t>harmful; hurtful; injurious (to living creatures)</t>
+  </si>
+  <si>
+    <t>dark; black</t>
+  </si>
+  <si>
     <t>right (hand side)</t>
   </si>
   <si>
-    <t>middle; middling; medium; medium-sized; moderate</t>
-  </si>
-  <si>
-    <t>earlier; past; former; previous</t>
-  </si>
-  <si>
-    <t>mental poised; mentally balanced; equanimous; non-reactive; looking on; disregarding; lit. onlooker</t>
-  </si>
-  <si>
-    <t>pleasant; likeable; attractive; agreeable; lit. obtained by mind</t>
-  </si>
-  <si>
-    <t>dear (to); beloved (by); loved (by)</t>
-  </si>
-  <si>
-    <t>easily done; easy to do; easy to make</t>
-  </si>
-  <si>
-    <t>experienced; learned; competent; trained; lit. distinguished</t>
-  </si>
-  <si>
-    <t>not sick; healthy</t>
-  </si>
-  <si>
-    <t>painful</t>
-  </si>
-  <si>
-    <t>to be expected (for); certain (for); can be anticipated; lit. to be wished</t>
-  </si>
-  <si>
-    <t>pure; bright</t>
-  </si>
-  <si>
-    <t>highest (of); unsurpassed (by); incomparable (to); superior (to); lit. nothing higher</t>
-  </si>
-  <si>
-    <t>polite; pleasant; charming; (comm) fit to be remembered; lit. to be desired</t>
-  </si>
-  <si>
-    <t>clearly aware; fully knowing; completely comprehending</t>
-  </si>
-  <si>
-    <t>signless; featureless; free of mental images; lit. no sign</t>
-  </si>
-  <si>
-    <t>(of food) solid; heavy; substantial</t>
-  </si>
-  <si>
-    <t>pleasing; likeable; cherished; wished for; lit. wished</t>
-  </si>
-  <si>
-    <t>charming (to); pleasant (to); desirable; agreeable (to); lit. desired</t>
-  </si>
-  <si>
-    <t>unbroken; unfragmented; whole</t>
-  </si>
-  <si>
-    <t>unskilful; incompetent; inexperienced</t>
-  </si>
-  <si>
-    <t>heavenly</t>
-  </si>
-  <si>
-    <t>best; highest; ultimate; supreme; top</t>
-  </si>
-  <si>
-    <t>marvellous; extraordinary; unbelievable; astonishing</t>
-  </si>
-  <si>
-    <t>wonderful; marvellous</t>
-  </si>
-  <si>
-    <t>eternal; everlasting; endless; perpetual; (comm) existing forever</t>
-  </si>
-  <si>
-    <t>stable; enduring; eternal; everlasting</t>
-  </si>
-  <si>
-    <t>progressing; moving on; (comm) ending; depletion</t>
-  </si>
-  <si>
-    <t>as much as; as long as; as big as; as far as</t>
-  </si>
-  <si>
-    <t>new; fresh</t>
-  </si>
-  <si>
-    <t>well taught; well preached; well explained</t>
-  </si>
-  <si>
-    <t>harmful; hurtful; injurious (to living creatures)</t>
-  </si>
-  <si>
-    <t>dark; black</t>
-  </si>
-  <si>
-    <t>noble; distinguished; of the Buddha</t>
-  </si>
-  <si>
     <t>secluded; isolated; solitary</t>
   </si>
   <si>
@@ -2752,30 +2752,30 @@
     <t>practised; rehearsed; consolidated; familiarized; lit. piled up; accumulated</t>
   </si>
   <si>
+    <t>seen; found; visible</t>
+  </si>
+  <si>
+    <t>freed (from); released (from); saved (from)</t>
+  </si>
+  <si>
+    <t>asked; questioned</t>
+  </si>
+  <si>
+    <t>arisen; appeared; come into being</t>
+  </si>
+  <si>
+    <t>composed; centred; settled; collected; concentrated</t>
+  </si>
+  <si>
+    <t>present; in attendance; available; lit. stood near</t>
+  </si>
+  <si>
+    <t>full; filled up; complete</t>
+  </si>
+  <si>
     <t>passed away; died</t>
   </si>
   <si>
-    <t>seen; found; visible</t>
-  </si>
-  <si>
-    <t>freed (from); released (from); saved (from)</t>
-  </si>
-  <si>
-    <t>asked; questioned</t>
-  </si>
-  <si>
-    <t>arisen; appeared; come into being</t>
-  </si>
-  <si>
-    <t>composed; centred; settled; collected; concentrated</t>
-  </si>
-  <si>
-    <t>present; in attendance; available; lit. stood near</t>
-  </si>
-  <si>
-    <t>full; filled up; complete</t>
-  </si>
-  <si>
     <t>touched (by); contacted (by); experienced</t>
   </si>
   <si>
@@ -2797,12 +2797,12 @@
     <t>as dangerous; as fearful</t>
   </si>
   <si>
+    <t>as impermanent; as unstable; as transient; as unreliable</t>
+  </si>
+  <si>
     <t>as impersonal; as not oneself; as non-subjective</t>
   </si>
   <si>
-    <t>as impermanent; as unstable; as transient; as unreliable</t>
-  </si>
-  <si>
     <t>many; much; lots (of); a lot (of); great; large</t>
   </si>
   <si>
@@ -2821,6 +2821,9 @@
     <t>wise; intelligent; discerning; knowledgeable</t>
   </si>
   <si>
+    <t>sixth (6th)</t>
+  </si>
+  <si>
     <t>eighth (8th)</t>
   </si>
   <si>
@@ -2845,27 +2848,24 @@
     <t>first (1st); prime</t>
   </si>
   <si>
-    <t>sixth (6th)</t>
+    <t>nine (9)</t>
+  </si>
+  <si>
+    <t>seven (7)</t>
+  </si>
+  <si>
+    <t>five (5)</t>
+  </si>
+  <si>
+    <t>six (6)</t>
+  </si>
+  <si>
+    <t>eight (8)</t>
   </si>
   <si>
     <t>ten (10)</t>
   </si>
   <si>
-    <t>eight (8)</t>
-  </si>
-  <si>
-    <t>nine (9)</t>
-  </si>
-  <si>
-    <t>seven (7)</t>
-  </si>
-  <si>
-    <t>five (5)</t>
-  </si>
-  <si>
-    <t>six (6)</t>
-  </si>
-  <si>
     <t>one hundred (100)</t>
   </si>
   <si>
@@ -2887,276 +2887,324 @@
     <t>discipline; training; lit. leading out</t>
   </si>
   <si>
+    <t>thief; robber</t>
+  </si>
+  <si>
+    <t>state of existence; form of becoming</t>
+  </si>
+  <si>
+    <t>human being; man; person</t>
+  </si>
+  <si>
+    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
+  </si>
+  <si>
+    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
+  </si>
+  <si>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>person; individual</t>
+  </si>
+  <si>
+    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
+  </si>
+  <si>
+    <t>nature; character</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>obstacle (for); danger (for); lit. coming in-between</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
+    <t>fault; offence; transgression; lit. going beyond</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>road; path; track; way</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>wealth; possessions; property; riches</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>core; essence; substance; value</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>watch (of the night); one eighth of the day; about three hours</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>(vinaya) schism; split; breakup</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>benefit; profit; good; welfare; goal</t>
+  </si>
+  <si>
+    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>sage; intelligent person; wise man; smart person</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>state of loss; state of misery; lit. going away</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
+    <t>way; nature; habit; property; quality; lit. going around</t>
+  </si>
+  <si>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
+  </si>
+  <si>
+    <t>breaking; splitting; tearing</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>fool; idiot; immature person</t>
+  </si>
+  <si>
+    <t>support; requisite; necessity</t>
+  </si>
+  <si>
+    <t>excrement; faeces</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>cross-legged sitting position; meditation posture</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>smell; scent; odour</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>park; parkland; nature reserve</t>
+  </si>
+  <si>
+    <t>act; practice</t>
+  </si>
+  <si>
+    <t>being; living being; lit. breath</t>
+  </si>
+  <si>
     <t>teaching; discourse; doctrine</t>
   </si>
   <si>
-    <t>state of existence; form of becoming</t>
-  </si>
-  <si>
-    <t>human being; man; person</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>various opinions; proliferation; endless conceptualization; lit. expanding; spreading</t>
-  </si>
-  <si>
-    <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
-  </si>
-  <si>
-    <t>control (over); authority (over); power (over); mastery (over)</t>
-  </si>
-  <si>
-    <t>person; individual</t>
-  </si>
-  <si>
-    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
-  </si>
-  <si>
-    <t>nature; character</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>obstacle (for); danger (for); lit. coming in-between</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
-  </si>
-  <si>
-    <t>act; practice</t>
-  </si>
-  <si>
-    <t>fault; offence; transgression; lit. going beyond</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>road; path; track; way</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>wealth; possessions; property; riches</t>
-  </si>
-  <si>
-    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>core; essence; substance; value</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>watch (of the night); one eighth of the day; about three hours</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>(vinaya) schism; split; breakup</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>benefit; profit; good; welfare; goal</t>
-  </si>
-  <si>
-    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>sage; intelligent person; wise man; smart person</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>being; living being; creature</t>
-  </si>
-  <si>
-    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; egotism; superiority; comparing oneself</t>
-  </si>
-  <si>
-    <t>way; nature; habit; property; quality; lit. going around</t>
-  </si>
-  <si>
-    <t>group; host; company; collection; multitude; mass</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
-  </si>
-  <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>support; requisite; necessity</t>
-  </si>
-  <si>
-    <t>excrement; faeces</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>cross-legged sitting position; meditation posture</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>light; brightness; clarity</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>smell; scent; odour</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>being; living being; lit. breath</t>
-  </si>
-  <si>
     <t>source; arising; origin; appearance</t>
   </si>
   <si>
@@ -3175,15 +3223,9 @@
     <t>death; Death; death personified</t>
   </si>
   <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
     <t>(of water) flood; deluge; torrent</t>
   </si>
   <si>
-    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
     <t>method; system; means; way</t>
   </si>
   <si>
@@ -3196,24 +3238,15 @@
     <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
   </si>
   <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
     <t>aggregate; combination; conglomeration</t>
   </si>
   <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
     <t>stream; river; current</t>
   </si>
   <si>
     <t>peace (of); calming (of); subsiding (of); settling (of)</t>
   </si>
   <si>
-    <t>state of loss; state of misery; lit. going away</t>
-  </si>
-  <si>
     <t>obtaining (of); acquiring (of); gaining (of); personal acquisition (of)</t>
   </si>
   <si>
@@ -3250,24 +3283,15 @@
     <t>friend; companion; ally; fellow traveller; lit. going with</t>
   </si>
   <si>
-    <t>park; parkland; nature reserve</t>
-  </si>
-  <si>
     <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
   </si>
   <si>
     <t>tree</t>
   </si>
   <si>
-    <t>Buddha; Awakened One</t>
-  </si>
-  <si>
     <t>room; inside room; inner chamber; lit. womb</t>
   </si>
   <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
     <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
   </si>
   <si>
@@ -3277,36 +3301,18 @@
     <t>illusion; delusion; hallucination</t>
   </si>
   <si>
-    <t>fool; idiot; immature person</t>
-  </si>
-  <si>
     <t>body; physical body; physical process</t>
   </si>
   <si>
     <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
   </si>
   <si>
-    <t>thief; robber</t>
-  </si>
-  <si>
     <t>need (for); want (for); lit. want</t>
   </si>
   <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
     <t>non-attention; ignoring; lit. not making in mind</t>
   </si>
   <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
     <t>well; (comm) pond; pool; lit. water drinking</t>
   </si>
   <si>
@@ -3334,9 +3340,6 @@
     <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
   </si>
   <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
     <t>law; case; rule</t>
   </si>
   <si>
@@ -3346,9 +3349,6 @@
     <t>urine</t>
   </si>
   <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
     <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
   </si>
   <si>
@@ -3397,6 +3397,9 @@
     <t>binds; ties up; imprisons; confines</t>
   </si>
   <si>
+    <t>is; is being; becomes</t>
+  </si>
+  <si>
     <t>increases more and more; surpasses; outgrows</t>
   </si>
   <si>
@@ -3412,90 +3415,87 @@
     <t>goes (from); goes away (from); leaves (from)</t>
   </si>
   <si>
+    <t>wishes; wants; desires</t>
+  </si>
+  <si>
+    <t>wards off; prevents; guards against</t>
+  </si>
+  <si>
+    <t>go!; begone!</t>
+  </si>
+  <si>
+    <t>approaches; goes (to); visits; lit. goes near</t>
+  </si>
+  <si>
     <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
   </si>
   <si>
-    <t>wishes; wants; desires</t>
-  </si>
-  <si>
-    <t>wards off; prevents; guards against</t>
-  </si>
-  <si>
-    <t>go!; begone!</t>
-  </si>
-  <si>
-    <t>approaches; goes (to); visits; lit. goes near</t>
+    <t>asks (for); begs (for); requests</t>
+  </si>
+  <si>
+    <t>regards; considers; recognises (as); sees (as)</t>
+  </si>
+  <si>
+    <t>takes; steals; robs</t>
+  </si>
+  <si>
+    <t>obtains; gets; receives; personally experiences</t>
+  </si>
+  <si>
+    <t>exhales; breathes out</t>
+  </si>
+  <si>
+    <t>inhales; breathes in</t>
+  </si>
+  <si>
+    <t>wishes (for); wants; desires; aspires (for)</t>
+  </si>
+  <si>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>grabs hold (of); seizes; takes</t>
+  </si>
+  <si>
+    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
+  </si>
+  <si>
+    <t>advises; instructs; admonishes</t>
+  </si>
+  <si>
+    <t>understands; gets; lit. sees</t>
+  </si>
+  <si>
+    <t>gives up; leaves; abandons; deserts</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
+  </si>
+  <si>
+    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
+  </si>
+  <si>
+    <t>associates (with); keeps company (with)</t>
   </si>
   <si>
     <t>speaks (about); talks (about)</t>
   </si>
   <si>
-    <t>asks (for); begs (for); requests</t>
-  </si>
-  <si>
-    <t>regards; considers; recognises (as); sees (as)</t>
-  </si>
-  <si>
-    <t>takes; steals; robs</t>
-  </si>
-  <si>
-    <t>obtains; gets; receives; personally experiences</t>
-  </si>
-  <si>
-    <t>exhales; breathes out</t>
-  </si>
-  <si>
-    <t>inhales; breathes in</t>
-  </si>
-  <si>
-    <t>wishes (for); wants; desires; aspires (for)</t>
-  </si>
-  <si>
-    <t>grabs hold (of); seizes; takes</t>
-  </si>
-  <si>
-    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
-  </si>
-  <si>
-    <t>speaks; says; tells</t>
-  </si>
-  <si>
-    <t>advises; instructs; admonishes</t>
-  </si>
-  <si>
-    <t>understands; gets; lit. sees</t>
-  </si>
-  <si>
-    <t>gives up; leaves; abandons; deserts</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
-    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
-  </si>
-  <si>
-    <t>associates (with); keeps company (with)</t>
-  </si>
-  <si>
     <t>proceeds; continues; goes forward; practices</t>
   </si>
   <si>
     <t>gets; receives; obtains</t>
   </si>
   <si>
-    <t>remembers; recollects; bears in mind</t>
-  </si>
-  <si>
     <t>sits (on); sits down (in)</t>
   </si>
   <si>
-    <t>is; is being; becomes</t>
-  </si>
-  <si>
     <t>chews; devours; eats</t>
   </si>
   <si>
@@ -3568,12 +3568,12 @@
     <t>sleeps</t>
   </si>
   <si>
+    <t>gives (to); donates (to); offers (to); hands (to)</t>
+  </si>
+  <si>
     <t>bears in mind; keeps in mind; remembers; lit. carries</t>
   </si>
   <si>
-    <t>gives (to); donates (to); offers (to); hands (to)</t>
-  </si>
-  <si>
     <t>comes (to)</t>
   </si>
   <si>
@@ -3637,42 +3637,48 @@
     <t>causes; effects</t>
   </si>
   <si>
+    <t>practices; follows a course of action; follows a method</t>
+  </si>
+  <si>
+    <t>thinks; imagines; conceives: presumes; supposes</t>
+  </si>
+  <si>
+    <t>is reborn (in); re-arises (in); lit. goes towards</t>
+  </si>
+  <si>
+    <t>indulges (in); is addicted (to); lit. yokes near</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
+    <t>appears; arises; takes place</t>
+  </si>
+  <si>
+    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
+  </si>
+  <si>
+    <t>meditates; contemplates; lit. thinks</t>
+  </si>
+  <si>
+    <t>cuts off; severs</t>
+  </si>
+  <si>
     <t>arouses; exhibits; produces; brings into being</t>
   </si>
   <si>
-    <t>practices; follows a course of action; follows a method</t>
-  </si>
-  <si>
-    <t>thinks; imagines; conceives: presumes; supposes</t>
-  </si>
-  <si>
-    <t>is reborn (in); re-arises (in); lit. goes towards</t>
-  </si>
-  <si>
-    <t>indulges (in); is addicted (to); lit. yokes near</t>
-  </si>
-  <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
-    <t>appears; arises; takes place</t>
-  </si>
-  <si>
-    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
-  </si>
-  <si>
-    <t>meditates; contemplates; lit. thinks</t>
-  </si>
-  <si>
-    <t>cuts off; severs</t>
-  </si>
-  <si>
     <t>grasps; holds (onto); clings (to); takes possession (of); lit. takes near</t>
   </si>
   <si>
     <t>there are; they are</t>
   </si>
   <si>
+    <t>there is; there exists</t>
+  </si>
+  <si>
+    <t>I am</t>
+  </si>
+  <si>
     <t>we are</t>
   </si>
   <si>
@@ -3682,15 +3688,9 @@
     <t>you (all) must be; may you (all) be</t>
   </si>
   <si>
-    <t>I am</t>
-  </si>
-  <si>
     <t>virtuous woman; good woman</t>
   </si>
   <si>
-    <t>there is; there exists</t>
-  </si>
-  <si>
     <t>addressed; said (to); advised</t>
   </si>
   <si>
@@ -3787,15 +3787,15 @@
     <t>addressed; spoke (to)</t>
   </si>
   <si>
+    <t>stood; stayed; remained</t>
+  </si>
+  <si>
+    <t>answered; replied; lit. made distinct</t>
+  </si>
+  <si>
     <t>spoke; said</t>
   </si>
   <si>
-    <t>answered; replied; lit. made distinct</t>
-  </si>
-  <si>
-    <t>stood; stayed; remained</t>
-  </si>
-  <si>
     <t>I was</t>
   </si>
   <si>
@@ -3805,18 +3805,18 @@
     <t>excess; pleasure; indulgence</t>
   </si>
   <si>
+    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
+  </si>
+  <si>
+    <t>false teaching; something opposed to the teaching</t>
+  </si>
+  <si>
     <t>livelihood; mode of living; way of life; way of earning a living</t>
   </si>
   <si>
     <t>alertness; care; carefulness; caution; vigilance; diligence; conscientiousness; heedfulness; lit. not heedless</t>
   </si>
   <si>
-    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
-  </si>
-  <si>
-    <t>false teaching; something opposed to the teaching</t>
-  </si>
-  <si>
     <t>skin</t>
   </si>
   <si>
@@ -4018,12 +4018,12 @@
     <t>unlearned; untaught; uninitiated; untrained; lit. having not heard quality</t>
   </si>
   <si>
+    <t>venerable; reverend; lit. having age quality</t>
+  </si>
+  <si>
     <t>Sublime One; Blessed One; Fortunate One; Auspicious One; epithet of the Buddha; lit. having good fortune quality</t>
   </si>
   <si>
-    <t>venerable; reverend; lit. having age quality</t>
-  </si>
-  <si>
     <t>person with sight; who can see; lit. having eyes quality</t>
   </si>
   <si>
@@ -4072,15 +4072,15 @@
     <t>always; ever; all the time</t>
   </si>
   <si>
+    <t>afterwards; later; in the future</t>
+  </si>
+  <si>
+    <t>formerly; previously; in the past</t>
+  </si>
+  <si>
     <t>and; both</t>
   </si>
   <si>
-    <t>afterwards; later; in the future</t>
-  </si>
-  <si>
-    <t>formerly; previously; in the past</t>
-  </si>
-  <si>
     <t>today; now</t>
   </si>
   <si>
@@ -4258,12 +4258,12 @@
     <t>insight; penetrating internal vision; introspection; lit. seeing distinctly</t>
   </si>
   <si>
+    <t>advice; instruction encouragement; exhortation</t>
+  </si>
+  <si>
     <t>not forgetting; non-confusion</t>
   </si>
   <si>
-    <t>advice; instruction encouragement; exhortation</t>
-  </si>
-  <si>
     <t>having arrested; having taken prisoner</t>
   </si>
   <si>
@@ -4432,6 +4432,9 @@
     <t>fulfilment; completion; perfecting; maturity</t>
   </si>
   <si>
+    <t>nun; fully ordained nun</t>
+  </si>
+  <si>
     <t>advice; instruction; teaching</t>
   </si>
   <si>
@@ -4441,9 +4444,6 @@
     <t>name of a city; modern Varanasi</t>
   </si>
   <si>
-    <t>nun; fully ordained nun</t>
-  </si>
-  <si>
     <t>name of a city; capital of Kosala</t>
   </si>
   <si>
@@ -4456,204 +4456,207 @@
     <t>for alms; to collect alms food</t>
   </si>
   <si>
+    <t>sense; mental faculty; power; lit. belonging to Inda</t>
+  </si>
+  <si>
+    <t>comfortable (for); lit. for the comfort</t>
+  </si>
+  <si>
+    <t>beneficial (for); advantageous (for); lit. for the benefit</t>
+  </si>
+  <si>
+    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
+  </si>
+  <si>
+    <t>homelessness; homeless state</t>
+  </si>
+  <si>
+    <t>household life; domestic living</t>
+  </si>
+  <si>
+    <t>ease; comfort; happiness; pleasure; contentment</t>
+  </si>
+  <si>
+    <t>welfare (of); good (of); benefit (of); blessing</t>
+  </si>
+  <si>
+    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
+  </si>
+  <si>
+    <t>spiritual path; spiritual practice; holy life; celibacy</t>
+  </si>
+  <si>
+    <t>effort; energy; might; power; lit. virility</t>
+  </si>
+  <si>
+    <t>expansion; full development; maturity</t>
+  </si>
+  <si>
+    <t>death; dying</t>
+  </si>
+  <si>
+    <t>source; origin; foundation; cause; reason; lit. tying down</t>
+  </si>
+  <si>
+    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
+  </si>
+  <si>
+    <t>jewel; gem; gemstone</t>
+  </si>
+  <si>
+    <t>family; house; household; respectable family</t>
+  </si>
+  <si>
+    <t>seat; chair; lit. sitting</t>
+  </si>
+  <si>
+    <t>joy; happiness; gladness</t>
+  </si>
+  <si>
+    <t>eating; taking food</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>(Dhamma) power; strength</t>
+  </si>
+  <si>
+    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
+  </si>
+  <si>
+    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
+  </si>
+  <si>
     <t>being; living being; entity; lit. become</t>
   </si>
   <si>
-    <t>sense; mental faculty; power; lit. belonging to Inda</t>
-  </si>
-  <si>
-    <t>comfortable (for); lit. for the comfort</t>
-  </si>
-  <si>
-    <t>beneficial (for); advantageous (for); lit. for the benefit</t>
-  </si>
-  <si>
-    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
-  </si>
-  <si>
-    <t>homelessness; homeless state</t>
-  </si>
-  <si>
-    <t>household life; domestic living</t>
-  </si>
-  <si>
-    <t>ease; comfort; happiness; pleasure; contentment</t>
-  </si>
-  <si>
-    <t>welfare (of); good (of); benefit (of); blessing</t>
-  </si>
-  <si>
-    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
-  </si>
-  <si>
-    <t>effort; energy; might; power; lit. virility</t>
-  </si>
-  <si>
-    <t>expansion; full development; maturity</t>
-  </si>
-  <si>
-    <t>death; dying</t>
-  </si>
-  <si>
-    <t>source; origin; foundation; cause; reason; lit. tying down</t>
-  </si>
-  <si>
-    <t>jewel; gem; gemstone</t>
-  </si>
-  <si>
-    <t>family; house; household; respectable family</t>
-  </si>
-  <si>
-    <t>joy; happiness; gladness</t>
+    <t>body</t>
+  </si>
+  <si>
+    <t>(of the body) side; rib</t>
+  </si>
+  <si>
+    <t>which is not given; something not offered</t>
+  </si>
+  <si>
+    <t>robe; cloth; robe-cloth; lit. rags</t>
+  </si>
+  <si>
+    <t>cloth; clothes; robe</t>
+  </si>
+  <si>
+    <t>merit; good deed; spiritual wealth</t>
+  </si>
+  <si>
+    <t>knowing (of); understanding (of); insight (into)</t>
+  </si>
+  <si>
+    <t>dwelling; building; house; hut</t>
+  </si>
+  <si>
+    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
+  </si>
+  <si>
+    <t>source; origin; root</t>
+  </si>
+  <si>
+    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
+  </si>
+  <si>
+    <t>discomfort; suffering; unease; unpleasantness; something unsatisfactory; trouble; a bummer; stress</t>
+  </si>
+  <si>
+    <t>not deteriorating; not decreasing; non-declining; non-regressing</t>
   </si>
   <si>
     <t>forest; wood; wilds; wilderness; lit. remoteness</t>
   </si>
   <si>
-    <t>head</t>
-  </si>
-  <si>
-    <t>(Dhamma) power; strength</t>
-  </si>
-  <si>
-    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
-  </si>
-  <si>
-    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>(of the body) side; rib</t>
-  </si>
-  <si>
-    <t>which is not given; something not offered</t>
-  </si>
-  <si>
-    <t>cloth; clothes; robe</t>
-  </si>
-  <si>
-    <t>merit; good deed; spiritual wealth</t>
-  </si>
-  <si>
-    <t>knowing (of); understanding (of); insight (into)</t>
-  </si>
-  <si>
-    <t>dwelling; building; house; hut</t>
+    <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
+  </si>
+  <si>
+    <t>shelter; refuge; help; lit. going to</t>
+  </si>
+  <si>
+    <t>precept; instruction; training rule</t>
+  </si>
+  <si>
+    <t>danger (of; from); peril (of; from)</t>
+  </si>
+  <si>
+    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
+  </si>
+  <si>
+    <t>mind; heart</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>(object of the eye) form; material form; shape; sight; lit. form</t>
+  </si>
+  <si>
+    <t>awareness; consciousness; mind; fifth of the five aggregates; lit. knowing</t>
+  </si>
+  <si>
+    <t>alms; gift</t>
+  </si>
+  <si>
+    <t>(of a tree) root; base; foot</t>
+  </si>
+  <si>
+    <t>meat; flesh</t>
+  </si>
+  <si>
+    <t>shore; riverbank; beach</t>
+  </si>
+  <si>
+    <t>(mental) pleasure; happiness; joy</t>
+  </si>
+  <si>
+    <t>message; letter; lit. teaching</t>
+  </si>
+  <si>
+    <t>food; boiled rice; lit. shared</t>
+  </si>
+  <si>
+    <t>far side; far shore; bank on the other side; epithet of Nibbāna</t>
+  </si>
+  <si>
+    <t>effort; exertion; lit. to be burned</t>
+  </si>
+  <si>
+    <t>wealth; riches; treasure</t>
+  </si>
+  <si>
+    <t>strength; power; might</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>life; existence</t>
+  </si>
+  <si>
+    <t>nose; lit. smelling</t>
+  </si>
+  <si>
+    <t>medicine; remedy; tonic; drug</t>
+  </si>
+  <si>
+    <t>few things; few people; small amount</t>
+  </si>
+  <si>
+    <t>regret; shame in wrongdoing; respect for others</t>
+  </si>
+  <si>
+    <t>meditation; stage of meditation; lit. meditating</t>
   </si>
   <si>
     <t>in order to visit; for the purpose of seeing</t>
   </si>
   <si>
-    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
-  </si>
-  <si>
-    <t>source; origin; root</t>
-  </si>
-  <si>
-    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
-  </si>
-  <si>
-    <t>discomfort; suffering; unease; unpleasantness; something unsatisfactory; trouble; a bummer; stress</t>
-  </si>
-  <si>
-    <t>medicine; remedy; tonic; drug</t>
-  </si>
-  <si>
-    <t>not deteriorating; not decreasing; non-declining; non-regressing</t>
-  </si>
-  <si>
-    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
-  </si>
-  <si>
-    <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
-  </si>
-  <si>
-    <t>shelter; refuge; help; lit. going to</t>
-  </si>
-  <si>
-    <t>precept; instruction; training rule</t>
-  </si>
-  <si>
-    <t>danger (of; from); peril (of; from)</t>
-  </si>
-  <si>
-    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
-  </si>
-  <si>
-    <t>eating; taking food</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>(object of the eye) form; material form; shape; sight; lit. form</t>
-  </si>
-  <si>
-    <t>awareness; consciousness; mind; fifth of the five aggregates; lit. knowing</t>
-  </si>
-  <si>
-    <t>alms; gift</t>
-  </si>
-  <si>
-    <t>seat; chair; lit. sitting</t>
-  </si>
-  <si>
-    <t>(of a tree) root; base; foot</t>
-  </si>
-  <si>
-    <t>meat; flesh</t>
-  </si>
-  <si>
-    <t>shore; riverbank; beach</t>
-  </si>
-  <si>
-    <t>(mental) pleasure; happiness; joy</t>
-  </si>
-  <si>
-    <t>robe; cloth; robe-cloth; lit. rags</t>
-  </si>
-  <si>
-    <t>message; letter; lit. teaching</t>
-  </si>
-  <si>
-    <t>food; boiled rice; lit. shared</t>
-  </si>
-  <si>
-    <t>far side; far shore; bank on the other side; epithet of Nibbāna</t>
-  </si>
-  <si>
-    <t>effort; exertion; lit. to be burned</t>
-  </si>
-  <si>
-    <t>wealth; riches; treasure</t>
-  </si>
-  <si>
-    <t>strength; power; might</t>
-  </si>
-  <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>life; existence</t>
-  </si>
-  <si>
-    <t>nose; lit. smelling</t>
-  </si>
-  <si>
-    <t>few things; few people; small amount</t>
-  </si>
-  <si>
-    <t>regret; shame in wrongdoing; respect for others</t>
-  </si>
-  <si>
-    <t>mind; heart</t>
-  </si>
-  <si>
-    <t>meditation; stage of meditation; lit. meditating</t>
-  </si>
-  <si>
     <t>class of vinaya offence; wrong-doing; lit. badly done</t>
   </si>
   <si>
@@ -4666,9 +4669,6 @@
     <t>(vinaya) offence involving defeat; transgression requiring expulsion</t>
   </si>
   <si>
-    <t>spiritual path; spiritual practice; holy life; celibacy</t>
-  </si>
-  <si>
     <t>fetter; chain; bond; thing which binds; lit. yoking together</t>
   </si>
   <si>
@@ -4696,30 +4696,30 @@
     <t>just; only</t>
   </si>
   <si>
+    <t>how?</t>
+  </si>
+  <si>
+    <t>enough; it is enough (for)</t>
+  </si>
+  <si>
+    <t>as long as; as far as; so much so; up to; until; from … to</t>
+  </si>
+  <si>
+    <t>it is possible (to); one is able (to)</t>
+  </si>
+  <si>
+    <t>(it is) suitable (to); proper (to); appropriate (to); worthy (for); lit. enough</t>
+  </si>
+  <si>
+    <t>that’s enough (of)!; stop (with)!</t>
+  </si>
+  <si>
+    <t>even; even then</t>
+  </si>
+  <si>
     <t>is able (to); is possible (to); is capable (of); lit. enough</t>
   </si>
   <si>
-    <t>how?</t>
-  </si>
-  <si>
-    <t>enough; it is enough (for)</t>
-  </si>
-  <si>
-    <t>as long as; as far as; so much so; up to; until; from … to</t>
-  </si>
-  <si>
-    <t>it is possible (to); one is able (to)</t>
-  </si>
-  <si>
-    <t>(it is) suitable (to); proper (to); appropriate (to); worthy (for); lit. enough</t>
-  </si>
-  <si>
-    <t>that’s enough (of)!; stop (with)!</t>
-  </si>
-  <si>
-    <t>even; even then</t>
-  </si>
-  <si>
     <t>to see (as); to regard (as); to consider (as)</t>
   </si>
   <si>
@@ -4738,10 +4738,10 @@
     <t>life force; life energy</t>
   </si>
   <si>
+    <t>site; location; base; grounds; lit. ground</t>
+  </si>
+  <si>
     <t>eye</t>
-  </si>
-  <si>
-    <t>site; location; base; grounds; lit. ground</t>
   </si>
   <si>
     <t>a-pron</t>
@@ -10551,7 +10551,7 @@
         <v>787</v>
       </c>
       <c r="C308" t="s">
-        <v>981</v>
+        <v>1108</v>
       </c>
       <c r="D308" t="s">
         <v>1583</v>
@@ -10568,7 +10568,7 @@
         <v>787</v>
       </c>
       <c r="C309" t="s">
-        <v>1108</v>
+        <v>982</v>
       </c>
       <c r="D309" t="s">
         <v>1583</v>
@@ -12503,7 +12503,7 @@
         <v>426</v>
       </c>
       <c r="B423" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C423" t="s">
         <v>1221</v>
@@ -12537,7 +12537,7 @@
         <v>428</v>
       </c>
       <c r="B425" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C425" t="s">
         <v>1223</v>
@@ -15396,7 +15396,7 @@
         <v>797</v>
       </c>
       <c r="C593" t="s">
-        <v>1391</v>
+        <v>1047</v>
       </c>
       <c r="D593" t="s">
         <v>1630</v>
@@ -15413,7 +15413,7 @@
         <v>797</v>
       </c>
       <c r="C594" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="D594" t="s">
         <v>1630</v>
@@ -15430,7 +15430,7 @@
         <v>797</v>
       </c>
       <c r="C595" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D595" t="s">
         <v>1630</v>
@@ -15447,7 +15447,7 @@
         <v>797</v>
       </c>
       <c r="C596" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D596" t="s">
         <v>1630</v>
@@ -15464,7 +15464,7 @@
         <v>797</v>
       </c>
       <c r="C597" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D597" t="s">
         <v>1630</v>
@@ -15481,7 +15481,7 @@
         <v>797</v>
       </c>
       <c r="C598" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D598" t="s">
         <v>1630</v>
@@ -15498,7 +15498,7 @@
         <v>797</v>
       </c>
       <c r="C599" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D599" t="s">
         <v>1630</v>
@@ -15515,7 +15515,7 @@
         <v>797</v>
       </c>
       <c r="C600" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D600" t="s">
         <v>1630</v>
@@ -15532,7 +15532,7 @@
         <v>797</v>
       </c>
       <c r="C601" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D601" t="s">
         <v>1630</v>
@@ -15549,7 +15549,7 @@
         <v>797</v>
       </c>
       <c r="C602" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D602" t="s">
         <v>1630</v>
@@ -15566,7 +15566,7 @@
         <v>797</v>
       </c>
       <c r="C603" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D603" t="s">
         <v>1630</v>
@@ -15583,7 +15583,7 @@
         <v>797</v>
       </c>
       <c r="C604" t="s">
-        <v>960</v>
+        <v>1401</v>
       </c>
       <c r="D604" t="s">
         <v>1630</v>

--- a/pali-class/vocab/vocab-class12.xlsx
+++ b/pali-class/vocab/vocab-class12.xlsx
@@ -31,30 +31,30 @@
     <t>sbs_class</t>
   </si>
   <si>
+    <t>sabba 1</t>
+  </si>
+  <si>
     <t>añña 1</t>
   </si>
   <si>
+    <t>para 1</t>
+  </si>
+  <si>
     <t>aññatara 1</t>
   </si>
   <si>
-    <t>sabba 1</t>
-  </si>
-  <si>
-    <t>para 1</t>
-  </si>
-  <si>
     <t>amu</t>
   </si>
   <si>
     <t>jānanta</t>
   </si>
   <si>
+    <t>samanupassanta</t>
+  </si>
+  <si>
     <t>passanta 1</t>
   </si>
   <si>
-    <t>samanupassanta</t>
-  </si>
-  <si>
     <t>tiṭṭhanta 1</t>
   </si>
   <si>
@@ -82,318 +82,318 @@
     <t>ima 1.1</t>
   </si>
   <si>
+    <t>ākaṅkhamāna</t>
+  </si>
+  <si>
+    <t>caramāna</t>
+  </si>
+  <si>
+    <t>sampassamāna</t>
+  </si>
+  <si>
+    <t>upapajjamāna</t>
+  </si>
+  <si>
     <t>cavamāna</t>
   </si>
   <si>
-    <t>ākaṅkhamāna</t>
-  </si>
-  <si>
-    <t>caramāna</t>
-  </si>
-  <si>
-    <t>sampassamāna</t>
-  </si>
-  <si>
-    <t>upapajjamāna</t>
+    <t>majjhima 1</t>
+  </si>
+  <si>
+    <t>pāṭikaṅkha</t>
+  </si>
+  <si>
+    <t>ariya 1</t>
+  </si>
+  <si>
+    <t>apara 1</t>
+  </si>
+  <si>
+    <t>anuttara</t>
+  </si>
+  <si>
+    <t>parama 1</t>
+  </si>
+  <si>
+    <t>pamatta 1</t>
+  </si>
+  <si>
+    <t>kusala 1</t>
+  </si>
+  <si>
+    <t>aroga</t>
+  </si>
+  <si>
+    <t>purima 1</t>
+  </si>
+  <si>
+    <t>paṇīta 2</t>
+  </si>
+  <si>
+    <t>anicca 1</t>
+  </si>
+  <si>
+    <t>nicca</t>
+  </si>
+  <si>
+    <t>dibba</t>
+  </si>
+  <si>
+    <t>suñña 2</t>
+  </si>
+  <si>
+    <t>ṭhita 2</t>
+  </si>
+  <si>
+    <t>kammaniya</t>
+  </si>
+  <si>
+    <t>anaṅgaṇa</t>
+  </si>
+  <si>
+    <t>pariyodāta</t>
+  </si>
+  <si>
+    <t>oḷārika 1</t>
+  </si>
+  <si>
+    <t>kevala 1</t>
+  </si>
+  <si>
+    <t>sata 1.1</t>
+  </si>
+  <si>
+    <t>sukhuma 1</t>
+  </si>
+  <si>
+    <t>byatta</t>
+  </si>
+  <si>
+    <t>dakkha</t>
+  </si>
+  <si>
+    <t>manāpa 1</t>
+  </si>
+  <si>
+    <t>kanta 1.1</t>
+  </si>
+  <si>
+    <t>piya 1</t>
+  </si>
+  <si>
+    <t>odāta 1</t>
+  </si>
+  <si>
+    <t>sāra 1</t>
+  </si>
+  <si>
+    <t>hīna 1</t>
+  </si>
+  <si>
+    <t>sukara</t>
+  </si>
+  <si>
+    <t>agilāna 1</t>
+  </si>
+  <si>
+    <t>sukka 1</t>
+  </si>
+  <si>
+    <t>sampajāna 1</t>
+  </si>
+  <si>
+    <t>svākkhāta</t>
+  </si>
+  <si>
+    <t>samannāgata</t>
+  </si>
+  <si>
+    <t>akusala 1</t>
+  </si>
+  <si>
+    <t>sāraṇīya 1.1</t>
+  </si>
+  <si>
+    <t>iṭṭha 1</t>
+  </si>
+  <si>
+    <t>dhammika 2</t>
+  </si>
+  <si>
+    <t>abbhuta 1</t>
+  </si>
+  <si>
+    <t>acchariya 1</t>
   </si>
   <si>
     <t>methuna 1</t>
   </si>
   <si>
-    <t>pamatta 1</t>
+    <t>sassata</t>
+  </si>
+  <si>
+    <t>paripūra 1</t>
+  </si>
+  <si>
+    <t>dhuva 1</t>
+  </si>
+  <si>
+    <t>uttama 1</t>
+  </si>
+  <si>
+    <t>yāvataka</t>
+  </si>
+  <si>
+    <t>nava 1</t>
+  </si>
+  <si>
+    <t>sandiṭṭhika</t>
+  </si>
+  <si>
+    <t>dukkha 2</t>
+  </si>
+  <si>
+    <t>akhaṇḍa</t>
+  </si>
+  <si>
+    <t>anatta 1</t>
+  </si>
+  <si>
+    <t>aparikkamana</t>
+  </si>
+  <si>
+    <t>abhikkanta 3</t>
+  </si>
+  <si>
+    <t>oḷārika 2</t>
+  </si>
+  <si>
+    <t>kaṇha 1</t>
   </si>
   <si>
     <t>kāsāya 1</t>
   </si>
   <si>
-    <t>oḷārika 1</t>
-  </si>
-  <si>
-    <t>kusala 1</t>
-  </si>
-  <si>
-    <t>aroga</t>
-  </si>
-  <si>
-    <t>samannāgata</t>
-  </si>
-  <si>
-    <t>dakkha</t>
-  </si>
-  <si>
-    <t>paṇīta 2</t>
-  </si>
-  <si>
-    <t>hīna 1</t>
-  </si>
-  <si>
-    <t>anicca 1</t>
-  </si>
-  <si>
-    <t>nicca</t>
-  </si>
-  <si>
-    <t>sandiṭṭhika</t>
-  </si>
-  <si>
-    <t>parama 1</t>
-  </si>
-  <si>
-    <t>dibba</t>
-  </si>
-  <si>
-    <t>ṭhita 2</t>
-  </si>
-  <si>
-    <t>kammaniya</t>
-  </si>
-  <si>
-    <t>anaṅgaṇa</t>
-  </si>
-  <si>
-    <t>pariyodāta</t>
-  </si>
-  <si>
-    <t>kevala 1</t>
-  </si>
-  <si>
-    <t>apara 1</t>
-  </si>
-  <si>
-    <t>odāta 1</t>
-  </si>
-  <si>
-    <t>aparikkamana</t>
-  </si>
-  <si>
-    <t>anuttara</t>
-  </si>
-  <si>
-    <t>anatta 1</t>
-  </si>
-  <si>
-    <t>dhammika 2</t>
-  </si>
-  <si>
-    <t>sata 1.1</t>
-  </si>
-  <si>
-    <t>majjhima 1</t>
-  </si>
-  <si>
-    <t>purima 1</t>
-  </si>
-  <si>
-    <t>manāpa 1</t>
-  </si>
-  <si>
-    <t>piya 1</t>
-  </si>
-  <si>
-    <t>sukara</t>
-  </si>
-  <si>
-    <t>byatta</t>
-  </si>
-  <si>
-    <t>agilāna 1</t>
-  </si>
-  <si>
-    <t>dukkha 2</t>
-  </si>
-  <si>
-    <t>pāṭikaṅkha</t>
-  </si>
-  <si>
-    <t>sukka 1</t>
-  </si>
-  <si>
-    <t>sāraṇīya 1.1</t>
-  </si>
-  <si>
-    <t>sampajāna 1</t>
-  </si>
-  <si>
-    <t>oḷārika 2</t>
-  </si>
-  <si>
-    <t>iṭṭha 1</t>
-  </si>
-  <si>
-    <t>kanta 1.1</t>
-  </si>
-  <si>
-    <t>akhaṇḍa</t>
-  </si>
-  <si>
-    <t>akusala 1</t>
+    <t>dakkhiṇa 1</t>
+  </si>
+  <si>
+    <t>panta 2</t>
   </si>
   <si>
     <t>sagga 1.1</t>
   </si>
   <si>
-    <t>uttama 1</t>
-  </si>
-  <si>
-    <t>abbhuta 1</t>
-  </si>
-  <si>
-    <t>acchariya 1</t>
-  </si>
-  <si>
-    <t>ariya 1</t>
-  </si>
-  <si>
-    <t>sassata</t>
-  </si>
-  <si>
-    <t>paripūra 1</t>
-  </si>
-  <si>
-    <t>dhuva 1</t>
-  </si>
-  <si>
-    <t>abhikkanta 3</t>
-  </si>
-  <si>
-    <t>yāvataka</t>
-  </si>
-  <si>
-    <t>nava 1</t>
-  </si>
-  <si>
-    <t>svākkhāta</t>
-  </si>
-  <si>
     <t>sārambha 2.1</t>
   </si>
   <si>
-    <t>kaṇha 1</t>
-  </si>
-  <si>
-    <t>dakkhiṇa 1</t>
-  </si>
-  <si>
-    <t>panta 2</t>
-  </si>
-  <si>
-    <t>sāra 1</t>
-  </si>
-  <si>
-    <t>sukhuma 1</t>
-  </si>
-  <si>
-    <t>suñña 2</t>
-  </si>
-  <si>
     <t>sugata 2</t>
   </si>
   <si>
+    <t>akkhāta</t>
+  </si>
+  <si>
+    <t>animitta 1</t>
+  </si>
+  <si>
+    <t>āgata 3</t>
+  </si>
+  <si>
+    <t>nisinna 1</t>
+  </si>
+  <si>
+    <t>kupita</t>
+  </si>
+  <si>
+    <t>cuta 1.1</t>
+  </si>
+  <si>
+    <t>patta 3.1</t>
+  </si>
+  <si>
+    <t>samāhita 1</t>
+  </si>
+  <si>
+    <t>pabbajita 2</t>
+  </si>
+  <si>
+    <t>laddha 1</t>
+  </si>
+  <si>
+    <t>adhigata 1</t>
+  </si>
+  <si>
+    <t>santuṭṭha 1</t>
+  </si>
+  <si>
+    <t>kata 1</t>
+  </si>
+  <si>
+    <t>vimutta</t>
+  </si>
+  <si>
+    <t>visuddha 1</t>
+  </si>
+  <si>
+    <t>vutta 2.1</t>
+  </si>
+  <si>
+    <t>dukkhita 1</t>
+  </si>
+  <si>
+    <t>vippamutta</t>
+  </si>
+  <si>
+    <t>anuppanna</t>
+  </si>
+  <si>
     <t>desita 1</t>
   </si>
   <si>
-    <t>akkhāta</t>
-  </si>
-  <si>
-    <t>pabbajita 2</t>
-  </si>
-  <si>
-    <t>āgata 3</t>
+    <t>upaṭṭhita 1</t>
   </si>
   <si>
     <t>pahīna</t>
   </si>
   <si>
-    <t>kata 1</t>
-  </si>
-  <si>
-    <t>kupita</t>
-  </si>
-  <si>
-    <t>vutta 2.1</t>
-  </si>
-  <si>
-    <t>visuddha 1</t>
+    <t>paricita</t>
+  </si>
+  <si>
+    <t>puṭṭha 1.1</t>
+  </si>
+  <si>
+    <t>uppanna 1</t>
+  </si>
+  <si>
+    <t>phuṭṭha 1</t>
+  </si>
+  <si>
+    <t>khīṇa 1</t>
+  </si>
+  <si>
+    <t>diṭṭha 1.1</t>
+  </si>
+  <si>
+    <t>āraddha 1.1</t>
+  </si>
+  <si>
+    <t>akata 2</t>
+  </si>
+  <si>
+    <t>abhūta 1</t>
   </si>
   <si>
     <t>samiñjita 2</t>
   </si>
   <si>
-    <t>nisinna 1</t>
-  </si>
-  <si>
-    <t>dukkhita 1</t>
-  </si>
-  <si>
-    <t>patta 3.1</t>
-  </si>
-  <si>
-    <t>laddha 1</t>
-  </si>
-  <si>
-    <t>adhigata 1</t>
-  </si>
-  <si>
-    <t>santuṭṭha 1</t>
-  </si>
-  <si>
-    <t>abhūta 1</t>
-  </si>
-  <si>
-    <t>akata 2</t>
-  </si>
-  <si>
     <t>vusita 1</t>
   </si>
   <si>
-    <t>khīṇa 1</t>
-  </si>
-  <si>
-    <t>vimutta</t>
-  </si>
-  <si>
-    <t>anuppanna</t>
-  </si>
-  <si>
-    <t>paricita</t>
-  </si>
-  <si>
-    <t>diṭṭha 1.1</t>
-  </si>
-  <si>
-    <t>animitta 1</t>
-  </si>
-  <si>
-    <t>vippamutta</t>
-  </si>
-  <si>
-    <t>puṭṭha 1.1</t>
-  </si>
-  <si>
-    <t>uppanna 1</t>
-  </si>
-  <si>
-    <t>samāhita 1</t>
-  </si>
-  <si>
-    <t>upaṭṭhita 1</t>
-  </si>
-  <si>
-    <t>cuta 1.1</t>
-  </si>
-  <si>
-    <t>phuṭṭha 1</t>
-  </si>
-  <si>
-    <t>āraddha 1.1</t>
+    <t>pāpaka 1.1</t>
   </si>
   <si>
     <t>upekkhaka</t>
   </si>
   <si>
-    <t>pāpaka 1.1</t>
-  </si>
-  <si>
     <t>mahanta 1</t>
   </si>
   <si>
@@ -403,13 +403,16 @@
     <t>aneka</t>
   </si>
   <si>
+    <t>aniccato</t>
+  </si>
+  <si>
+    <t>anattato</t>
+  </si>
+  <si>
     <t>bhayato</t>
   </si>
   <si>
-    <t>aniccato</t>
-  </si>
-  <si>
-    <t>anattato</t>
+    <t>uju 1</t>
   </si>
   <si>
     <t>bahu</t>
@@ -418,9 +421,6 @@
     <t>garu 3</t>
   </si>
   <si>
-    <t>uju 1</t>
-  </si>
-  <si>
     <t>ātāpī</t>
   </si>
   <si>
@@ -430,57 +430,57 @@
     <t>viññū 1</t>
   </si>
   <si>
+    <t>dutiya 1</t>
+  </si>
+  <si>
+    <t>paṭhama 1</t>
+  </si>
+  <si>
     <t>tatiya 1.1</t>
   </si>
   <si>
-    <t>dutiya 1</t>
-  </si>
-  <si>
-    <t>paṭhama 1</t>
+    <t>aṭṭha 1.1</t>
   </si>
   <si>
     <t>nava 2</t>
   </si>
   <si>
+    <t>pañca</t>
+  </si>
+  <si>
     <t>satta 1.1</t>
   </si>
   <si>
-    <t>pañca</t>
-  </si>
-  <si>
     <t>cha 1.1</t>
   </si>
   <si>
-    <t>aṭṭha 1.1</t>
-  </si>
-  <si>
     <t>dasa 1.1</t>
   </si>
   <si>
+    <t>sahassa 1</t>
+  </si>
+  <si>
     <t>sata 2.1</t>
   </si>
   <si>
-    <t>sahassa 1</t>
-  </si>
-  <si>
     <t>chaṭṭha</t>
   </si>
   <si>
+    <t>catuttha 1</t>
+  </si>
+  <si>
     <t>aṭṭhama 1</t>
   </si>
   <si>
+    <t>pañcama</t>
+  </si>
+  <si>
     <t>dasama 1</t>
   </si>
   <si>
     <t>navama</t>
   </si>
   <si>
-    <t>pañcama</t>
-  </si>
-  <si>
-    <t>catuttha 1</t>
-  </si>
-  <si>
     <t>catu</t>
   </si>
   <si>
@@ -493,18 +493,30 @@
     <t>ti 1</t>
   </si>
   <si>
-    <t>bheda 3</t>
-  </si>
-  <si>
     <t>vinaya 1</t>
   </si>
   <si>
     <t>cora</t>
   </si>
   <si>
+    <t>upāsaka</t>
+  </si>
+  <si>
+    <t>gotama</t>
+  </si>
+  <si>
+    <t>pāṇa 3</t>
+  </si>
+  <si>
+    <t>buddha 1</t>
+  </si>
+  <si>
     <t>bhava 3</t>
   </si>
   <si>
+    <t>rāga 1</t>
+  </si>
+  <si>
     <t>manussa</t>
   </si>
   <si>
@@ -514,468 +526,456 @@
     <t>saṅghādisesa 2</t>
   </si>
   <si>
+    <t>paṭilābha</t>
+  </si>
+  <si>
+    <t>gāma 1</t>
+  </si>
+  <si>
+    <t>vāta 1</t>
+  </si>
+  <si>
+    <t>ākāsa 2</t>
+  </si>
+  <si>
+    <t>āsaya 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.01</t>
+  </si>
+  <si>
+    <t>samudaya 1</t>
+  </si>
+  <si>
+    <t>puggala</t>
+  </si>
+  <si>
+    <t>dhamma 1.09</t>
+  </si>
+  <si>
+    <t>ābādha</t>
+  </si>
+  <si>
+    <t>āloka</t>
+  </si>
+  <si>
+    <t>vassa 2</t>
+  </si>
+  <si>
+    <t>accaya 3</t>
+  </si>
+  <si>
+    <t>thera 1.2</t>
+  </si>
+  <si>
+    <t>cāga 2</t>
+  </si>
+  <si>
+    <t>saṃvara 2</t>
+  </si>
+  <si>
+    <t>adhigama 1</t>
+  </si>
+  <si>
+    <t>magga 1</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.03</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>vaccha 1.1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>sāra 2</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>bheda 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>paccaya 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>bhoga 1.1</t>
+  </si>
+  <si>
     <t>vasa 1.2</t>
   </si>
   <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>passāva</t>
+  </si>
+  <si>
+    <t>uccāra</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
     <t>brāhmaṇa 1</t>
   </si>
   <si>
-    <t>ākāsa 2</t>
-  </si>
-  <si>
-    <t>puggala</t>
-  </si>
-  <si>
-    <t>āsaya 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.01</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>ābādha</t>
-  </si>
-  <si>
-    <t>vassa 2</t>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>manasikāra</t>
+  </si>
+  <si>
+    <t>attha 1.2</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>gandha 1</t>
+  </si>
+  <si>
+    <t>ārāma 3</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.14</t>
+  </si>
+  <si>
+    <t>sīha 1</t>
+  </si>
+  <si>
+    <t>ogha 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>āhāra 1</t>
+  </si>
+  <si>
+    <t>bheda 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>apāya 1</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>vipāka 1</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>loka 2</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>satipaṭṭhāna 1</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
   </si>
   <si>
     <t>āvāsa 1</t>
   </si>
   <si>
-    <t>antarāya</t>
+    <t>viveka 1</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>vitakka 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>byāpāda</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
+    <t>anālaya 1</t>
+  </si>
+  <si>
+    <t>amanasikāra 1</t>
+  </si>
+  <si>
+    <t>udapāna</t>
+  </si>
+  <si>
+    <t>kalyāṇamitta 2</t>
+  </si>
+  <si>
+    <t>kassapa 1</t>
+  </si>
+  <si>
+    <t>gabbha 3</t>
+  </si>
+  <si>
+    <t>cāga 1</t>
+  </si>
+  <si>
+    <t>thullaccaya</t>
+  </si>
+  <si>
+    <t>pariyāya 4</t>
+  </si>
+  <si>
+    <t>māsa 2.1</t>
   </si>
   <si>
     <t>moggallāna 1</t>
   </si>
   <si>
-    <t>buddha 1</t>
-  </si>
-  <si>
-    <t>accaya 3</t>
-  </si>
-  <si>
-    <t>saṃvara 2</t>
-  </si>
-  <si>
-    <t>adhigama 1</t>
-  </si>
-  <si>
-    <t>magga 1</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>māsa 2.1</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>bhoga 1.1</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>vaccha 1.1</t>
-  </si>
-  <si>
-    <t>sāra 2</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>byāpāda</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.06</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
     <t>yāma 1</t>
   </si>
   <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>bheda 2</t>
-  </si>
-  <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>attha 1.2</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>vāta 1</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>satta 2.1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>apāya 1</t>
-  </si>
-  <si>
-    <t>māna 1.1</t>
-  </si>
-  <si>
-    <t>pariyāya 4</t>
-  </si>
-  <si>
-    <t>kāya 1.2</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>rāga 1</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>paccaya 1</t>
-  </si>
-  <si>
-    <t>uccāra</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>anālaya 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>cāga 1</t>
-  </si>
-  <si>
-    <t>āloka</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>gandha 1</t>
-  </si>
-  <si>
-    <t>gotama</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>ārāma 3</t>
-  </si>
-  <si>
-    <t>dhamma 1.14</t>
-  </si>
-  <si>
-    <t>pāṇa 3</t>
-  </si>
-  <si>
-    <t>dhamma 1.03</t>
-  </si>
-  <si>
-    <t>samudaya 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>ogha 1</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
+    <t>sakka 3</t>
   </si>
   <si>
     <t>saṃvara 1</t>
   </si>
   <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>sota 1.1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>paṭilābha</t>
-  </si>
-  <si>
-    <t>loka 2</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>āhāra 1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>gabbha 3</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>kassapa 1</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
-    <t>amanasikāra 1</t>
-  </si>
-  <si>
-    <t>udapāna</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>upāsaka</t>
-  </si>
-  <si>
-    <t>kalyāṇamitta 2</t>
-  </si>
-  <si>
-    <t>gāma 1</t>
-  </si>
-  <si>
-    <t>cāga 2</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>thullaccaya</t>
-  </si>
-  <si>
-    <t>thera 1.2</t>
-  </si>
-  <si>
-    <t>dhamma 1.09</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>passāva</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
-    <t>sakka 3</t>
-  </si>
-  <si>
-    <t>satipaṭṭhāna 1</t>
-  </si>
-  <si>
-    <t>sīha 1</t>
-  </si>
-  <si>
-    <t>vitakka 1</t>
-  </si>
-  <si>
-    <t>vipāka 1</t>
-  </si>
-  <si>
-    <t>viveka 1</t>
-  </si>
-  <si>
     <t>paṇḍita 2</t>
   </si>
   <si>
@@ -991,187 +991,190 @@
     <t>punabbhava</t>
   </si>
   <si>
+    <t>vibhaṅga 1</t>
+  </si>
+  <si>
     <t>pātimokkha 2</t>
   </si>
   <si>
-    <t>vibhaṅga 1</t>
-  </si>
-  <si>
     <t>pajahati</t>
   </si>
   <si>
     <t>paṭisevati 1</t>
   </si>
   <si>
+    <t>bandhati 1</t>
+  </si>
+  <si>
+    <t>vattati 1</t>
+  </si>
+  <si>
+    <t>bhavati 1</t>
+  </si>
+  <si>
+    <t>passati 2</t>
+  </si>
+  <si>
+    <t>vadati 1</t>
+  </si>
+  <si>
+    <t>abhivaḍḍhati</t>
+  </si>
+  <si>
+    <t>jahati 1</t>
+  </si>
+  <si>
+    <t>ārabhati 1.1</t>
+  </si>
+  <si>
+    <t>rakkhati 1</t>
+  </si>
+  <si>
+    <t>gaccha 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamati</t>
+  </si>
+  <si>
+    <t>yācati 1</t>
+  </si>
+  <si>
+    <t>samanupassati 2</t>
+  </si>
+  <si>
+    <t>harati 2</t>
+  </si>
+  <si>
+    <t>anussarati 1.1</t>
+  </si>
+  <si>
+    <t>paṭilabhati</t>
+  </si>
+  <si>
+    <t>pakkamati 1</t>
+  </si>
+  <si>
+    <t>ākaṅkhati</t>
+  </si>
+  <si>
+    <t>gaṇhati 1</t>
+  </si>
+  <si>
+    <t>pakkhandati 1</t>
+  </si>
+  <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>bhaṇati 1</t>
+  </si>
+  <si>
+    <t>nikkhipati 3</t>
+  </si>
+  <si>
+    <t>bhajati 1.1</t>
+  </si>
+  <si>
+    <t>icchati 1.1</t>
+  </si>
+  <si>
+    <t>bhāsati 1.1</t>
+  </si>
+  <si>
+    <t>abhiramati</t>
+  </si>
+  <si>
+    <t>saṃvattati</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
+    <t>pucchati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>padahati 1</t>
+  </si>
+  <si>
+    <t>vāyamati</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
+    <t>pavisati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>kappati</t>
+  </si>
+  <si>
+    <t>pariharati 3</t>
+  </si>
+  <si>
+    <t>pavaḍḍhati 1</t>
+  </si>
+  <si>
+    <t>vaḍḍhati</t>
+  </si>
+  <si>
+    <t>passati 1</t>
+  </si>
+  <si>
+    <t>arahati 3</t>
+  </si>
+  <si>
+    <t>assasati</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
     <t>uddharati 2</t>
   </si>
   <si>
-    <t>bandhati 1</t>
-  </si>
-  <si>
-    <t>bhavati 1</t>
-  </si>
-  <si>
-    <t>abhivaḍḍhati</t>
-  </si>
-  <si>
-    <t>vadati 1</t>
+    <t>ovadati</t>
+  </si>
+  <si>
+    <t>carati 1.1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
+    <t>paṭisevati 2</t>
   </si>
   <si>
     <t>pabbajati</t>
   </si>
   <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>pakkamati 1</t>
-  </si>
-  <si>
-    <t>icchati 1.1</t>
-  </si>
-  <si>
-    <t>rakkhati 1</t>
-  </si>
-  <si>
-    <t>gaccha 1</t>
-  </si>
-  <si>
-    <t>upasaṅkamati</t>
-  </si>
-  <si>
-    <t>ārabhati 1.1</t>
-  </si>
-  <si>
-    <t>yācati 1</t>
-  </si>
-  <si>
-    <t>samanupassati 2</t>
-  </si>
-  <si>
-    <t>harati 2</t>
-  </si>
-  <si>
-    <t>paṭilabhati</t>
-  </si>
-  <si>
     <t>passasati</t>
   </si>
   <si>
-    <t>assasati</t>
-  </si>
-  <si>
-    <t>ākaṅkhati</t>
-  </si>
-  <si>
-    <t>anussarati 1.1</t>
-  </si>
-  <si>
-    <t>gaṇhati 1</t>
-  </si>
-  <si>
-    <t>pakkhandati 1</t>
-  </si>
-  <si>
-    <t>bhaṇati 1</t>
-  </si>
-  <si>
-    <t>ovadati</t>
-  </si>
-  <si>
-    <t>passati 2</t>
-  </si>
-  <si>
-    <t>jahati 1</t>
-  </si>
-  <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>paṭisevati 2</t>
-  </si>
-  <si>
-    <t>nikkhipati 3</t>
-  </si>
-  <si>
-    <t>bhajati 1.1</t>
-  </si>
-  <si>
-    <t>bhāsati 1.1</t>
-  </si>
-  <si>
-    <t>vattati 1</t>
-  </si>
-  <si>
-    <t>labhati 1</t>
-  </si>
-  <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>pucchati</t>
-  </si>
-  <si>
-    <t>saṃvattati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>pariharati 3</t>
-  </si>
-  <si>
-    <t>padahati 1</t>
-  </si>
-  <si>
-    <t>vāyamati</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
-    <t>abhiramati</t>
-  </si>
-  <si>
-    <t>pavisati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>vaḍḍhati</t>
-  </si>
-  <si>
-    <t>kappati</t>
-  </si>
-  <si>
-    <t>passati 1</t>
-  </si>
-  <si>
-    <t>arahati 3</t>
-  </si>
-  <si>
-    <t>carati 1.1</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
     <t>passa 2.1</t>
   </si>
   <si>
-    <t>pavaḍḍhati 1</t>
-  </si>
-  <si>
     <t>pūjeti 1</t>
   </si>
   <si>
+    <t>paṭisaṃvedeti</t>
+  </si>
+  <si>
     <t>ceteti 2</t>
   </si>
   <si>
-    <t>paṭisaṃvedeti</t>
+    <t>deti 1</t>
   </si>
   <si>
     <t>vedeti 1</t>
@@ -1180,9 +1183,6 @@
     <t>seti 2</t>
   </si>
   <si>
-    <t>deti 1</t>
-  </si>
-  <si>
     <t>dhāreti 3</t>
   </si>
   <si>
@@ -1195,114 +1195,114 @@
     <t>sakkoti</t>
   </si>
   <si>
+    <t>pāpuṇāti 1</t>
+  </si>
+  <si>
+    <t>paṭiggaṇhāti 2</t>
+  </si>
+  <si>
+    <t>suṇāti 1</t>
+  </si>
+  <si>
+    <t>suṇātu</t>
+  </si>
+  <si>
+    <t>pajānāti</t>
+  </si>
+  <si>
+    <t>paṭibhāti</t>
+  </si>
+  <si>
+    <t>paṭijānāti 3</t>
+  </si>
+  <si>
+    <t>dadāti</t>
+  </si>
+  <si>
+    <t>jānāti 1</t>
+  </si>
+  <si>
+    <t>vijānāti 1</t>
+  </si>
+  <si>
+    <t>paṭiggaṇhāti 1</t>
+  </si>
+  <si>
+    <t>ājānāti 1</t>
+  </si>
+  <si>
+    <t>paggaṇhāti 2</t>
+  </si>
+  <si>
     <t>paggaṇhāti 3</t>
   </si>
   <si>
-    <t>paṭiggaṇhāti 2</t>
-  </si>
-  <si>
-    <t>suṇāti 1</t>
-  </si>
-  <si>
-    <t>suṇātu</t>
-  </si>
-  <si>
-    <t>pāpuṇāti 1</t>
-  </si>
-  <si>
-    <t>pajānāti</t>
-  </si>
-  <si>
-    <t>paṭibhāti</t>
-  </si>
-  <si>
-    <t>paṭijānāti 3</t>
-  </si>
-  <si>
-    <t>dadāti</t>
-  </si>
-  <si>
-    <t>vijānāti 1</t>
-  </si>
-  <si>
-    <t>ājānāti 1</t>
-  </si>
-  <si>
-    <t>paggaṇhāti 2</t>
-  </si>
-  <si>
-    <t>jānāti 1</t>
-  </si>
-  <si>
-    <t>paṭiggaṇhāti 1</t>
+    <t>kassaka</t>
   </si>
   <si>
     <t>vāṇija</t>
   </si>
   <si>
-    <t>kassaka</t>
-  </si>
-  <si>
     <t>samāpajjati 2</t>
   </si>
   <si>
     <t>ādiyati 1</t>
   </si>
   <si>
+    <t>upādiyati</t>
+  </si>
+  <si>
+    <t>paṭipajjati 2</t>
+  </si>
+  <si>
+    <t>uppajjati 1</t>
+  </si>
+  <si>
+    <t>āpajjati 2</t>
+  </si>
+  <si>
+    <t>bhuñjati 1</t>
+  </si>
+  <si>
+    <t>nibbindati 1</t>
+  </si>
+  <si>
+    <t>upapajjati 1</t>
+  </si>
+  <si>
+    <t>jhāyati 2</t>
+  </si>
+  <si>
+    <t>chindati 1</t>
+  </si>
+  <si>
+    <t>anuyuñjati 2</t>
+  </si>
+  <si>
     <t>āpajjati 5</t>
   </si>
   <si>
-    <t>paṭipajjati 2</t>
-  </si>
-  <si>
     <t>maññati 1</t>
   </si>
   <si>
-    <t>upapajjati 1</t>
-  </si>
-  <si>
-    <t>anuyuñjati 2</t>
-  </si>
-  <si>
-    <t>bhuñjati 1</t>
-  </si>
-  <si>
-    <t>uppajjati 1</t>
-  </si>
-  <si>
-    <t>nibbindati 1</t>
-  </si>
-  <si>
-    <t>jhāyati 2</t>
-  </si>
-  <si>
-    <t>chindati 1</t>
-  </si>
-  <si>
-    <t>āpajjati 2</t>
-  </si>
-  <si>
-    <t>upādiyati</t>
+    <t>atthi 1</t>
+  </si>
+  <si>
+    <t>amha 1.1</t>
+  </si>
+  <si>
+    <t>asi 2.1</t>
+  </si>
+  <si>
+    <t>attha 4.2</t>
   </si>
   <si>
     <t>atthi 2</t>
   </si>
   <si>
-    <t>atthi 1</t>
-  </si>
-  <si>
     <t>amhi</t>
   </si>
   <si>
-    <t>amha 1.1</t>
-  </si>
-  <si>
-    <t>asi 2.1</t>
-  </si>
-  <si>
-    <t>attha 4.2</t>
-  </si>
-  <si>
     <t>āmantesi</t>
   </si>
   <si>
@@ -1312,84 +1312,84 @@
     <t>pāturahosi</t>
   </si>
   <si>
+    <t>hoti 1</t>
+  </si>
+  <si>
+    <t>hotu 1</t>
+  </si>
+  <si>
+    <t>pahoti 2</t>
+  </si>
+  <si>
     <t>hotha</t>
   </si>
   <si>
-    <t>hotu 1</t>
-  </si>
-  <si>
-    <t>hoti 1</t>
-  </si>
-  <si>
-    <t>pahoti 2</t>
+    <t>sammodi</t>
   </si>
   <si>
     <t>ajjhabhāsi</t>
   </si>
   <si>
+    <t>udapādi 1</t>
+  </si>
+  <si>
+    <t>abhinandi 1</t>
+  </si>
+  <si>
+    <t>upasaṅkami</t>
+  </si>
+  <si>
+    <t>pucchi</t>
+  </si>
+  <si>
+    <t>abhāsi 1</t>
+  </si>
+  <si>
     <t>paccassosi</t>
   </si>
   <si>
-    <t>udapādi 1</t>
-  </si>
-  <si>
-    <t>abhinandi 1</t>
-  </si>
-  <si>
-    <t>upasaṅkami</t>
-  </si>
-  <si>
-    <t>pucchi</t>
-  </si>
-  <si>
-    <t>abhāsi 1</t>
-  </si>
-  <si>
-    <t>sammodi</t>
-  </si>
-  <si>
     <t>apucchi</t>
   </si>
   <si>
+    <t>nisīdi</t>
+  </si>
+  <si>
     <t>pakkāmi 1</t>
   </si>
   <si>
-    <t>nisīdi</t>
-  </si>
-  <si>
     <t>santi 3</t>
   </si>
   <si>
+    <t>samādhi 1</t>
+  </si>
+  <si>
+    <t>añjali 1</t>
+  </si>
+  <si>
+    <t>gahapati</t>
+  </si>
+  <si>
+    <t>sāli</t>
+  </si>
+  <si>
     <t>muni 1</t>
   </si>
   <si>
-    <t>sāli</t>
+    <t>aggi</t>
   </si>
   <si>
     <t>kucchi 1</t>
   </si>
   <si>
-    <t>aggi</t>
+    <t>isi</t>
+  </si>
+  <si>
+    <t>gāmaṇi</t>
   </si>
   <si>
     <t>ñāti</t>
   </si>
   <si>
-    <t>gahapati</t>
-  </si>
-  <si>
-    <t>isi</t>
-  </si>
-  <si>
-    <t>añjali 1</t>
-  </si>
-  <si>
-    <t>samādhi 1</t>
-  </si>
-  <si>
-    <t>gāmaṇi</t>
-  </si>
-  <si>
     <t>byādhi</t>
   </si>
   <si>
@@ -1417,76 +1417,85 @@
     <t>āsi 1.1</t>
   </si>
   <si>
+    <t>sambuddha 1</t>
+  </si>
+  <si>
+    <t>taca 1</t>
+  </si>
+  <si>
+    <t>adhamma 2</t>
+  </si>
+  <si>
+    <t>appamāda</t>
+  </si>
+  <si>
+    <t>ājīva</t>
+  </si>
+  <si>
+    <t>abhisamaya</t>
+  </si>
+  <si>
     <t>mada 1</t>
   </si>
   <si>
-    <t>sambuddha 1</t>
-  </si>
-  <si>
-    <t>adhamma 2</t>
-  </si>
-  <si>
-    <t>ājīva</t>
-  </si>
-  <si>
-    <t>appamāda</t>
-  </si>
-  <si>
-    <t>taca 1</t>
-  </si>
-  <si>
-    <t>abhisamaya</t>
-  </si>
-  <si>
     <t>mama 2</t>
   </si>
   <si>
+    <t>me 5</t>
+  </si>
+  <si>
+    <t>no 2.1</t>
+  </si>
+  <si>
+    <t>ahaṃ</t>
+  </si>
+  <si>
+    <t>no 2.3</t>
+  </si>
+  <si>
+    <t>me 3</t>
+  </si>
+  <si>
+    <t>mayaṃ</t>
+  </si>
+  <si>
+    <t>no 2.4</t>
+  </si>
+  <si>
+    <t>maṃ 1</t>
+  </si>
+  <si>
     <t>mayā 1</t>
   </si>
   <si>
-    <t>no 2.1</t>
-  </si>
-  <si>
-    <t>no 2.3</t>
-  </si>
-  <si>
-    <t>me 3</t>
-  </si>
-  <si>
-    <t>mayaṃ</t>
-  </si>
-  <si>
-    <t>me 5</t>
-  </si>
-  <si>
-    <t>no 2.4</t>
-  </si>
-  <si>
     <t>amhākaṃ 3</t>
   </si>
   <si>
     <t>me 2</t>
   </si>
   <si>
-    <t>ahaṃ</t>
-  </si>
-  <si>
-    <t>maṃ 1</t>
+    <t>sobhati 2</t>
   </si>
   <si>
     <t>assasissati</t>
   </si>
   <si>
-    <t>sobhati 2</t>
-  </si>
-  <si>
     <t>passasissati</t>
   </si>
   <si>
+    <t>neti 1.1</t>
+  </si>
+  <si>
     <t>dhāressati</t>
   </si>
   <si>
-    <t>neti 1.1</t>
+    <t>no 1.1</t>
+  </si>
+  <si>
+    <t>saha 2</t>
+  </si>
+  <si>
+    <t>mā 1</t>
   </si>
   <si>
     <t>na 1</t>
@@ -1495,18 +1504,9 @@
     <t>saddhiṃ</t>
   </si>
   <si>
-    <t>saha 2</t>
-  </si>
-  <si>
     <t>no 1.3</t>
   </si>
   <si>
-    <t>no 1.1</t>
-  </si>
-  <si>
-    <t>mā 1</t>
-  </si>
-  <si>
     <t>bhavissati 1</t>
   </si>
   <si>
@@ -1525,45 +1525,45 @@
     <t>dassati 1.1</t>
   </si>
   <si>
+    <t>taṃ 2.1</t>
+  </si>
+  <si>
+    <t>tayā 1</t>
+  </si>
+  <si>
+    <t>tumhe 1</t>
+  </si>
+  <si>
+    <t>vo 1.4</t>
+  </si>
+  <si>
+    <t>te 2.4</t>
+  </si>
+  <si>
     <t>vo 1.3</t>
   </si>
   <si>
+    <t>tvaṃ 1</t>
+  </si>
+  <si>
     <t>vo 1.2</t>
   </si>
   <si>
+    <t>te 2.3</t>
+  </si>
+  <si>
+    <t>tumhākaṃ 2</t>
+  </si>
+  <si>
+    <t>tuvaṃ 1</t>
+  </si>
+  <si>
     <t>tumhākaṃ 3</t>
   </si>
   <si>
-    <t>taṃ 2.1</t>
-  </si>
-  <si>
-    <t>tayā 1</t>
-  </si>
-  <si>
-    <t>tumhākaṃ 2</t>
-  </si>
-  <si>
     <t>tumhe 2</t>
   </si>
   <si>
-    <t>tumhe 1</t>
-  </si>
-  <si>
-    <t>vo 1.4</t>
-  </si>
-  <si>
-    <t>tvaṃ 1</t>
-  </si>
-  <si>
-    <t>te 2.3</t>
-  </si>
-  <si>
-    <t>tuvaṃ 1</t>
-  </si>
-  <si>
-    <t>te 2.4</t>
-  </si>
-  <si>
     <t>nābhijānāti 1</t>
   </si>
   <si>
@@ -1579,42 +1579,42 @@
     <t>dassī 2</t>
   </si>
   <si>
+    <t>anupassī 1</t>
+  </si>
+  <si>
+    <t>dhammī 1</t>
+  </si>
+  <si>
+    <t>gavesī 1</t>
+  </si>
+  <si>
+    <t>anāgāmī</t>
+  </si>
+  <si>
+    <t>bhogī 1.1</t>
+  </si>
+  <si>
+    <t>sakadāgāmī</t>
+  </si>
+  <si>
     <t>vippaṭisārī</t>
   </si>
   <si>
-    <t>bhogī 1.1</t>
-  </si>
-  <si>
-    <t>dhammī 1</t>
-  </si>
-  <si>
-    <t>anupassī 1</t>
-  </si>
-  <si>
-    <t>gavesī 1</t>
-  </si>
-  <si>
-    <t>anāgāmī</t>
-  </si>
-  <si>
-    <t>sakadāgāmī</t>
-  </si>
-  <si>
     <t>sukhī 2</t>
   </si>
   <si>
+    <t>sabrahmacārī</t>
+  </si>
+  <si>
+    <t>medhāvī</t>
+  </si>
+  <si>
+    <t>pakkhī</t>
+  </si>
+  <si>
     <t>brahmacārī 2</t>
   </si>
   <si>
-    <t>sabrahmacārī</t>
-  </si>
-  <si>
-    <t>medhāvī</t>
-  </si>
-  <si>
-    <t>pakkhī</t>
-  </si>
-  <si>
     <t>saṅgaha 1</t>
   </si>
   <si>
@@ -1642,19 +1642,22 @@
     <t>cakkhumant 2</t>
   </si>
   <si>
+    <t>akkhātar</t>
+  </si>
+  <si>
+    <t>bhāsitar</t>
+  </si>
+  <si>
     <t>satthar 1</t>
   </si>
   <si>
+    <t>dātar 1</t>
+  </si>
+  <si>
     <t>kattar 1</t>
   </si>
   <si>
-    <t>akkhātar</t>
-  </si>
-  <si>
-    <t>bhāsitar</t>
-  </si>
-  <si>
-    <t>dātar 1</t>
+    <t>bhātar</t>
   </si>
   <si>
     <t>pitar</t>
@@ -1663,105 +1666,102 @@
     <t>mātāpitar</t>
   </si>
   <si>
-    <t>bhātar</t>
-  </si>
-  <si>
     <t>paricarati 3</t>
   </si>
   <si>
+    <t>sabbadā</t>
+  </si>
+  <si>
+    <t>pacchā 1</t>
+  </si>
+  <si>
+    <t>pubbe 1</t>
+  </si>
+  <si>
+    <t>āyatiṃ</t>
+  </si>
+  <si>
+    <t>ca 1</t>
+  </si>
+  <si>
     <t>kālena</t>
   </si>
   <si>
-    <t>pubbe 1</t>
-  </si>
-  <si>
-    <t>āyatiṃ</t>
-  </si>
-  <si>
     <t>vā 1</t>
   </si>
   <si>
+    <t>pure 2</t>
+  </si>
+  <si>
+    <t>sadā</t>
+  </si>
+  <si>
     <t>yadā</t>
   </si>
   <si>
-    <t>sadā</t>
-  </si>
-  <si>
-    <t>pacchā 1</t>
-  </si>
-  <si>
-    <t>pure 2</t>
-  </si>
-  <si>
-    <t>ca 1</t>
-  </si>
-  <si>
     <t>ajja</t>
   </si>
   <si>
-    <t>sabbadā</t>
+    <t>phāsu 2</t>
+  </si>
+  <si>
+    <t>bhikkhu</t>
+  </si>
+  <si>
+    <t>maccu</t>
   </si>
   <si>
     <t>garu 5</t>
   </si>
   <si>
-    <t>phāsu 2</t>
-  </si>
-  <si>
-    <t>bhikkhu</t>
-  </si>
-  <si>
-    <t>maccu</t>
-  </si>
-  <si>
     <t>khemī</t>
   </si>
   <si>
+    <t>mattaññū</t>
+  </si>
+  <si>
     <t>rattaññū</t>
   </si>
   <si>
     <t>vidū 1</t>
   </si>
   <si>
-    <t>mattaññū</t>
-  </si>
-  <si>
     <t>abhibhū 1</t>
   </si>
   <si>
     <t>lokavidū</t>
   </si>
   <si>
+    <t>gāha 2.2</t>
+  </si>
+  <si>
     <t>paṭighāta 1</t>
   </si>
   <si>
-    <t>gāha 2.2</t>
-  </si>
-  <si>
     <t>gaccheyya</t>
   </si>
   <si>
+    <t>passeyya 1</t>
+  </si>
+  <si>
+    <t>vadeyya</t>
+  </si>
+  <si>
+    <t>adhigaccheyya</t>
+  </si>
+  <si>
+    <t>vihareyya</t>
+  </si>
+  <si>
+    <t>upapajjeyya</t>
+  </si>
+  <si>
+    <t>uppajjeyya</t>
+  </si>
+  <si>
     <t>nahāyati</t>
   </si>
   <si>
-    <t>vadeyya</t>
-  </si>
-  <si>
-    <t>adhigaccheyya</t>
-  </si>
-  <si>
-    <t>passeyya 1</t>
-  </si>
-  <si>
-    <t>vihareyya</t>
-  </si>
-  <si>
-    <t>uppajjeyya</t>
-  </si>
-  <si>
-    <t>upapajjeyya</t>
-  </si>
-  <si>
     <t>āgaccheyya</t>
   </si>
   <si>
@@ -1777,102 +1777,102 @@
     <t>assa 3.1</t>
   </si>
   <si>
+    <t>taṇhā 1</t>
+  </si>
+  <si>
+    <t>sākhā 1</t>
+  </si>
+  <si>
+    <t>disā 1</t>
+  </si>
+  <si>
+    <t>abhijjhā</t>
+  </si>
+  <si>
+    <t>nisajjā 1</t>
+  </si>
+  <si>
+    <t>kathā 1</t>
+  </si>
+  <si>
+    <t>mettā</t>
+  </si>
+  <si>
+    <t>sacchikiriyā</t>
+  </si>
+  <si>
+    <t>upekkhā</t>
+  </si>
+  <si>
+    <t>saddhā 1</t>
+  </si>
+  <si>
+    <t>bāhā 1</t>
+  </si>
+  <si>
+    <t>vedanā 1</t>
+  </si>
+  <si>
+    <t>pabbajjā</t>
+  </si>
+  <si>
     <t>sikkhā 2</t>
   </si>
   <si>
+    <t>senā</t>
+  </si>
+  <si>
+    <t>pajā 2</t>
+  </si>
+  <si>
+    <t>vipassanā</t>
+  </si>
+  <si>
+    <t>jarā</t>
+  </si>
+  <si>
+    <t>nibbidā</t>
+  </si>
+  <si>
+    <t>upāsikā</t>
+  </si>
+  <si>
+    <t>paññā 1</t>
+  </si>
+  <si>
     <t>gāthā 1</t>
   </si>
   <si>
-    <t>jarā</t>
+    <t>vācā 1</t>
+  </si>
+  <si>
+    <t>devatā</t>
+  </si>
+  <si>
+    <t>vijjā 1</t>
+  </si>
+  <si>
+    <t>saññā 1</t>
+  </si>
+  <si>
+    <t>jivhā</t>
+  </si>
+  <si>
+    <t>avijjā</t>
+  </si>
+  <si>
+    <t>upasampadā 2</t>
+  </si>
+  <si>
+    <t>ṭīkā</t>
+  </si>
+  <si>
+    <t>desanā 3</t>
   </si>
   <si>
     <t>vīmaṃsā 1</t>
   </si>
   <si>
-    <t>disā 1</t>
-  </si>
-  <si>
-    <t>nisajjā 1</t>
-  </si>
-  <si>
-    <t>kathā 1</t>
-  </si>
-  <si>
-    <t>paññā 1</t>
-  </si>
-  <si>
-    <t>devatā</t>
-  </si>
-  <si>
-    <t>abhijjhā</t>
-  </si>
-  <si>
-    <t>senā</t>
-  </si>
-  <si>
-    <t>sākhā 1</t>
-  </si>
-  <si>
-    <t>bāhā 1</t>
-  </si>
-  <si>
-    <t>desanā 3</t>
-  </si>
-  <si>
-    <t>vācā 1</t>
-  </si>
-  <si>
-    <t>taṇhā 1</t>
-  </si>
-  <si>
-    <t>vedanā 1</t>
-  </si>
-  <si>
-    <t>jivhā</t>
-  </si>
-  <si>
-    <t>upāsikā</t>
-  </si>
-  <si>
-    <t>pabbajjā</t>
-  </si>
-  <si>
-    <t>sacchikiriyā</t>
-  </si>
-  <si>
-    <t>pajā 2</t>
-  </si>
-  <si>
-    <t>avijjā</t>
-  </si>
-  <si>
-    <t>upasampadā 2</t>
-  </si>
-  <si>
-    <t>upekkhā</t>
-  </si>
-  <si>
-    <t>ṭīkā</t>
-  </si>
-  <si>
-    <t>nibbidā</t>
-  </si>
-  <si>
-    <t>mettā</t>
-  </si>
-  <si>
-    <t>saññā 1</t>
-  </si>
-  <si>
-    <t>saddhā 1</t>
-  </si>
-  <si>
-    <t>vijjā 1</t>
-  </si>
-  <si>
-    <t>vipassanā</t>
-  </si>
-  <si>
     <t>jāneyya</t>
   </si>
   <si>
@@ -1882,159 +1882,159 @@
     <t>asammosa</t>
   </si>
   <si>
+    <t>hitvā</t>
+  </si>
+  <si>
+    <t>disvā</t>
+  </si>
+  <si>
+    <t>sāyitvā</t>
+  </si>
+  <si>
+    <t>ñatvā</t>
+  </si>
+  <si>
+    <t>sutvā</t>
+  </si>
+  <si>
+    <t>chetvā 1</t>
+  </si>
+  <si>
+    <t>ābhujitvā</t>
+  </si>
+  <si>
+    <t>gahetvā 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamitvā</t>
+  </si>
+  <si>
+    <t>acchādetvā</t>
+  </si>
+  <si>
+    <t>katvāna 1</t>
+  </si>
+  <si>
+    <t>karitvā 1</t>
+  </si>
+  <si>
     <t>gahetvā 5</t>
   </si>
   <si>
-    <t>acchādetvā</t>
-  </si>
-  <si>
-    <t>hitvā</t>
-  </si>
-  <si>
-    <t>disvā</t>
-  </si>
-  <si>
-    <t>ñatvā</t>
-  </si>
-  <si>
-    <t>sāyitvā</t>
-  </si>
-  <si>
-    <t>sutvā</t>
-  </si>
-  <si>
-    <t>chetvā 1</t>
-  </si>
-  <si>
-    <t>ābhujitvā</t>
+    <t>caritvā 1.1</t>
+  </si>
+  <si>
+    <t>paggahetvā 2</t>
   </si>
   <si>
     <t>paṭissutvā</t>
   </si>
   <si>
-    <t>katvāna 1</t>
-  </si>
-  <si>
-    <t>caritvā 1.1</t>
-  </si>
-  <si>
-    <t>gahetvā 1</t>
-  </si>
-  <si>
-    <t>karitvā 1</t>
-  </si>
-  <si>
-    <t>upasaṅkamitvā</t>
-  </si>
-  <si>
-    <t>paggahetvā 2</t>
-  </si>
-  <si>
     <t>dhītar</t>
   </si>
   <si>
+    <t>samādāya 2</t>
+  </si>
+  <si>
     <t>āgamma 1</t>
   </si>
   <si>
-    <t>samādāya 2</t>
-  </si>
-  <si>
     <t>vineyya 1</t>
   </si>
   <si>
+    <t>ādāya 4</t>
+  </si>
+  <si>
+    <t>uṭṭhāya</t>
+  </si>
+  <si>
+    <t>upasampajja 1</t>
+  </si>
+  <si>
+    <t>nisajja</t>
+  </si>
+  <si>
     <t>paṇidhāya 1</t>
   </si>
   <si>
-    <t>ādāya 4</t>
-  </si>
-  <si>
-    <t>upasampajja 1</t>
-  </si>
-  <si>
     <t>vivicca</t>
   </si>
   <si>
-    <t>uṭṭhāya</t>
-  </si>
-  <si>
-    <t>nisajja</t>
+    <t>kuṭi 1</t>
+  </si>
+  <si>
+    <t>saṅghāṭi 1</t>
+  </si>
+  <si>
+    <t>diṭṭhi 1</t>
+  </si>
+  <si>
+    <t>sugati</t>
   </si>
   <si>
     <t>ṭhiti 1</t>
   </si>
   <si>
-    <t>kuṭi 1</t>
+    <t>āpatti 2</t>
+  </si>
+  <si>
+    <t>vimutti</t>
   </si>
   <si>
     <t>visuddhi 1.1</t>
   </si>
   <si>
-    <t>āpatti 2</t>
-  </si>
-  <si>
-    <t>diṭṭhi 1</t>
-  </si>
-  <si>
     <t>samāpatti 1</t>
   </si>
   <si>
+    <t>passaddhi</t>
+  </si>
+  <si>
+    <t>sati 1.2</t>
+  </si>
+  <si>
+    <t>pīti 1.1</t>
+  </si>
+  <si>
     <t>ruci</t>
   </si>
   <si>
-    <t>sati 1.2</t>
-  </si>
-  <si>
-    <t>pīti 1.1</t>
-  </si>
-  <si>
-    <t>passaddhi</t>
-  </si>
-  <si>
-    <t>saṅghāṭi 1</t>
-  </si>
-  <si>
-    <t>sugati</t>
-  </si>
-  <si>
-    <t>vimutti</t>
-  </si>
-  <si>
     <t>hiri</t>
   </si>
   <si>
     <t>yattha</t>
   </si>
   <si>
+    <t>purato</t>
+  </si>
+  <si>
+    <t>idha 2</t>
+  </si>
+  <si>
+    <t>sabbattha 1</t>
+  </si>
+  <si>
+    <t>tattha 1</t>
+  </si>
+  <si>
+    <t>yato 2</t>
+  </si>
+  <si>
     <t>tattha 2</t>
   </si>
   <si>
-    <t>purato</t>
-  </si>
-  <si>
-    <t>idha 2</t>
+    <t>tatra 1</t>
+  </si>
+  <si>
+    <t>ettha 1</t>
+  </si>
+  <si>
+    <t>upari 1</t>
   </si>
   <si>
     <t>ekato 1</t>
   </si>
   <si>
-    <t>sabbattha 1</t>
-  </si>
-  <si>
-    <t>tattha 1</t>
-  </si>
-  <si>
-    <t>upari 1</t>
-  </si>
-  <si>
-    <t>yato 2</t>
-  </si>
-  <si>
-    <t>tatra 1</t>
-  </si>
-  <si>
-    <t>ettha 1</t>
-  </si>
-  <si>
     <t>kuto 1</t>
   </si>
   <si>
@@ -2047,327 +2047,327 @@
     <t>pipāsā</t>
   </si>
   <si>
+    <t>pāripūrī</t>
+  </si>
+  <si>
+    <t>anusāsanī</t>
+  </si>
+  <si>
+    <t>vesālī</t>
+  </si>
+  <si>
+    <t>bārāṇasī 1</t>
+  </si>
+  <si>
+    <t>bhikkhunī</t>
+  </si>
+  <si>
+    <t>sāvatthī</t>
+  </si>
+  <si>
     <t>itthī 1</t>
   </si>
   <si>
     <t>nārī</t>
   </si>
   <si>
-    <t>pāripūrī</t>
-  </si>
-  <si>
-    <t>bhikkhunī</t>
-  </si>
-  <si>
-    <t>anusāsanī</t>
-  </si>
-  <si>
-    <t>vesālī</t>
-  </si>
-  <si>
-    <t>bārāṇasī 1</t>
-  </si>
-  <si>
-    <t>sāvatthī</t>
-  </si>
-  <si>
     <t>abhabba 1</t>
   </si>
   <si>
+    <t>piṇḍāya</t>
+  </si>
+  <si>
     <t>atthāya 2</t>
   </si>
   <si>
-    <t>piṇḍāya</t>
+    <t>ratana 1</t>
+  </si>
+  <si>
+    <t>saraṇa 2.1</t>
+  </si>
+  <si>
+    <t>bhūta 3</t>
+  </si>
+  <si>
+    <t>sikkhāpada</t>
+  </si>
+  <si>
+    <t>saṃyojana 1</t>
+  </si>
+  <si>
+    <t>brahmacariya 1</t>
+  </si>
+  <si>
+    <t>anagāriya</t>
+  </si>
+  <si>
+    <t>agāra 2</t>
+  </si>
+  <si>
+    <t>vattha 1.1</t>
+  </si>
+  <si>
+    <t>hitāya</t>
+  </si>
+  <si>
+    <t>ñāṇa</t>
+  </si>
+  <si>
+    <t>puñña 1</t>
+  </si>
+  <si>
+    <t>aparihāna</t>
+  </si>
+  <si>
+    <t>vepulla 1</t>
+  </si>
+  <si>
+    <t>nibbāna 2</t>
+  </si>
+  <si>
+    <t>bhāsita 1</t>
+  </si>
+  <si>
+    <t>āsana 1</t>
+  </si>
+  <si>
+    <t>kula 1</t>
   </si>
   <si>
     <t>indriya 1</t>
   </si>
   <si>
+    <t>pāmojja</t>
+  </si>
+  <si>
+    <t>nidāna 1</t>
+  </si>
+  <si>
+    <t>rūpa 1</t>
+  </si>
+  <si>
+    <t>pamāṇa 3</t>
+  </si>
+  <si>
+    <t>upādāna 2</t>
+  </si>
+  <si>
+    <t>pācittiya 1</t>
+  </si>
+  <si>
+    <t>sarīra 1</t>
+  </si>
+  <si>
+    <t>adinna 1</t>
+  </si>
+  <si>
+    <t>bhesajja</t>
+  </si>
+  <si>
+    <t>dhana 1</t>
+  </si>
+  <si>
+    <t>cīvara</t>
+  </si>
+  <si>
+    <t>tīra</t>
+  </si>
+  <si>
+    <t>itthatta 1</t>
+  </si>
+  <si>
+    <t>mūla 2</t>
+  </si>
+  <si>
+    <t>nāma 5</t>
+  </si>
+  <si>
+    <t>agāra 1</t>
+  </si>
+  <si>
+    <t>domanassa</t>
+  </si>
+  <si>
+    <t>maraṇa</t>
+  </si>
+  <si>
+    <t>vassa 3</t>
+  </si>
+  <si>
+    <t>ottappa</t>
+  </si>
+  <si>
+    <t>mūla 1</t>
+  </si>
+  <si>
     <t>sukhāya</t>
   </si>
   <si>
-    <t>hitāya</t>
-  </si>
-  <si>
-    <t>rūpa 1</t>
-  </si>
-  <si>
-    <t>anagāriya</t>
-  </si>
-  <si>
-    <t>agāra 2</t>
+    <t>sacca 2</t>
+  </si>
+  <si>
+    <t>parinibbāna 1</t>
+  </si>
+  <si>
+    <t>bhaya 3</t>
+  </si>
+  <si>
+    <t>bhojana 2</t>
+  </si>
+  <si>
+    <t>sīla 1</t>
+  </si>
+  <si>
+    <t>rūpa 3</t>
   </si>
   <si>
     <t>hita 3</t>
   </si>
   <si>
-    <t>nāma 5</t>
-  </si>
-  <si>
-    <t>brahmacariya 1</t>
+    <t>citta 1.1</t>
+  </si>
+  <si>
+    <t>viññāṇa 1</t>
+  </si>
+  <si>
+    <t>maṃsa 1</t>
+  </si>
+  <si>
+    <t>pāra 1.1</t>
+  </si>
+  <si>
+    <t>somanassa</t>
+  </si>
+  <si>
+    <t>sīsa 1</t>
+  </si>
+  <si>
+    <t>sāsana 1</t>
+  </si>
+  <si>
+    <t>bhatta 1.1</t>
+  </si>
+  <si>
+    <t>sutta 2.1</t>
   </si>
   <si>
     <t>vīriya 1</t>
   </si>
   <si>
-    <t>vepulla 1</t>
-  </si>
-  <si>
-    <t>maraṇa</t>
-  </si>
-  <si>
-    <t>nidāna 1</t>
-  </si>
-  <si>
-    <t>bhāsita 1</t>
-  </si>
-  <si>
-    <t>ratana 1</t>
-  </si>
-  <si>
-    <t>kula 1</t>
-  </si>
-  <si>
-    <t>āsana 1</t>
-  </si>
-  <si>
-    <t>pāmojja</t>
-  </si>
-  <si>
-    <t>bhojana 2</t>
-  </si>
-  <si>
-    <t>sīsa 1</t>
+    <t>ātappa</t>
+  </si>
+  <si>
+    <t>bala 1</t>
+  </si>
+  <si>
+    <t>jīvita 1</t>
+  </si>
+  <si>
+    <t>ghāna</t>
+  </si>
+  <si>
+    <t>arañña</t>
+  </si>
+  <si>
+    <t>appaka 2</t>
+  </si>
+  <si>
+    <t>jhāna 2</t>
+  </si>
+  <si>
+    <t>dassanāya 2</t>
+  </si>
+  <si>
+    <t>dāna 1.2</t>
+  </si>
+  <si>
+    <t>dukkaṭa 3</t>
+  </si>
+  <si>
+    <t>passa 1.1</t>
+  </si>
+  <si>
+    <t>pārājika 3</t>
   </si>
   <si>
     <t>bala 2</t>
   </si>
   <si>
-    <t>pamāṇa 3</t>
-  </si>
-  <si>
-    <t>upādāna 2</t>
-  </si>
-  <si>
-    <t>bhūta 3</t>
-  </si>
-  <si>
-    <t>sarīra 1</t>
-  </si>
-  <si>
-    <t>passa 1.1</t>
-  </si>
-  <si>
-    <t>adinna 1</t>
-  </si>
-  <si>
-    <t>cīvara</t>
-  </si>
-  <si>
-    <t>vattha 1.1</t>
-  </si>
-  <si>
-    <t>puñña 1</t>
-  </si>
-  <si>
-    <t>ñāṇa</t>
-  </si>
-  <si>
-    <t>agāra 1</t>
-  </si>
-  <si>
-    <t>itthatta 1</t>
-  </si>
-  <si>
-    <t>mūla 2</t>
-  </si>
-  <si>
-    <t>domanassa</t>
-  </si>
-  <si>
-    <t>aparihāna</t>
-  </si>
-  <si>
-    <t>arañña</t>
-  </si>
-  <si>
-    <t>nibbāna 2</t>
-  </si>
-  <si>
-    <t>saraṇa 2.1</t>
-  </si>
-  <si>
-    <t>sikkhāpada</t>
-  </si>
-  <si>
-    <t>bhaya 3</t>
-  </si>
-  <si>
     <t>vajja 3</t>
   </si>
   <si>
-    <t>citta 1.1</t>
-  </si>
-  <si>
-    <t>vassa 3</t>
-  </si>
-  <si>
-    <t>rūpa 3</t>
-  </si>
-  <si>
-    <t>viññāṇa 1</t>
-  </si>
-  <si>
-    <t>dāna 1.2</t>
-  </si>
-  <si>
-    <t>mūla 1</t>
-  </si>
-  <si>
-    <t>maṃsa 1</t>
-  </si>
-  <si>
-    <t>tīra</t>
-  </si>
-  <si>
-    <t>somanassa</t>
-  </si>
-  <si>
-    <t>sāsana 1</t>
-  </si>
-  <si>
-    <t>bhatta 1.1</t>
-  </si>
-  <si>
-    <t>pāra 1.1</t>
-  </si>
-  <si>
-    <t>ātappa</t>
-  </si>
-  <si>
-    <t>dhana 1</t>
-  </si>
-  <si>
-    <t>bala 1</t>
-  </si>
-  <si>
-    <t>sacca 2</t>
-  </si>
-  <si>
-    <t>jīvita 1</t>
-  </si>
-  <si>
-    <t>ghāna</t>
-  </si>
-  <si>
-    <t>bhesajja</t>
-  </si>
-  <si>
-    <t>appaka 2</t>
-  </si>
-  <si>
-    <t>ottappa</t>
-  </si>
-  <si>
-    <t>jhāna 2</t>
-  </si>
-  <si>
-    <t>dassanāya 2</t>
-  </si>
-  <si>
-    <t>dukkaṭa 3</t>
-  </si>
-  <si>
-    <t>parinibbāna 1</t>
-  </si>
-  <si>
-    <t>pācittiya 1</t>
-  </si>
-  <si>
-    <t>pārājika 3</t>
-  </si>
-  <si>
-    <t>saṃyojana 1</t>
-  </si>
-  <si>
-    <t>sīla 1</t>
-  </si>
-  <si>
-    <t>sutta 2.1</t>
+    <t>dukkha 3</t>
   </si>
   <si>
     <t>sukha 2</t>
   </si>
   <si>
-    <t>dukkha 3</t>
-  </si>
-  <si>
     <t>aṭṭhi 1</t>
   </si>
   <si>
+    <t>api 1.7</t>
+  </si>
+  <si>
+    <t>nu</t>
+  </si>
+  <si>
+    <t>api 1.1</t>
+  </si>
+  <si>
     <t>tāva 1</t>
   </si>
   <si>
-    <t>api 1.7</t>
-  </si>
-  <si>
-    <t>nu</t>
+    <t>api 1.2</t>
+  </si>
+  <si>
+    <t>alaṃ 1</t>
+  </si>
+  <si>
+    <t>yāva 1</t>
+  </si>
+  <si>
+    <t>sakkā 1</t>
+  </si>
+  <si>
+    <t>kathaṃ 1</t>
+  </si>
+  <si>
+    <t>alaṃ 5</t>
+  </si>
+  <si>
+    <t>alaṃ 3</t>
+  </si>
+  <si>
+    <t>alaṃ 2</t>
   </si>
   <si>
     <t>kallaṃ</t>
   </si>
   <si>
-    <t>api 1.1</t>
-  </si>
-  <si>
-    <t>kathaṃ 1</t>
-  </si>
-  <si>
-    <t>alaṃ 3</t>
-  </si>
-  <si>
-    <t>yāva 1</t>
-  </si>
-  <si>
-    <t>sakkā 1</t>
-  </si>
-  <si>
-    <t>alaṃ 1</t>
-  </si>
-  <si>
-    <t>alaṃ 5</t>
-  </si>
-  <si>
-    <t>api 1.2</t>
-  </si>
-  <si>
-    <t>alaṃ 2</t>
+    <t>gantuṃ</t>
+  </si>
+  <si>
+    <t>kātuṃ 1</t>
+  </si>
+  <si>
+    <t>upasaṅkamituṃ</t>
+  </si>
+  <si>
+    <t>carituṃ 2</t>
   </si>
   <si>
     <t>samanupassituṃ</t>
   </si>
   <si>
-    <t>kātuṃ 1</t>
-  </si>
-  <si>
-    <t>gantuṃ</t>
-  </si>
-  <si>
-    <t>upasaṅkamituṃ</t>
-  </si>
-  <si>
-    <t>carituṃ 2</t>
-  </si>
-  <si>
     <t>āyu 2</t>
   </si>
   <si>
+    <t>cakkhu 1</t>
+  </si>
+  <si>
     <t>vatthu 2</t>
   </si>
   <si>
-    <t>cakkhu 1</t>
-  </si>
-  <si>
     <t>pron</t>
   </si>
   <si>
@@ -2422,30 +2422,30 @@
     <t>inf</t>
   </si>
   <si>
+    <t>all; every</t>
+  </si>
+  <si>
     <t>another; other; different; someone else; not oneself</t>
   </si>
   <si>
+    <t>other; another (person)</t>
+  </si>
+  <si>
     <t>a certain; a</t>
   </si>
   <si>
-    <t>all; every</t>
-  </si>
-  <si>
-    <t>other; another (person)</t>
-  </si>
-  <si>
     <t>(of person or place or thing) that; such; so and so</t>
   </si>
   <si>
     <t>knowing; being aware (of)</t>
   </si>
   <si>
+    <t>seeing; perceiving</t>
+  </si>
+  <si>
     <t>seeing</t>
   </si>
   <si>
-    <t>seeing; perceiving</t>
-  </si>
-  <si>
     <t>standing; standing still</t>
   </si>
   <si>
@@ -2473,318 +2473,318 @@
     <t>this</t>
   </si>
   <si>
+    <t>wishing (for); desiring (for); seeking (for)</t>
+  </si>
+  <si>
+    <t>walking; walking about; wandering around (in); going around</t>
+  </si>
+  <si>
+    <t>seeing; observing; considering</t>
+  </si>
+  <si>
+    <t>being reborn; re-arising; lit. going towards</t>
+  </si>
+  <si>
     <t>falling away; dying</t>
   </si>
   <si>
-    <t>wishing (for); desiring (for); seeking (for)</t>
-  </si>
-  <si>
-    <t>walking; walking about; wandering around (in); going around</t>
-  </si>
-  <si>
-    <t>seeing; observing; considering</t>
-  </si>
-  <si>
-    <t>being reborn; re-arising; lit. going towards</t>
+    <t>middle; middling; medium; medium-sized; moderate</t>
+  </si>
+  <si>
+    <t>to be expected (for); certain (for); can be anticipated; lit. to be wished</t>
+  </si>
+  <si>
+    <t>noble; distinguished; of the Buddha</t>
+  </si>
+  <si>
+    <t>another; after; further; next</t>
+  </si>
+  <si>
+    <t>highest (of); unsurpassed (by); incomparable (to); superior (to); lit. nothing higher</t>
+  </si>
+  <si>
+    <t>highest; most extreme; very best; ultimate; superior; sublime; lit. furthest</t>
+  </si>
+  <si>
+    <t>careless; heedless; negligent; inattentive</t>
+  </si>
+  <si>
+    <t>healthy; beneficial; useful; good; wholesome</t>
+  </si>
+  <si>
+    <t>healthy; free from disease</t>
+  </si>
+  <si>
+    <t>earlier; past; former; previous</t>
+  </si>
+  <si>
+    <t>fine; refined; excellent; superior; sublime; lit. brought forward</t>
+  </si>
+  <si>
+    <t>impermanent; inconstant; not lasting; discontinuous; disordered; unstable; unreliable; irregular</t>
+  </si>
+  <si>
+    <t>permanent; lasting; continuous; ordered; stable; reliable; regular; immutable</t>
+  </si>
+  <si>
+    <t>divine; heavenly; celestial</t>
+  </si>
+  <si>
+    <t>empty; uninhabited</t>
+  </si>
+  <si>
+    <t>stationary; stable; stabilised; motionless; immovable</t>
+  </si>
+  <si>
+    <t>ready; workable; suitable for use; functional</t>
+  </si>
+  <si>
+    <t>spotless; blemish free</t>
+  </si>
+  <si>
+    <t>pure; clean; shiny; bright; lit. become pure</t>
+  </si>
+  <si>
+    <t>coarse; gross; substantial; physical; material</t>
+  </si>
+  <si>
+    <t>all; whole lot; altogether; total; entire; complete</t>
+  </si>
+  <si>
+    <t>mindful; present; attentive</t>
+  </si>
+  <si>
+    <t>fine; subtle; refined</t>
+  </si>
+  <si>
+    <t>experienced; learned; competent; trained; lit. distinguished</t>
+  </si>
+  <si>
+    <t>expert; skilled; able; adroit</t>
+  </si>
+  <si>
+    <t>pleasant; likeable; attractive; agreeable; lit. obtained by mind</t>
+  </si>
+  <si>
+    <t>charming (to); pleasant (to); desirable; agreeable (to); lit. desired</t>
+  </si>
+  <si>
+    <t>dear (to); beloved (by); loved (by)</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>essential; substantial; valuable; sound</t>
+  </si>
+  <si>
+    <t>low; inferior; deficient</t>
+  </si>
+  <si>
+    <t>easily done; easy to do; easy to make</t>
+  </si>
+  <si>
+    <t>not sick; healthy</t>
+  </si>
+  <si>
+    <t>pure; bright</t>
+  </si>
+  <si>
+    <t>clearly aware; fully knowing; completely comprehending</t>
+  </si>
+  <si>
+    <t>well taught; well preached; well explained</t>
+  </si>
+  <si>
+    <t>possessing; endowed (with); having; lit. going together</t>
+  </si>
+  <si>
+    <t>unskilful; incompetent; inexperienced</t>
+  </si>
+  <si>
+    <t>polite; pleasant; charming; (comm) fit to be remembered; lit. to be desired</t>
+  </si>
+  <si>
+    <t>pleasing; likeable; cherished; wished for; lit. wished</t>
+  </si>
+  <si>
+    <t>righteous; just; lit. according to the Dhamma</t>
+  </si>
+  <si>
+    <t>marvellous; extraordinary; unbelievable; astonishing</t>
+  </si>
+  <si>
+    <t>wonderful; marvellous</t>
   </si>
   <si>
     <t>sexual</t>
   </si>
   <si>
-    <t>careless; heedless; negligent; inattentive</t>
+    <t>eternal; everlasting; endless; perpetual; (comm) existing forever</t>
+  </si>
+  <si>
+    <t>full; filled up; complete</t>
+  </si>
+  <si>
+    <t>stable; enduring; eternal; everlasting</t>
+  </si>
+  <si>
+    <t>best; highest; ultimate; supreme; top</t>
+  </si>
+  <si>
+    <t>as much as; as long as; as big as; as far as</t>
+  </si>
+  <si>
+    <t>new; fresh</t>
+  </si>
+  <si>
+    <t>directly visible; evident; real; perceivable; (comm) able to be seen by oneself</t>
+  </si>
+  <si>
+    <t>painful</t>
+  </si>
+  <si>
+    <t>unbroken; unfragmented; whole</t>
+  </si>
+  <si>
+    <t>impersonal; not oneself; non-subjective; not suitable to identify with; coreless; essenceless</t>
+  </si>
+  <si>
+    <t>not accessible; not approachable; lit. with no space around</t>
+  </si>
+  <si>
+    <t>progressing; moving on; (comm) ending; depletion</t>
+  </si>
+  <si>
+    <t>(of food) solid; heavy; substantial</t>
+  </si>
+  <si>
+    <t>dark; black</t>
   </si>
   <si>
     <t>brownish; colour of Buddhist monks’ robes</t>
   </si>
   <si>
-    <t>coarse; gross; substantial; physical; material</t>
-  </si>
-  <si>
-    <t>healthy; beneficial; useful; good; wholesome</t>
-  </si>
-  <si>
-    <t>healthy; free from disease</t>
-  </si>
-  <si>
-    <t>possessing; endowed (with); having; lit. going together</t>
-  </si>
-  <si>
-    <t>expert; skilled; able; adroit</t>
-  </si>
-  <si>
-    <t>fine; refined; excellent; superior; sublime; lit. brought forward</t>
-  </si>
-  <si>
-    <t>low; inferior; deficient</t>
-  </si>
-  <si>
-    <t>impermanent; inconstant; not lasting; discontinuous; disordered; unstable; unreliable; irregular</t>
-  </si>
-  <si>
-    <t>permanent; lasting; continuous; ordered; stable; reliable; regular; immutable</t>
-  </si>
-  <si>
-    <t>directly visible; evident; real; perceivable; (comm) able to be seen by oneself</t>
-  </si>
-  <si>
-    <t>highest; most extreme; very best; ultimate; superior; sublime; lit. furthest</t>
-  </si>
-  <si>
-    <t>divine; heavenly; celestial</t>
-  </si>
-  <si>
-    <t>stationary; stable; stabilised; motionless; immovable</t>
-  </si>
-  <si>
-    <t>ready; workable; suitable for use; functional</t>
-  </si>
-  <si>
-    <t>spotless; blemish free</t>
-  </si>
-  <si>
-    <t>pure; clean; shiny; bright; lit. become pure</t>
-  </si>
-  <si>
-    <t>all; whole lot; altogether; total; entire; complete</t>
-  </si>
-  <si>
-    <t>another; after; further; next</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>not accessible; not approachable; lit. with no space around</t>
-  </si>
-  <si>
-    <t>highest (of); unsurpassed (by); incomparable (to); superior (to); lit. nothing higher</t>
-  </si>
-  <si>
-    <t>impersonal; not oneself; non-subjective; not suitable to identify with; coreless; essenceless</t>
-  </si>
-  <si>
-    <t>righteous; just; lit. according to the Dhamma</t>
-  </si>
-  <si>
-    <t>mindful; present; attentive</t>
-  </si>
-  <si>
-    <t>middle; middling; medium; medium-sized; moderate</t>
-  </si>
-  <si>
-    <t>earlier; past; former; previous</t>
-  </si>
-  <si>
-    <t>pleasant; likeable; attractive; agreeable; lit. obtained by mind</t>
-  </si>
-  <si>
-    <t>dear (to); beloved (by); loved (by)</t>
-  </si>
-  <si>
-    <t>easily done; easy to do; easy to make</t>
-  </si>
-  <si>
-    <t>experienced; learned; competent; trained; lit. distinguished</t>
-  </si>
-  <si>
-    <t>not sick; healthy</t>
-  </si>
-  <si>
-    <t>painful</t>
-  </si>
-  <si>
-    <t>to be expected (for); certain (for); can be anticipated; lit. to be wished</t>
-  </si>
-  <si>
-    <t>pure; bright</t>
-  </si>
-  <si>
-    <t>polite; pleasant; charming; (comm) fit to be remembered; lit. to be desired</t>
-  </si>
-  <si>
-    <t>clearly aware; fully knowing; completely comprehending</t>
-  </si>
-  <si>
-    <t>(of food) solid; heavy; substantial</t>
-  </si>
-  <si>
-    <t>pleasing; likeable; cherished; wished for; lit. wished</t>
-  </si>
-  <si>
-    <t>charming (to); pleasant (to); desirable; agreeable (to); lit. desired</t>
-  </si>
-  <si>
-    <t>unbroken; unfragmented; whole</t>
-  </si>
-  <si>
-    <t>unskilful; incompetent; inexperienced</t>
+    <t>right (hand side)</t>
+  </si>
+  <si>
+    <t>secluded; isolated; solitary</t>
   </si>
   <si>
     <t>heavenly</t>
   </si>
   <si>
-    <t>best; highest; ultimate; supreme; top</t>
-  </si>
-  <si>
-    <t>marvellous; extraordinary; unbelievable; astonishing</t>
-  </si>
-  <si>
-    <t>wonderful; marvellous</t>
-  </si>
-  <si>
-    <t>noble; distinguished; of the Buddha</t>
-  </si>
-  <si>
-    <t>eternal; everlasting; endless; perpetual; (comm) existing forever</t>
-  </si>
-  <si>
-    <t>full; filled up; complete</t>
-  </si>
-  <si>
-    <t>stable; enduring; eternal; everlasting</t>
-  </si>
-  <si>
-    <t>progressing; moving on; (comm) ending; depletion</t>
-  </si>
-  <si>
-    <t>as much as; as long as; as big as; as far as</t>
-  </si>
-  <si>
-    <t>new; fresh</t>
-  </si>
-  <si>
-    <t>well taught; well preached; well explained</t>
-  </si>
-  <si>
     <t>harmful; hurtful; injurious (to living creatures)</t>
   </si>
   <si>
-    <t>dark; black</t>
-  </si>
-  <si>
-    <t>right (hand side)</t>
-  </si>
-  <si>
-    <t>secluded; isolated; solitary</t>
-  </si>
-  <si>
-    <t>essential; substantial; valuable; sound</t>
-  </si>
-  <si>
-    <t>fine; subtle; refined</t>
-  </si>
-  <si>
-    <t>empty; uninhabited</t>
-  </si>
-  <si>
     <t>Fortunate One; epithet of the Buddha; lit. well gone</t>
   </si>
   <si>
+    <t>said; told; declared; announced</t>
+  </si>
+  <si>
+    <t>signless; featureless; free of mental images; lit. no sign</t>
+  </si>
+  <si>
+    <t>come (from); arrived (from); returned (from)</t>
+  </si>
+  <si>
+    <t>seated</t>
+  </si>
+  <si>
+    <t>indignant; angry; annoyed; outraged; offended</t>
+  </si>
+  <si>
+    <t>passed away; died</t>
+  </si>
+  <si>
+    <t>reached; attained; gained; accomplished; found</t>
+  </si>
+  <si>
+    <t>composed; centred; settled; collected; concentrated</t>
+  </si>
+  <si>
+    <t>ordained (from); renounced (from); lit. exiled</t>
+  </si>
+  <si>
+    <t>obtained; gained; won; received</t>
+  </si>
+  <si>
+    <t>got; acquired; attained; achieved; lit. arrived at</t>
+  </si>
+  <si>
+    <t>satisfied; pleased; content; happy with</t>
+  </si>
+  <si>
+    <t>done; did; completed</t>
+  </si>
+  <si>
+    <t>freed (from); liberated (from); emancipated (from)</t>
+  </si>
+  <si>
+    <t>cleansed; purified; refined</t>
+  </si>
+  <si>
+    <t>said; told; spoken; mentioned</t>
+  </si>
+  <si>
+    <t>afflicted; miserable; suffering</t>
+  </si>
+  <si>
+    <t>freed (from); released (from); saved (from)</t>
+  </si>
+  <si>
+    <t>unborn; unarisen; not existing; nonexistent</t>
+  </si>
+  <si>
     <t>preached (by); taught (by); explained (by); instructed (by)</t>
   </si>
   <si>
-    <t>said; told; declared; announced</t>
-  </si>
-  <si>
-    <t>ordained (from); renounced (from); lit. exiled</t>
-  </si>
-  <si>
-    <t>come (from); arrived (from); returned (from)</t>
+    <t>present; in attendance; available; lit. stood near</t>
   </si>
   <si>
     <t>abandoned; dispelled; eliminated; removed; given up</t>
   </si>
   <si>
-    <t>done; did; completed</t>
-  </si>
-  <si>
-    <t>indignant; angry; annoyed; outraged; offended</t>
-  </si>
-  <si>
-    <t>said; told; spoken; mentioned</t>
-  </si>
-  <si>
-    <t>cleansed; purified; refined</t>
+    <t>practised; rehearsed; consolidated; familiarized; lit. piled up; accumulated</t>
+  </si>
+  <si>
+    <t>asked; questioned</t>
+  </si>
+  <si>
+    <t>arisen; appeared; come into being</t>
+  </si>
+  <si>
+    <t>touched (by); contacted (by); experienced</t>
+  </si>
+  <si>
+    <t>consumed; spent; finished; exhausted; slowly destroyed</t>
+  </si>
+  <si>
+    <t>seen; found; visible</t>
+  </si>
+  <si>
+    <t>aroused; applied; undertaken</t>
+  </si>
+  <si>
+    <t>not made; not created</t>
+  </si>
+  <si>
+    <t>not become; not happened</t>
   </si>
   <si>
     <t>bent back; folded back; flexed back</t>
   </si>
   <si>
-    <t>seated</t>
-  </si>
-  <si>
-    <t>afflicted; miserable; suffering</t>
-  </si>
-  <si>
-    <t>reached; attained; gained; accomplished; found</t>
-  </si>
-  <si>
-    <t>obtained; gained; won; received</t>
-  </si>
-  <si>
-    <t>got; acquired; attained; achieved; lit. arrived at</t>
-  </si>
-  <si>
-    <t>satisfied; pleased; content; happy with</t>
-  </si>
-  <si>
-    <t>not become; not happened</t>
-  </si>
-  <si>
-    <t>not made; not created</t>
-  </si>
-  <si>
     <t>fulfilled; completed; finished; lit. lived</t>
   </si>
   <si>
-    <t>consumed; spent; finished; exhausted; slowly destroyed</t>
-  </si>
-  <si>
-    <t>freed (from); liberated (from); emancipated (from)</t>
-  </si>
-  <si>
-    <t>unborn; unarisen; not existing; nonexistent</t>
-  </si>
-  <si>
-    <t>practised; rehearsed; consolidated; familiarized; lit. piled up; accumulated</t>
-  </si>
-  <si>
-    <t>seen; found; visible</t>
-  </si>
-  <si>
-    <t>signless; featureless; free of mental images; lit. no sign</t>
-  </si>
-  <si>
-    <t>freed (from); released (from); saved (from)</t>
-  </si>
-  <si>
-    <t>asked; questioned</t>
-  </si>
-  <si>
-    <t>arisen; appeared; come into being</t>
-  </si>
-  <si>
-    <t>composed; centred; settled; collected; concentrated</t>
-  </si>
-  <si>
-    <t>present; in attendance; available; lit. stood near</t>
-  </si>
-  <si>
-    <t>passed away; died</t>
-  </si>
-  <si>
-    <t>touched (by); contacted (by); experienced</t>
-  </si>
-  <si>
-    <t>aroused; applied; undertaken</t>
+    <t>bad; wicked; evil; wrong; worthless; harmful</t>
   </si>
   <si>
     <t>mental poised; mentally balanced; equanimous; non-reactive; looking on; disregarding; lit. onlooker</t>
   </si>
   <si>
-    <t>bad; wicked; evil; wrong; worthless; harmful</t>
-  </si>
-  <si>
     <t>big; great; large; grand; vast; extensive</t>
   </si>
   <si>
@@ -2794,13 +2794,16 @@
     <t>many; various; countless; lit. not one</t>
   </si>
   <si>
+    <t>as impermanent; as unstable; as transient; as unreliable</t>
+  </si>
+  <si>
+    <t>as impersonal; as not oneself; as non-subjective</t>
+  </si>
+  <si>
     <t>as dangerous; as fearful</t>
   </si>
   <si>
-    <t>as impermanent; as unstable; as transient; as unreliable</t>
-  </si>
-  <si>
-    <t>as impersonal; as not oneself; as non-subjective</t>
+    <t>straight; upright; erect</t>
   </si>
   <si>
     <t>many; much; lots (of); a lot (of); great; large</t>
@@ -2809,9 +2812,6 @@
     <t>respected; esteemed; giving weight to</t>
   </si>
   <si>
-    <t>straight; upright; erect</t>
-  </si>
-  <si>
     <t>avid; ardent; zealous; with continuous effort; lit. burning</t>
   </si>
   <si>
@@ -2821,57 +2821,57 @@
     <t>wise; intelligent; discerning; knowledgeable</t>
   </si>
   <si>
+    <t>second (2nd)</t>
+  </si>
+  <si>
+    <t>first (1st); prime</t>
+  </si>
+  <si>
     <t>third (3rd)</t>
   </si>
   <si>
-    <t>second (2nd)</t>
-  </si>
-  <si>
-    <t>first (1st); prime</t>
+    <t>eight (8)</t>
   </si>
   <si>
     <t>nine (9)</t>
   </si>
   <si>
+    <t>five (5)</t>
+  </si>
+  <si>
     <t>seven (7)</t>
   </si>
   <si>
-    <t>five (5)</t>
-  </si>
-  <si>
     <t>six (6)</t>
   </si>
   <si>
-    <t>eight (8)</t>
-  </si>
-  <si>
     <t>ten (10)</t>
   </si>
   <si>
+    <t>one thousand (1000)</t>
+  </si>
+  <si>
     <t>one hundred (100)</t>
   </si>
   <si>
-    <t>one thousand (1000)</t>
-  </si>
-  <si>
     <t>sixth (6th)</t>
   </si>
   <si>
+    <t>fourth (4th)</t>
+  </si>
+  <si>
     <t>eighth (8th)</t>
   </si>
   <si>
+    <t>fifth (5th)</t>
+  </si>
+  <si>
     <t>tenth (10th)</t>
   </si>
   <si>
     <t>ninth (9th)</t>
   </si>
   <si>
-    <t>fifth (5th)</t>
-  </si>
-  <si>
-    <t>fourth (4th)</t>
-  </si>
-  <si>
     <t>four (4)</t>
   </si>
   <si>
@@ -2884,18 +2884,30 @@
     <t>three (3)</t>
   </si>
   <si>
-    <t>breaking; splitting; tearing</t>
-  </si>
-  <si>
     <t>discipline; training; lit. leading out</t>
   </si>
   <si>
     <t>thief; robber</t>
   </si>
   <si>
+    <t>lay disciple; lay devotee; lit. who sits near</t>
+  </si>
+  <si>
+    <t>family name of the Buddha; lit. of the Gotama clan</t>
+  </si>
+  <si>
+    <t>being; living being; lit. breath</t>
+  </si>
+  <si>
+    <t>Buddha; Awakened One</t>
+  </si>
+  <si>
     <t>state of existence; form of becoming</t>
   </si>
   <si>
+    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
+  </si>
+  <si>
     <t>human being; man; person</t>
   </si>
   <si>
@@ -2905,465 +2917,453 @@
     <t>offence requiring suspension; lit. offence requiring involvement of the community from start to finish</t>
   </si>
   <si>
+    <t>obtaining (of); acquiring (of); gaining (of); personal acquisition (of)</t>
+  </si>
+  <si>
+    <t>village; hamlet; lit. collection</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>sky; air</t>
+  </si>
+  <si>
+    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
+  </si>
+  <si>
+    <t>nature; character</t>
+  </si>
+  <si>
+    <t>source; arising; origin; appearance</t>
+  </si>
+  <si>
+    <t>person; individual</t>
+  </si>
+  <si>
+    <t>law; case; rule</t>
+  </si>
+  <si>
+    <t>disease; sickness; illness; affliction</t>
+  </si>
+  <si>
+    <t>light; brightness; clarity</t>
+  </si>
+  <si>
+    <t>rainy season; monsoon</t>
+  </si>
+  <si>
+    <t>fault; offence; transgression; lit. going beyond</t>
+  </si>
+  <si>
+    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
+  </si>
+  <si>
+    <t>generosity; sharing; liberality</t>
+  </si>
+  <si>
+    <t>control (over); restraint (of); holding back (of)</t>
+  </si>
+  <si>
+    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
+  </si>
+  <si>
+    <t>road; path; track; way</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>teaching; discourse; doctrine</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>core; essence; substance; value</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>obstacle (for); danger (for); lit. coming in-between</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>(vinaya) schism; split; breakup</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>support; requisite; necessity</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>wealth; possessions; property; riches</t>
+  </si>
+  <si>
     <t>control (over); authority (over); power (over); mastery (over)</t>
   </si>
   <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>urine</t>
+  </si>
+  <si>
+    <t>excrement; faeces</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
     <t>Brahman; priest; man of the Brahman caste</t>
   </si>
   <si>
-    <t>sky; air</t>
-  </si>
-  <si>
-    <t>person; individual</t>
-  </si>
-  <si>
-    <t>home (of); dwelling (of); abode (of); lit. resting place</t>
-  </si>
-  <si>
-    <t>nature; character</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>disease; sickness; illness; affliction</t>
-  </si>
-  <si>
-    <t>rainy season; monsoon</t>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>benefit; profit; good; welfare; goal</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner; initiate</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>cross-legged sitting position; meditation posture</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>smell; scent; odour</t>
+  </si>
+  <si>
+    <t>park; parkland; nature reserve</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>act; practice</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>(of water) flood; deluge; torrent</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
+  </si>
+  <si>
+    <t>death; lit. breakup</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>state of loss; state of misery; lit. going away</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>world; plane of existence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
+  </si>
+  <si>
+    <t>sea; ocean</t>
+  </si>
+  <si>
+    <t>titan; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
   </si>
   <si>
     <t>home (of); dwelling place (of); residence (of)</t>
   </si>
   <si>
-    <t>obstacle (for); danger (for); lit. coming in-between</t>
+    <t>seclusion; solitude; detachment; disengagement; independence</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>thought; reflection; pondering</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
+    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
+  </si>
+  <si>
+    <t>non-attention; ignoring; lit. not making in mind</t>
+  </si>
+  <si>
+    <t>well; (comm) pond; pool; lit. water drinking</t>
+  </si>
+  <si>
+    <t>excellent friend; good spiritual companion</t>
+  </si>
+  <si>
+    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
+  </si>
+  <si>
+    <t>room; inside room; inner chamber; lit. womb</t>
+  </si>
+  <si>
+    <t>giving up; relinquishing; abandoning</t>
+  </si>
+  <si>
+    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
+  </si>
+  <si>
+    <t>way; nature; habit; property; quality; lit. going around</t>
+  </si>
+  <si>
+    <t>bean</t>
   </si>
   <si>
     <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in psychic power; lit. descendent of Muggala</t>
   </si>
   <si>
-    <t>Buddha; Awakened One</t>
-  </si>
-  <si>
-    <t>fault; offence; transgression; lit. going beyond</t>
-  </si>
-  <si>
-    <t>control (over); restraint (of); holding back (of)</t>
-  </si>
-  <si>
-    <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
-  </si>
-  <si>
-    <t>road; path; track; way</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>wealth; possessions; property; riches</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>core; essence; substance; value</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
     <t>watch (of the night); one eighth of the day; about three hours</t>
   </si>
   <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>(vinaya) schism; split; breakup</t>
-  </si>
-  <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>benefit; profit; good; welfare; goal</t>
-  </si>
-  <si>
-    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>being; living being; creature</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>state of loss; state of misery; lit. going away</t>
-  </si>
-  <si>
-    <t>pride; conceit; egotism; superiority; comparing oneself</t>
-  </si>
-  <si>
-    <t>way; nature; habit; property; quality; lit. going around</t>
-  </si>
-  <si>
-    <t>group; host; company; collection; multitude; mass</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>desire (for); passion (for); infatuation (with); lust (for); lit. attachment</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>support; requisite; necessity</t>
-  </si>
-  <si>
-    <t>excrement; faeces</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner; initiate</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>cross-legged sitting position; meditation posture</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>non-clinging; non-attachment; non-reliance; unstuck</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>giving up; relinquishing; abandoning</t>
-  </si>
-  <si>
-    <t>light; brightness; clarity</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>smell; scent; odour</t>
-  </si>
-  <si>
-    <t>family name of the Buddha; lit. of the Gotama clan</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>park; parkland; nature reserve</t>
-  </si>
-  <si>
-    <t>act; practice</t>
-  </si>
-  <si>
-    <t>being; living being; lit. breath</t>
-  </si>
-  <si>
-    <t>teaching; discourse; doctrine</t>
-  </si>
-  <si>
-    <t>source; arising; origin; appearance</t>
-  </si>
-  <si>
-    <t>mass; heap; pile; volume</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>(of water) flood; deluge; torrent</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+    <t>Sakyan; of the Sakyan people</t>
   </si>
   <si>
     <t>control (according to); restraint (according to); holding back (according to)</t>
   </si>
   <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>obtaining (of); acquiring (of); gaining (of); personal acquisition (of)</t>
-  </si>
-  <si>
-    <t>world; plane of existence</t>
-  </si>
-  <si>
-    <t>sea; ocean</t>
-  </si>
-  <si>
-    <t>titan; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>room; inside room; inner chamber; lit. womb</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>name of the 1st previous Buddha; lit. descendant of Kassapa</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
-    <t>non-attention; ignoring; lit. not making in mind</t>
-  </si>
-  <si>
-    <t>well; (comm) pond; pool; lit. water drinking</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>lay disciple; lay devotee; lit. who sits near</t>
-  </si>
-  <si>
-    <t>excellent friend; good spiritual companion</t>
-  </si>
-  <si>
-    <t>village; hamlet; lit. collection</t>
-  </si>
-  <si>
-    <t>generosity; sharing; liberality</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>(vinaya) heavy offence; grave transgression; class of serious offences</t>
-  </si>
-  <si>
-    <t>(vinaya) elder; senior monk; monk with ten or more years as a monk; lit. lasting</t>
-  </si>
-  <si>
-    <t>law; case; rule</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>urine</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
-    <t>Sakyan; of the Sakyan people</t>
-  </si>
-  <si>
-    <t>attending mindfully; being present with mindfulness</t>
-  </si>
-  <si>
-    <t>lion</t>
-  </si>
-  <si>
-    <t>thought; reflection; pondering</t>
-  </si>
-  <si>
-    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
-  </si>
-  <si>
-    <t>seclusion; solitude; detachment; disengagement; independence</t>
-  </si>
-  <si>
     <t>sage; intelligent person; wise man; smart person</t>
   </si>
   <si>
@@ -3379,187 +3379,190 @@
     <t>appearing again; renewed existence; rebirth; future life</t>
   </si>
   <si>
+    <t>analysis; classification; breakdown; lit. division</t>
+  </si>
+  <si>
     <t>(vinaya) precepts for Buddhist monastics</t>
   </si>
   <si>
-    <t>analysis; classification; breakdown; lit. division</t>
-  </si>
-  <si>
     <t>gives up; abandons; lets go (of)</t>
   </si>
   <si>
     <t>practices; indulges (in); engages (in); lit. associates</t>
   </si>
   <si>
+    <t>binds; ties up; imprisons; confines</t>
+  </si>
+  <si>
+    <t>proceeds; continues; goes forward; practices</t>
+  </si>
+  <si>
+    <t>is; is being; becomes</t>
+  </si>
+  <si>
+    <t>understands; gets; lit. sees</t>
+  </si>
+  <si>
+    <t>says (to); speaks (to); tells (to)</t>
+  </si>
+  <si>
+    <t>increases more and more; surpasses; outgrows</t>
+  </si>
+  <si>
+    <t>gives up; leaves; abandons; deserts</t>
+  </si>
+  <si>
+    <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
+  </si>
+  <si>
+    <t>wards off; prevents; guards against</t>
+  </si>
+  <si>
+    <t>go!; begone!</t>
+  </si>
+  <si>
+    <t>approaches; goes (to); visits; lit. goes near</t>
+  </si>
+  <si>
+    <t>asks (for); begs (for); requests</t>
+  </si>
+  <si>
+    <t>regards; considers; recognises (as); sees (as)</t>
+  </si>
+  <si>
+    <t>takes; steals; robs</t>
+  </si>
+  <si>
+    <t>remembers; recollects; bears in mind</t>
+  </si>
+  <si>
+    <t>obtains; gets; receives; personally experiences</t>
+  </si>
+  <si>
+    <t>goes (from); goes away (from); leaves (from)</t>
+  </si>
+  <si>
+    <t>wishes (for); wants; desires; aspires (for)</t>
+  </si>
+  <si>
+    <t>grabs hold (of); seizes; takes</t>
+  </si>
+  <si>
+    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
+  </si>
+  <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
+  </si>
+  <si>
+    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
+  </si>
+  <si>
+    <t>associates (with); keeps company (with)</t>
+  </si>
+  <si>
+    <t>wishes; wants; desires</t>
+  </si>
+  <si>
+    <t>speaks (about); talks (about)</t>
+  </si>
+  <si>
+    <t>enjoys; delights (in); takes pleasure (in)</t>
+  </si>
+  <si>
+    <t>leads (to); results (in); causes</t>
+  </si>
+  <si>
+    <t>chews; devours; eats</t>
+  </si>
+  <si>
+    <t>asks; enquires; questions</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
+  </si>
+  <si>
+    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
+  </si>
+  <si>
+    <t>enters; goes (into)</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
+  </si>
+  <si>
+    <t>takes care (of); looks after; maintains; lit. carries around</t>
+  </si>
+  <si>
+    <t>increases; develops; grows</t>
+  </si>
+  <si>
+    <t>increases (in); grows (in); develops (in); lit. increases</t>
+  </si>
+  <si>
+    <t>sees</t>
+  </si>
+  <si>
+    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
+  </si>
+  <si>
+    <t>inhales; breathes in</t>
+  </si>
+  <si>
+    <t>recites; chants; lit. points up</t>
+  </si>
+  <si>
     <t>removes; takes away; packs up</t>
   </si>
   <si>
-    <t>binds; ties up; imprisons; confines</t>
-  </si>
-  <si>
-    <t>is; is being; becomes</t>
-  </si>
-  <si>
-    <t>increases more and more; surpasses; outgrows</t>
-  </si>
-  <si>
-    <t>says (to); speaks (to); tells (to)</t>
+    <t>advises; instructs; admonishes</t>
+  </si>
+  <si>
+    <t>walks; wanders; goes around; travels; fares on</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
+  </si>
+  <si>
+    <t>sits (on); sits down (in)</t>
+  </si>
+  <si>
+    <t>uses; makes use (of); lit. associates</t>
   </si>
   <si>
     <t>ordains as monk; renounces the household life; lit. goes into exile</t>
   </si>
   <si>
-    <t>recites; chants; lit. points up</t>
-  </si>
-  <si>
-    <t>goes (from); goes away (from); leaves (from)</t>
-  </si>
-  <si>
-    <t>wishes; wants; desires</t>
-  </si>
-  <si>
-    <t>wards off; prevents; guards against</t>
-  </si>
-  <si>
-    <t>go!; begone!</t>
-  </si>
-  <si>
-    <t>approaches; goes (to); visits; lit. goes near</t>
-  </si>
-  <si>
-    <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
-  </si>
-  <si>
-    <t>asks (for); begs (for); requests</t>
-  </si>
-  <si>
-    <t>regards; considers; recognises (as); sees (as)</t>
-  </si>
-  <si>
-    <t>takes; steals; robs</t>
-  </si>
-  <si>
-    <t>obtains; gets; receives; personally experiences</t>
-  </si>
-  <si>
     <t>exhales; breathes out</t>
   </si>
   <si>
-    <t>inhales; breathes in</t>
-  </si>
-  <si>
-    <t>wishes (for); wants; desires; aspires (for)</t>
-  </si>
-  <si>
-    <t>remembers; recollects; bears in mind</t>
-  </si>
-  <si>
-    <t>grabs hold (of); seizes; takes</t>
-  </si>
-  <si>
-    <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
-  </si>
-  <si>
-    <t>speaks; says; tells</t>
-  </si>
-  <si>
-    <t>advises; instructs; admonishes</t>
-  </si>
-  <si>
-    <t>understands; gets; lit. sees</t>
-  </si>
-  <si>
-    <t>gives up; leaves; abandons; deserts</t>
-  </si>
-  <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>uses; makes use (of); lit. associates</t>
-  </si>
-  <si>
-    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
-  </si>
-  <si>
-    <t>associates (with); keeps company (with)</t>
-  </si>
-  <si>
-    <t>speaks (about); talks (about)</t>
-  </si>
-  <si>
-    <t>proceeds; continues; goes forward; practices</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>sits (on); sits down (in)</t>
-  </si>
-  <si>
-    <t>chews; devours; eats</t>
-  </si>
-  <si>
-    <t>asks; enquires; questions</t>
-  </si>
-  <si>
-    <t>leads (to); results (in); causes</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>takes care (of); looks after; maintains; lit. carries around</t>
-  </si>
-  <si>
-    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
-  </si>
-  <si>
-    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
-  </si>
-  <si>
-    <t>enjoys; delights (in); takes pleasure (in)</t>
-  </si>
-  <si>
-    <t>enters; goes (into)</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>increases (in); grows (in); develops (in); lit. increases</t>
-  </si>
-  <si>
-    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
-  </si>
-  <si>
-    <t>sees</t>
-  </si>
-  <si>
-    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
-  </si>
-  <si>
-    <t>walks; wanders; goes around; travels; fares on</t>
-  </si>
-  <si>
-    <t>remains; persists; lasts; lit. stands</t>
-  </si>
-  <si>
     <t>see!; look (at)!</t>
   </si>
   <si>
-    <t>increases; develops; grows</t>
-  </si>
-  <si>
     <t>worships; honours; respects</t>
   </si>
   <si>
+    <t>personally experiences; undergoes; feels</t>
+  </si>
+  <si>
     <t>intends; will (to)</t>
   </si>
   <si>
-    <t>personally experiences; undergoes; feels</t>
+    <t>gives (to); donates (to); offers (to); hands (to)</t>
   </si>
   <si>
     <t>feels; experiences; senses; notices</t>
@@ -3568,9 +3571,6 @@
     <t>sleeps</t>
   </si>
   <si>
-    <t>gives (to); donates (to); offers (to); hands (to)</t>
-  </si>
-  <si>
     <t>bears in mind; keeps in mind; remembers; lit. carries</t>
   </si>
   <si>
@@ -3583,111 +3583,111 @@
     <t>is able (to)</t>
   </si>
   <si>
+    <t>reaches; arrives (at); comes (to)</t>
+  </si>
+  <si>
+    <t>(of an apology) accepts</t>
+  </si>
+  <si>
+    <t>hears</t>
+  </si>
+  <si>
+    <t>one must listen!; it must hear!</t>
+  </si>
+  <si>
+    <t>knows; knows clearly; understands; distinguishes</t>
+  </si>
+  <si>
+    <t>comes to mind; occurs (to)</t>
+  </si>
+  <si>
+    <t>makes the claim (of); claims (to be)</t>
+  </si>
+  <si>
+    <t>gives (to); offers (to); donates (to)</t>
+  </si>
+  <si>
+    <t>knows; understands</t>
+  </si>
+  <si>
+    <t>comprehends; understands; recognises; distinguishes; is aware (of)</t>
+  </si>
+  <si>
+    <t>takes; accepts; receives</t>
+  </si>
+  <si>
+    <t>holds up; raises up</t>
+  </si>
+  <si>
     <t>applies effort; strives on; goes for it; endeavours</t>
   </si>
   <si>
-    <t>(of an apology) accepts</t>
-  </si>
-  <si>
-    <t>hears</t>
-  </si>
-  <si>
-    <t>one must listen!; it must hear!</t>
-  </si>
-  <si>
-    <t>reaches; arrives (at); comes (to)</t>
-  </si>
-  <si>
-    <t>knows; knows clearly; understands; distinguishes</t>
-  </si>
-  <si>
-    <t>comes to mind; occurs (to)</t>
-  </si>
-  <si>
-    <t>makes the claim (of); claims (to be)</t>
-  </si>
-  <si>
-    <t>gives (to); offers (to); donates (to)</t>
-  </si>
-  <si>
-    <t>comprehends; understands; recognises; distinguishes; is aware (of)</t>
-  </si>
-  <si>
-    <t>knows; understands</t>
-  </si>
-  <si>
-    <t>holds up; raises up</t>
-  </si>
-  <si>
-    <t>takes; accepts; receives</t>
+    <t>farmer; ploughman</t>
   </si>
   <si>
     <t>trader; dealer</t>
   </si>
   <si>
-    <t>farmer; ploughman</t>
-  </si>
-  <si>
     <t>engages (in); practices; performs</t>
   </si>
   <si>
     <t>takes; grasps; embraces</t>
   </si>
   <si>
+    <t>grasps; holds (onto); clings (to); takes possession (of); lit. takes near</t>
+  </si>
+  <si>
+    <t>practices; follows a course of action; follows a method</t>
+  </si>
+  <si>
+    <t>appears; arises; takes place</t>
+  </si>
+  <si>
+    <t>arouses; exhibits; produces; brings into being</t>
+  </si>
+  <si>
+    <t>eats; consumes</t>
+  </si>
+  <si>
+    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
+  </si>
+  <si>
+    <t>is reborn (in); re-arises (in); lit. goes towards</t>
+  </si>
+  <si>
+    <t>meditates; contemplates; lit. thinks</t>
+  </si>
+  <si>
+    <t>cuts off; severs</t>
+  </si>
+  <si>
+    <t>indulges (in); is addicted (to); lit. yokes near</t>
+  </si>
+  <si>
     <t>causes; effects</t>
   </si>
   <si>
-    <t>practices; follows a course of action; follows a method</t>
-  </si>
-  <si>
     <t>thinks; imagines; conceives: presumes; supposes</t>
   </si>
   <si>
-    <t>is reborn (in); re-arises (in); lit. goes towards</t>
-  </si>
-  <si>
-    <t>indulges (in); is addicted (to); lit. yokes near</t>
-  </si>
-  <si>
-    <t>eats; consumes</t>
-  </si>
-  <si>
-    <t>appears; arises; takes place</t>
-  </si>
-  <si>
-    <t>is dis-enchanted (with); is disinterested (in); is disillusioned (by); loses interest (in); is dispassionate (towards)</t>
-  </si>
-  <si>
-    <t>meditates; contemplates; lit. thinks</t>
-  </si>
-  <si>
-    <t>cuts off; severs</t>
-  </si>
-  <si>
-    <t>arouses; exhibits; produces; brings into being</t>
-  </si>
-  <si>
-    <t>grasps; holds (onto); clings (to); takes possession (of); lit. takes near</t>
+    <t>there is; there exists</t>
+  </si>
+  <si>
+    <t>we are</t>
+  </si>
+  <si>
+    <t>you are</t>
+  </si>
+  <si>
+    <t>you (all) must be; may you (all) be</t>
   </si>
   <si>
     <t>there are; they are</t>
   </si>
   <si>
-    <t>there is; there exists</t>
-  </si>
-  <si>
     <t>I am</t>
   </si>
   <si>
-    <t>we are</t>
-  </si>
-  <si>
-    <t>you are</t>
-  </si>
-  <si>
-    <t>you (all) must be; may you (all) be</t>
-  </si>
-  <si>
     <t>addressed; said (to); advised</t>
   </si>
   <si>
@@ -3697,84 +3697,84 @@
     <t>appeared; manifested; lit. was visible</t>
   </si>
   <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>may it be (for)!</t>
+  </si>
+  <si>
+    <t>is able (to); is capable (of); is qualified (to)</t>
+  </si>
+  <si>
     <t>may you all be!; I pray you all may be!</t>
   </si>
   <si>
-    <t>may it be (for)!</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>is able (to); is capable (of); is qualified (to)</t>
+    <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
   </si>
   <si>
     <t>addressed; spoke (to)</t>
   </si>
   <si>
+    <t>arose (for); sprung up (for)</t>
+  </si>
+  <si>
+    <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
+  </si>
+  <si>
+    <t>approached; drew near; went (to); lit. went near</t>
+  </si>
+  <si>
+    <t>asked; enquired; questioned</t>
+  </si>
+  <si>
+    <t>spoke; said</t>
+  </si>
+  <si>
     <t>replied (to); agreed (with)</t>
   </si>
   <si>
-    <t>arose (for); sprung up (for)</t>
-  </si>
-  <si>
-    <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
-  </si>
-  <si>
-    <t>approached; drew near; went (to); lit. went near</t>
-  </si>
-  <si>
-    <t>asked; enquired; questioned</t>
-  </si>
-  <si>
-    <t>spoke; said</t>
-  </si>
-  <si>
-    <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
-  </si>
-  <si>
     <t>asked; enquired</t>
   </si>
   <si>
+    <t>sat (on); sat down (in)</t>
+  </si>
+  <si>
     <t>left; set off (from); went away (from)</t>
   </si>
   <si>
-    <t>sat (on); sat down (in)</t>
-  </si>
-  <si>
     <t>virtuous woman; good woman</t>
   </si>
   <si>
+    <t>perfect peace of mind; stability of mind; stillness of mind; mental composure</t>
+  </si>
+  <si>
+    <t>palms placed together (as a token of respect)</t>
+  </si>
+  <si>
+    <t>householder; landowner; lit. house master</t>
+  </si>
+  <si>
+    <t>fine rice</t>
+  </si>
+  <si>
     <t>monk; sage; seer; hermit; silent sage</t>
   </si>
   <si>
-    <t>fine rice</t>
+    <t>fire</t>
   </si>
   <si>
     <t>stomach; belly</t>
   </si>
   <si>
-    <t>fire</t>
+    <t>seer; sage</t>
+  </si>
+  <si>
+    <t>chief; chieftain; headman; leader</t>
   </si>
   <si>
     <t>family; relative; kinsman; lit. known</t>
   </si>
   <si>
-    <t>householder; landowner; lit. house master</t>
-  </si>
-  <si>
-    <t>seer; sage</t>
-  </si>
-  <si>
-    <t>palms placed together (as a token of respect)</t>
-  </si>
-  <si>
-    <t>perfect peace of mind; stability of mind; stillness of mind; mental composure</t>
-  </si>
-  <si>
-    <t>chief; chieftain; headman; leader</t>
-  </si>
-  <si>
     <t>sickness; disease; illness; lit. upset</t>
   </si>
   <si>
@@ -3802,76 +3802,85 @@
     <t>was</t>
   </si>
   <si>
+    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
+  </si>
+  <si>
+    <t>skin</t>
+  </si>
+  <si>
+    <t>false teaching; something opposed to the teaching</t>
+  </si>
+  <si>
+    <t>alertness; care; carefulness; caution; vigilance; diligence; conscientiousness; heedfulness; lit. not heedless</t>
+  </si>
+  <si>
+    <t>livelihood; mode of living; way of life; way of earning a living</t>
+  </si>
+  <si>
+    <t>complete comprehension (of); total understanding (of); completely getting (of); breakthrough (to); lit. arriving</t>
+  </si>
+  <si>
     <t>excess; pleasure; indulgence</t>
   </si>
   <si>
-    <t>Awakened One; Buddha; who is wide awake; who has completely understood</t>
-  </si>
-  <si>
-    <t>false teaching; something opposed to the teaching</t>
-  </si>
-  <si>
-    <t>livelihood; mode of living; way of life; way of earning a living</t>
-  </si>
-  <si>
-    <t>alertness; care; carefulness; caution; vigilance; diligence; conscientiousness; heedfulness; lit. not heedless</t>
-  </si>
-  <si>
-    <t>skin</t>
-  </si>
-  <si>
-    <t>complete comprehension (of); total understanding (of); completely getting (of); breakthrough (to); lit. arriving</t>
-  </si>
-  <si>
     <t>my; mine; of me</t>
   </si>
   <si>
+    <t>my; mine</t>
+  </si>
+  <si>
+    <t>us (object)</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>for us; to us</t>
+  </si>
+  <si>
+    <t>to me; for me</t>
+  </si>
+  <si>
+    <t>we; I (royal plural)</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>me (object)</t>
+  </si>
+  <si>
     <t>by me; with me</t>
   </si>
   <si>
-    <t>us (object)</t>
-  </si>
-  <si>
-    <t>for us; to us</t>
-  </si>
-  <si>
-    <t>to me; for me</t>
-  </si>
-  <si>
-    <t>we; I (royal plural)</t>
-  </si>
-  <si>
-    <t>my; mine</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
     <t>our; of us; my (royal plural)</t>
   </si>
   <si>
     <t>by me</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>me (object)</t>
+    <t>looks beautiful (in); lit. shines</t>
   </si>
   <si>
     <t>will breathe; will inhale</t>
   </si>
   <si>
-    <t>looks beautiful (in); lit. shines</t>
-  </si>
-  <si>
     <t>will exhale; will breathe out</t>
   </si>
   <si>
+    <t>leads; carries away; takes away</t>
+  </si>
+  <si>
     <t>will bear in mind; will keep in mind; will remembers; lit. will hold</t>
   </si>
   <si>
-    <t>leads; carries away; takes away</t>
+    <t>no; not</t>
+  </si>
+  <si>
+    <t>with; together (with); accompanied (by)</t>
+  </si>
+  <si>
+    <t>do not; may one not; don’t let</t>
   </si>
   <si>
     <t>no; not; neither; nor</t>
@@ -3880,18 +3889,9 @@
     <t>together (with); with</t>
   </si>
   <si>
-    <t>with; together (with); accompanied (by)</t>
-  </si>
-  <si>
     <t>then; now; indeed</t>
   </si>
   <si>
-    <t>no; not</t>
-  </si>
-  <si>
-    <t>do not; may one not; don’t let</t>
-  </si>
-  <si>
     <t>could be; should be; lit. will be</t>
   </si>
   <si>
@@ -3910,45 +3910,45 @@
     <t>will give (to)</t>
   </si>
   <si>
+    <t>you (object)</t>
+  </si>
+  <si>
+    <t>by you</t>
+  </si>
+  <si>
+    <t>you all; you (royal plural)</t>
+  </si>
+  <si>
+    <t>of you all; your</t>
+  </si>
+  <si>
+    <t>your; of you</t>
+  </si>
+  <si>
     <t>to you all; for you all</t>
   </si>
   <si>
+    <t>you (subject)</t>
+  </si>
+  <si>
     <t>by you all; with you all</t>
   </si>
   <si>
+    <t>for you; to you</t>
+  </si>
+  <si>
+    <t>for you all; to you all</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
     <t>of you all; yours</t>
   </si>
   <si>
-    <t>you (object)</t>
-  </si>
-  <si>
-    <t>by you</t>
-  </si>
-  <si>
-    <t>for you all; to you all</t>
-  </si>
-  <si>
     <t>(object) you all; you (royal plural)</t>
   </si>
   <si>
-    <t>you all; you (royal plural)</t>
-  </si>
-  <si>
-    <t>of you all; your</t>
-  </si>
-  <si>
-    <t>you (subject)</t>
-  </si>
-  <si>
-    <t>for you; to you</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>your; of you</t>
-  </si>
-  <si>
     <t>does not know; does not understand; lit. does not completely know</t>
   </si>
   <si>
@@ -3964,42 +3964,42 @@
     <t>who sees; who knows; who perceives; who understands</t>
   </si>
   <si>
+    <t>looking (at); observing; following; noticing; witnessing; watching</t>
+  </si>
+  <si>
+    <t>righteous; religious; moral; related to the Dhamma</t>
+  </si>
+  <si>
+    <t>seeking; searching for; looking for</t>
+  </si>
+  <si>
+    <t>who does not return; non-returning</t>
+  </si>
+  <si>
+    <t>enjoying; using; experiencing; partaking in</t>
+  </si>
+  <si>
+    <t>once-returner; who has attained the second stage of the path</t>
+  </si>
+  <si>
     <t>remorseful; regretful; repentant; sorry; lit. remembering back negatively</t>
   </si>
   <si>
-    <t>enjoying; using; experiencing; partaking in</t>
-  </si>
-  <si>
-    <t>righteous; religious; moral; related to the Dhamma</t>
-  </si>
-  <si>
-    <t>looking (at); observing; following; noticing; witnessing; watching</t>
-  </si>
-  <si>
-    <t>seeking; searching for; looking for</t>
-  </si>
-  <si>
-    <t>who does not return; non-returning</t>
-  </si>
-  <si>
-    <t>once-returner; who has attained the second stage of the path</t>
-  </si>
-  <si>
     <t>happy one; who is at ease; who is happy; who is comfortable</t>
   </si>
   <si>
+    <t>fellow monk; spiritual companion</t>
+  </si>
+  <si>
+    <t>intelligent man; wise man; who has good judgment; lit. who has wisdom</t>
+  </si>
+  <si>
+    <t>bird; lit. with wings</t>
+  </si>
+  <si>
     <t>celibate man; who abstains from sexual intercourse</t>
   </si>
   <si>
-    <t>fellow monk; spiritual companion</t>
-  </si>
-  <si>
-    <t>intelligent man; wise man; who has good judgment; lit. who has wisdom</t>
-  </si>
-  <si>
-    <t>bird; lit. with wings</t>
-  </si>
-  <si>
     <t>support (of); maintenance (of); looking after; lit. holding together</t>
   </si>
   <si>
@@ -4027,19 +4027,22 @@
     <t>person with sight; who can see; lit. having eyes quality</t>
   </si>
   <si>
+    <t>speaker (of); who tells (about); who speaks (about); who expresses (about)</t>
+  </si>
+  <si>
+    <t>speaker; who talks (about)</t>
+  </si>
+  <si>
     <t>master; teacher</t>
   </si>
   <si>
+    <t>giver; donor; bestower</t>
+  </si>
+  <si>
     <t>creator; maker</t>
   </si>
   <si>
-    <t>speaker (of); who tells (about); who speaks (about); who expresses (about)</t>
-  </si>
-  <si>
-    <t>speaker; who talks (about)</t>
-  </si>
-  <si>
-    <t>giver; donor; bestower</t>
+    <t>brother</t>
   </si>
   <si>
     <t>father</t>
@@ -4048,105 +4051,102 @@
     <t>mother and father; parents</t>
   </si>
   <si>
-    <t>brother</t>
-  </si>
-  <si>
     <t>enjoys; indulges; has sex with; lit. walks around</t>
   </si>
   <si>
+    <t>always; at all times</t>
+  </si>
+  <si>
+    <t>afterwards; later; in the future</t>
+  </si>
+  <si>
+    <t>before; previously; formerly; in the past</t>
+  </si>
+  <si>
+    <t>in future</t>
+  </si>
+  <si>
+    <t>and; both</t>
+  </si>
+  <si>
     <t>timely; at the right moment; at a suitable time; at the proper time</t>
   </si>
   <si>
-    <t>before; previously; formerly; in the past</t>
-  </si>
-  <si>
-    <t>in future</t>
-  </si>
-  <si>
     <t>or; either or</t>
   </si>
   <si>
+    <t>formerly; previously; in the past</t>
+  </si>
+  <si>
+    <t>always; ever; all the time</t>
+  </si>
+  <si>
     <t>when; whenever</t>
   </si>
   <si>
-    <t>always; ever; all the time</t>
-  </si>
-  <si>
-    <t>afterwards; later; in the future</t>
-  </si>
-  <si>
-    <t>formerly; previously; in the past</t>
-  </si>
-  <si>
-    <t>and; both</t>
-  </si>
-  <si>
     <t>today; now</t>
   </si>
   <si>
-    <t>always; at all times</t>
+    <t>ease (for); comfort (for)</t>
+  </si>
+  <si>
+    <t>monk; fully ordained monk; mendicant; lit. beggar</t>
+  </si>
+  <si>
+    <t>death; Death</t>
   </si>
   <si>
     <t>respect; honour</t>
   </si>
   <si>
-    <t>ease (for); comfort (for)</t>
-  </si>
-  <si>
-    <t>monk; fully ordained monk; mendicant; lit. beggar</t>
-  </si>
-  <si>
-    <t>death; Death</t>
-  </si>
-  <si>
     <t>at peace; safe; at rest</t>
   </si>
   <si>
+    <t>knowing the correct measure (in); knowing the limit (in); moderate (in); lit. measure knowing</t>
+  </si>
+  <si>
     <t>old; experienced; of long standing; lit. knowing nights</t>
   </si>
   <si>
     <t>wise; knowing; understanding</t>
   </si>
   <si>
-    <t>knowing the correct measure (in); knowing the limit (in); moderate (in); lit. measure knowing</t>
-  </si>
-  <si>
     <t>conqueror; victor; vanquisher; master</t>
   </si>
   <si>
     <t>who understands the world; who knows the world; epithet of the Buddha</t>
   </si>
   <si>
+    <t>hiding place; lit. dive</t>
+  </si>
+  <si>
     <t>warding off; repelling; driving off</t>
   </si>
   <si>
-    <t>hiding place; lit. dive</t>
-  </si>
-  <si>
     <t>could go; would move; would walk</t>
   </si>
   <si>
+    <t>could see; would see</t>
+  </si>
+  <si>
+    <t>should say; could speak</t>
+  </si>
+  <si>
+    <t>could get; would experience; would come across; lit. could arrive at</t>
+  </si>
+  <si>
+    <t>could live; could stay (in)</t>
+  </si>
+  <si>
+    <t>would be reborn (in); would re-arise (in); lit. could go towards</t>
+  </si>
+  <si>
+    <t>would become available (for); would accrue (to); could crop up (for); lit. would arise (for)</t>
+  </si>
+  <si>
     <t>takes a bath; bathes; washes</t>
   </si>
   <si>
-    <t>should say; could speak</t>
-  </si>
-  <si>
-    <t>could get; would experience; would come across; lit. could arrive at</t>
-  </si>
-  <si>
-    <t>could see; would see</t>
-  </si>
-  <si>
-    <t>could live; could stay (in)</t>
-  </si>
-  <si>
-    <t>would become available (for); would accrue (to); could crop up (for); lit. would arise (for)</t>
-  </si>
-  <si>
-    <t>would be reborn (in); would re-arise (in); lit. could go towards</t>
-  </si>
-  <si>
     <t>could come; would come along; could approach; would arrive</t>
   </si>
   <si>
@@ -4162,99 +4162,99 @@
     <t>may be; could be; should be</t>
   </si>
   <si>
+    <t>craving (for); wanting; desire (for); lit. thirst</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>direction; cardinal point</t>
+  </si>
+  <si>
+    <t>wishing; wanting; covetousness; greed; lit. over thinking</t>
+  </si>
+  <si>
+    <t>sitting; sitting down</t>
+  </si>
+  <si>
+    <t>talk; speech; conversation; discussion</t>
+  </si>
+  <si>
+    <t>goodwill (towards); friendliness (to); benevolence (for)</t>
+  </si>
+  <si>
+    <t>personal experience (of); intimate experience (of); personal realization (of); lit. personally doing</t>
+  </si>
+  <si>
+    <t>looking on; mental poise; mental balance; equanimity; equipoise; non-reactivity; composure</t>
+  </si>
+  <si>
+    <t>faith (in); belief (in); trust (in); lit. putting heart</t>
+  </si>
+  <si>
+    <t>arm; forearm</t>
+  </si>
+  <si>
+    <t>felt experience; feeling; sensation; second of the five aggregates</t>
+  </si>
+  <si>
+    <t>(vinaya) ordination; renunciation; becoming a monastic; lit. exile</t>
+  </si>
+  <si>
     <t>training; practice</t>
   </si>
   <si>
+    <t>army; military</t>
+  </si>
+  <si>
+    <t>people; population; generation; mankind</t>
+  </si>
+  <si>
+    <t>insight; penetrating internal vision; introspection; lit. seeing distinctly</t>
+  </si>
+  <si>
+    <t>old age; ageing</t>
+  </si>
+  <si>
+    <t>dis-enchantment (towards); de-illusionment (with); disinterest (in); dispassion (towards)</t>
+  </si>
+  <si>
+    <t>female disciple; laywomen; female devotee; lit. sitting near</t>
+  </si>
+  <si>
+    <t>wisdom; knowledge; understanding; insight; distinctive knowledge</t>
+  </si>
+  <si>
     <t>verse; poem; stanza; lit. song</t>
   </si>
   <si>
-    <t>old age; ageing</t>
+    <t>speech; words; statement; talk</t>
+  </si>
+  <si>
+    <t>knowledge; wisdom; understanding</t>
+  </si>
+  <si>
+    <t>perception; conception; recognition; third of the five aggregates</t>
+  </si>
+  <si>
+    <t>tongue</t>
+  </si>
+  <si>
+    <t>ignorance; illusion; not knowing; not understanding</t>
+  </si>
+  <si>
+    <t>(vinaya) higher ordination as monastic</t>
+  </si>
+  <si>
+    <t>sub-commentary; commentary on a commentary</t>
+  </si>
+  <si>
+    <t>(vinaya) appointing; allocating; indicating; designating; showing; lit. pointing out</t>
   </si>
   <si>
     <t>inquiry; judgement; investigation; discrimination</t>
   </si>
   <si>
-    <t>direction; cardinal point</t>
-  </si>
-  <si>
-    <t>sitting; sitting down</t>
-  </si>
-  <si>
-    <t>talk; speech; conversation; discussion</t>
-  </si>
-  <si>
-    <t>wisdom; knowledge; understanding; insight; distinctive knowledge</t>
-  </si>
-  <si>
-    <t>wishing; wanting; covetousness; greed; lit. over thinking</t>
-  </si>
-  <si>
-    <t>army; military</t>
-  </si>
-  <si>
-    <t>branch</t>
-  </si>
-  <si>
-    <t>arm; forearm</t>
-  </si>
-  <si>
-    <t>(vinaya) appointing; allocating; indicating; designating; showing; lit. pointing out</t>
-  </si>
-  <si>
-    <t>speech; words; statement; talk</t>
-  </si>
-  <si>
-    <t>craving (for); wanting; desire (for); lit. thirst</t>
-  </si>
-  <si>
-    <t>felt experience; feeling; sensation; second of the five aggregates</t>
-  </si>
-  <si>
-    <t>tongue</t>
-  </si>
-  <si>
-    <t>female disciple; laywomen; female devotee; lit. sitting near</t>
-  </si>
-  <si>
-    <t>(vinaya) ordination; renunciation; becoming a monastic; lit. exile</t>
-  </si>
-  <si>
-    <t>personal experience (of); intimate experience (of); personal realization (of); lit. personally doing</t>
-  </si>
-  <si>
-    <t>people; population; generation; mankind</t>
-  </si>
-  <si>
-    <t>ignorance; illusion; not knowing; not understanding</t>
-  </si>
-  <si>
-    <t>(vinaya) higher ordination as monastic</t>
-  </si>
-  <si>
-    <t>looking on; mental poise; mental balance; equanimity; equipoise; non-reactivity; composure</t>
-  </si>
-  <si>
-    <t>sub-commentary; commentary on a commentary</t>
-  </si>
-  <si>
-    <t>dis-enchantment (towards); de-illusionment (with); disinterest (in); dispassion (towards)</t>
-  </si>
-  <si>
-    <t>goodwill (towards); friendliness (to); benevolence (for)</t>
-  </si>
-  <si>
-    <t>perception; conception; recognition; third of the five aggregates</t>
-  </si>
-  <si>
-    <t>faith (in); belief (in); trust (in); lit. putting heart</t>
-  </si>
-  <si>
-    <t>knowledge; wisdom; understanding</t>
-  </si>
-  <si>
-    <t>insight; penetrating internal vision; introspection; lit. seeing distinctly</t>
-  </si>
-  <si>
     <t>should know; should understand; should find out</t>
   </si>
   <si>
@@ -4264,153 +4264,153 @@
     <t>not forgetting; non-confusion</t>
   </si>
   <si>
+    <t>having left; having left behind; having abandoned</t>
+  </si>
+  <si>
+    <t>having seen; having understood; having found out</t>
+  </si>
+  <si>
+    <t>having tasted</t>
+  </si>
+  <si>
+    <t>having known; having found out; having understood</t>
+  </si>
+  <si>
+    <t>having heard; having listened (to)</t>
+  </si>
+  <si>
+    <t>having cut off; having severed; (comm) having killed; lit. having cut</t>
+  </si>
+  <si>
+    <t>having bent; having folded</t>
+  </si>
+  <si>
+    <t>having taken; having grabbed hold (of); having seized</t>
+  </si>
+  <si>
+    <t>having approached; having gone (to); having drawn near (to)</t>
+  </si>
+  <si>
+    <t>having dressed (in); having clothed oneself (in); having put on; lit. having covered</t>
+  </si>
+  <si>
+    <t>having done</t>
+  </si>
+  <si>
     <t>having arrested; having taken prisoner</t>
   </si>
   <si>
-    <t>having dressed (in); having clothed oneself (in); having put on; lit. having covered</t>
-  </si>
-  <si>
-    <t>having left; having left behind; having abandoned</t>
-  </si>
-  <si>
-    <t>having seen; having understood; having found out</t>
-  </si>
-  <si>
-    <t>having known; having found out; having understood</t>
-  </si>
-  <si>
-    <t>having tasted</t>
-  </si>
-  <si>
-    <t>having heard; having listened (to)</t>
-  </si>
-  <si>
-    <t>having cut off; having severed; (comm) having killed; lit. having cut</t>
-  </si>
-  <si>
-    <t>having bent; having folded</t>
+    <t>having walked; having wandered</t>
+  </si>
+  <si>
+    <t>having raised up; having lifted up</t>
   </si>
   <si>
     <t>having agreed (with); having responded in agreement (to); lit. having listened back</t>
   </si>
   <si>
-    <t>having done</t>
-  </si>
-  <si>
-    <t>having walked; having wandered</t>
-  </si>
-  <si>
-    <t>having taken; having grabbed hold (of); having seized</t>
-  </si>
-  <si>
-    <t>having approached; having gone (to); having drawn near (to)</t>
-  </si>
-  <si>
-    <t>having raised up; having lifted up</t>
-  </si>
-  <si>
     <t>daughter</t>
   </si>
   <si>
+    <t>undertaking; taking up; accepting</t>
+  </si>
+  <si>
     <t>coming (to); arriving (at); meeting (with)</t>
   </si>
   <si>
-    <t>undertaking; taking up; accepting</t>
-  </si>
-  <si>
     <t>removing; getting rid (of)</t>
   </si>
   <si>
+    <t>adopting; assuming; according (to); lit. taking</t>
+  </si>
+  <si>
+    <t>rising (from); emerging (from); getting up (from)</t>
+  </si>
+  <si>
+    <t>reaching; attaining; arriving at</t>
+  </si>
+  <si>
+    <t>sitting down</t>
+  </si>
+  <si>
     <t>guiding; directing; determining; setting; lit. placing forward</t>
   </si>
   <si>
-    <t>adopting; assuming; according (to); lit. taking</t>
-  </si>
-  <si>
-    <t>reaching; attaining; arriving at</t>
-  </si>
-  <si>
     <t>separating (from); aloof (from)</t>
   </si>
   <si>
-    <t>rising (from); emerging (from); getting up (from)</t>
-  </si>
-  <si>
-    <t>sitting down</t>
+    <t>hut; monk’s dwelling</t>
+  </si>
+  <si>
+    <t>outer robe; double robe; patchwork robe; lit. joined together</t>
+  </si>
+  <si>
+    <t>view; belief; opinion; concept; theory; attitude</t>
+  </si>
+  <si>
+    <t>good destination; happy fate</t>
   </si>
   <si>
     <t>stability; constancy; continuity; endurance; persistence; longevity; lit. standing</t>
   </si>
   <si>
-    <t>hut; monk’s dwelling</t>
+    <t>(vinaya) offence; wrongdoing; transgression</t>
+  </si>
+  <si>
+    <t>freedom; liberation; release; deliverance</t>
   </si>
   <si>
     <t>purity (of); purification (of); holiness</t>
   </si>
   <si>
-    <t>(vinaya) offence; wrongdoing; transgression</t>
-  </si>
-  <si>
-    <t>view; belief; opinion; concept; theory; attitude</t>
-  </si>
-  <si>
     <t>attainment; meditation attainment</t>
   </si>
   <si>
+    <t>calmness; tranquillity; tranquillization; peace; stillness; serenity</t>
+  </si>
+  <si>
+    <t>mindfulness; presence; recollection; awareness</t>
+  </si>
+  <si>
+    <t>delight; heart-felt joy; pleasure; feeling of love; lit. lovely feeling</t>
+  </si>
+  <si>
     <t>liking; preference; choice; inclination; approval; lit. pleasure</t>
   </si>
   <si>
-    <t>mindfulness; presence; recollection; awareness</t>
-  </si>
-  <si>
-    <t>delight; heart-felt joy; pleasure; feeling of love; lit. lovely feeling</t>
-  </si>
-  <si>
-    <t>calmness; tranquillity; tranquillization; peace; stillness; serenity</t>
-  </si>
-  <si>
-    <t>outer robe; double robe; patchwork robe; lit. joined together</t>
-  </si>
-  <si>
-    <t>good destination; happy fate</t>
-  </si>
-  <si>
-    <t>freedom; liberation; release; deliverance</t>
-  </si>
-  <si>
     <t>sense of shame; modesty; conscience; sense of right and wrong; scruples</t>
   </si>
   <si>
     <t>wherever; where; when; in which</t>
   </si>
   <si>
+    <t>in front (of)</t>
+  </si>
+  <si>
+    <t>here; in this regard; in this case</t>
+  </si>
+  <si>
+    <t>everywhere; every place</t>
+  </si>
+  <si>
+    <t>there; in that place</t>
+  </si>
+  <si>
+    <t>since; because; due to the fact that; lit. from which</t>
+  </si>
+  <si>
     <t>in that regard; in that case; regarding that matter</t>
   </si>
   <si>
-    <t>in front (of)</t>
-  </si>
-  <si>
-    <t>here; in this regard; in this case</t>
+    <t>here; in this place; in this case; in this regard</t>
+  </si>
+  <si>
+    <t>above; overhead</t>
   </si>
   <si>
     <t>on one side</t>
   </si>
   <si>
-    <t>everywhere; every place</t>
-  </si>
-  <si>
-    <t>there; in that place</t>
-  </si>
-  <si>
-    <t>above; overhead</t>
-  </si>
-  <si>
-    <t>since; because; due to the fact that; lit. from which</t>
-  </si>
-  <si>
-    <t>here; in this place; in this case; in this regard</t>
-  </si>
-  <si>
     <t>from where?; where?</t>
   </si>
   <si>
@@ -4423,325 +4423,325 @@
     <t>thirst (for)</t>
   </si>
   <si>
+    <t>fulfilment; completion; perfecting; maturity</t>
+  </si>
+  <si>
+    <t>advice; instruction; teaching</t>
+  </si>
+  <si>
+    <t>name of a city; capital of the Licchavis</t>
+  </si>
+  <si>
+    <t>name of a city; modern Varanasi</t>
+  </si>
+  <si>
+    <t>nun; fully ordained nun</t>
+  </si>
+  <si>
+    <t>name of a city; capital of Kosala</t>
+  </si>
+  <si>
     <t>woman; female</t>
   </si>
   <si>
     <t>woman</t>
   </si>
   <si>
-    <t>fulfilment; completion; perfecting; maturity</t>
-  </si>
-  <si>
-    <t>nun; fully ordained nun</t>
-  </si>
-  <si>
-    <t>advice; instruction; teaching</t>
-  </si>
-  <si>
-    <t>name of a city; capital of the Licchavis</t>
-  </si>
-  <si>
-    <t>name of a city; modern Varanasi</t>
-  </si>
-  <si>
-    <t>name of a city; capital of Kosala</t>
-  </si>
-  <si>
     <t>unable (to); impossible (to); incapable (of); unlikely (to); lit. not to be</t>
   </si>
   <si>
+    <t>for alms; to collect alms food</t>
+  </si>
+  <si>
     <t>fortunate (for); beneficial (for); useful (for); lit. for the sake</t>
   </si>
   <si>
-    <t>for alms; to collect alms food</t>
+    <t>jewel; gem; gemstone</t>
+  </si>
+  <si>
+    <t>shelter; refuge; help; lit. going to</t>
+  </si>
+  <si>
+    <t>being; living being; entity; lit. become</t>
+  </si>
+  <si>
+    <t>precept; instruction; training rule</t>
+  </si>
+  <si>
+    <t>fetter; chain; bond; thing which binds; lit. yoking together</t>
+  </si>
+  <si>
+    <t>spiritual path; spiritual practice; holy life; celibacy</t>
+  </si>
+  <si>
+    <t>homelessness; homeless state</t>
+  </si>
+  <si>
+    <t>household life; domestic living</t>
+  </si>
+  <si>
+    <t>cloth; clothes; robe</t>
+  </si>
+  <si>
+    <t>beneficial (for); advantageous (for); lit. for the benefit</t>
+  </si>
+  <si>
+    <t>knowing (of); understanding (of); insight (into)</t>
+  </si>
+  <si>
+    <t>merit; good deed; spiritual wealth</t>
+  </si>
+  <si>
+    <t>not deteriorating; not decreasing; non-declining; non-regressing</t>
+  </si>
+  <si>
+    <t>expansion; full development; maturity</t>
+  </si>
+  <si>
+    <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
+  </si>
+  <si>
+    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
+  </si>
+  <si>
+    <t>seat; chair; lit. sitting</t>
+  </si>
+  <si>
+    <t>family; house; household; respectable family</t>
   </si>
   <si>
     <t>sense; mental faculty; power; lit. belonging to Inda</t>
   </si>
   <si>
+    <t>joy; happiness; gladness</t>
+  </si>
+  <si>
+    <t>source; origin; foundation; cause; reason; lit. tying down</t>
+  </si>
+  <si>
+    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
+  </si>
+  <si>
+    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
+  </si>
+  <si>
+    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
+  </si>
+  <si>
+    <t>(vinaya) offence requiring confession</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>which is not given; something not offered</t>
+  </si>
+  <si>
+    <t>medicine; remedy; tonic; drug</t>
+  </si>
+  <si>
+    <t>wealth; riches; treasure</t>
+  </si>
+  <si>
+    <t>robe; cloth; robe-cloth; lit. rags</t>
+  </si>
+  <si>
+    <t>shore; riverbank; beach</t>
+  </si>
+  <si>
+    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
+  </si>
+  <si>
+    <t>source; origin; root</t>
+  </si>
+  <si>
+    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
+  </si>
+  <si>
+    <t>dwelling; building; house; hut</t>
+  </si>
+  <si>
+    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
+  </si>
+  <si>
+    <t>death; dying</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>regret; shame in wrongdoing; respect for others</t>
+  </si>
+  <si>
+    <t>(of a tree) root; base; foot</t>
+  </si>
+  <si>
     <t>comfortable (for); lit. for the comfort</t>
   </si>
   <si>
-    <t>beneficial (for); advantageous (for); lit. for the benefit</t>
-  </si>
-  <si>
-    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
-  </si>
-  <si>
-    <t>homelessness; homeless state</t>
-  </si>
-  <si>
-    <t>household life; domestic living</t>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>(of mental defilement) complete quenching; total emancipation; complete cooling</t>
+  </si>
+  <si>
+    <t>danger (of; from); peril (of; from)</t>
+  </si>
+  <si>
+    <t>eating; taking food</t>
+  </si>
+  <si>
+    <t>ethical conduct; virtue; moral integrity</t>
+  </si>
+  <si>
+    <t>(object of the eye) form; material form; shape; sight; lit. form</t>
   </si>
   <si>
     <t>welfare (of); good (of); benefit (of); blessing</t>
   </si>
   <si>
-    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
-  </si>
-  <si>
-    <t>spiritual path; spiritual practice; holy life; celibacy</t>
+    <t>mind; heart</t>
+  </si>
+  <si>
+    <t>awareness; consciousness; mind; fifth of the five aggregates; lit. knowing</t>
+  </si>
+  <si>
+    <t>meat; flesh</t>
+  </si>
+  <si>
+    <t>far side; far shore; bank on the other side; epithet of Nibbāna</t>
+  </si>
+  <si>
+    <t>(mental) pleasure; happiness; joy</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>message; letter; lit. teaching</t>
+  </si>
+  <si>
+    <t>food; boiled rice; lit. shared</t>
+  </si>
+  <si>
+    <t>scripture; discourse; sacred text; lit. thread</t>
   </si>
   <si>
     <t>effort; energy; might; power; lit. virility</t>
   </si>
   <si>
-    <t>expansion; full development; maturity</t>
-  </si>
-  <si>
-    <t>death; dying</t>
-  </si>
-  <si>
-    <t>source; origin; foundation; cause; reason; lit. tying down</t>
-  </si>
-  <si>
-    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
-  </si>
-  <si>
-    <t>jewel; gem; gemstone</t>
-  </si>
-  <si>
-    <t>family; house; household; respectable family</t>
-  </si>
-  <si>
-    <t>seat; chair; lit. sitting</t>
-  </si>
-  <si>
-    <t>joy; happiness; gladness</t>
-  </si>
-  <si>
-    <t>eating; taking food</t>
-  </si>
-  <si>
-    <t>head</t>
+    <t>effort; exertion; lit. to be burned</t>
+  </si>
+  <si>
+    <t>strength; power; might</t>
+  </si>
+  <si>
+    <t>life; existence</t>
+  </si>
+  <si>
+    <t>nose; lit. smelling</t>
+  </si>
+  <si>
+    <t>forest; wood; wilds; wilderness; lit. remoteness</t>
+  </si>
+  <si>
+    <t>few things; few people; small amount</t>
+  </si>
+  <si>
+    <t>meditation; stage of meditation; lit. meditating</t>
+  </si>
+  <si>
+    <t>in order to visit; for the purpose of seeing</t>
+  </si>
+  <si>
+    <t>alms; gift</t>
+  </si>
+  <si>
+    <t>class of vinaya offence; wrong-doing; lit. badly done</t>
+  </si>
+  <si>
+    <t>(of the body) side; rib</t>
+  </si>
+  <si>
+    <t>(vinaya) offence involving defeat; transgression requiring expulsion</t>
   </si>
   <si>
     <t>(Dhamma) power; strength</t>
   </si>
   <si>
-    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
-  </si>
-  <si>
-    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
-  </si>
-  <si>
-    <t>being; living being; entity; lit. become</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>(of the body) side; rib</t>
-  </si>
-  <si>
-    <t>which is not given; something not offered</t>
-  </si>
-  <si>
-    <t>robe; cloth; robe-cloth; lit. rags</t>
-  </si>
-  <si>
-    <t>cloth; clothes; robe</t>
-  </si>
-  <si>
-    <t>merit; good deed; spiritual wealth</t>
-  </si>
-  <si>
-    <t>knowing (of); understanding (of); insight (into)</t>
-  </si>
-  <si>
-    <t>dwelling; building; house; hut</t>
-  </si>
-  <si>
-    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
-  </si>
-  <si>
-    <t>source; origin; root</t>
-  </si>
-  <si>
-    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
-  </si>
-  <si>
-    <t>not deteriorating; not decreasing; non-declining; non-regressing</t>
-  </si>
-  <si>
-    <t>forest; wood; wilds; wilderness; lit. remoteness</t>
-  </si>
-  <si>
-    <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
-  </si>
-  <si>
-    <t>shelter; refuge; help; lit. going to</t>
-  </si>
-  <si>
-    <t>precept; instruction; training rule</t>
-  </si>
-  <si>
-    <t>danger (of; from); peril (of; from)</t>
-  </si>
-  <si>
     <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
   </si>
   <si>
-    <t>mind; heart</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>(object of the eye) form; material form; shape; sight; lit. form</t>
-  </si>
-  <si>
-    <t>awareness; consciousness; mind; fifth of the five aggregates; lit. knowing</t>
-  </si>
-  <si>
-    <t>alms; gift</t>
-  </si>
-  <si>
-    <t>(of a tree) root; base; foot</t>
-  </si>
-  <si>
-    <t>meat; flesh</t>
-  </si>
-  <si>
-    <t>shore; riverbank; beach</t>
-  </si>
-  <si>
-    <t>(mental) pleasure; happiness; joy</t>
-  </si>
-  <si>
-    <t>message; letter; lit. teaching</t>
-  </si>
-  <si>
-    <t>food; boiled rice; lit. shared</t>
-  </si>
-  <si>
-    <t>far side; far shore; bank on the other side; epithet of Nibbāna</t>
-  </si>
-  <si>
-    <t>effort; exertion; lit. to be burned</t>
-  </si>
-  <si>
-    <t>wealth; riches; treasure</t>
-  </si>
-  <si>
-    <t>strength; power; might</t>
-  </si>
-  <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>life; existence</t>
-  </si>
-  <si>
-    <t>nose; lit. smelling</t>
-  </si>
-  <si>
-    <t>medicine; remedy; tonic; drug</t>
-  </si>
-  <si>
-    <t>few things; few people; small amount</t>
-  </si>
-  <si>
-    <t>regret; shame in wrongdoing; respect for others</t>
-  </si>
-  <si>
-    <t>meditation; stage of meditation; lit. meditating</t>
-  </si>
-  <si>
-    <t>in order to visit; for the purpose of seeing</t>
-  </si>
-  <si>
-    <t>class of vinaya offence; wrong-doing; lit. badly done</t>
-  </si>
-  <si>
-    <t>(of mental defilement) complete quenching; total emancipation; complete cooling</t>
-  </si>
-  <si>
-    <t>(vinaya) offence requiring confession</t>
-  </si>
-  <si>
-    <t>(vinaya) offence involving defeat; transgression requiring expulsion</t>
-  </si>
-  <si>
-    <t>fetter; chain; bond; thing which binds; lit. yoking together</t>
-  </si>
-  <si>
-    <t>ethical conduct; virtue; moral integrity</t>
-  </si>
-  <si>
-    <t>scripture; discourse; sacred text; lit. thread</t>
+    <t>discomfort; suffering; unease; unpleasantness; something unsatisfactory; trouble; a bummer; stress</t>
   </si>
   <si>
     <t>ease; comfort; happiness; pleasure; contentment</t>
   </si>
   <si>
-    <t>discomfort; suffering; unease; unpleasantness; something unsatisfactory; trouble; a bummer; stress</t>
-  </si>
-  <si>
     <t>bone</t>
   </si>
   <si>
+    <t>too; also; as well</t>
+  </si>
+  <si>
+    <t>(adds a question mark) surely?; didn’t?; wouldn't?; which?</t>
+  </si>
+  <si>
+    <t>just; only</t>
+  </si>
+  <si>
     <t>that much; that far; as long as; to that extent; until; at least</t>
   </si>
   <si>
-    <t>too; also; as well</t>
-  </si>
-  <si>
-    <t>(adds a question mark) surely?; didn’t?; wouldn't?; which?</t>
+    <t>even; even then</t>
+  </si>
+  <si>
+    <t>(it is) suitable (to); proper (to); appropriate (to); worthy (for); lit. enough</t>
+  </si>
+  <si>
+    <t>as long as; as far as; so much so; up to; until; from … to</t>
+  </si>
+  <si>
+    <t>it is possible (to); one is able (to)</t>
+  </si>
+  <si>
+    <t>how?</t>
+  </si>
+  <si>
+    <t>that’s enough (of)!; stop (with)!</t>
+  </si>
+  <si>
+    <t>enough; it is enough (for)</t>
+  </si>
+  <si>
+    <t>is able (to); is possible (to); is capable (of); lit. enough</t>
   </si>
   <si>
     <t>it is suitable (to); it is proper (to); it is fit (for); lit. healthy</t>
   </si>
   <si>
-    <t>just; only</t>
-  </si>
-  <si>
-    <t>how?</t>
-  </si>
-  <si>
-    <t>enough; it is enough (for)</t>
-  </si>
-  <si>
-    <t>as long as; as far as; so much so; up to; until; from … to</t>
-  </si>
-  <si>
-    <t>it is possible (to); one is able (to)</t>
-  </si>
-  <si>
-    <t>(it is) suitable (to); proper (to); appropriate (to); worthy (for); lit. enough</t>
-  </si>
-  <si>
-    <t>that’s enough (of)!; stop (with)!</t>
-  </si>
-  <si>
-    <t>even; even then</t>
-  </si>
-  <si>
-    <t>is able (to); is possible (to); is capable (of); lit. enough</t>
+    <t>to go (to); to travel (to)</t>
+  </si>
+  <si>
+    <t>to do; to perform</t>
+  </si>
+  <si>
+    <t>to approach; to visit; to go (to)</t>
+  </si>
+  <si>
+    <t>to walk (in); to wander (in)</t>
   </si>
   <si>
     <t>to see (as); to regard (as); to consider (as)</t>
   </si>
   <si>
-    <t>to do; to perform</t>
-  </si>
-  <si>
-    <t>to go (to); to travel (to)</t>
-  </si>
-  <si>
-    <t>to approach; to visit; to go (to)</t>
-  </si>
-  <si>
-    <t>to walk (in); to wander (in)</t>
-  </si>
-  <si>
     <t>life force; life energy</t>
   </si>
   <si>
+    <t>eye</t>
+  </si>
+  <si>
     <t>site; location; base; grounds; lit. ground</t>
-  </si>
-  <si>
-    <t>eye</t>
   </si>
   <si>
     <t>a-pron</t>
@@ -7979,13 +7979,13 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C156" t="s">
         <v>956</v>
       </c>
       <c r="D156" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="E156" t="s">
         <v>1646</v>
@@ -9359,7 +9359,7 @@
         <v>787</v>
       </c>
       <c r="C237" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
       <c r="D237" t="s">
         <v>1583</v>
@@ -9376,7 +9376,7 @@
         <v>787</v>
       </c>
       <c r="C238" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D238" t="s">
         <v>1583</v>
@@ -9393,7 +9393,7 @@
         <v>787</v>
       </c>
       <c r="C239" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D239" t="s">
         <v>1583</v>
@@ -9410,7 +9410,7 @@
         <v>787</v>
       </c>
       <c r="C240" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D240" t="s">
         <v>1583</v>
@@ -9427,7 +9427,7 @@
         <v>787</v>
       </c>
       <c r="C241" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D241" t="s">
         <v>1583</v>
@@ -9444,7 +9444,7 @@
         <v>787</v>
       </c>
       <c r="C242" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D242" t="s">
         <v>1583</v>
@@ -9461,7 +9461,7 @@
         <v>787</v>
       </c>
       <c r="C243" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D243" t="s">
         <v>1583</v>
@@ -9478,7 +9478,7 @@
         <v>787</v>
       </c>
       <c r="C244" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D244" t="s">
         <v>1583</v>
@@ -9495,7 +9495,7 @@
         <v>787</v>
       </c>
       <c r="C245" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D245" t="s">
         <v>1583</v>
@@ -9512,7 +9512,7 @@
         <v>787</v>
       </c>
       <c r="C246" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D246" t="s">
         <v>1583</v>
@@ -9529,7 +9529,7 @@
         <v>787</v>
       </c>
       <c r="C247" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D247" t="s">
         <v>1583</v>
@@ -9546,7 +9546,7 @@
         <v>787</v>
       </c>
       <c r="C248" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D248" t="s">
         <v>1583</v>
@@ -9563,7 +9563,7 @@
         <v>787</v>
       </c>
       <c r="C249" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D249" t="s">
         <v>1583</v>
@@ -9580,7 +9580,7 @@
         <v>787</v>
       </c>
       <c r="C250" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D250" t="s">
         <v>1583</v>
@@ -9597,7 +9597,7 @@
         <v>787</v>
       </c>
       <c r="C251" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D251" t="s">
         <v>1583</v>
@@ -9614,7 +9614,7 @@
         <v>787</v>
       </c>
       <c r="C252" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D252" t="s">
         <v>1583</v>
@@ -9631,7 +9631,7 @@
         <v>787</v>
       </c>
       <c r="C253" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D253" t="s">
         <v>1583</v>
@@ -9648,7 +9648,7 @@
         <v>787</v>
       </c>
       <c r="C254" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D254" t="s">
         <v>1583</v>
@@ -9665,7 +9665,7 @@
         <v>787</v>
       </c>
       <c r="C255" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D255" t="s">
         <v>1583</v>
@@ -9682,7 +9682,7 @@
         <v>787</v>
       </c>
       <c r="C256" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D256" t="s">
         <v>1583</v>
@@ -9699,7 +9699,7 @@
         <v>787</v>
       </c>
       <c r="C257" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D257" t="s">
         <v>1583</v>
@@ -9716,7 +9716,7 @@
         <v>787</v>
       </c>
       <c r="C258" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D258" t="s">
         <v>1583</v>
@@ -9733,7 +9733,7 @@
         <v>787</v>
       </c>
       <c r="C259" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D259" t="s">
         <v>1583</v>
@@ -9750,7 +9750,7 @@
         <v>787</v>
       </c>
       <c r="C260" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D260" t="s">
         <v>1583</v>
@@ -9767,7 +9767,7 @@
         <v>787</v>
       </c>
       <c r="C261" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D261" t="s">
         <v>1583</v>
@@ -9784,7 +9784,7 @@
         <v>787</v>
       </c>
       <c r="C262" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D262" t="s">
         <v>1583</v>
@@ -9801,7 +9801,7 @@
         <v>787</v>
       </c>
       <c r="C263" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D263" t="s">
         <v>1583</v>
@@ -9818,7 +9818,7 @@
         <v>787</v>
       </c>
       <c r="C264" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D264" t="s">
         <v>1583</v>
@@ -9835,7 +9835,7 @@
         <v>787</v>
       </c>
       <c r="C265" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D265" t="s">
         <v>1583</v>
@@ -9852,7 +9852,7 @@
         <v>787</v>
       </c>
       <c r="C266" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D266" t="s">
         <v>1583</v>
@@ -9869,7 +9869,7 @@
         <v>787</v>
       </c>
       <c r="C267" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D267" t="s">
         <v>1583</v>
@@ -9886,7 +9886,7 @@
         <v>787</v>
       </c>
       <c r="C268" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D268" t="s">
         <v>1583</v>
@@ -9903,7 +9903,7 @@
         <v>787</v>
       </c>
       <c r="C269" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D269" t="s">
         <v>1583</v>
@@ -9920,7 +9920,7 @@
         <v>787</v>
       </c>
       <c r="C270" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D270" t="s">
         <v>1583</v>
@@ -9937,7 +9937,7 @@
         <v>787</v>
       </c>
       <c r="C271" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D271" t="s">
         <v>1583</v>
@@ -9954,7 +9954,7 @@
         <v>787</v>
       </c>
       <c r="C272" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D272" t="s">
         <v>1583</v>
@@ -9971,7 +9971,7 @@
         <v>787</v>
       </c>
       <c r="C273" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D273" t="s">
         <v>1583</v>
@@ -9988,7 +9988,7 @@
         <v>787</v>
       </c>
       <c r="C274" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D274" t="s">
         <v>1583</v>
@@ -10005,7 +10005,7 @@
         <v>787</v>
       </c>
       <c r="C275" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D275" t="s">
         <v>1583</v>
@@ -10022,7 +10022,7 @@
         <v>787</v>
       </c>
       <c r="C276" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D276" t="s">
         <v>1583</v>
@@ -10039,7 +10039,7 @@
         <v>787</v>
       </c>
       <c r="C277" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D277" t="s">
         <v>1583</v>
@@ -10056,7 +10056,7 @@
         <v>787</v>
       </c>
       <c r="C278" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D278" t="s">
         <v>1583</v>
@@ -10073,7 +10073,7 @@
         <v>787</v>
       </c>
       <c r="C279" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D279" t="s">
         <v>1583</v>
@@ -10090,7 +10090,7 @@
         <v>787</v>
       </c>
       <c r="C280" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D280" t="s">
         <v>1583</v>
@@ -10107,7 +10107,7 @@
         <v>787</v>
       </c>
       <c r="C281" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D281" t="s">
         <v>1583</v>
@@ -10124,7 +10124,7 @@
         <v>787</v>
       </c>
       <c r="C282" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D282" t="s">
         <v>1583</v>
@@ -10141,7 +10141,7 @@
         <v>787</v>
       </c>
       <c r="C283" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D283" t="s">
         <v>1583</v>
@@ -10158,7 +10158,7 @@
         <v>787</v>
       </c>
       <c r="C284" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D284" t="s">
         <v>1583</v>
@@ -10175,7 +10175,7 @@
         <v>787</v>
       </c>
       <c r="C285" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D285" t="s">
         <v>1583</v>
@@ -10192,7 +10192,7 @@
         <v>787</v>
       </c>
       <c r="C286" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D286" t="s">
         <v>1583</v>
@@ -10209,7 +10209,7 @@
         <v>787</v>
       </c>
       <c r="C287" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D287" t="s">
         <v>1583</v>
@@ -10226,7 +10226,7 @@
         <v>787</v>
       </c>
       <c r="C288" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D288" t="s">
         <v>1583</v>
@@ -10243,7 +10243,7 @@
         <v>787</v>
       </c>
       <c r="C289" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D289" t="s">
         <v>1583</v>
@@ -10260,7 +10260,7 @@
         <v>787</v>
       </c>
       <c r="C290" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D290" t="s">
         <v>1583</v>
@@ -10277,7 +10277,7 @@
         <v>787</v>
       </c>
       <c r="C291" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D291" t="s">
         <v>1583</v>
@@ -10294,7 +10294,7 @@
         <v>787</v>
       </c>
       <c r="C292" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D292" t="s">
         <v>1583</v>
@@ -10311,7 +10311,7 @@
         <v>787</v>
       </c>
       <c r="C293" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D293" t="s">
         <v>1583</v>
@@ -10328,7 +10328,7 @@
         <v>787</v>
       </c>
       <c r="C294" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D294" t="s">
         <v>1583</v>
@@ -10345,7 +10345,7 @@
         <v>787</v>
       </c>
       <c r="C295" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D295" t="s">
         <v>1583</v>
@@ -10362,7 +10362,7 @@
         <v>787</v>
       </c>
       <c r="C296" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D296" t="s">
         <v>1583</v>
@@ -10379,7 +10379,7 @@
         <v>787</v>
       </c>
       <c r="C297" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D297" t="s">
         <v>1583</v>
@@ -10396,7 +10396,7 @@
         <v>787</v>
       </c>
       <c r="C298" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D298" t="s">
         <v>1583</v>
@@ -10413,7 +10413,7 @@
         <v>787</v>
       </c>
       <c r="C299" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D299" t="s">
         <v>1583</v>
@@ -10430,7 +10430,7 @@
         <v>787</v>
       </c>
       <c r="C300" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D300" t="s">
         <v>1583</v>
@@ -10447,7 +10447,7 @@
         <v>787</v>
       </c>
       <c r="C301" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D301" t="s">
         <v>1583</v>
@@ -10464,7 +10464,7 @@
         <v>787</v>
       </c>
       <c r="C302" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D302" t="s">
         <v>1583</v>
@@ -10481,7 +10481,7 @@
         <v>787</v>
       </c>
       <c r="C303" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D303" t="s">
         <v>1583</v>
@@ -10498,7 +10498,7 @@
         <v>787</v>
       </c>
       <c r="C304" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D304" t="s">
         <v>1583</v>
@@ -10515,7 +10515,7 @@
         <v>787</v>
       </c>
       <c r="C305" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D305" t="s">
         <v>1583</v>
@@ -10532,7 +10532,7 @@
         <v>787</v>
       </c>
       <c r="C306" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D306" t="s">
         <v>1583</v>
@@ -10549,7 +10549,7 @@
         <v>787</v>
       </c>
       <c r="C307" t="s">
-        <v>983</v>
+        <v>1106</v>
       </c>
       <c r="D307" t="s">
         <v>1583</v>
@@ -11022,7 +11022,7 @@
         <v>338</v>
       </c>
       <c r="B335" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C335" t="s">
         <v>1134</v>
@@ -11039,7 +11039,7 @@
         <v>339</v>
       </c>
       <c r="B336" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C336" t="s">
         <v>1135</v>
@@ -11753,7 +11753,7 @@
         <v>381</v>
       </c>
       <c r="B378" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C378" t="s">
         <v>1177</v>
@@ -11770,7 +11770,7 @@
         <v>382</v>
       </c>
       <c r="B379" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C379" t="s">
         <v>1178</v>
@@ -12147,7 +12147,7 @@
         <v>792</v>
       </c>
       <c r="C401" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="D401" t="s">
         <v>1606</v>
@@ -12164,7 +12164,7 @@
         <v>792</v>
       </c>
       <c r="C402" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D402" t="s">
         <v>1606</v>
@@ -12518,7 +12518,7 @@
         <v>426</v>
       </c>
       <c r="B423" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C423" t="s">
         <v>1221</v>
@@ -12552,7 +12552,7 @@
         <v>428</v>
       </c>
       <c r="B425" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C425" t="s">
         <v>1223</v>
@@ -12620,7 +12620,7 @@
         <v>432</v>
       </c>
       <c r="B429" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C429" t="s">
         <v>1227</v>
@@ -12671,7 +12671,7 @@
         <v>435</v>
       </c>
       <c r="B432" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C432" t="s">
         <v>1230</v>
@@ -13538,7 +13538,7 @@
         <v>486</v>
       </c>
       <c r="B483" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C483" t="s">
         <v>1281</v>
@@ -13555,7 +13555,7 @@
         <v>487</v>
       </c>
       <c r="B484" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="C484" t="s">
         <v>1282</v>
@@ -13589,7 +13589,7 @@
         <v>489</v>
       </c>
       <c r="B486" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C486" t="s">
         <v>1284</v>
@@ -13606,7 +13606,7 @@
         <v>490</v>
       </c>
       <c r="B487" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="C487" t="s">
         <v>1285</v>
@@ -15051,7 +15051,7 @@
         <v>575</v>
       </c>
       <c r="B572" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="C572" t="s">
         <v>1370</v>
@@ -15153,7 +15153,7 @@
         <v>581</v>
       </c>
       <c r="B578" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="C578" t="s">
         <v>1376</v>
@@ -15394,7 +15394,7 @@
         <v>795</v>
       </c>
       <c r="C592" t="s">
-        <v>1045</v>
+        <v>1390</v>
       </c>
       <c r="D592" t="s">
         <v>1634</v>
@@ -15411,7 +15411,7 @@
         <v>795</v>
       </c>
       <c r="C593" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="D593" t="s">
         <v>1634</v>
@@ -15428,7 +15428,7 @@
         <v>795</v>
       </c>
       <c r="C594" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="D594" t="s">
         <v>1634</v>
@@ -15445,7 +15445,7 @@
         <v>795</v>
       </c>
       <c r="C595" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="D595" t="s">
         <v>1634</v>
@@ -15462,7 +15462,7 @@
         <v>795</v>
       </c>
       <c r="C596" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="D596" t="s">
         <v>1634</v>
@@ -15479,7 +15479,7 @@
         <v>795</v>
       </c>
       <c r="C597" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="D597" t="s">
         <v>1634</v>
@@ -15496,7 +15496,7 @@
         <v>795</v>
       </c>
       <c r="C598" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="D598" t="s">
         <v>1634</v>
@@ -15513,7 +15513,7 @@
         <v>795</v>
       </c>
       <c r="C599" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="D599" t="s">
         <v>1634</v>
@@ -15530,7 +15530,7 @@
         <v>795</v>
       </c>
       <c r="C600" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="D600" t="s">
         <v>1634</v>
@@ -15547,7 +15547,7 @@
         <v>795</v>
       </c>
       <c r="C601" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="D601" t="s">
         <v>1634</v>
@@ -15564,7 +15564,7 @@
         <v>795</v>
       </c>
       <c r="C602" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="D602" t="s">
         <v>1634</v>
@@ -15581,7 +15581,7 @@
         <v>795</v>
       </c>
       <c r="C603" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="D603" t="s">
         <v>1634</v>
@@ -15598,7 +15598,7 @@
         <v>795</v>
       </c>
       <c r="C604" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="D604" t="s">
         <v>1634</v>
@@ -15615,7 +15615,7 @@
         <v>795</v>
       </c>
       <c r="C605" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="D605" t="s">
         <v>1634</v>
@@ -15632,7 +15632,7 @@
         <v>795</v>
       </c>
       <c r="C606" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="D606" t="s">
         <v>1634</v>
@@ -15649,7 +15649,7 @@
         <v>795</v>
       </c>
       <c r="C607" t="s">
-        <v>1404</v>
+        <v>1048</v>
       </c>
       <c r="D607" t="s">
         <v>1634</v>
@@ -16040,7 +16040,7 @@
         <v>798</v>
       </c>
       <c r="C630" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D630" t="s">
         <v>798</v>
@@ -16057,7 +16057,7 @@
         <v>798</v>
       </c>
       <c r="C631" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="D631" t="s">
         <v>798</v>
@@ -16074,7 +16074,7 @@
         <v>798</v>
       </c>
       <c r="C632" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="D632" t="s">
         <v>798</v>
@@ -16652,7 +16652,7 @@
         <v>789</v>
       </c>
       <c r="C666" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="D666" t="s">
         <v>789</v>
@@ -16669,7 +16669,7 @@
         <v>789</v>
       </c>
       <c r="C667" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="D667" t="s">
         <v>789</v>
@@ -16686,7 +16686,7 @@
         <v>789</v>
       </c>
       <c r="C668" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="D668" t="s">
         <v>789</v>

--- a/pali-class/vocab/vocab-class12.xlsx
+++ b/pali-class/vocab/vocab-class12.xlsx
@@ -199,6 +199,9 @@
     <t>sukka 1</t>
   </si>
   <si>
+    <t>sāraṇīya 1.1</t>
+  </si>
+  <si>
     <t>sampajāna 1</t>
   </si>
   <si>
@@ -211,9 +214,6 @@
     <t>akusala 1</t>
   </si>
   <si>
-    <t>sāraṇīya 1.1</t>
-  </si>
-  <si>
     <t>iṭṭha 1</t>
   </si>
   <si>
@@ -304,36 +304,36 @@
     <t>kupita</t>
   </si>
   <si>
+    <t>patta 3.1</t>
+  </si>
+  <si>
+    <t>samāhita 1</t>
+  </si>
+  <si>
+    <t>pabbajita 2</t>
+  </si>
+  <si>
+    <t>laddha 1</t>
+  </si>
+  <si>
+    <t>adhigata 1</t>
+  </si>
+  <si>
+    <t>santuṭṭha 1</t>
+  </si>
+  <si>
+    <t>kata 1</t>
+  </si>
+  <si>
+    <t>vimutta</t>
+  </si>
+  <si>
+    <t>visuddha 1</t>
+  </si>
+  <si>
     <t>cuta 1.1</t>
   </si>
   <si>
-    <t>patta 3.1</t>
-  </si>
-  <si>
-    <t>samāhita 1</t>
-  </si>
-  <si>
-    <t>pabbajita 2</t>
-  </si>
-  <si>
-    <t>laddha 1</t>
-  </si>
-  <si>
-    <t>adhigata 1</t>
-  </si>
-  <si>
-    <t>santuṭṭha 1</t>
-  </si>
-  <si>
-    <t>kata 1</t>
-  </si>
-  <si>
-    <t>vimutta</t>
-  </si>
-  <si>
-    <t>visuddha 1</t>
-  </si>
-  <si>
     <t>vutta 2.1</t>
   </si>
   <si>
@@ -1060,99 +1060,99 @@
     <t>gaṇhati 1</t>
   </si>
   <si>
+    <t>sikkhati 2</t>
+  </si>
+  <si>
+    <t>bhaṇati 1</t>
+  </si>
+  <si>
+    <t>nikkhipati 3</t>
+  </si>
+  <si>
+    <t>bhajati 1.1</t>
+  </si>
+  <si>
+    <t>icchati 1.1</t>
+  </si>
+  <si>
+    <t>bhāsati 1.1</t>
+  </si>
+  <si>
+    <t>abhiramati</t>
+  </si>
+  <si>
+    <t>saṃvattati</t>
+  </si>
+  <si>
+    <t>khādati</t>
+  </si>
+  <si>
+    <t>pucchati</t>
+  </si>
+  <si>
+    <t>gacchati 1</t>
+  </si>
+  <si>
+    <t>padahati 1</t>
+  </si>
+  <si>
+    <t>vāyamati</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
+    <t>pavisati</t>
+  </si>
+  <si>
+    <t>viharati 1</t>
+  </si>
+  <si>
+    <t>labhati 1</t>
+  </si>
+  <si>
+    <t>kappati</t>
+  </si>
+  <si>
+    <t>pariharati 3</t>
+  </si>
+  <si>
+    <t>pavaḍḍhati 1</t>
+  </si>
+  <si>
+    <t>vaḍḍhati</t>
+  </si>
+  <si>
+    <t>passati 1</t>
+  </si>
+  <si>
+    <t>arahati 3</t>
+  </si>
+  <si>
+    <t>assasati</t>
+  </si>
+  <si>
+    <t>uddisati 1</t>
+  </si>
+  <si>
+    <t>uddharati 2</t>
+  </si>
+  <si>
+    <t>ovadati</t>
+  </si>
+  <si>
+    <t>carati 1.1</t>
+  </si>
+  <si>
+    <t>tiṭṭhati 3</t>
+  </si>
+  <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
     <t>pakkhandati 1</t>
   </si>
   <si>
-    <t>sikkhati 2</t>
-  </si>
-  <si>
-    <t>bhaṇati 1</t>
-  </si>
-  <si>
-    <t>nikkhipati 3</t>
-  </si>
-  <si>
-    <t>bhajati 1.1</t>
-  </si>
-  <si>
-    <t>icchati 1.1</t>
-  </si>
-  <si>
-    <t>bhāsati 1.1</t>
-  </si>
-  <si>
-    <t>abhiramati</t>
-  </si>
-  <si>
-    <t>saṃvattati</t>
-  </si>
-  <si>
-    <t>khādati</t>
-  </si>
-  <si>
-    <t>pucchati</t>
-  </si>
-  <si>
-    <t>gacchati 1</t>
-  </si>
-  <si>
-    <t>padahati 1</t>
-  </si>
-  <si>
-    <t>vāyamati</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
-    <t>pavisati</t>
-  </si>
-  <si>
-    <t>viharati 1</t>
-  </si>
-  <si>
-    <t>labhati 1</t>
-  </si>
-  <si>
-    <t>kappati</t>
-  </si>
-  <si>
-    <t>pariharati 3</t>
-  </si>
-  <si>
-    <t>pavaḍḍhati 1</t>
-  </si>
-  <si>
-    <t>vaḍḍhati</t>
-  </si>
-  <si>
-    <t>passati 1</t>
-  </si>
-  <si>
-    <t>arahati 3</t>
-  </si>
-  <si>
-    <t>assasati</t>
-  </si>
-  <si>
-    <t>uddisati 1</t>
-  </si>
-  <si>
-    <t>uddharati 2</t>
-  </si>
-  <si>
-    <t>ovadati</t>
-  </si>
-  <si>
-    <t>carati 1.1</t>
-  </si>
-  <si>
-    <t>tiṭṭhati 3</t>
-  </si>
-  <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
     <t>paṭisevati 2</t>
   </si>
   <si>
@@ -2590,6 +2590,9 @@
     <t>pure; bright</t>
   </si>
   <si>
+    <t>polite; pleasant; charming; (comm) fit to be remembered; lit. to be desired</t>
+  </si>
+  <si>
     <t>clearly aware; fully knowing; completely comprehending</t>
   </si>
   <si>
@@ -2602,9 +2605,6 @@
     <t>unskilful; incompetent; inexperienced</t>
   </si>
   <si>
-    <t>polite; pleasant; charming; (comm) fit to be remembered; lit. to be desired</t>
-  </si>
-  <si>
     <t>pleasing; likeable; cherished; wished for; lit. wished</t>
   </si>
   <si>
@@ -2695,36 +2695,36 @@
     <t>indignant; angry; annoyed; outraged; offended</t>
   </si>
   <si>
+    <t>reached; attained; gained; accomplished; found</t>
+  </si>
+  <si>
+    <t>composed; centred; settled; collected; concentrated</t>
+  </si>
+  <si>
+    <t>ordained (from); renounced (from); lit. exiled</t>
+  </si>
+  <si>
+    <t>obtained; gained; won; received</t>
+  </si>
+  <si>
+    <t>got; acquired; attained; achieved; lit. arrived at</t>
+  </si>
+  <si>
+    <t>satisfied; pleased; content; happy with</t>
+  </si>
+  <si>
+    <t>done; did; completed</t>
+  </si>
+  <si>
+    <t>freed (from); liberated (from); emancipated (from)</t>
+  </si>
+  <si>
+    <t>cleansed; purified; refined</t>
+  </si>
+  <si>
     <t>passed away; died</t>
   </si>
   <si>
-    <t>reached; attained; gained; accomplished; found</t>
-  </si>
-  <si>
-    <t>composed; centred; settled; collected; concentrated</t>
-  </si>
-  <si>
-    <t>ordained (from); renounced (from); lit. exiled</t>
-  </si>
-  <si>
-    <t>obtained; gained; won; received</t>
-  </si>
-  <si>
-    <t>got; acquired; attained; achieved; lit. arrived at</t>
-  </si>
-  <si>
-    <t>satisfied; pleased; content; happy with</t>
-  </si>
-  <si>
-    <t>done; did; completed</t>
-  </si>
-  <si>
-    <t>freed (from); liberated (from); emancipated (from)</t>
-  </si>
-  <si>
-    <t>cleansed; purified; refined</t>
-  </si>
-  <si>
     <t>said; told; spoken; mentioned</t>
   </si>
   <si>
@@ -3448,99 +3448,99 @@
     <t>grabs hold (of); seizes; takes</t>
   </si>
   <si>
+    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
+  </si>
+  <si>
+    <t>speaks; says; tells</t>
+  </si>
+  <si>
+    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
+  </si>
+  <si>
+    <t>associates (with); keeps company (with)</t>
+  </si>
+  <si>
+    <t>wishes; wants; desires</t>
+  </si>
+  <si>
+    <t>speaks (about); talks (about)</t>
+  </si>
+  <si>
+    <t>enjoys; delights (in); takes pleasure (in)</t>
+  </si>
+  <si>
+    <t>leads (to); results (in); causes</t>
+  </si>
+  <si>
+    <t>chews; devours; eats</t>
+  </si>
+  <si>
+    <t>asks; enquires; questions</t>
+  </si>
+  <si>
+    <t>goes; walks; moves; wanders around</t>
+  </si>
+  <si>
+    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
+  </si>
+  <si>
+    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
+  </si>
+  <si>
+    <t>enters; goes (into)</t>
+  </si>
+  <si>
+    <t>lives (in); dwells (in)</t>
+  </si>
+  <si>
+    <t>gets; receives; obtains</t>
+  </si>
+  <si>
+    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
+  </si>
+  <si>
+    <t>takes care (of); looks after; maintains; lit. carries around</t>
+  </si>
+  <si>
+    <t>increases; develops; grows</t>
+  </si>
+  <si>
+    <t>increases (in); grows (in); develops (in); lit. increases</t>
+  </si>
+  <si>
+    <t>sees</t>
+  </si>
+  <si>
+    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
+  </si>
+  <si>
+    <t>inhales; breathes in</t>
+  </si>
+  <si>
+    <t>recites; chants; lit. points up</t>
+  </si>
+  <si>
+    <t>removes; takes away; packs up</t>
+  </si>
+  <si>
+    <t>advises; instructs; admonishes</t>
+  </si>
+  <si>
+    <t>walks; wanders; goes around; travels; fares on</t>
+  </si>
+  <si>
+    <t>remains; persists; lasts; lit. stands</t>
+  </si>
+  <si>
+    <t>sits (on); sits down (in)</t>
+  </si>
+  <si>
     <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
   </si>
   <si>
-    <t>trains (in); trains (for the purpose of); practices (for the sake of); practice (to); lit. trains</t>
-  </si>
-  <si>
-    <t>speaks; says; tells</t>
-  </si>
-  <si>
-    <t>keeps; stores; saves; sets aside; lays aside; lit. throws down</t>
-  </si>
-  <si>
-    <t>associates (with); keeps company (with)</t>
-  </si>
-  <si>
-    <t>wishes; wants; desires</t>
-  </si>
-  <si>
-    <t>speaks (about); talks (about)</t>
-  </si>
-  <si>
-    <t>enjoys; delights (in); takes pleasure (in)</t>
-  </si>
-  <si>
-    <t>leads (to); results (in); causes</t>
-  </si>
-  <si>
-    <t>chews; devours; eats</t>
-  </si>
-  <si>
-    <t>asks; enquires; questions</t>
-  </si>
-  <si>
-    <t>goes; walks; moves; wanders around</t>
-  </si>
-  <si>
-    <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
-  </si>
-  <si>
-    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
-  </si>
-  <si>
-    <t>enters; goes (into)</t>
-  </si>
-  <si>
-    <t>lives (in); dwells (in)</t>
-  </si>
-  <si>
-    <t>gets; receives; obtains</t>
-  </si>
-  <si>
-    <t>it is suitable (for); it is proper (for); it is fitting (for); it is allowable</t>
-  </si>
-  <si>
-    <t>takes care (of); looks after; maintains; lit. carries around</t>
-  </si>
-  <si>
-    <t>increases; develops; grows</t>
-  </si>
-  <si>
-    <t>increases (in); grows (in); develops (in); lit. increases</t>
-  </si>
-  <si>
-    <t>sees</t>
-  </si>
-  <si>
-    <t>should; ought (to); is suitable (for); it is befitting (for)</t>
-  </si>
-  <si>
-    <t>inhales; breathes in</t>
-  </si>
-  <si>
-    <t>recites; chants; lit. points up</t>
-  </si>
-  <si>
-    <t>removes; takes away; packs up</t>
-  </si>
-  <si>
-    <t>advises; instructs; admonishes</t>
-  </si>
-  <si>
-    <t>walks; wanders; goes around; travels; fares on</t>
-  </si>
-  <si>
-    <t>remains; persists; lasts; lit. stands</t>
-  </si>
-  <si>
-    <t>sits (on); sits down (in)</t>
-  </si>
-  <si>
     <t>uses; makes use (of); lit. associates</t>
   </si>
   <si>
@@ -3697,7 +3697,7 @@
     <t>appeared; manifested; lit. was visible</t>
   </si>
   <si>
-    <t>is</t>
+    <t>is; becomes</t>
   </si>
   <si>
     <t>may it be (for)!</t>

--- a/pali-class/vocab/vocab-class12.xlsx
+++ b/pali-class/vocab/vocab-class12.xlsx
@@ -229,12 +229,12 @@
     <t>methuna 1</t>
   </si>
   <si>
+    <t>paripūra 1</t>
+  </si>
+  <si>
     <t>sassata</t>
   </si>
   <si>
-    <t>paripūra 1</t>
-  </si>
-  <si>
     <t>dhuva 1</t>
   </si>
   <si>
@@ -1324,30 +1324,30 @@
     <t>hotha</t>
   </si>
   <si>
+    <t>ajjhabhāsi</t>
+  </si>
+  <si>
+    <t>udapādi 1</t>
+  </si>
+  <si>
+    <t>abhinandi 1</t>
+  </si>
+  <si>
+    <t>upasaṅkami</t>
+  </si>
+  <si>
+    <t>pucchi</t>
+  </si>
+  <si>
+    <t>abhāsi 1</t>
+  </si>
+  <si>
+    <t>paccassosi</t>
+  </si>
+  <si>
     <t>sammodi</t>
   </si>
   <si>
-    <t>ajjhabhāsi</t>
-  </si>
-  <si>
-    <t>udapādi 1</t>
-  </si>
-  <si>
-    <t>abhinandi 1</t>
-  </si>
-  <si>
-    <t>upasaṅkami</t>
-  </si>
-  <si>
-    <t>pucchi</t>
-  </si>
-  <si>
-    <t>abhāsi 1</t>
-  </si>
-  <si>
-    <t>paccassosi</t>
-  </si>
-  <si>
     <t>apucchi</t>
   </si>
   <si>
@@ -1609,12 +1609,12 @@
     <t>medhāvī</t>
   </si>
   <si>
+    <t>brahmacārī 2</t>
+  </si>
+  <si>
     <t>pakkhī</t>
   </si>
   <si>
-    <t>brahmacārī 2</t>
-  </si>
-  <si>
     <t>saṅgaha 1</t>
   </si>
   <si>
@@ -2620,12 +2620,12 @@
     <t>sexual</t>
   </si>
   <si>
+    <t>full; filled up; complete</t>
+  </si>
+  <si>
     <t>eternal; everlasting; endless; perpetual; (comm) existing forever</t>
   </si>
   <si>
-    <t>full; filled up; complete</t>
-  </si>
-  <si>
     <t>stable; enduring; eternal; everlasting</t>
   </si>
   <si>
@@ -3136,7 +3136,7 @@
     <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
   </si>
   <si>
-    <t>trainee; apprentice; learner; initiate</t>
+    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
   </si>
   <si>
     <t>quality; characteristic; trait; inherent quality</t>
@@ -3415,7 +3415,7 @@
     <t>begins; starts; undertakes; arouses oneself (to); makes an effort (to)</t>
   </si>
   <si>
-    <t>wards off; prevents; guards against</t>
+    <t>protects; guards; watches over</t>
   </si>
   <si>
     <t>go!; begone!</t>
@@ -3709,30 +3709,30 @@
     <t>may you all be!; I pray you all may be!</t>
   </si>
   <si>
+    <t>addressed; spoke (to)</t>
+  </si>
+  <si>
+    <t>arose (for); sprung up (for)</t>
+  </si>
+  <si>
+    <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
+  </si>
+  <si>
+    <t>approached; drew near; went (to); lit. went near</t>
+  </si>
+  <si>
+    <t>asked; enquired; questioned</t>
+  </si>
+  <si>
+    <t>spoke; said</t>
+  </si>
+  <si>
+    <t>replied (to); agreed (with)</t>
+  </si>
+  <si>
     <t>greeted; exchanged pleasantries; had a friendly conversation (with)</t>
   </si>
   <si>
-    <t>addressed; spoke (to)</t>
-  </si>
-  <si>
-    <t>arose (for); sprung up (for)</t>
-  </si>
-  <si>
-    <t>delighted (in); was pleased (with); approved (of); was happy (with); relished</t>
-  </si>
-  <si>
-    <t>approached; drew near; went (to); lit. went near</t>
-  </si>
-  <si>
-    <t>asked; enquired; questioned</t>
-  </si>
-  <si>
-    <t>spoke; said</t>
-  </si>
-  <si>
-    <t>replied (to); agreed (with)</t>
-  </si>
-  <si>
     <t>asked; enquired</t>
   </si>
   <si>
@@ -3994,10 +3994,10 @@
     <t>intelligent man; wise man; who has good judgment; lit. who has wisdom</t>
   </si>
   <si>
+    <t>celibate man; who abstains from sexual intercourse</t>
+  </si>
+  <si>
     <t>bird; lit. with wings</t>
-  </si>
-  <si>
-    <t>celibate man; who abstains from sexual intercourse</t>
   </si>
   <si>
     <t>support (of); maintenance (of); looking after; lit. holding together</t>

--- a/pali-class/vocab/vocab-class12.xlsx
+++ b/pali-class/vocab/vocab-class12.xlsx
@@ -2122,93 +2122,93 @@
     <t>vepulla 1</t>
   </si>
   <si>
+    <t>bhāsita 1</t>
+  </si>
+  <si>
+    <t>āsana 1</t>
+  </si>
+  <si>
+    <t>kula 1</t>
+  </si>
+  <si>
+    <t>indriya 1</t>
+  </si>
+  <si>
+    <t>pāmojja</t>
+  </si>
+  <si>
+    <t>nidāna 1</t>
+  </si>
+  <si>
+    <t>rūpa 1</t>
+  </si>
+  <si>
+    <t>pamāṇa 3</t>
+  </si>
+  <si>
+    <t>upādāna 2</t>
+  </si>
+  <si>
+    <t>pācittiya 1</t>
+  </si>
+  <si>
+    <t>sarīra 1</t>
+  </si>
+  <si>
+    <t>adinna 1</t>
+  </si>
+  <si>
+    <t>bhesajja</t>
+  </si>
+  <si>
+    <t>dhana 1</t>
+  </si>
+  <si>
+    <t>cīvara</t>
+  </si>
+  <si>
+    <t>tīra</t>
+  </si>
+  <si>
+    <t>itthatta 1</t>
+  </si>
+  <si>
+    <t>mūla 2</t>
+  </si>
+  <si>
+    <t>nāma 5</t>
+  </si>
+  <si>
+    <t>agāra 1</t>
+  </si>
+  <si>
+    <t>domanassa</t>
+  </si>
+  <si>
+    <t>maraṇa</t>
+  </si>
+  <si>
+    <t>vassa 3</t>
+  </si>
+  <si>
+    <t>ottappa</t>
+  </si>
+  <si>
+    <t>mūla 1</t>
+  </si>
+  <si>
+    <t>sukhāya</t>
+  </si>
+  <si>
+    <t>sacca 2</t>
+  </si>
+  <si>
+    <t>parinibbāna 1</t>
+  </si>
+  <si>
     <t>nibbāna 2</t>
   </si>
   <si>
-    <t>bhāsita 1</t>
-  </si>
-  <si>
-    <t>āsana 1</t>
-  </si>
-  <si>
-    <t>kula 1</t>
-  </si>
-  <si>
-    <t>indriya 1</t>
-  </si>
-  <si>
-    <t>pāmojja</t>
-  </si>
-  <si>
-    <t>nidāna 1</t>
-  </si>
-  <si>
-    <t>rūpa 1</t>
-  </si>
-  <si>
-    <t>pamāṇa 3</t>
-  </si>
-  <si>
-    <t>upādāna 2</t>
-  </si>
-  <si>
-    <t>pācittiya 1</t>
-  </si>
-  <si>
-    <t>sarīra 1</t>
-  </si>
-  <si>
-    <t>adinna 1</t>
-  </si>
-  <si>
-    <t>bhesajja</t>
-  </si>
-  <si>
-    <t>dhana 1</t>
-  </si>
-  <si>
-    <t>cīvara</t>
-  </si>
-  <si>
-    <t>tīra</t>
-  </si>
-  <si>
-    <t>itthatta 1</t>
-  </si>
-  <si>
-    <t>mūla 2</t>
-  </si>
-  <si>
-    <t>nāma 5</t>
-  </si>
-  <si>
-    <t>agāra 1</t>
-  </si>
-  <si>
-    <t>domanassa</t>
-  </si>
-  <si>
-    <t>maraṇa</t>
-  </si>
-  <si>
-    <t>vassa 3</t>
-  </si>
-  <si>
-    <t>ottappa</t>
-  </si>
-  <si>
-    <t>mūla 1</t>
-  </si>
-  <si>
-    <t>sukhāya</t>
-  </si>
-  <si>
-    <t>sacca 2</t>
-  </si>
-  <si>
-    <t>parinibbāna 1</t>
-  </si>
-  <si>
     <t>bhaya 3</t>
   </si>
   <si>
@@ -4498,91 +4498,91 @@
     <t>expansion; full development; maturity</t>
   </si>
   <si>
+    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
+  </si>
+  <si>
+    <t>seat; chair; lit. sitting</t>
+  </si>
+  <si>
+    <t>family; house; household; respectable family</t>
+  </si>
+  <si>
+    <t>sense; mental faculty; power; lit. belonging to Inda</t>
+  </si>
+  <si>
+    <t>joy; happiness; gladness</t>
+  </si>
+  <si>
+    <t>source; origin; foundation; cause; reason; lit. tying down</t>
+  </si>
+  <si>
+    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
+  </si>
+  <si>
+    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
+  </si>
+  <si>
+    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
+  </si>
+  <si>
+    <t>(vinaya) offence requiring confession</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>which is not given; something not offered</t>
+  </si>
+  <si>
+    <t>medicine; remedy; tonic; drug</t>
+  </si>
+  <si>
+    <t>wealth; riches; treasure</t>
+  </si>
+  <si>
+    <t>robe; cloth; robe-cloth; lit. rags</t>
+  </si>
+  <si>
+    <t>shore; riverbank; beach</t>
+  </si>
+  <si>
+    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
+  </si>
+  <si>
+    <t>source; origin; root</t>
+  </si>
+  <si>
+    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
+  </si>
+  <si>
+    <t>dwelling; building; house; hut</t>
+  </si>
+  <si>
+    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
+  </si>
+  <si>
+    <t>death; dying</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>regret; shame in wrongdoing; respect for others</t>
+  </si>
+  <si>
+    <t>(of a tree) root; base; foot</t>
+  </si>
+  <si>
+    <t>comfortable (for); lit. for the comfort</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>(of mental defilement) complete quenching; total emancipation; complete cooling</t>
+  </si>
+  <si>
     <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
-  </si>
-  <si>
-    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
-  </si>
-  <si>
-    <t>seat; chair; lit. sitting</t>
-  </si>
-  <si>
-    <t>family; house; household; respectable family</t>
-  </si>
-  <si>
-    <t>sense; mental faculty; power; lit. belonging to Inda</t>
-  </si>
-  <si>
-    <t>joy; happiness; gladness</t>
-  </si>
-  <si>
-    <t>source; origin; foundation; cause; reason; lit. tying down</t>
-  </si>
-  <si>
-    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
-  </si>
-  <si>
-    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
-  </si>
-  <si>
-    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
-  </si>
-  <si>
-    <t>(vinaya) offence requiring confession</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>which is not given; something not offered</t>
-  </si>
-  <si>
-    <t>medicine; remedy; tonic; drug</t>
-  </si>
-  <si>
-    <t>wealth; riches; treasure</t>
-  </si>
-  <si>
-    <t>robe; cloth; robe-cloth; lit. rags</t>
-  </si>
-  <si>
-    <t>shore; riverbank; beach</t>
-  </si>
-  <si>
-    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
-  </si>
-  <si>
-    <t>source; origin; root</t>
-  </si>
-  <si>
-    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
-  </si>
-  <si>
-    <t>dwelling; building; house; hut</t>
-  </si>
-  <si>
-    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
-  </si>
-  <si>
-    <t>death; dying</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>regret; shame in wrongdoing; respect for others</t>
-  </si>
-  <si>
-    <t>(of a tree) root; base; foot</t>
-  </si>
-  <si>
-    <t>comfortable (for); lit. for the comfort</t>
-  </si>
-  <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>(of mental defilement) complete quenching; total emancipation; complete cooling</t>
   </si>
   <si>
     <t>danger (of; from); peril (of; from)</t>

--- a/pali-class/vocab/vocab-class12.xlsx
+++ b/pali-class/vocab/vocab-class12.xlsx
@@ -1369,30 +1369,30 @@
     <t>gahapati</t>
   </si>
   <si>
+    <t>muni 1</t>
+  </si>
+  <si>
+    <t>aggi</t>
+  </si>
+  <si>
+    <t>kucchi 1</t>
+  </si>
+  <si>
+    <t>isi</t>
+  </si>
+  <si>
+    <t>gāmaṇi</t>
+  </si>
+  <si>
+    <t>ñāti</t>
+  </si>
+  <si>
+    <t>byādhi</t>
+  </si>
+  <si>
     <t>sāli</t>
   </si>
   <si>
-    <t>muni 1</t>
-  </si>
-  <si>
-    <t>aggi</t>
-  </si>
-  <si>
-    <t>kucchi 1</t>
-  </si>
-  <si>
-    <t>isi</t>
-  </si>
-  <si>
-    <t>gāmaṇi</t>
-  </si>
-  <si>
-    <t>ñāti</t>
-  </si>
-  <si>
-    <t>byādhi</t>
-  </si>
-  <si>
     <t>karoti 1</t>
   </si>
   <si>
@@ -2662,7 +2662,7 @@
     <t>dark; black</t>
   </si>
   <si>
-    <t>brownish; colour of Buddhist monks’ robes</t>
+    <t>brownish; colour of Buddhist monks' robes</t>
   </si>
   <si>
     <t>right (hand side)</t>
@@ -3754,30 +3754,30 @@
     <t>householder; landowner; lit. house master</t>
   </si>
   <si>
+    <t>monk; sage; seer; hermit; silent sage</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>stomach; belly</t>
+  </si>
+  <si>
+    <t>seer; sage</t>
+  </si>
+  <si>
+    <t>chief; chieftain; headman; leader</t>
+  </si>
+  <si>
+    <t>family; relative; kinsman; lit. known</t>
+  </si>
+  <si>
+    <t>sickness; disease; illness; lit. upset</t>
+  </si>
+  <si>
     <t>fine rice</t>
   </si>
   <si>
-    <t>monk; sage; seer; hermit; silent sage</t>
-  </si>
-  <si>
-    <t>fire</t>
-  </si>
-  <si>
-    <t>stomach; belly</t>
-  </si>
-  <si>
-    <t>seer; sage</t>
-  </si>
-  <si>
-    <t>chief; chieftain; headman; leader</t>
-  </si>
-  <si>
-    <t>family; relative; kinsman; lit. known</t>
-  </si>
-  <si>
-    <t>sickness; disease; illness; lit. upset</t>
-  </si>
-  <si>
     <t>does; acts; performs</t>
   </si>
   <si>
@@ -3880,7 +3880,7 @@
     <t>with; together (with); accompanied (by)</t>
   </si>
   <si>
-    <t>do not; may one not; don’t let</t>
+    <t>do not; may one not; don't let</t>
   </si>
   <si>
     <t>no; not; neither; nor</t>
@@ -4339,7 +4339,7 @@
     <t>separating (from); aloof (from)</t>
   </si>
   <si>
-    <t>hut; monk’s dwelling</t>
+    <t>hut; monk's dwelling</t>
   </si>
   <si>
     <t>outer robe; double robe; patchwork robe; lit. joined together</t>
@@ -4684,7 +4684,7 @@
     <t>too; also; as well</t>
   </si>
   <si>
-    <t>(adds a question mark) surely?; didn’t?; wouldn't?; which?</t>
+    <t>(adds a question mark) surely?; didn't?; wouldn't?; which?</t>
   </si>
   <si>
     <t>just; only</t>
@@ -4708,7 +4708,7 @@
     <t>how?</t>
   </si>
   <si>
-    <t>that’s enough (of)!; stop (with)!</t>
+    <t>that's enough (of)!; stop (with)!</t>
   </si>
   <si>
     <t>enough; it is enough (for)</t>

--- a/pali-class/vocab/vocab-class12.xlsx
+++ b/pali-class/vocab/vocab-class12.xlsx
@@ -319,6 +319,9 @@
     <t>adhigata 1</t>
   </si>
   <si>
+    <t>paricita</t>
+  </si>
+  <si>
     <t>santuṭṭha 1</t>
   </si>
   <si>
@@ -355,9 +358,6 @@
     <t>pahīna</t>
   </si>
   <si>
-    <t>paricita</t>
-  </si>
-  <si>
     <t>puṭṭha 1.1</t>
   </si>
   <si>
@@ -388,12 +388,12 @@
     <t>vusita 1</t>
   </si>
   <si>
+    <t>upekkhaka</t>
+  </si>
+  <si>
     <t>pāpaka 1.1</t>
   </si>
   <si>
-    <t>upekkhaka</t>
-  </si>
-  <si>
     <t>mahanta 1</t>
   </si>
   <si>
@@ -574,366 +574,366 @@
     <t>saṃvara 2</t>
   </si>
   <si>
+    <t>magga 1</t>
+  </si>
+  <si>
+    <t>rāhula</t>
+  </si>
+  <si>
+    <t>putta 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.03</t>
+  </si>
+  <si>
+    <t>ñāya</t>
+  </si>
+  <si>
+    <t>tathāgata</t>
+  </si>
+  <si>
+    <t>khandha 3</t>
+  </si>
+  <si>
+    <t>loma 1</t>
+  </si>
+  <si>
+    <t>khandha 1</t>
+  </si>
+  <si>
+    <t>vaccha 1.1</t>
+  </si>
+  <si>
+    <t>saṅkhāra 3</t>
+  </si>
+  <si>
+    <t>sāra 2</t>
+  </si>
+  <si>
+    <t>attha 1.1</t>
+  </si>
+  <si>
+    <t>sāriputta</t>
+  </si>
+  <si>
+    <t>khattiya 2</t>
+  </si>
+  <si>
+    <t>uposatha 1</t>
+  </si>
+  <si>
+    <t>puthujjana</t>
+  </si>
+  <si>
+    <t>satta 2.1</t>
+  </si>
+  <si>
+    <t>samatikkama</t>
+  </si>
+  <si>
+    <t>antarāya</t>
+  </si>
+  <si>
+    <t>upasama</t>
+  </si>
+  <si>
+    <t>bheda 2</t>
+  </si>
+  <si>
+    <t>dhamma 1.06</t>
+  </si>
+  <si>
+    <t>chanda 2</t>
+  </si>
+  <si>
+    <t>parikkhāra 1</t>
+  </si>
+  <si>
+    <t>paccaya 1</t>
+  </si>
+  <si>
+    <t>patha 2</t>
+  </si>
+  <si>
+    <t>ānanda 2</t>
+  </si>
+  <si>
+    <t>kāya 1.2</t>
+  </si>
+  <si>
+    <t>bhoga 1.1</t>
+  </si>
+  <si>
+    <t>vasa 1.2</t>
+  </si>
+  <si>
+    <t>daṇḍa 1</t>
+  </si>
+  <si>
+    <t>abyāpāda</t>
+  </si>
+  <si>
+    <t>passāva</t>
+  </si>
+  <si>
+    <t>uccāra</t>
+  </si>
+  <si>
+    <t>hattha 1</t>
+  </si>
+  <si>
+    <t>niraya</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 1</t>
+  </si>
+  <si>
+    <t>samaṇa 1</t>
+  </si>
+  <si>
+    <t>vinipāta</t>
+  </si>
+  <si>
+    <t>māna 1.1</t>
+  </si>
+  <si>
+    <t>purisa 1</t>
+  </si>
+  <si>
+    <t>bhava 2</t>
+  </si>
+  <si>
+    <t>moha 1</t>
+  </si>
+  <si>
+    <t>dosa 1</t>
+  </si>
+  <si>
+    <t>manasikāra</t>
+  </si>
+  <si>
+    <t>attha 1.2</t>
+  </si>
+  <si>
+    <t>rasa 1</t>
+  </si>
+  <si>
+    <t>paccaya 2</t>
+  </si>
+  <si>
+    <t>upāyāsa</t>
+  </si>
+  <si>
+    <t>parideva</t>
+  </si>
+  <si>
+    <t>soka</t>
+  </si>
+  <si>
+    <t>nara</t>
+  </si>
+  <si>
+    <t>ācariya 1</t>
+  </si>
+  <si>
+    <t>upajjhāya</t>
+  </si>
+  <si>
+    <t>virāga 1.1</t>
+  </si>
+  <si>
+    <t>sekha</t>
+  </si>
+  <si>
+    <t>dhamma 1.02</t>
+  </si>
+  <si>
+    <t>āsava 2</t>
+  </si>
+  <si>
+    <t>samatha 1.1</t>
+  </si>
+  <si>
+    <t>loka 1</t>
+  </si>
+  <si>
+    <t>pallaṅka 2</t>
+  </si>
+  <si>
+    <t>rukkha</t>
+  </si>
+  <si>
+    <t>kāya 1.1</t>
+  </si>
+  <si>
+    <t>deva 1</t>
+  </si>
+  <si>
+    <t>sāvaka</t>
+  </si>
+  <si>
+    <t>anusaya</t>
+  </si>
+  <si>
+    <t>virāga 2.1</t>
+  </si>
+  <si>
+    <t>gandha 1</t>
+  </si>
+  <si>
+    <t>ārāma 3</t>
+  </si>
+  <si>
+    <t>samaya 1.1</t>
+  </si>
+  <si>
+    <t>dhamma 1.14</t>
+  </si>
+  <si>
+    <t>saṅgha 1</t>
+  </si>
+  <si>
+    <t>sīha 1</t>
+  </si>
+  <si>
+    <t>ogha 1</t>
+  </si>
+  <si>
+    <t>dhamma 1.05</t>
+  </si>
+  <si>
+    <t>āhāra 1</t>
+  </si>
+  <si>
+    <t>bheda 1</t>
+  </si>
+  <si>
+    <t>māṇava</t>
+  </si>
+  <si>
+    <t>kāma 3</t>
+  </si>
+  <si>
+    <t>uddesa 1</t>
+  </si>
+  <si>
+    <t>ānisaṃsa 1</t>
+  </si>
+  <si>
+    <t>sambodha</t>
+  </si>
+  <si>
+    <t>brāhmaṇa 2</t>
+  </si>
+  <si>
+    <t>sota 1.1</t>
+  </si>
+  <si>
+    <t>apāya 1</t>
+  </si>
+  <si>
+    <t>bojjhaṅga</t>
+  </si>
+  <si>
+    <t>māra</t>
+  </si>
+  <si>
+    <t>sakuṇa</t>
+  </si>
+  <si>
+    <t>vipāka 1</t>
+  </si>
+  <si>
+    <t>patta 1.1</t>
+  </si>
+  <si>
+    <t>nīvaraṇa 1</t>
+  </si>
+  <si>
+    <t>loka 2</t>
+  </si>
+  <si>
+    <t>danta 1.1</t>
+  </si>
+  <si>
+    <t>satipaṭṭhāna 1</t>
+  </si>
+  <si>
+    <t>samudda</t>
+  </si>
+  <si>
+    <t>asura</t>
+  </si>
+  <si>
+    <t>kesa</t>
+  </si>
+  <si>
+    <t>pāda 1</t>
+  </si>
+  <si>
+    <t>magga 2</t>
+  </si>
+  <si>
+    <t>saṅkhāra 1</t>
+  </si>
+  <si>
+    <t>phassa 1</t>
+  </si>
+  <si>
+    <t>visesa 1</t>
+  </si>
+  <si>
+    <t>pañha 2</t>
+  </si>
+  <si>
+    <t>sahāya</t>
+  </si>
+  <si>
+    <t>paribbājaka</t>
+  </si>
+  <si>
+    <t>āvāsa 1</t>
+  </si>
+  <si>
+    <t>viveka 1</t>
+  </si>
+  <si>
+    <t>chanda 1</t>
+  </si>
+  <si>
+    <t>vūpasama 1</t>
+  </si>
+  <si>
+    <t>uppāda 1.1</t>
+  </si>
+  <si>
+    <t>vitakka 1</t>
+  </si>
+  <si>
+    <t>paṭinissagga</t>
+  </si>
+  <si>
+    <t>pamāda</t>
+  </si>
+  <si>
+    <t>nissaya 1</t>
+  </si>
+  <si>
+    <t>nirodha</t>
+  </si>
+  <si>
+    <t>khaya</t>
+  </si>
+  <si>
+    <t>byāpāda</t>
+  </si>
+  <si>
+    <t>attha 2.1</t>
+  </si>
+  <si>
     <t>adhigama 1</t>
   </si>
   <si>
-    <t>magga 1</t>
-  </si>
-  <si>
-    <t>rāhula</t>
-  </si>
-  <si>
-    <t>putta 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.03</t>
-  </si>
-  <si>
-    <t>ñāya</t>
-  </si>
-  <si>
-    <t>tathāgata</t>
-  </si>
-  <si>
-    <t>khandha 3</t>
-  </si>
-  <si>
-    <t>loma 1</t>
-  </si>
-  <si>
-    <t>khandha 1</t>
-  </si>
-  <si>
-    <t>vaccha 1.1</t>
-  </si>
-  <si>
-    <t>saṅkhāra 3</t>
-  </si>
-  <si>
-    <t>sāra 2</t>
-  </si>
-  <si>
-    <t>attha 1.1</t>
-  </si>
-  <si>
-    <t>sāriputta</t>
-  </si>
-  <si>
-    <t>khattiya 2</t>
-  </si>
-  <si>
-    <t>uposatha 1</t>
-  </si>
-  <si>
-    <t>puthujjana</t>
-  </si>
-  <si>
-    <t>satta 2.1</t>
-  </si>
-  <si>
-    <t>samatikkama</t>
-  </si>
-  <si>
-    <t>antarāya</t>
-  </si>
-  <si>
-    <t>upasama</t>
-  </si>
-  <si>
-    <t>bheda 2</t>
-  </si>
-  <si>
-    <t>dhamma 1.06</t>
-  </si>
-  <si>
-    <t>chanda 2</t>
-  </si>
-  <si>
-    <t>parikkhāra 1</t>
-  </si>
-  <si>
-    <t>paccaya 1</t>
-  </si>
-  <si>
-    <t>patha 2</t>
-  </si>
-  <si>
-    <t>ānanda 2</t>
-  </si>
-  <si>
-    <t>kāya 1.2</t>
-  </si>
-  <si>
-    <t>bhoga 1.1</t>
-  </si>
-  <si>
-    <t>vasa 1.2</t>
-  </si>
-  <si>
-    <t>daṇḍa 1</t>
-  </si>
-  <si>
-    <t>abyāpāda</t>
-  </si>
-  <si>
-    <t>passāva</t>
-  </si>
-  <si>
-    <t>uccāra</t>
-  </si>
-  <si>
-    <t>hattha 1</t>
-  </si>
-  <si>
-    <t>niraya</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 1</t>
-  </si>
-  <si>
-    <t>samaṇa 1</t>
-  </si>
-  <si>
-    <t>vinipāta</t>
-  </si>
-  <si>
-    <t>māna 1.1</t>
-  </si>
-  <si>
-    <t>purisa 1</t>
-  </si>
-  <si>
-    <t>saṅgha 1</t>
-  </si>
-  <si>
-    <t>bhava 2</t>
-  </si>
-  <si>
-    <t>moha 1</t>
-  </si>
-  <si>
-    <t>dosa 1</t>
-  </si>
-  <si>
-    <t>manasikāra</t>
-  </si>
-  <si>
-    <t>attha 1.2</t>
-  </si>
-  <si>
-    <t>rasa 1</t>
-  </si>
-  <si>
-    <t>paccaya 2</t>
-  </si>
-  <si>
-    <t>upāyāsa</t>
-  </si>
-  <si>
-    <t>parideva</t>
-  </si>
-  <si>
-    <t>soka</t>
-  </si>
-  <si>
-    <t>nara</t>
-  </si>
-  <si>
-    <t>ācariya 1</t>
-  </si>
-  <si>
-    <t>upajjhāya</t>
-  </si>
-  <si>
-    <t>virāga 1.1</t>
-  </si>
-  <si>
-    <t>sekha</t>
-  </si>
-  <si>
-    <t>dhamma 1.02</t>
-  </si>
-  <si>
-    <t>āsava 2</t>
-  </si>
-  <si>
-    <t>samatha 1.1</t>
-  </si>
-  <si>
-    <t>loka 1</t>
-  </si>
-  <si>
-    <t>pallaṅka 2</t>
-  </si>
-  <si>
-    <t>rukkha</t>
-  </si>
-  <si>
-    <t>kāya 1.1</t>
-  </si>
-  <si>
-    <t>deva 1</t>
-  </si>
-  <si>
-    <t>sāvaka</t>
-  </si>
-  <si>
-    <t>anusaya</t>
-  </si>
-  <si>
-    <t>virāga 2.1</t>
-  </si>
-  <si>
-    <t>gandha 1</t>
-  </si>
-  <si>
-    <t>ārāma 3</t>
-  </si>
-  <si>
-    <t>samaya 1.1</t>
-  </si>
-  <si>
-    <t>dhamma 1.14</t>
-  </si>
-  <si>
-    <t>sīha 1</t>
-  </si>
-  <si>
-    <t>ogha 1</t>
-  </si>
-  <si>
-    <t>dhamma 1.05</t>
-  </si>
-  <si>
-    <t>āhāra 1</t>
-  </si>
-  <si>
-    <t>bheda 1</t>
-  </si>
-  <si>
-    <t>māṇava</t>
-  </si>
-  <si>
-    <t>kāma 3</t>
-  </si>
-  <si>
-    <t>uddesa 1</t>
-  </si>
-  <si>
-    <t>ānisaṃsa 1</t>
-  </si>
-  <si>
-    <t>sambodha</t>
-  </si>
-  <si>
-    <t>brāhmaṇa 2</t>
-  </si>
-  <si>
-    <t>sota 1.1</t>
-  </si>
-  <si>
-    <t>apāya 1</t>
-  </si>
-  <si>
-    <t>bojjhaṅga</t>
-  </si>
-  <si>
-    <t>māra</t>
-  </si>
-  <si>
-    <t>sakuṇa</t>
-  </si>
-  <si>
-    <t>vipāka 1</t>
-  </si>
-  <si>
-    <t>patta 1.1</t>
-  </si>
-  <si>
-    <t>nīvaraṇa 1</t>
-  </si>
-  <si>
-    <t>loka 2</t>
-  </si>
-  <si>
-    <t>danta 1.1</t>
-  </si>
-  <si>
-    <t>satipaṭṭhāna 1</t>
-  </si>
-  <si>
-    <t>samudda</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>kesa</t>
-  </si>
-  <si>
-    <t>pāda 1</t>
-  </si>
-  <si>
-    <t>magga 2</t>
-  </si>
-  <si>
-    <t>saṅkhāra 1</t>
-  </si>
-  <si>
-    <t>phassa 1</t>
-  </si>
-  <si>
-    <t>visesa 1</t>
-  </si>
-  <si>
-    <t>pañha 2</t>
-  </si>
-  <si>
-    <t>sahāya</t>
-  </si>
-  <si>
-    <t>paribbājaka</t>
-  </si>
-  <si>
-    <t>āvāsa 1</t>
-  </si>
-  <si>
-    <t>viveka 1</t>
-  </si>
-  <si>
-    <t>chanda 1</t>
-  </si>
-  <si>
-    <t>vūpasama 1</t>
-  </si>
-  <si>
-    <t>uppāda 1.1</t>
-  </si>
-  <si>
-    <t>vitakka 1</t>
-  </si>
-  <si>
-    <t>paṭinissagga</t>
-  </si>
-  <si>
-    <t>pamāda</t>
-  </si>
-  <si>
-    <t>nissaya 1</t>
-  </si>
-  <si>
-    <t>nirodha</t>
-  </si>
-  <si>
-    <t>khaya</t>
-  </si>
-  <si>
-    <t>byāpāda</t>
-  </si>
-  <si>
-    <t>attha 2.1</t>
-  </si>
-  <si>
     <t>anālaya 1</t>
   </si>
   <si>
@@ -1057,6 +1057,9 @@
     <t>ākaṅkhati</t>
   </si>
   <si>
+    <t>nisīdati</t>
+  </si>
+  <si>
     <t>gaṇhati 1</t>
   </si>
   <si>
@@ -1093,15 +1096,15 @@
     <t>gacchati 1</t>
   </si>
   <si>
+    <t>vāyamati</t>
+  </si>
+  <si>
+    <t>adhigacchati</t>
+  </si>
+  <si>
     <t>padahati 1</t>
   </si>
   <si>
-    <t>vāyamati</t>
-  </si>
-  <si>
-    <t>adhigacchati</t>
-  </si>
-  <si>
     <t>pavisati</t>
   </si>
   <si>
@@ -1147,9 +1150,6 @@
     <t>tiṭṭhati 3</t>
   </si>
   <si>
-    <t>nisīdati</t>
-  </si>
-  <si>
     <t>pakkhandati 1</t>
   </si>
   <si>
@@ -1270,6 +1270,9 @@
     <t>upapajjati 1</t>
   </si>
   <si>
+    <t>maññati 1</t>
+  </si>
+  <si>
     <t>jhāyati 2</t>
   </si>
   <si>
@@ -1282,9 +1285,6 @@
     <t>āpajjati 5</t>
   </si>
   <si>
-    <t>maññati 1</t>
-  </si>
-  <si>
     <t>atthi 1</t>
   </si>
   <si>
@@ -1456,24 +1456,24 @@
     <t>me 3</t>
   </si>
   <si>
+    <t>no 2.4</t>
+  </si>
+  <si>
+    <t>maṃ 1</t>
+  </si>
+  <si>
+    <t>mayā 1</t>
+  </si>
+  <si>
+    <t>amhākaṃ 3</t>
+  </si>
+  <si>
+    <t>me 2</t>
+  </si>
+  <si>
     <t>mayaṃ</t>
   </si>
   <si>
-    <t>no 2.4</t>
-  </si>
-  <si>
-    <t>maṃ 1</t>
-  </si>
-  <si>
-    <t>mayā 1</t>
-  </si>
-  <si>
-    <t>amhākaṃ 3</t>
-  </si>
-  <si>
-    <t>me 2</t>
-  </si>
-  <si>
     <t>sobhati 2</t>
   </si>
   <si>
@@ -1633,15 +1633,15 @@
     <t>assutavant</t>
   </si>
   <si>
+    <t>cakkhumant 2</t>
+  </si>
+  <si>
     <t>āyasmant 1</t>
   </si>
   <si>
     <t>bhagavant 1</t>
   </si>
   <si>
-    <t>cakkhumant 2</t>
-  </si>
-  <si>
     <t>akkhātar</t>
   </si>
   <si>
@@ -1936,6 +1936,12 @@
     <t>samādāya 2</t>
   </si>
   <si>
+    <t>upasampajja 1</t>
+  </si>
+  <si>
+    <t>paṇidhāya 1</t>
+  </si>
+  <si>
     <t>āgamma 1</t>
   </si>
   <si>
@@ -1948,15 +1954,9 @@
     <t>uṭṭhāya</t>
   </si>
   <si>
-    <t>upasampajja 1</t>
-  </si>
-  <si>
     <t>nisajja</t>
   </si>
   <si>
-    <t>paṇidhāya 1</t>
-  </si>
-  <si>
     <t>vivicca</t>
   </si>
   <si>
@@ -2017,18 +2017,18 @@
     <t>tattha 1</t>
   </si>
   <si>
+    <t>tattha 2</t>
+  </si>
+  <si>
+    <t>tatra 1</t>
+  </si>
+  <si>
+    <t>ettha 1</t>
+  </si>
+  <si>
     <t>yato 2</t>
   </si>
   <si>
-    <t>tattha 2</t>
-  </si>
-  <si>
-    <t>tatra 1</t>
-  </si>
-  <si>
-    <t>ettha 1</t>
-  </si>
-  <si>
     <t>upari 1</t>
   </si>
   <si>
@@ -2155,6 +2155,9 @@
     <t>sarīra 1</t>
   </si>
   <si>
+    <t>vajja 3</t>
+  </si>
+  <si>
     <t>adinna 1</t>
   </si>
   <si>
@@ -2293,9 +2296,6 @@
     <t>bala 2</t>
   </si>
   <si>
-    <t>vajja 3</t>
-  </si>
-  <si>
     <t>dukkha 3</t>
   </si>
   <si>
@@ -2710,6 +2710,9 @@
     <t>got; acquired; attained; achieved; lit. arrived at</t>
   </si>
   <si>
+    <t>practised; rehearsed; consolidated; familiarized; lit. piled up; accumulated</t>
+  </si>
+  <si>
     <t>satisfied; pleased; content; happy with</t>
   </si>
   <si>
@@ -2746,9 +2749,6 @@
     <t>abandoned; dispelled; eliminated; removed; given up</t>
   </si>
   <si>
-    <t>practised; rehearsed; consolidated; familiarized; lit. piled up; accumulated</t>
-  </si>
-  <si>
     <t>asked; questioned</t>
   </si>
   <si>
@@ -2779,12 +2779,12 @@
     <t>fulfilled; completed; finished; lit. lived</t>
   </si>
   <si>
+    <t>mental poised; mentally balanced; equanimous; non-reactive; looking on; disregarding; lit. onlooker</t>
+  </si>
+  <si>
     <t>bad; wicked; evil; wrong; worthless; harmful</t>
   </si>
   <si>
-    <t>mental poised; mentally balanced; equanimous; non-reactive; looking on; disregarding; lit. onlooker</t>
-  </si>
-  <si>
     <t>big; great; large; grand; vast; extensive</t>
   </si>
   <si>
@@ -2965,363 +2965,363 @@
     <t>control (over); restraint (of); holding back (of)</t>
   </si>
   <si>
+    <t>road; path; track; way</t>
+  </si>
+  <si>
+    <t>name of a monk; Buddha's son</t>
+  </si>
+  <si>
+    <t>son; child</t>
+  </si>
+  <si>
+    <t>teaching; discourse; doctrine</t>
+  </si>
+  <si>
+    <t>method; system; means; way</t>
+  </si>
+  <si>
+    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
+  </si>
+  <si>
+    <t>aggregate; combination; conglomeration</t>
+  </si>
+  <si>
+    <t>body hair</t>
+  </si>
+  <si>
+    <t>mass; heap; pile; volume</t>
+  </si>
+  <si>
+    <t>calf; yearling; young animal</t>
+  </si>
+  <si>
+    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
+  </si>
+  <si>
+    <t>core; essence; substance; value</t>
+  </si>
+  <si>
+    <t>meaning; sense; significance</t>
+  </si>
+  <si>
+    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
+  </si>
+  <si>
+    <t>man of the ruling caste; high caste man; nobleman</t>
+  </si>
+  <si>
+    <t>full moon or new moon observance day</t>
+  </si>
+  <si>
+    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
+  </si>
+  <si>
+    <t>being; living being; creature</t>
+  </si>
+  <si>
+    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
+  </si>
+  <si>
+    <t>obstacle (for); danger (for); lit. coming in-between</t>
+  </si>
+  <si>
+    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
+  </si>
+  <si>
+    <t>(vinaya) schism; split; breakup</t>
+  </si>
+  <si>
+    <t>matter; thing; phenomena</t>
+  </si>
+  <si>
+    <t>(vinaya) consent; agreement; approval</t>
+  </si>
+  <si>
+    <t>requisite; requirement; necessity; accessory; everyday item</t>
+  </si>
+  <si>
+    <t>support; requisite; necessity</t>
+  </si>
+  <si>
+    <t>range; mode; way</t>
+  </si>
+  <si>
+    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
+  </si>
+  <si>
+    <t>group; host; company; collection; multitude; mass</t>
+  </si>
+  <si>
+    <t>wealth; possessions; property; riches</t>
+  </si>
+  <si>
+    <t>control (over); authority (over); power (over); mastery (over)</t>
+  </si>
+  <si>
+    <t>stick; truncheon; nightstick; club</t>
+  </si>
+  <si>
+    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
+  </si>
+  <si>
+    <t>urine</t>
+  </si>
+  <si>
+    <t>excrement; faeces</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell; hell realm; lit. no good fortune</t>
+  </si>
+  <si>
+    <t>Brahman; priest; man of the Brahman caste</t>
+  </si>
+  <si>
+    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
+  </si>
+  <si>
+    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
+  </si>
+  <si>
+    <t>pride; conceit; egotism; superiority; comparing oneself</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>being; becoming; existence</t>
+  </si>
+  <si>
+    <t>illusion; delusion; hallucination</t>
+  </si>
+  <si>
+    <t>aversion; ill-will; hate; hatred</t>
+  </si>
+  <si>
+    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
+  </si>
+  <si>
+    <t>benefit; profit; good; welfare; goal</t>
+  </si>
+  <si>
+    <t>taste; flavour</t>
+  </si>
+  <si>
+    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
+  </si>
+  <si>
+    <t>affliction; difficulty; trouble</t>
+  </si>
+  <si>
+    <t>lamentation; wailing; crying</t>
+  </si>
+  <si>
+    <t>grief; sorrow; sadness</t>
+  </si>
+  <si>
+    <t>teacher; religious leader</t>
+  </si>
+  <si>
+    <t>preceptor; teacher</t>
+  </si>
+  <si>
+    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
+  </si>
+  <si>
+    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
+  </si>
+  <si>
+    <t>quality; characteristic; trait; inherent quality</t>
+  </si>
+  <si>
+    <t>discharge; suppuration; outflow; effluent</t>
+  </si>
+  <si>
+    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
+  </si>
+  <si>
+    <t>world; universe; cosmos</t>
+  </si>
+  <si>
+    <t>cross-legged sitting position; meditation posture</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>body; physical body; physical process</t>
+  </si>
+  <si>
+    <t>deity; god</t>
+  </si>
+  <si>
+    <t>disciple; pupil; follower; lit. hearer</t>
+  </si>
+  <si>
+    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
+  </si>
+  <si>
+    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
+  </si>
+  <si>
+    <t>smell; scent; odour</t>
+  </si>
+  <si>
+    <t>park; parkland; nature reserve</t>
+  </si>
+  <si>
+    <t>time; occasion; lit. come together</t>
+  </si>
+  <si>
+    <t>act; practice</t>
+  </si>
+  <si>
+    <t>community; monastic order; assembly of monks</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>(of water) flood; deluge; torrent</t>
+  </si>
+  <si>
+    <t>mental states</t>
+  </si>
+  <si>
+    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
+  </si>
+  <si>
+    <t>death; lit. breakup</t>
+  </si>
+  <si>
+    <t>young man; young gentleman; young Brahman</t>
+  </si>
+  <si>
+    <t>sense desire (of); sensual pleasure (of)</t>
+  </si>
+  <si>
+    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
+  </si>
+  <si>
+    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
+  </si>
+  <si>
+    <t>enlightenment; full awakening; perfect understanding</t>
+  </si>
+  <si>
+    <t>arahant; enlightened being; saint; paragon</t>
+  </si>
+  <si>
+    <t>stream; river; current</t>
+  </si>
+  <si>
+    <t>state of loss; state of misery; lit. going away</t>
+  </si>
+  <si>
+    <t>element of awakening; factor of enlightenment</t>
+  </si>
+  <si>
+    <t>death; Death; death personified</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
+  </si>
+  <si>
+    <t>bowl; alms bowl; begging bowl</t>
+  </si>
+  <si>
+    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
+  </si>
+  <si>
+    <t>world; plane of existence</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>attending mindfully; being present with mindfulness</t>
+  </si>
+  <si>
+    <t>sea; ocean</t>
+  </si>
+  <si>
+    <t>titan; enemy of the devas; lit. anti-hero</t>
+  </si>
+  <si>
+    <t>(head) hair</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>way; means; method</t>
+  </si>
+  <si>
+    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
+  </si>
+  <si>
+    <t>contact; sense impingement; raw experience; touch</t>
+  </si>
+  <si>
+    <t>distinction; attainment; superior state; eminence</t>
+  </si>
+  <si>
+    <t>question; enquiry</t>
+  </si>
+  <si>
+    <t>friend; companion; ally; fellow traveller; lit. going with</t>
+  </si>
+  <si>
+    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
+  </si>
+  <si>
+    <t>home (of); dwelling place (of); residence (of)</t>
+  </si>
+  <si>
+    <t>seclusion; solitude; detachment; disengagement; independence</t>
+  </si>
+  <si>
+    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
+  </si>
+  <si>
+    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
+  </si>
+  <si>
+    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
+  </si>
+  <si>
+    <t>thought; reflection; pondering</t>
+  </si>
+  <si>
+    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
+  </si>
+  <si>
+    <t>carelessness; negligence; heedlessness</t>
+  </si>
+  <si>
+    <t>dependency; physical support; reliance; something one depends on</t>
+  </si>
+  <si>
+    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
+  </si>
+  <si>
+    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
+  </si>
+  <si>
+    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
+  </si>
+  <si>
+    <t>need (for); want (for); lit. want</t>
+  </si>
+  <si>
     <t>discovery (of); finding (of); attainment (of); achievement (of); lit. arrival</t>
   </si>
   <si>
-    <t>road; path; track; way</t>
-  </si>
-  <si>
-    <t>name of a monk; Buddha's son</t>
-  </si>
-  <si>
-    <t>son; child</t>
-  </si>
-  <si>
-    <t>teaching; discourse; doctrine</t>
-  </si>
-  <si>
-    <t>method; system; means; way</t>
-  </si>
-  <si>
-    <t>Such Become; Realised; being in such a state; arrived at the truth; epithet of the Buddha</t>
-  </si>
-  <si>
-    <t>aggregate; combination; conglomeration</t>
-  </si>
-  <si>
-    <t>body hair</t>
-  </si>
-  <si>
-    <t>mass; heap; pile; volume</t>
-  </si>
-  <si>
-    <t>calf; yearling; young animal</t>
-  </si>
-  <si>
-    <t>mental formation; mental activity; thought processes; fourth of the five aggregates; lit. making together</t>
-  </si>
-  <si>
-    <t>core; essence; substance; value</t>
-  </si>
-  <si>
-    <t>meaning; sense; significance</t>
-  </si>
-  <si>
-    <t>name of a monk; chief disciple; great disciple of the Buddha; foremost disciple in great wisdom; lit. son of Sāri</t>
-  </si>
-  <si>
-    <t>man of the ruling caste; high caste man; nobleman</t>
-  </si>
-  <si>
-    <t>full moon or new moon observance day</t>
-  </si>
-  <si>
-    <t>common man; ordinary man; normal person; man in the street; lit. individual person</t>
-  </si>
-  <si>
-    <t>being; living being; creature</t>
-  </si>
-  <si>
-    <t>surpassing (of); overcoming (of); going beyond; transcendence</t>
-  </si>
-  <si>
-    <t>obstacle (for); danger (for); lit. coming in-between</t>
-  </si>
-  <si>
-    <t>calmness (of); tranquillisation (of); stillness (of); peace (of)</t>
-  </si>
-  <si>
-    <t>(vinaya) schism; split; breakup</t>
-  </si>
-  <si>
-    <t>matter; thing; phenomena</t>
-  </si>
-  <si>
-    <t>(vinaya) consent; agreement; approval</t>
-  </si>
-  <si>
-    <t>requisite; requirement; necessity; accessory; everyday item</t>
-  </si>
-  <si>
-    <t>support; requisite; necessity</t>
-  </si>
-  <si>
-    <t>range; mode; way</t>
-  </si>
-  <si>
-    <t>name of the Buddha's attendant; great disciple of the Buddha; foremost disciple in great learning, remembrance, conduct, resoluteness and service; lit. happiness</t>
-  </si>
-  <si>
-    <t>group; host; company; collection; multitude; mass</t>
-  </si>
-  <si>
-    <t>wealth; possessions; property; riches</t>
-  </si>
-  <si>
-    <t>control (over); authority (over); power (over); mastery (over)</t>
-  </si>
-  <si>
-    <t>stick; truncheon; nightstick; club</t>
-  </si>
-  <si>
-    <t>goodwill; kindness; friendliness; benevolence; lit. not ill-will</t>
-  </si>
-  <si>
-    <t>urine</t>
-  </si>
-  <si>
-    <t>excrement; faeces</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hell; hell realm; lit. no good fortune</t>
-  </si>
-  <si>
-    <t>Brahman; priest; man of the Brahman caste</t>
-  </si>
-  <si>
-    <t>ascetic; renunciant; holy man; monk; recluse; lit. who makes an effort; calm one</t>
-  </si>
-  <si>
-    <t>state of suffering; purgatory; underworld; lit. bad fall</t>
-  </si>
-  <si>
-    <t>pride; conceit; egotism; superiority; comparing oneself</t>
-  </si>
-  <si>
-    <t>man; person</t>
-  </si>
-  <si>
-    <t>community; monastic order; assembly of monks</t>
-  </si>
-  <si>
-    <t>being; becoming; existence</t>
-  </si>
-  <si>
-    <t>illusion; delusion; hallucination</t>
-  </si>
-  <si>
-    <t>aversion; ill-will; hate; hatred</t>
-  </si>
-  <si>
-    <t>attention; bringing-to-mind; observation; noticing; focussing; lit. making in mind</t>
-  </si>
-  <si>
-    <t>benefit; profit; good; welfare; goal</t>
-  </si>
-  <si>
-    <t>taste; flavour</t>
-  </si>
-  <si>
-    <t>cause (for); reason (for); supporting condition (for); requirement (for)</t>
-  </si>
-  <si>
-    <t>affliction; difficulty; trouble</t>
-  </si>
-  <si>
-    <t>lamentation; wailing; crying</t>
-  </si>
-  <si>
-    <t>grief; sorrow; sadness</t>
-  </si>
-  <si>
-    <t>teacher; religious leader</t>
-  </si>
-  <si>
-    <t>preceptor; teacher</t>
-  </si>
-  <si>
-    <t>fading of desire (for); dispassion (towards); detachment (from); indifference (to)</t>
-  </si>
-  <si>
-    <t>trainee; apprentice; learner: (comm) seven stages of a noble person before arahantship</t>
-  </si>
-  <si>
-    <t>quality; characteristic; trait; inherent quality</t>
-  </si>
-  <si>
-    <t>discharge; suppuration; outflow; effluent</t>
-  </si>
-  <si>
-    <t>stilling (of); serenity (of); calming (of); settling (of); peace (of); (comm) mental unification</t>
-  </si>
-  <si>
-    <t>world; universe; cosmos</t>
-  </si>
-  <si>
-    <t>cross-legged sitting position; meditation posture</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>body; physical body; physical process</t>
-  </si>
-  <si>
-    <t>deity; god</t>
-  </si>
-  <si>
-    <t>disciple; pupil; follower; lit. hearer</t>
-  </si>
-  <si>
-    <t>underlying tendency (to); inherent inclination (to); dormant disposition (towards); lit. sleeping alongside</t>
-  </si>
-  <si>
-    <t>fading (of); disappearance (of); cessation (of); destruction (of)</t>
-  </si>
-  <si>
-    <t>smell; scent; odour</t>
-  </si>
-  <si>
-    <t>park; parkland; nature reserve</t>
-  </si>
-  <si>
-    <t>time; occasion; lit. come together</t>
-  </si>
-  <si>
-    <t>act; practice</t>
-  </si>
-  <si>
-    <t>lion</t>
-  </si>
-  <si>
-    <t>(of water) flood; deluge; torrent</t>
-  </si>
-  <si>
-    <t>mental states</t>
-  </si>
-  <si>
-    <t>food (for); fuel (for); sustenance (for); nutriment (for); (comm) condition</t>
-  </si>
-  <si>
-    <t>death; lit. breakup</t>
-  </si>
-  <si>
-    <t>young man; young gentleman; young Brahman</t>
-  </si>
-  <si>
-    <t>sense desire (of); sensual pleasure (of)</t>
-  </si>
-  <si>
-    <t>proposition; synopsis; statement in brief; summary; introduction; lit. pointing up</t>
-  </si>
-  <si>
-    <t>profit (in); benefit (in); advantage (of); good result (of)</t>
-  </si>
-  <si>
-    <t>enlightenment; full awakening; perfect understanding</t>
-  </si>
-  <si>
-    <t>arahant; enlightened being; saint; paragon</t>
-  </si>
-  <si>
-    <t>stream; river; current</t>
-  </si>
-  <si>
-    <t>state of loss; state of misery; lit. going away</t>
-  </si>
-  <si>
-    <t>element of awakening; factor of enlightenment</t>
-  </si>
-  <si>
-    <t>death; Death; death personified</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>(of actions) result; outcome; consequence; fruit; lit. ripening</t>
-  </si>
-  <si>
-    <t>bowl; alms bowl; begging bowl</t>
-  </si>
-  <si>
-    <t>obstacle; obstruction; barrier; hindrance; lit. blocking</t>
-  </si>
-  <si>
-    <t>world; plane of existence</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>attending mindfully; being present with mindfulness</t>
-  </si>
-  <si>
-    <t>sea; ocean</t>
-  </si>
-  <si>
-    <t>titan; enemy of the devas; lit. anti-hero</t>
-  </si>
-  <si>
-    <t>(head) hair</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>way; means; method</t>
-  </si>
-  <si>
-    <t>intention; volitional formation; choice; karmic activity; lit. making together</t>
-  </si>
-  <si>
-    <t>contact; sense impingement; raw experience; touch</t>
-  </si>
-  <si>
-    <t>distinction; attainment; superior state; eminence</t>
-  </si>
-  <si>
-    <t>question; enquiry</t>
-  </si>
-  <si>
-    <t>friend; companion; ally; fellow traveller; lit. going with</t>
-  </si>
-  <si>
-    <t>homeless spiritual seeker; wandering ascetic; lit. who goes around</t>
-  </si>
-  <si>
-    <t>home (of); dwelling place (of); residence (of)</t>
-  </si>
-  <si>
-    <t>seclusion; solitude; detachment; disengagement; independence</t>
-  </si>
-  <si>
-    <t>interest (in); desire (for); wish (for); intention (to); impulse (for)</t>
-  </si>
-  <si>
-    <t>peace (of); calming (of); subsiding (of); settling (of)</t>
-  </si>
-  <si>
-    <t>arising (of); appearing (of); coming into being (of); lit. fall up</t>
-  </si>
-  <si>
-    <t>thought; reflection; pondering</t>
-  </si>
-  <si>
-    <t>giving up (of); relinquishing (of); dropping (of); abandoning (of)</t>
-  </si>
-  <si>
-    <t>carelessness; negligence; heedlessness</t>
-  </si>
-  <si>
-    <t>dependency; physical support; reliance; something one depends on</t>
-  </si>
-  <si>
-    <t>ending (of); cessation (of); termination (of); finishing (of)</t>
-  </si>
-  <si>
-    <t>wearing away (of); exhaustion (of); erosion (of); depletion (of); slow destruction (of)</t>
-  </si>
-  <si>
-    <t>dislike; ill-will; hatred; hostility; enmity; malevolence; lit. going wrong</t>
-  </si>
-  <si>
-    <t>need (for); want (for); lit. want</t>
-  </si>
-  <si>
     <t>non-clinging; non-attachment; non-reliance; unstuck</t>
   </si>
   <si>
@@ -3445,6 +3445,9 @@
     <t>wishes (for); wants; desires; aspires (for)</t>
   </si>
   <si>
+    <t>sits (on); sits down (in)</t>
+  </si>
+  <si>
     <t>grabs hold (of); seizes; takes</t>
   </si>
   <si>
@@ -3481,15 +3484,15 @@
     <t>goes; walks; moves; wanders around</t>
   </si>
   <si>
+    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
+  </si>
+  <si>
+    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
+  </si>
+  <si>
     <t>exerts oneself; strives; applies oneself; endeavours; lit. put forward</t>
   </si>
   <si>
-    <t>tries (to); makes an effort (to); strives (for); exerts oneself (to)</t>
-  </si>
-  <si>
-    <t>gets to; attains; finds; acquires; obtains; lit. arrives at</t>
-  </si>
-  <si>
     <t>enters; goes (into)</t>
   </si>
   <si>
@@ -3535,9 +3538,6 @@
     <t>remains; persists; lasts; lit. stands</t>
   </si>
   <si>
-    <t>sits (on); sits down (in)</t>
-  </si>
-  <si>
     <t>takes to it; gets it; gains confidence; is inspired; is eager; lit. jumps forward</t>
   </si>
   <si>
@@ -3655,6 +3655,9 @@
     <t>is reborn (in); re-arises (in); lit. goes towards</t>
   </si>
   <si>
+    <t>thinks; imagines; conceives: presumes; supposes</t>
+  </si>
+  <si>
     <t>meditates; contemplates; lit. thinks</t>
   </si>
   <si>
@@ -3667,9 +3670,6 @@
     <t>causes; effects</t>
   </si>
   <si>
-    <t>thinks; imagines; conceives: presumes; supposes</t>
-  </si>
-  <si>
     <t>there is; there exists</t>
   </si>
   <si>
@@ -3841,24 +3841,24 @@
     <t>to me; for me</t>
   </si>
   <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>me (object)</t>
+  </si>
+  <si>
+    <t>by me; with me</t>
+  </si>
+  <si>
+    <t>our; of us; my (royal plural)</t>
+  </si>
+  <si>
+    <t>by me</t>
+  </si>
+  <si>
     <t>we; I (royal plural)</t>
   </si>
   <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>me (object)</t>
-  </si>
-  <si>
-    <t>by me; with me</t>
-  </si>
-  <si>
-    <t>our; of us; my (royal plural)</t>
-  </si>
-  <si>
-    <t>by me</t>
-  </si>
-  <si>
     <t>looks beautiful (in); lit. shines</t>
   </si>
   <si>
@@ -4018,15 +4018,15 @@
     <t>unlearned; untaught; uninitiated; untrained; lit. having not heard quality</t>
   </si>
   <si>
+    <t>person with sight; who can see; lit. having eyes quality</t>
+  </si>
+  <si>
     <t>venerable; reverend; lit. having age quality</t>
   </si>
   <si>
     <t>Sublime One; Blessed One; Fortunate One; Auspicious One; epithet of the Buddha; lit. having good fortune quality</t>
   </si>
   <si>
-    <t>person with sight; who can see; lit. having eyes quality</t>
-  </si>
-  <si>
     <t>speaker (of); who tells (about); who speaks (about); who expresses (about)</t>
   </si>
   <si>
@@ -4315,6 +4315,12 @@
     <t>undertaking; taking up; accepting</t>
   </si>
   <si>
+    <t>reaching; attaining; arriving at</t>
+  </si>
+  <si>
+    <t>guiding; directing; determining; setting; lit. placing forward</t>
+  </si>
+  <si>
     <t>coming (to); arriving (at); meeting (with)</t>
   </si>
   <si>
@@ -4327,15 +4333,9 @@
     <t>rising (from); emerging (from); getting up (from)</t>
   </si>
   <si>
-    <t>reaching; attaining; arriving at</t>
-  </si>
-  <si>
     <t>sitting down</t>
   </si>
   <si>
-    <t>guiding; directing; determining; setting; lit. placing forward</t>
-  </si>
-  <si>
     <t>separating (from); aloof (from)</t>
   </si>
   <si>
@@ -4396,15 +4396,15 @@
     <t>there; in that place</t>
   </si>
   <si>
+    <t>in that regard; in that case; regarding that matter</t>
+  </si>
+  <si>
+    <t>here; in this place; in this case; in this regard</t>
+  </si>
+  <si>
     <t>since; because; due to the fact that; lit. from which</t>
   </si>
   <si>
-    <t>in that regard; in that case; regarding that matter</t>
-  </si>
-  <si>
-    <t>here; in this place; in this case; in this regard</t>
-  </si>
-  <si>
     <t>above; overhead</t>
   </si>
   <si>
@@ -4531,6 +4531,9 @@
     <t>body</t>
   </si>
   <si>
+    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
+  </si>
+  <si>
     <t>which is not given; something not offered</t>
   </si>
   <si>
@@ -4667,9 +4670,6 @@
   </si>
   <si>
     <t>(Dhamma) power; strength</t>
-  </si>
-  <si>
-    <t>fault (of); error (of); mistake (of); lit. to be avoided</t>
   </si>
   <si>
     <t>discomfort; suffering; unease; unpleasantness; something unsatisfactory; trouble; a bummer; stress</t>
@@ -9325,7 +9325,7 @@
         <v>787</v>
       </c>
       <c r="C235" t="s">
-        <v>1035</v>
+        <v>1024</v>
       </c>
       <c r="D235" t="s">
         <v>1583</v>
@@ -9342,7 +9342,7 @@
         <v>787</v>
       </c>
       <c r="C236" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D236" t="s">
         <v>1583</v>
@@ -9359,7 +9359,7 @@
         <v>787</v>
       </c>
       <c r="C237" t="s">
-        <v>1025</v>
+        <v>1036</v>
       </c>
       <c r="D237" t="s">
         <v>1583</v>
@@ -15649,7 +15649,7 @@
         <v>795</v>
       </c>
       <c r="C607" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="D607" t="s">
         <v>1634</v>
@@ -16635,7 +16635,7 @@
         <v>789</v>
       </c>
       <c r="C665" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="D665" t="s">
         <v>789</v>
@@ -16652,7 +16652,7 @@
         <v>789</v>
       </c>
       <c r="C666" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="D666" t="s">
         <v>789</v>
